--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -131,9 +131,6 @@
     <t>10 µF P Capacitor</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Intersil/B43851A4106M</t>
-  </si>
-  <si>
     <t>Orders must be submitted by email by 10 AM on Tuesday to matthewb@duke.edu to be processed on Tuesday</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Microchip-Technology/PIC18F46K22-I-P</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/EEE-FK1E100R</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -325,6 +325,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,10 +358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -387,16 +394,17 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -806,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,12 +871,12 @@
       <c r="B3" s="7">
         <v>42631</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -938,13 +946,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="13">
         <v>1.73</v>
@@ -954,7 +962,7 @@
         <v>3.46</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -965,13 +973,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="14">
         <v>0.85</v>
@@ -981,7 +989,7 @@
         <v>1.7</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -992,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="14">
         <v>8.3699999999999992</v>
@@ -1008,9 +1016,9 @@
         <v>16.739999999999998</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1020,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="14">
         <v>5.53</v>
@@ -1036,9 +1044,9 @@
         <v>44.24</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1048,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="14">
         <v>19.84</v>
@@ -1075,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="14">
         <v>0.24</v>
@@ -1091,7 +1099,7 @@
         <v>0.24</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1102,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="14">
         <v>0.26</v>
@@ -1118,7 +1126,7 @@
         <v>0.26</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1129,13 +1137,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="14">
         <v>0.2</v>
@@ -1145,7 +1153,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1156,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>33</v>
@@ -1172,7 +1180,7 @@
         <v>0.8</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1183,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F16" s="14">
         <v>0.23</v>
@@ -1199,7 +1207,7 @@
         <v>0.92</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1210,13 +1218,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>67</v>
+      <c r="E17" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="14">
         <v>0.1</v>
@@ -1226,7 +1234,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1237,13 +1245,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>67</v>
+      <c r="E18" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="F18" s="14">
         <v>0.1</v>
@@ -1253,7 +1261,7 @@
         <v>0.4</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1264,13 +1272,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>67</v>
+      <c r="E19" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="F19" s="14">
         <v>0.1</v>
@@ -1280,7 +1288,7 @@
         <v>0.9</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1291,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>67</v>
+      <c r="E20" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="14">
         <v>0.11</v>
@@ -1307,7 +1315,7 @@
         <v>0.22</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,13 +1326,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>67</v>
+      <c r="E21" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="F21" s="14">
         <v>0.1</v>
@@ -1334,7 +1342,7 @@
         <v>0.4</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1345,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F22" s="14">
         <v>3.82</v>
@@ -1361,7 +1369,7 @@
         <v>3.82</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1392,8 +1400,9 @@
     <hyperlink ref="H21" r:id="rId13"/>
     <hyperlink ref="H14" r:id="rId14"/>
     <hyperlink ref="H22" r:id="rId15"/>
+    <hyperlink ref="H13" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Desktop/Duke/BME464/GitHub/Forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Desktop/Duke/BME464/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,15 +134,9 @@
     <t>Orders must be submitted by email by 10 AM on Tuesday to matthewb@duke.edu to be processed on Tuesday</t>
   </si>
   <si>
-    <t>ICL7660SIBAZ</t>
-  </si>
-  <si>
     <t>SOIC8</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Intersil/ICL7660SIBAZ</t>
-  </si>
-  <si>
     <t>L7805ACD2T-TRCV</t>
   </si>
   <si>
@@ -273,6 +267,12 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Panasonic/EEE-FK1E100R</t>
+  </si>
+  <si>
+    <t>TL7660CDR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TL7660CDR</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -946,23 +946,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="13">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" ref="G7:G10" si="0">B7*F7</f>
-        <v>3.46</v>
+        <v>2.62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -973,13 +973,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="14">
         <v>0.85</v>
@@ -989,7 +989,7 @@
         <v>1.7</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="14">
         <v>8.3699999999999992</v>
@@ -1016,7 +1016,7 @@
         <v>16.739999999999998</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="18"/>
     </row>
@@ -1028,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="14">
         <v>5.53</v>
@@ -1044,7 +1044,7 @@
         <v>44.24</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -1056,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="14">
         <v>19.84</v>
@@ -1083,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="14">
         <v>0.24</v>
@@ -1099,7 +1099,7 @@
         <v>0.24</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1110,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="14">
         <v>0.26</v>
@@ -1126,7 +1126,7 @@
         <v>0.26</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1137,13 +1137,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="14">
         <v>0.2</v>
@@ -1153,7 +1153,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>33</v>
@@ -1180,7 +1180,7 @@
         <v>0.8</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1191,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="14">
         <v>0.23</v>
@@ -1207,7 +1207,7 @@
         <v>0.92</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,13 +1218,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="14">
         <v>0.1</v>
@@ -1234,7 +1234,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1245,13 +1245,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="14">
         <v>0.1</v>
@@ -1261,7 +1261,7 @@
         <v>0.4</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1272,13 +1272,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="14">
         <v>0.1</v>
@@ -1288,7 +1288,7 @@
         <v>0.9</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="14">
         <v>0.11</v>
@@ -1315,7 +1315,7 @@
         <v>0.22</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,13 +1326,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" s="14">
         <v>0.1</v>
@@ -1342,7 +1342,7 @@
         <v>0.4</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="F22" s="14">
         <v>3.82</v>
@@ -1369,13 +1369,13 @@
         <v>3.82</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G31" s="14">
         <f>SUM(G7:G22)</f>
-        <v>118.78</v>
+        <v>117.94</v>
       </c>
     </row>
   </sheetData>
@@ -1389,18 +1389,18 @@
     <hyperlink ref="H10" r:id="rId2"/>
     <hyperlink ref="H9" r:id="rId3"/>
     <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H7" r:id="rId5"/>
-    <hyperlink ref="H12" r:id="rId6"/>
-    <hyperlink ref="H15" r:id="rId7"/>
-    <hyperlink ref="H16" r:id="rId8"/>
-    <hyperlink ref="H17" r:id="rId9"/>
-    <hyperlink ref="H18" r:id="rId10"/>
-    <hyperlink ref="H20" r:id="rId11"/>
-    <hyperlink ref="H19" r:id="rId12"/>
-    <hyperlink ref="H21" r:id="rId13"/>
-    <hyperlink ref="H14" r:id="rId14"/>
-    <hyperlink ref="H22" r:id="rId15"/>
-    <hyperlink ref="H13" r:id="rId16"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H15" r:id="rId6"/>
+    <hyperlink ref="H16" r:id="rId7"/>
+    <hyperlink ref="H17" r:id="rId8"/>
+    <hyperlink ref="H18" r:id="rId9"/>
+    <hyperlink ref="H20" r:id="rId10"/>
+    <hyperlink ref="H19" r:id="rId11"/>
+    <hyperlink ref="H21" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H22" r:id="rId14"/>
+    <hyperlink ref="H13" r:id="rId15"/>
+    <hyperlink ref="H7" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -254,18 +254,9 @@
     <t>http://www.mouser.com/ProductDetail/TDK/C1608X7R1V105K080AE</t>
   </si>
   <si>
-    <t>PIC18F46K22-I/P</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
-    <t>PDIP40</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Microchip-Technology/PIC18F46K22-I-P</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ProductDetail/Panasonic/EEE-FK1E100R</t>
   </si>
   <si>
@@ -273,6 +264,15 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TL7660CDR</t>
+  </si>
+  <si>
+    <t>PIC18F46K22-I/PT</t>
+  </si>
+  <si>
+    <t>TQFP44</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Microchip/PIC18F46K22-I-PT</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,7 +827,7 @@
     <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="14" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="10" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="6"/>
     <col min="11" max="11" width="32.5" style="6" customWidth="1"/>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
@@ -962,7 +962,7 @@
         <v>2.62</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>0.8</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1353,29 +1353,29 @@
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F22" s="14">
-        <v>3.82</v>
+        <v>3.59</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>3.82</v>
+        <v>3.59</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G31" s="14">
         <f>SUM(G7:G22)</f>
-        <v>117.94</v>
+        <v>117.71000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1398,9 +1398,9 @@
     <hyperlink ref="H19" r:id="rId11"/>
     <hyperlink ref="H21" r:id="rId12"/>
     <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H22" r:id="rId14"/>
-    <hyperlink ref="H13" r:id="rId15"/>
-    <hyperlink ref="H7" r:id="rId16"/>
+    <hyperlink ref="H13" r:id="rId14"/>
+    <hyperlink ref="H7" r:id="rId15"/>
+    <hyperlink ref="H22" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -104,48 +104,21 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>Voltage Pump</t>
-  </si>
-  <si>
     <t>Instrumentation Amp</t>
   </si>
   <si>
     <t>Operational Amp</t>
   </si>
   <si>
-    <t>Isolation Amplifier</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/ISO124P</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>0.33 µF NP Capacitor</t>
-  </si>
-  <si>
     <t>0.1 µF NP Capacitor</t>
   </si>
   <si>
-    <t>10 µF P Capacitor</t>
-  </si>
-  <si>
     <t>Orders must be submitted by email by 10 AM on Tuesday to matthewb@duke.edu to be processed on Tuesday</t>
   </si>
   <si>
     <t>SOIC8</t>
   </si>
   <si>
-    <t>L7805ACD2T-TRCV</t>
-  </si>
-  <si>
-    <t>D2PAK</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/STMicroelectronics/L7805ACD2T-TR</t>
-  </si>
-  <si>
     <t>INA128UA</t>
   </si>
   <si>
@@ -158,18 +131,12 @@
     <t>http://www.mouser.com/ProductDetail/Texas-Instruments/OPA2228UA</t>
   </si>
   <si>
-    <t>ISO124U</t>
-  </si>
-  <si>
     <t>1N4148W-E3-08</t>
   </si>
   <si>
     <t>SOD123</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay/1N4148W-E3-08</t>
-  </si>
-  <si>
     <t>CRCW120633K0FKEA</t>
   </si>
   <si>
@@ -233,15 +200,6 @@
     <t>C0402</t>
   </si>
   <si>
-    <t>EEE-FK1E100R</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/C1608X7R1H334K080AC</t>
-  </si>
-  <si>
-    <t>C1608X7R1H334K080AC</t>
-  </si>
-  <si>
     <t>1N4148 Diode</t>
   </si>
   <si>
@@ -257,15 +215,6 @@
     <t>Microcontroller</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Panasonic/EEE-FK1E100R</t>
-  </si>
-  <si>
-    <t>TL7660CDR</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TL7660CDR</t>
-  </si>
-  <si>
     <t>PIC18F46K22-I/PT</t>
   </si>
   <si>
@@ -273,17 +222,109 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Microchip/PIC18F46K22-I-PT</t>
+  </si>
+  <si>
+    <t>TPS62163DSGR</t>
+  </si>
+  <si>
+    <t>WSON-8</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TPS62163DSGR</t>
+  </si>
+  <si>
+    <t>TFM201610ALM-2R2MTAA</t>
+  </si>
+  <si>
+    <t>2.2 µH Inductor</t>
+  </si>
+  <si>
+    <t>2x1.5x1mm</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/TFM201610ALM-2R2MTAA</t>
+  </si>
+  <si>
+    <t>CGA5L1X7R0J226M160AE</t>
+  </si>
+  <si>
+    <t>22 µF NP Capacitor</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/CGA5L1X7R0J226M160AE</t>
+  </si>
+  <si>
+    <t>CRCW1206100KFKEA</t>
+  </si>
+  <si>
+    <t>100 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206100KFKEA</t>
+  </si>
+  <si>
+    <t>C3216X7R1C106M160AE</t>
+  </si>
+  <si>
+    <t>10 µF NP Capacitor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/C3216X7R1C106M160AE</t>
+  </si>
+  <si>
+    <t>CRCW1206680KFKEA</t>
+  </si>
+  <si>
+    <t>CRCW1206130KFKEA</t>
+  </si>
+  <si>
+    <t>130 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>680 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206130KFKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206680KFKEA</t>
+  </si>
+  <si>
+    <t>BAT46W-E3-08</t>
+  </si>
+  <si>
+    <t>Schottsky Diode</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Semiconductors/BAT46W-E3-08</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Semiconductors/1N4148W-E3-08</t>
+  </si>
+  <si>
+    <t>M20-8900605</t>
+  </si>
+  <si>
+    <t>6 Header</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Harwin/M20-8900605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,10 +340,6 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -358,53 +395,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -812,22 +849,22 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="57" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="59.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="10" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="6"/>
     <col min="11" max="11" width="32.5" style="6" customWidth="1"/>
@@ -868,15 +905,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>42631</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="19">
+        <f ca="1">TODAY()</f>
+        <v>42639</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -939,30 +977,30 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F7" s="13">
-        <v>1.31</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" ref="G7:G10" si="0">B7*F7</f>
-        <v>2.62</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>78</v>
+        <v>1.93</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" ref="G7:G9" si="0">B7*F7</f>
+        <v>3.86</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -972,107 +1010,107 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="G8" s="14">
+        <v>29</v>
+      </c>
+      <c r="F8" s="13">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>1.7</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="14">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="G9" s="14">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13">
+        <v>5.53</v>
+      </c>
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>16.739999999999998</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="18"/>
+        <v>44.24</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="14">
-        <v>5.53</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="0"/>
-        <v>44.24</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" ref="G10:G26" si="1">B10*F10</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="14">
-        <v>19.84</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" ref="G11:G22" si="1">B11*F11</f>
-        <v>39.68</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="G11" s="13">
+        <f>B11*F11</f>
+        <v>0.26</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1080,26 +1118,26 @@
         <v>24</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="G12" s="14">
+        <v>74</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>69</v>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1107,7 +1145,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>72</v>
@@ -1116,17 +1154,17 @@
         <v>73</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="G13" s="14">
+        <v>74</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>74</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1134,26 +1172,26 @@
         <v>24</v>
       </c>
       <c r="B14" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="14">
+        <v>35</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>65</v>
+        <v>0.39</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1161,26 +1199,26 @@
         <v>24</v>
       </c>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="14">
+        <v>35</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>76</v>
+        <v>0.92</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1191,23 +1229,23 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.23</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="13">
+        <f>B16*F16</f>
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,23 +1256,23 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="14">
+        <v>37</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="13">
         <v>0.1</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>50</v>
+      <c r="H17" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1242,26 +1280,26 @@
         <v>24</v>
       </c>
       <c r="B18" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="14">
+        <v>41</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="13">
         <v>0.1</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>53</v>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1269,26 +1307,26 @@
         <v>24</v>
       </c>
       <c r="B19" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="14">
+        <v>47</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="13">
         <v>0.1</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>59</v>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1296,113 +1334,224 @@
         <v>24</v>
       </c>
       <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="13">
         <v>0.11</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="H22" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="E25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="13">
         <v>3.59</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G25" s="13">
         <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G31" s="14">
-        <f>SUM(G7:G22)</f>
-        <v>117.71000000000001</v>
+      <c r="H25" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="13">
+        <f>SUM(G7:G26)</f>
+        <v>83.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H12" r:id="rId5"/>
-    <hyperlink ref="H15" r:id="rId6"/>
-    <hyperlink ref="H16" r:id="rId7"/>
-    <hyperlink ref="H17" r:id="rId8"/>
-    <hyperlink ref="H18" r:id="rId9"/>
-    <hyperlink ref="H20" r:id="rId10"/>
-    <hyperlink ref="H19" r:id="rId11"/>
-    <hyperlink ref="H21" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H13" r:id="rId14"/>
-    <hyperlink ref="H7" r:id="rId15"/>
-    <hyperlink ref="H22" r:id="rId16"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="H15" r:id="rId5"/>
+    <hyperlink ref="H17" r:id="rId6"/>
+    <hyperlink ref="H18" r:id="rId7"/>
+    <hyperlink ref="H22" r:id="rId8"/>
+    <hyperlink ref="H19" r:id="rId9"/>
+    <hyperlink ref="H16" r:id="rId10"/>
+    <hyperlink ref="H11" r:id="rId11"/>
+    <hyperlink ref="H25" r:id="rId12"/>
+    <hyperlink ref="H13" r:id="rId13"/>
+    <hyperlink ref="H20" r:id="rId14"/>
+    <hyperlink ref="H21" r:id="rId15"/>
+    <hyperlink ref="H23" r:id="rId16"/>
+    <hyperlink ref="H14" r:id="rId17"/>
+    <hyperlink ref="H24" r:id="rId18"/>
+    <hyperlink ref="H26" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -167,15 +167,6 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206390KFKEA</t>
   </si>
   <si>
-    <t>CRCW120620K0FKEA</t>
-  </si>
-  <si>
-    <t>20 kΩ Resistor</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120620K0FKEA</t>
-  </si>
-  <si>
     <t>CRCW12062K80FKEA</t>
   </si>
   <si>
@@ -315,6 +306,33 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Harwin/M20-8900605</t>
+  </si>
+  <si>
+    <t>CRCW12061K00FKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12061K00FKEA</t>
+  </si>
+  <si>
+    <t>CGA2B2C0G1H470J050BA</t>
+  </si>
+  <si>
+    <t>47 pF NP Capacitor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/CGA2B2C0G1H470J050BA</t>
+  </si>
+  <si>
+    <t>1 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>CRCW120651R0FKEA</t>
+  </si>
+  <si>
+    <t>51 Ω Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651R0FKEA</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -435,10 +453,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -849,15 +870,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="6" customWidth="1"/>
@@ -905,16 +926,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42639</v>
-      </c>
-      <c r="C3" s="18" t="s">
+        <v>42643</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -984,23 +1005,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:G9" si="0">B7*F7</f>
+        <f t="shared" ref="G7:G10" si="0">B7*F7</f>
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1029,14 +1050,14 @@
       <c r="H8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>32</v>
@@ -1052,65 +1073,66 @@
       </c>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>44.24</v>
+        <v>38.71</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G10" s="13">
-        <f t="shared" ref="G10:G26" si="1">B10*F10</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="H10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="13">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="13">
-        <f>B11*F11</f>
-        <v>0.26</v>
+        <f t="shared" ref="G11:G28" si="1">B11*F11</f>
+        <v>5.8000000000000007</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1118,134 +1140,134 @@
         <v>24</v>
       </c>
       <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="G12" s="13">
+        <f>B12*F12</f>
+        <v>0.26</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="H13" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="H14" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>0.39</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="H15" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>0.23</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="13">
-        <f>B16*F16</f>
-        <v>0.4</v>
-      </c>
       <c r="H16" s="14" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1256,13 +1278,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F17" s="13">
         <v>0.1</v>
@@ -1272,7 +1294,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1283,13 +1305,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>53</v>
+        <v>98</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="13">
         <v>0.1</v>
@@ -1299,7 +1321,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1307,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>46</v>
@@ -1316,14 +1338,14 @@
         <v>47</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F19" s="13">
         <v>0.1</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
+        <f>B19*F19</f>
+        <v>0.4</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>48</v>
@@ -1334,26 +1356,26 @@
         <v>24</v>
       </c>
       <c r="B20" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13">
         <v>0.1</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <f>B20*F20</f>
+        <v>1</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1361,26 +1383,26 @@
         <v>24</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13">
         <v>0.1</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1388,26 +1410,26 @@
         <v>24</v>
       </c>
       <c r="B22" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22" s="13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1418,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23" s="13">
         <v>0.1</v>
@@ -1434,7 +1456,7 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,23 +1467,23 @@
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F24" s="13">
-        <v>0.69</v>
+        <v>0.11</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="1"/>
-        <v>1.38</v>
+        <v>0.22</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1472,23 +1494,23 @@
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="F25" s="13">
-        <v>3.59</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
-        <v>3.59</v>
+        <v>0.1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1496,32 +1518,86 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F26" s="13">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="13">
+        <v>3.59</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="1"/>
+        <v>3.59</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="13">
         <v>0.75</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="13">
-        <f>SUM(G7:G26)</f>
-        <v>83.45</v>
+      <c r="G28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="13">
+        <f>SUM(G7:G28)</f>
+        <v>80.12</v>
       </c>
     </row>
   </sheetData>
@@ -1534,24 +1610,26 @@
     <hyperlink ref="H9" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="H15" r:id="rId5"/>
-    <hyperlink ref="H17" r:id="rId6"/>
-    <hyperlink ref="H18" r:id="rId7"/>
-    <hyperlink ref="H22" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId4"/>
+    <hyperlink ref="H16" r:id="rId5"/>
+    <hyperlink ref="H21" r:id="rId6"/>
+    <hyperlink ref="H20" r:id="rId7"/>
+    <hyperlink ref="H24" r:id="rId8"/>
     <hyperlink ref="H19" r:id="rId9"/>
-    <hyperlink ref="H16" r:id="rId10"/>
-    <hyperlink ref="H11" r:id="rId11"/>
-    <hyperlink ref="H25" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="H20" r:id="rId14"/>
-    <hyperlink ref="H21" r:id="rId15"/>
-    <hyperlink ref="H23" r:id="rId16"/>
-    <hyperlink ref="H14" r:id="rId17"/>
-    <hyperlink ref="H24" r:id="rId18"/>
-    <hyperlink ref="H26" r:id="rId19"/>
+    <hyperlink ref="H12" r:id="rId10"/>
+    <hyperlink ref="H27" r:id="rId11"/>
+    <hyperlink ref="H14" r:id="rId12"/>
+    <hyperlink ref="H22" r:id="rId13"/>
+    <hyperlink ref="H23" r:id="rId14"/>
+    <hyperlink ref="H25" r:id="rId15"/>
+    <hyperlink ref="H15" r:id="rId16"/>
+    <hyperlink ref="H26" r:id="rId17"/>
+    <hyperlink ref="H28" r:id="rId18"/>
+    <hyperlink ref="H18" r:id="rId19"/>
+    <hyperlink ref="H10" r:id="rId20"/>
+    <hyperlink ref="H17" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -137,18 +137,9 @@
     <t>SOD123</t>
   </si>
   <si>
-    <t>CRCW120633K0FKEA</t>
-  </si>
-  <si>
-    <t>33 kΩ Resistor</t>
-  </si>
-  <si>
     <t>5 V Regulator</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120633K0FKEA</t>
-  </si>
-  <si>
     <t>CRCW120610K0FKEA</t>
   </si>
   <si>
@@ -333,6 +324,24 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651R0FKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/CGA3E2C0G1H103J080AA</t>
+  </si>
+  <si>
+    <t>0.01 µF NP Capacitor</t>
+  </si>
+  <si>
+    <t>CGA3E2C0G1H103J080AA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651K0FKEA</t>
+  </si>
+  <si>
+    <t>51 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>CRCW120651K0FKEA</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -455,6 +464,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -870,10 +882,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,7 +897,7 @@
     <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="13" customWidth="1"/>
-    <col min="8" max="8" width="59.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="10" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="6"/>
     <col min="11" max="11" width="32.5" style="6" customWidth="1"/>
@@ -930,12 +942,12 @@
         <f ca="1">TODAY()</f>
         <v>42643</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1005,23 +1017,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:G10" si="0">B7*F7</f>
+        <f t="shared" ref="G7:G11" si="0">B7*F7</f>
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1050,7 +1062,7 @@
       <c r="H8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1078,7 +1090,7 @@
       <c r="H9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1088,13 +1100,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>0.1</v>
@@ -1104,62 +1116,63 @@
         <v>0.2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="13">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" ref="G11:G28" si="1">B11*F11</f>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>51</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="13">
-        <f>B12*F12</f>
-        <v>0.26</v>
+        <f t="shared" ref="G12:G29" si="1">B12*F12</f>
+        <v>4.2</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1167,188 +1180,188 @@
         <v>24</v>
       </c>
       <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="G13" s="13">
+        <f>B13*F13</f>
+        <v>0.26</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>1.6800000000000002</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="H14" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="13">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="H15" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>0.39</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="H16" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>0.23</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="H17" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="13">
         <v>0.1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="H18" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="13">
         <v>0.1</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="13">
-        <f>B19*F19</f>
-        <v>0.4</v>
-      </c>
       <c r="H19" s="14" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1356,26 +1369,26 @@
         <v>24</v>
       </c>
       <c r="B20" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="13">
         <v>0.1</v>
       </c>
       <c r="G20" s="13">
         <f>B20*F20</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1383,107 +1396,104 @@
         <v>24</v>
       </c>
       <c r="B21" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="13">
         <v>0.1</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f>B21*F21</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="B22" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" s="13">
         <v>0.1</v>
       </c>
       <c r="G22" s="13">
+        <f>B22*F22</f>
+        <v>0.4</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="13">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="H23" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="C24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="13">
         <v>0.1</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" si="1"/>
-        <v>0.22</v>
-      </c>
       <c r="H24" s="14" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1491,26 +1501,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="13">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1518,26 +1528,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F26" s="13">
-        <v>0.69</v>
+        <v>0.1</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="1"/>
-        <v>1.38</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1545,26 +1555,26 @@
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F27" s="13">
-        <v>3.59</v>
+        <v>0.69</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
-        <v>3.59</v>
+        <v>1.38</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1575,29 +1585,56 @@
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F28" s="13">
-        <v>0.75</v>
+        <v>3.59</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
+        <v>3.59</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="13">
         <v>0.75</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="13">
-        <f>SUM(G7:G28)</f>
-        <v>80.12</v>
+      <c r="G29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="13">
+        <f>SUM(G7:G29)</f>
+        <v>81.28</v>
       </c>
     </row>
   </sheetData>
@@ -1610,26 +1647,27 @@
     <hyperlink ref="H9" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H13" r:id="rId4"/>
-    <hyperlink ref="H16" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
     <hyperlink ref="H21" r:id="rId6"/>
-    <hyperlink ref="H20" r:id="rId7"/>
-    <hyperlink ref="H24" r:id="rId8"/>
-    <hyperlink ref="H19" r:id="rId9"/>
-    <hyperlink ref="H12" r:id="rId10"/>
-    <hyperlink ref="H27" r:id="rId11"/>
-    <hyperlink ref="H14" r:id="rId12"/>
-    <hyperlink ref="H22" r:id="rId13"/>
-    <hyperlink ref="H23" r:id="rId14"/>
-    <hyperlink ref="H25" r:id="rId15"/>
-    <hyperlink ref="H15" r:id="rId16"/>
-    <hyperlink ref="H26" r:id="rId17"/>
-    <hyperlink ref="H28" r:id="rId18"/>
-    <hyperlink ref="H18" r:id="rId19"/>
-    <hyperlink ref="H10" r:id="rId20"/>
-    <hyperlink ref="H17" r:id="rId21"/>
+    <hyperlink ref="H25" r:id="rId7"/>
+    <hyperlink ref="H20" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H28" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H23" r:id="rId12"/>
+    <hyperlink ref="H24" r:id="rId13"/>
+    <hyperlink ref="H26" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H27" r:id="rId16"/>
+    <hyperlink ref="H29" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H10" r:id="rId19"/>
+    <hyperlink ref="H18" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="H22" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -884,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42643</v>
+        <v>42646</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>28</v>
@@ -1180,7 +1180,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>52</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="G13" s="13">
         <f>B13*F13</f>
-        <v>0.26</v>
+        <v>0.78</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>54</v>
@@ -1288,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>34</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>85</v>
@@ -1419,6 +1419,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="6">
         <v>4</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>40</v>
@@ -1517,7 +1520,7 @@
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>42</v>
@@ -1634,7 +1637,7 @@
     <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" s="13">
         <f>SUM(G7:G29)</f>
-        <v>81.28</v>
+        <v>82.47999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -125,12 +125,6 @@
     <t>http://www.mouser.com/ProductDetail/Texas-Instruments/INA128UA</t>
   </si>
   <si>
-    <t>OPA2228UA</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/OPA2228UA</t>
-  </si>
-  <si>
     <t>1N4148W-E3-08</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>2.2 µH Inductor</t>
   </si>
   <si>
-    <t>2x1.5x1mm</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ProductDetail/TDK/TFM201610ALM-2R2MTAA</t>
   </si>
   <si>
@@ -326,22 +317,49 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651R0FKEA</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/CGA3E2C0G1H103J080AA</t>
-  </si>
-  <si>
-    <t>0.01 µF NP Capacitor</t>
-  </si>
-  <si>
-    <t>CGA3E2C0G1H103J080AA</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651K0FKEA</t>
-  </si>
-  <si>
-    <t>51 kΩ Resistor</t>
-  </si>
-  <si>
-    <t>CRCW120651K0FKEA</t>
+    <t>CRCW12065M10FKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12065M10FKEA</t>
+  </si>
+  <si>
+    <t>5.1 MΩ Resistor</t>
+  </si>
+  <si>
+    <t>75 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>CRCW120675K0FKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120675K0FKEA</t>
+  </si>
+  <si>
+    <t>CRCW12067K50FKEA</t>
+  </si>
+  <si>
+    <t>7.5 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12067K50FKEA</t>
+  </si>
+  <si>
+    <t>L2016</t>
+  </si>
+  <si>
+    <t>CRCW12065M00FKEA</t>
+  </si>
+  <si>
+    <t>1 MΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12061M00FKEA</t>
+  </si>
+  <si>
+    <t>OPA2188AIDR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/OPA2188AIDR</t>
   </si>
 </sst>
 </file>
@@ -427,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -464,9 +482,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -882,10 +897,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,14 +955,14 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42646</v>
-      </c>
-      <c r="C3" s="21" t="s">
+        <v>42648</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1017,23 +1032,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:G11" si="0">B7*F7</f>
+        <f t="shared" ref="G7:G10" si="0">B7*F7</f>
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1062,7 +1077,7 @@
       <c r="H8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1072,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1081,16 +1096,16 @@
         <v>29</v>
       </c>
       <c r="F9" s="13">
-        <v>5.53</v>
+        <v>3.33</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>38.71</v>
+        <v>23.310000000000002</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1100,13 +1115,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="13">
         <v>0.1</v>
@@ -1116,63 +1131,62 @@
         <v>0.2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" ref="G11:G31" si="1">B11*F11</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>2.72</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" s="13">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:G29" si="1">B12*F12</f>
-        <v>4.2</v>
+        <f>B12*F12</f>
+        <v>0.78</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1183,23 +1197,23 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F13" s="13">
-        <v>0.26</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G13" s="13">
-        <f>B13*F13</f>
-        <v>0.78</v>
+        <f t="shared" si="1"/>
+        <v>1.6800000000000002</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1207,26 +1221,26 @@
         <v>24</v>
       </c>
       <c r="B14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="13">
-        <v>0.56000000000000005</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1234,26 +1248,26 @@
         <v>24</v>
       </c>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F15" s="13">
-        <v>1.1100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
-        <v>2.2200000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1261,26 +1275,26 @@
         <v>24</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="13">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="1"/>
-        <v>0.39</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1288,26 +1302,26 @@
         <v>24</v>
       </c>
       <c r="B17" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F17" s="13">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
-        <v>1.3800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1315,26 +1329,26 @@
         <v>24</v>
       </c>
       <c r="B18" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="13">
         <v>0.1</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1342,26 +1356,26 @@
         <v>24</v>
       </c>
       <c r="B19" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="13">
         <v>0.1</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <f>B19*F19</f>
+        <v>0.4</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1372,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="13">
         <v>0.1</v>
@@ -1388,7 +1402,7 @@
         <v>0.4</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,26 +1410,26 @@
         <v>24</v>
       </c>
       <c r="B21" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="13">
         <v>0.1</v>
       </c>
       <c r="G21" s="13">
         <f>B21*F21</f>
-        <v>0.60000000000000009</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,13 +1440,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="13">
         <v>0.1</v>
@@ -1442,7 +1456,7 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1450,26 +1464,26 @@
         <v>24</v>
       </c>
       <c r="B23" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="13">
         <v>0.1</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0.4</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1480,13 +1494,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="13">
         <v>0.1</v>
@@ -1496,7 +1510,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1504,26 +1518,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="13">
         <v>0.11</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1534,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="13">
         <v>0.1</v>
@@ -1550,7 +1564,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1561,23 +1575,23 @@
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F27" s="13">
-        <v>0.69</v>
+        <v>0.1</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
-        <v>1.38</v>
+        <v>0.2</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1585,26 +1599,26 @@
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F28" s="13">
-        <v>3.59</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
-        <v>3.59</v>
+        <v>0.2</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1612,32 +1626,86 @@
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="F29" s="13">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="13">
+        <v>3.59</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="1"/>
+        <v>3.59</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="13">
         <v>0.75</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="13">
-        <f>SUM(G7:G29)</f>
-        <v>82.47999999999999</v>
+      <c r="G31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="13">
+        <f>SUM(G7:G31)</f>
+        <v>64.700000000000017</v>
       </c>
     </row>
   </sheetData>
@@ -1650,27 +1718,29 @@
     <hyperlink ref="H9" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H14" r:id="rId4"/>
-    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId4"/>
+    <hyperlink ref="H16" r:id="rId5"/>
     <hyperlink ref="H21" r:id="rId6"/>
     <hyperlink ref="H25" r:id="rId7"/>
-    <hyperlink ref="H20" r:id="rId8"/>
-    <hyperlink ref="H13" r:id="rId9"/>
-    <hyperlink ref="H28" r:id="rId10"/>
-    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H19" r:id="rId8"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H30" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
     <hyperlink ref="H23" r:id="rId12"/>
     <hyperlink ref="H24" r:id="rId13"/>
     <hyperlink ref="H26" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H27" r:id="rId16"/>
-    <hyperlink ref="H29" r:id="rId17"/>
-    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H15" r:id="rId15"/>
+    <hyperlink ref="H29" r:id="rId16"/>
+    <hyperlink ref="H31" r:id="rId17"/>
+    <hyperlink ref="H18" r:id="rId18"/>
     <hyperlink ref="H10" r:id="rId19"/>
-    <hyperlink ref="H18" r:id="rId20"/>
-    <hyperlink ref="H11" r:id="rId21"/>
-    <hyperlink ref="H22" r:id="rId22"/>
+    <hyperlink ref="H17" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H28" r:id="rId22"/>
+    <hyperlink ref="H20" r:id="rId23"/>
+    <hyperlink ref="H27" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -161,9 +161,6 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12062K80FKEA</t>
   </si>
   <si>
-    <t>C0603</t>
-  </si>
-  <si>
     <t>R1206</t>
   </si>
   <si>
@@ -209,15 +206,9 @@
     <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TPS62163DSGR</t>
   </si>
   <si>
-    <t>TFM201610ALM-2R2MTAA</t>
-  </si>
-  <si>
     <t>2.2 µH Inductor</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/TFM201610ALM-2R2MTAA</t>
-  </si>
-  <si>
     <t>CGA5L1X7R0J226M160AE</t>
   </si>
   <si>
@@ -344,9 +335,6 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12067K50FKEA</t>
   </si>
   <si>
-    <t>L2016</t>
-  </si>
-  <si>
     <t>CRCW12065M00FKEA</t>
   </si>
   <si>
@@ -360,6 +348,18 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Texas-Instruments/OPA2188AIDR</t>
+  </si>
+  <si>
+    <t>MLF1608A2R2J</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/MLF1608A2R2J</t>
+  </si>
+  <si>
+    <t>L1608</t>
+  </si>
+  <si>
+    <t>C1608</t>
   </si>
 </sst>
 </file>
@@ -899,8 +899,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1032,13 +1032,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
@@ -1048,7 +1048,7 @@
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1103,7 +1103,7 @@
         <v>23.310000000000002</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -1115,13 +1115,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="13">
         <v>0.1</v>
@@ -1131,7 +1131,7 @@
         <v>0.2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -1143,13 +1143,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="13">
         <v>0.2</v>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1170,13 +1170,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F12" s="13">
         <v>0.26</v>
@@ -1186,7 +1186,7 @@
         <v>0.78</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1197,13 +1197,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="13">
         <v>0.56000000000000005</v>
@@ -1213,7 +1213,7 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1224,13 +1224,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" s="13">
         <v>1.1100000000000001</v>
@@ -1240,7 +1240,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>33</v>
@@ -1267,7 +1267,7 @@
         <v>0.39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -1294,7 +1294,7 @@
         <v>1.3800000000000001</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1305,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="13">
         <v>0.1</v>
@@ -1321,7 +1321,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1332,13 +1332,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="13">
         <v>0.1</v>
@@ -1348,7 +1348,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="13">
         <v>0.1</v>
@@ -1386,13 +1386,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="13">
         <v>0.1</v>
@@ -1402,7 +1402,7 @@
         <v>0.4</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="13">
         <v>0.1</v>
@@ -1440,13 +1440,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="13">
         <v>0.1</v>
@@ -1456,7 +1456,7 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1467,13 +1467,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="13">
         <v>0.1</v>
@@ -1483,7 +1483,7 @@
         <v>0.4</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,13 +1494,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="13">
         <v>0.1</v>
@@ -1510,7 +1510,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="13">
         <v>0.11</v>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="13">
         <v>0.1</v>
@@ -1564,7 +1564,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1575,13 +1575,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="13">
         <v>0.1</v>
@@ -1591,7 +1591,7 @@
         <v>0.2</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1602,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="13">
         <v>0.1</v>
@@ -1618,7 +1618,7 @@
         <v>0.2</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1629,23 +1629,23 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F29" s="13">
-        <v>0.69</v>
+        <v>0.24</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
-        <v>1.38</v>
+        <v>0.48</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1656,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F30" s="13">
         <v>3.59</v>
@@ -1672,7 +1672,7 @@
         <v>3.59</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1683,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F31" s="13">
         <v>0.75</v>
@@ -1699,13 +1699,13 @@
         <v>0.75</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G39" s="13">
         <f>SUM(G7:G31)</f>
-        <v>64.700000000000017</v>
+        <v>63.800000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -1722,25 +1722,26 @@
     <hyperlink ref="H16" r:id="rId5"/>
     <hyperlink ref="H21" r:id="rId6"/>
     <hyperlink ref="H25" r:id="rId7"/>
-    <hyperlink ref="H19" r:id="rId8"/>
-    <hyperlink ref="H12" r:id="rId9"/>
-    <hyperlink ref="H30" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H23" r:id="rId12"/>
-    <hyperlink ref="H24" r:id="rId13"/>
-    <hyperlink ref="H26" r:id="rId14"/>
-    <hyperlink ref="H15" r:id="rId15"/>
-    <hyperlink ref="H29" r:id="rId16"/>
-    <hyperlink ref="H31" r:id="rId17"/>
-    <hyperlink ref="H18" r:id="rId18"/>
-    <hyperlink ref="H10" r:id="rId19"/>
-    <hyperlink ref="H17" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="H28" r:id="rId22"/>
-    <hyperlink ref="H20" r:id="rId23"/>
-    <hyperlink ref="H27" r:id="rId24"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H30" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H23" r:id="rId11"/>
+    <hyperlink ref="H24" r:id="rId12"/>
+    <hyperlink ref="H26" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H31" r:id="rId15"/>
+    <hyperlink ref="H10" r:id="rId16"/>
+    <hyperlink ref="H22" r:id="rId17"/>
+    <hyperlink ref="H28" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H27" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="H19" r:id="rId22"/>
+    <hyperlink ref="H18" r:id="rId23"/>
+    <hyperlink ref="H17" r:id="rId24"/>
+    <hyperlink ref="H29" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId25"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -164,15 +164,6 @@
     <t>R1206</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/C1005X7R1H104K050BE</t>
-  </si>
-  <si>
-    <t>C1005X7R1H104K050BE</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
     <t>1N4148 Diode</t>
   </si>
   <si>
@@ -287,15 +278,9 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12061K00FKEA</t>
   </si>
   <si>
-    <t>CGA2B2C0G1H470J050BA</t>
-  </si>
-  <si>
     <t>47 pF NP Capacitor</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/CGA2B2C0G1H470J050BA</t>
-  </si>
-  <si>
     <t>1 kΩ Resistor</t>
   </si>
   <si>
@@ -360,6 +345,18 @@
   </si>
   <si>
     <t>C1608</t>
+  </si>
+  <si>
+    <t>C0603X104K5RACTU</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Kemet/C0603X104K5RACTU</t>
+  </si>
+  <si>
+    <t>06033A470K4T2A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/AVX/06033A470K4T2A</t>
   </si>
 </sst>
 </file>
@@ -899,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -955,7 +952,7 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42648</v>
+        <v>42649</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>28</v>
@@ -1032,13 +1029,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
@@ -1048,7 +1045,7 @@
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1087,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1103,7 +1100,7 @@
         <v>23.310000000000002</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -1115,23 +1112,23 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F10" s="13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -1143,23 +1140,23 @@
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F11" s="13">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" ref="G11:G31" si="1">B11*F11</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1170,13 +1167,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F12" s="13">
         <v>0.26</v>
@@ -1186,7 +1183,7 @@
         <v>0.78</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1197,13 +1194,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" s="13">
         <v>0.56000000000000005</v>
@@ -1213,7 +1210,7 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1224,13 +1221,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="13">
         <v>1.1100000000000001</v>
@@ -1240,7 +1237,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1251,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>33</v>
@@ -1267,7 +1264,7 @@
         <v>0.39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1281,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -1294,7 +1291,7 @@
         <v>1.3800000000000001</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1305,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>44</v>
@@ -1321,7 +1318,7 @@
         <v>0.2</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1332,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -1348,7 +1345,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1386,10 +1383,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>44</v>
@@ -1402,7 +1399,7 @@
         <v>0.4</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1440,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>44</v>
@@ -1456,7 +1453,7 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1467,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>44</v>
@@ -1483,7 +1480,7 @@
         <v>0.4</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>44</v>
@@ -1510,7 +1507,7 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>44</v>
@@ -1564,7 +1561,7 @@
         <v>0.1</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1575,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>44</v>
@@ -1591,7 +1588,7 @@
         <v>0.2</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1602,10 +1599,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>44</v>
@@ -1618,7 +1615,7 @@
         <v>0.2</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1629,13 +1626,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F29" s="13">
         <v>0.24</v>
@@ -1645,7 +1642,7 @@
         <v>0.48</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1656,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F30" s="13">
         <v>3.59</v>
@@ -1672,7 +1669,7 @@
         <v>3.59</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1683,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F31" s="13">
         <v>0.75</v>
@@ -1699,13 +1696,13 @@
         <v>0.75</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G39" s="13">
         <f>SUM(G7:G31)</f>
-        <v>63.800000000000011</v>
+        <v>62.45</v>
       </c>
     </row>
   </sheetData>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -260,18 +260,9 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Semiconductors/1N4148W-E3-08</t>
   </si>
   <si>
-    <t>M20-8900605</t>
-  </si>
-  <si>
-    <t>6 Header</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Harwin/M20-8900605</t>
-  </si>
-  <si>
     <t>CRCW12061K00FKEA</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12065M10FKEA</t>
   </si>
   <si>
-    <t>5.1 MΩ Resistor</t>
-  </si>
-  <si>
     <t>75 kΩ Resistor</t>
   </si>
   <si>
@@ -320,15 +308,6 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12067K50FKEA</t>
   </si>
   <si>
-    <t>CRCW12065M00FKEA</t>
-  </si>
-  <si>
-    <t>1 MΩ Resistor</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12061M00FKEA</t>
-  </si>
-  <si>
     <t>OPA2188AIDR</t>
   </si>
   <si>
@@ -357,6 +336,78 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/AVX/06033A470K4T2A</t>
+  </si>
+  <si>
+    <t>OPA4188AIDR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/OPA4188AIDR</t>
+  </si>
+  <si>
+    <t>3.3 MΩ Resistor</t>
+  </si>
+  <si>
+    <t>SOIC14</t>
+  </si>
+  <si>
+    <t>CRCW120620K0FKEA</t>
+  </si>
+  <si>
+    <t>20 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120620K0FKEA</t>
+  </si>
+  <si>
+    <t>51 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651K0FKEA</t>
+  </si>
+  <si>
+    <t>CRCW1206510KFKEA</t>
+  </si>
+  <si>
+    <t>510 kΩ Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206510KFKEA</t>
+  </si>
+  <si>
+    <t>CRCW120651K0FKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/90120-0762</t>
+  </si>
+  <si>
+    <t>2pos Header</t>
+  </si>
+  <si>
+    <t>90120-0792</t>
+  </si>
+  <si>
+    <t>90120-0794</t>
+  </si>
+  <si>
+    <t>90120-0795</t>
+  </si>
+  <si>
+    <t>90120-0796</t>
+  </si>
+  <si>
+    <t>6pos Header</t>
+  </si>
+  <si>
+    <t>5pos Header</t>
+  </si>
+  <si>
+    <t>4pos Header</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/90120-0764</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/90120-0766</t>
   </si>
 </sst>
 </file>
@@ -894,21 +945,21 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:XFD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="13" customWidth="1"/>
     <col min="8" max="8" width="63" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="10" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="6"/>
@@ -916,7 +967,7 @@
     <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +988,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,7 +997,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -962,13 +1013,13 @@
       <c r="F3" s="20"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1072,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16384" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1041,14 +1092,14 @@
         <v>1.93</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:G10" si="0">B7*F7</f>
+        <f t="shared" ref="G7:G11" si="0">B7*F7</f>
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1076,15 +1127,15 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1097,201 +1148,8389 @@
       </c>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>23.310000000000002</v>
+        <v>3.33</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" ref="G10" si="1">B10*F10</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="5"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="5"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="5"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="5"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="5"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="5"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="5"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="5"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="5"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="5"/>
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="15"/>
+      <c r="CS10" s="5"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="5"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="15"/>
+      <c r="DI10" s="5"/>
+      <c r="DN10" s="13"/>
+      <c r="DO10" s="13"/>
+      <c r="DP10" s="15"/>
+      <c r="DQ10" s="5"/>
+      <c r="DV10" s="13"/>
+      <c r="DW10" s="13"/>
+      <c r="DX10" s="15"/>
+      <c r="DY10" s="5"/>
+      <c r="ED10" s="13"/>
+      <c r="EE10" s="13"/>
+      <c r="EF10" s="15"/>
+      <c r="EG10" s="5"/>
+      <c r="EL10" s="13"/>
+      <c r="EM10" s="13"/>
+      <c r="EN10" s="15"/>
+      <c r="EO10" s="5"/>
+      <c r="ET10" s="13"/>
+      <c r="EU10" s="13"/>
+      <c r="EV10" s="15"/>
+      <c r="EW10" s="5"/>
+      <c r="FB10" s="13"/>
+      <c r="FC10" s="13"/>
+      <c r="FD10" s="15"/>
+      <c r="FE10" s="5"/>
+      <c r="FJ10" s="13"/>
+      <c r="FK10" s="13"/>
+      <c r="FL10" s="15"/>
+      <c r="FM10" s="5"/>
+      <c r="FR10" s="13"/>
+      <c r="FS10" s="13"/>
+      <c r="FT10" s="15"/>
+      <c r="FU10" s="5"/>
+      <c r="FZ10" s="13"/>
+      <c r="GA10" s="13"/>
+      <c r="GB10" s="15"/>
+      <c r="GC10" s="5"/>
+      <c r="GH10" s="13"/>
+      <c r="GI10" s="13"/>
+      <c r="GJ10" s="15"/>
+      <c r="GK10" s="5"/>
+      <c r="GP10" s="13"/>
+      <c r="GQ10" s="13"/>
+      <c r="GR10" s="15"/>
+      <c r="GS10" s="5"/>
+      <c r="GX10" s="13"/>
+      <c r="GY10" s="13"/>
+      <c r="GZ10" s="15"/>
+      <c r="HA10" s="5"/>
+      <c r="HF10" s="13"/>
+      <c r="HG10" s="13"/>
+      <c r="HH10" s="15"/>
+      <c r="HI10" s="5"/>
+      <c r="HN10" s="13"/>
+      <c r="HO10" s="13"/>
+      <c r="HP10" s="15"/>
+      <c r="HQ10" s="5"/>
+      <c r="HV10" s="13"/>
+      <c r="HW10" s="13"/>
+      <c r="HX10" s="15"/>
+      <c r="HY10" s="5"/>
+      <c r="ID10" s="13"/>
+      <c r="IE10" s="13"/>
+      <c r="IF10" s="15"/>
+      <c r="IG10" s="5"/>
+      <c r="IL10" s="13"/>
+      <c r="IM10" s="13"/>
+      <c r="IN10" s="15"/>
+      <c r="IO10" s="5"/>
+      <c r="IT10" s="13"/>
+      <c r="IU10" s="13"/>
+      <c r="IV10" s="15"/>
+      <c r="IW10" s="5"/>
+      <c r="JB10" s="13"/>
+      <c r="JC10" s="13"/>
+      <c r="JD10" s="15"/>
+      <c r="JE10" s="5"/>
+      <c r="JJ10" s="13"/>
+      <c r="JK10" s="13"/>
+      <c r="JL10" s="15"/>
+      <c r="JM10" s="5"/>
+      <c r="JR10" s="13"/>
+      <c r="JS10" s="13"/>
+      <c r="JT10" s="15"/>
+      <c r="JU10" s="5"/>
+      <c r="JZ10" s="13"/>
+      <c r="KA10" s="13"/>
+      <c r="KB10" s="15"/>
+      <c r="KC10" s="5"/>
+      <c r="KH10" s="13"/>
+      <c r="KI10" s="13"/>
+      <c r="KJ10" s="15"/>
+      <c r="KK10" s="5"/>
+      <c r="KP10" s="13"/>
+      <c r="KQ10" s="13"/>
+      <c r="KR10" s="15"/>
+      <c r="KS10" s="5"/>
+      <c r="KX10" s="13"/>
+      <c r="KY10" s="13"/>
+      <c r="KZ10" s="15"/>
+      <c r="LA10" s="5"/>
+      <c r="LF10" s="13"/>
+      <c r="LG10" s="13"/>
+      <c r="LH10" s="15"/>
+      <c r="LI10" s="5"/>
+      <c r="LN10" s="13"/>
+      <c r="LO10" s="13"/>
+      <c r="LP10" s="15"/>
+      <c r="LQ10" s="5"/>
+      <c r="LV10" s="13"/>
+      <c r="LW10" s="13"/>
+      <c r="LX10" s="15"/>
+      <c r="LY10" s="5"/>
+      <c r="MD10" s="13"/>
+      <c r="ME10" s="13"/>
+      <c r="MF10" s="15"/>
+      <c r="MG10" s="5"/>
+      <c r="ML10" s="13"/>
+      <c r="MM10" s="13"/>
+      <c r="MN10" s="15"/>
+      <c r="MO10" s="5"/>
+      <c r="MT10" s="13"/>
+      <c r="MU10" s="13"/>
+      <c r="MV10" s="15"/>
+      <c r="MW10" s="5"/>
+      <c r="NB10" s="13"/>
+      <c r="NC10" s="13"/>
+      <c r="ND10" s="15"/>
+      <c r="NE10" s="5"/>
+      <c r="NJ10" s="13"/>
+      <c r="NK10" s="13"/>
+      <c r="NL10" s="15"/>
+      <c r="NM10" s="5"/>
+      <c r="NR10" s="13"/>
+      <c r="NS10" s="13"/>
+      <c r="NT10" s="15"/>
+      <c r="NU10" s="5"/>
+      <c r="NZ10" s="13"/>
+      <c r="OA10" s="13"/>
+      <c r="OB10" s="15"/>
+      <c r="OC10" s="5"/>
+      <c r="OH10" s="13"/>
+      <c r="OI10" s="13"/>
+      <c r="OJ10" s="15"/>
+      <c r="OK10" s="5"/>
+      <c r="OP10" s="13"/>
+      <c r="OQ10" s="13"/>
+      <c r="OR10" s="15"/>
+      <c r="OS10" s="5"/>
+      <c r="OX10" s="13"/>
+      <c r="OY10" s="13"/>
+      <c r="OZ10" s="15"/>
+      <c r="PA10" s="5"/>
+      <c r="PF10" s="13"/>
+      <c r="PG10" s="13"/>
+      <c r="PH10" s="15"/>
+      <c r="PI10" s="5"/>
+      <c r="PN10" s="13"/>
+      <c r="PO10" s="13"/>
+      <c r="PP10" s="15"/>
+      <c r="PQ10" s="5"/>
+      <c r="PV10" s="13"/>
+      <c r="PW10" s="13"/>
+      <c r="PX10" s="15"/>
+      <c r="PY10" s="5"/>
+      <c r="QD10" s="13"/>
+      <c r="QE10" s="13"/>
+      <c r="QF10" s="15"/>
+      <c r="QG10" s="5"/>
+      <c r="QL10" s="13"/>
+      <c r="QM10" s="13"/>
+      <c r="QN10" s="15"/>
+      <c r="QO10" s="5"/>
+      <c r="QT10" s="13"/>
+      <c r="QU10" s="13"/>
+      <c r="QV10" s="15"/>
+      <c r="QW10" s="5"/>
+      <c r="RB10" s="13"/>
+      <c r="RC10" s="13"/>
+      <c r="RD10" s="15"/>
+      <c r="RE10" s="5"/>
+      <c r="RJ10" s="13"/>
+      <c r="RK10" s="13"/>
+      <c r="RL10" s="15"/>
+      <c r="RM10" s="5"/>
+      <c r="RR10" s="13"/>
+      <c r="RS10" s="13"/>
+      <c r="RT10" s="15"/>
+      <c r="RU10" s="5"/>
+      <c r="RZ10" s="13"/>
+      <c r="SA10" s="13"/>
+      <c r="SB10" s="15"/>
+      <c r="SC10" s="5"/>
+      <c r="SH10" s="13"/>
+      <c r="SI10" s="13"/>
+      <c r="SJ10" s="15"/>
+      <c r="SK10" s="5"/>
+      <c r="SP10" s="13"/>
+      <c r="SQ10" s="13"/>
+      <c r="SR10" s="15"/>
+      <c r="SS10" s="5"/>
+      <c r="SX10" s="13"/>
+      <c r="SY10" s="13"/>
+      <c r="SZ10" s="15"/>
+      <c r="TA10" s="5"/>
+      <c r="TF10" s="13"/>
+      <c r="TG10" s="13"/>
+      <c r="TH10" s="15"/>
+      <c r="TI10" s="5"/>
+      <c r="TN10" s="13"/>
+      <c r="TO10" s="13"/>
+      <c r="TP10" s="15"/>
+      <c r="TQ10" s="5"/>
+      <c r="TV10" s="13"/>
+      <c r="TW10" s="13"/>
+      <c r="TX10" s="15"/>
+      <c r="TY10" s="5"/>
+      <c r="UD10" s="13"/>
+      <c r="UE10" s="13"/>
+      <c r="UF10" s="15"/>
+      <c r="UG10" s="5"/>
+      <c r="UL10" s="13"/>
+      <c r="UM10" s="13"/>
+      <c r="UN10" s="15"/>
+      <c r="UO10" s="5"/>
+      <c r="UT10" s="13"/>
+      <c r="UU10" s="13"/>
+      <c r="UV10" s="15"/>
+      <c r="UW10" s="5"/>
+      <c r="VB10" s="13"/>
+      <c r="VC10" s="13"/>
+      <c r="VD10" s="15"/>
+      <c r="VE10" s="5"/>
+      <c r="VJ10" s="13"/>
+      <c r="VK10" s="13"/>
+      <c r="VL10" s="15"/>
+      <c r="VM10" s="5"/>
+      <c r="VR10" s="13"/>
+      <c r="VS10" s="13"/>
+      <c r="VT10" s="15"/>
+      <c r="VU10" s="5"/>
+      <c r="VZ10" s="13"/>
+      <c r="WA10" s="13"/>
+      <c r="WB10" s="15"/>
+      <c r="WC10" s="5"/>
+      <c r="WH10" s="13"/>
+      <c r="WI10" s="13"/>
+      <c r="WJ10" s="15"/>
+      <c r="WK10" s="5"/>
+      <c r="WP10" s="13"/>
+      <c r="WQ10" s="13"/>
+      <c r="WR10" s="15"/>
+      <c r="WS10" s="5"/>
+      <c r="WX10" s="13"/>
+      <c r="WY10" s="13"/>
+      <c r="WZ10" s="15"/>
+      <c r="XA10" s="5"/>
+      <c r="XF10" s="13"/>
+      <c r="XG10" s="13"/>
+      <c r="XH10" s="15"/>
+      <c r="XI10" s="5"/>
+      <c r="XN10" s="13"/>
+      <c r="XO10" s="13"/>
+      <c r="XP10" s="15"/>
+      <c r="XQ10" s="5"/>
+      <c r="XV10" s="13"/>
+      <c r="XW10" s="13"/>
+      <c r="XX10" s="15"/>
+      <c r="XY10" s="5"/>
+      <c r="YD10" s="13"/>
+      <c r="YE10" s="13"/>
+      <c r="YF10" s="15"/>
+      <c r="YG10" s="5"/>
+      <c r="YL10" s="13"/>
+      <c r="YM10" s="13"/>
+      <c r="YN10" s="15"/>
+      <c r="YO10" s="5"/>
+      <c r="YT10" s="13"/>
+      <c r="YU10" s="13"/>
+      <c r="YV10" s="15"/>
+      <c r="YW10" s="5"/>
+      <c r="ZB10" s="13"/>
+      <c r="ZC10" s="13"/>
+      <c r="ZD10" s="15"/>
+      <c r="ZE10" s="5"/>
+      <c r="ZJ10" s="13"/>
+      <c r="ZK10" s="13"/>
+      <c r="ZL10" s="15"/>
+      <c r="ZM10" s="5"/>
+      <c r="ZR10" s="13"/>
+      <c r="ZS10" s="13"/>
+      <c r="ZT10" s="15"/>
+      <c r="ZU10" s="5"/>
+      <c r="ZZ10" s="13"/>
+      <c r="AAA10" s="13"/>
+      <c r="AAB10" s="15"/>
+      <c r="AAC10" s="5"/>
+      <c r="AAH10" s="13"/>
+      <c r="AAI10" s="13"/>
+      <c r="AAJ10" s="15"/>
+      <c r="AAK10" s="5"/>
+      <c r="AAP10" s="13"/>
+      <c r="AAQ10" s="13"/>
+      <c r="AAR10" s="15"/>
+      <c r="AAS10" s="5"/>
+      <c r="AAX10" s="13"/>
+      <c r="AAY10" s="13"/>
+      <c r="AAZ10" s="15"/>
+      <c r="ABA10" s="5"/>
+      <c r="ABF10" s="13"/>
+      <c r="ABG10" s="13"/>
+      <c r="ABH10" s="15"/>
+      <c r="ABI10" s="5"/>
+      <c r="ABN10" s="13"/>
+      <c r="ABO10" s="13"/>
+      <c r="ABP10" s="15"/>
+      <c r="ABQ10" s="5"/>
+      <c r="ABV10" s="13"/>
+      <c r="ABW10" s="13"/>
+      <c r="ABX10" s="15"/>
+      <c r="ABY10" s="5"/>
+      <c r="ACD10" s="13"/>
+      <c r="ACE10" s="13"/>
+      <c r="ACF10" s="15"/>
+      <c r="ACG10" s="5"/>
+      <c r="ACL10" s="13"/>
+      <c r="ACM10" s="13"/>
+      <c r="ACN10" s="15"/>
+      <c r="ACO10" s="5"/>
+      <c r="ACT10" s="13"/>
+      <c r="ACU10" s="13"/>
+      <c r="ACV10" s="15"/>
+      <c r="ACW10" s="5"/>
+      <c r="ADB10" s="13"/>
+      <c r="ADC10" s="13"/>
+      <c r="ADD10" s="15"/>
+      <c r="ADE10" s="5"/>
+      <c r="ADJ10" s="13"/>
+      <c r="ADK10" s="13"/>
+      <c r="ADL10" s="15"/>
+      <c r="ADM10" s="5"/>
+      <c r="ADR10" s="13"/>
+      <c r="ADS10" s="13"/>
+      <c r="ADT10" s="15"/>
+      <c r="ADU10" s="5"/>
+      <c r="ADZ10" s="13"/>
+      <c r="AEA10" s="13"/>
+      <c r="AEB10" s="15"/>
+      <c r="AEC10" s="5"/>
+      <c r="AEH10" s="13"/>
+      <c r="AEI10" s="13"/>
+      <c r="AEJ10" s="15"/>
+      <c r="AEK10" s="5"/>
+      <c r="AEP10" s="13"/>
+      <c r="AEQ10" s="13"/>
+      <c r="AER10" s="15"/>
+      <c r="AES10" s="5"/>
+      <c r="AEX10" s="13"/>
+      <c r="AEY10" s="13"/>
+      <c r="AEZ10" s="15"/>
+      <c r="AFA10" s="5"/>
+      <c r="AFF10" s="13"/>
+      <c r="AFG10" s="13"/>
+      <c r="AFH10" s="15"/>
+      <c r="AFI10" s="5"/>
+      <c r="AFN10" s="13"/>
+      <c r="AFO10" s="13"/>
+      <c r="AFP10" s="15"/>
+      <c r="AFQ10" s="5"/>
+      <c r="AFV10" s="13"/>
+      <c r="AFW10" s="13"/>
+      <c r="AFX10" s="15"/>
+      <c r="AFY10" s="5"/>
+      <c r="AGD10" s="13"/>
+      <c r="AGE10" s="13"/>
+      <c r="AGF10" s="15"/>
+      <c r="AGG10" s="5"/>
+      <c r="AGL10" s="13"/>
+      <c r="AGM10" s="13"/>
+      <c r="AGN10" s="15"/>
+      <c r="AGO10" s="5"/>
+      <c r="AGT10" s="13"/>
+      <c r="AGU10" s="13"/>
+      <c r="AGV10" s="15"/>
+      <c r="AGW10" s="5"/>
+      <c r="AHB10" s="13"/>
+      <c r="AHC10" s="13"/>
+      <c r="AHD10" s="15"/>
+      <c r="AHE10" s="5"/>
+      <c r="AHJ10" s="13"/>
+      <c r="AHK10" s="13"/>
+      <c r="AHL10" s="15"/>
+      <c r="AHM10" s="5"/>
+      <c r="AHR10" s="13"/>
+      <c r="AHS10" s="13"/>
+      <c r="AHT10" s="15"/>
+      <c r="AHU10" s="5"/>
+      <c r="AHZ10" s="13"/>
+      <c r="AIA10" s="13"/>
+      <c r="AIB10" s="15"/>
+      <c r="AIC10" s="5"/>
+      <c r="AIH10" s="13"/>
+      <c r="AII10" s="13"/>
+      <c r="AIJ10" s="15"/>
+      <c r="AIK10" s="5"/>
+      <c r="AIP10" s="13"/>
+      <c r="AIQ10" s="13"/>
+      <c r="AIR10" s="15"/>
+      <c r="AIS10" s="5"/>
+      <c r="AIX10" s="13"/>
+      <c r="AIY10" s="13"/>
+      <c r="AIZ10" s="15"/>
+      <c r="AJA10" s="5"/>
+      <c r="AJF10" s="13"/>
+      <c r="AJG10" s="13"/>
+      <c r="AJH10" s="15"/>
+      <c r="AJI10" s="5"/>
+      <c r="AJN10" s="13"/>
+      <c r="AJO10" s="13"/>
+      <c r="AJP10" s="15"/>
+      <c r="AJQ10" s="5"/>
+      <c r="AJV10" s="13"/>
+      <c r="AJW10" s="13"/>
+      <c r="AJX10" s="15"/>
+      <c r="AJY10" s="5"/>
+      <c r="AKD10" s="13"/>
+      <c r="AKE10" s="13"/>
+      <c r="AKF10" s="15"/>
+      <c r="AKG10" s="5"/>
+      <c r="AKL10" s="13"/>
+      <c r="AKM10" s="13"/>
+      <c r="AKN10" s="15"/>
+      <c r="AKO10" s="5"/>
+      <c r="AKT10" s="13"/>
+      <c r="AKU10" s="13"/>
+      <c r="AKV10" s="15"/>
+      <c r="AKW10" s="5"/>
+      <c r="ALB10" s="13"/>
+      <c r="ALC10" s="13"/>
+      <c r="ALD10" s="15"/>
+      <c r="ALE10" s="5"/>
+      <c r="ALJ10" s="13"/>
+      <c r="ALK10" s="13"/>
+      <c r="ALL10" s="15"/>
+      <c r="ALM10" s="5"/>
+      <c r="ALR10" s="13"/>
+      <c r="ALS10" s="13"/>
+      <c r="ALT10" s="15"/>
+      <c r="ALU10" s="5"/>
+      <c r="ALZ10" s="13"/>
+      <c r="AMA10" s="13"/>
+      <c r="AMB10" s="15"/>
+      <c r="AMC10" s="5"/>
+      <c r="AMH10" s="13"/>
+      <c r="AMI10" s="13"/>
+      <c r="AMJ10" s="15"/>
+      <c r="AMK10" s="5"/>
+      <c r="AMP10" s="13"/>
+      <c r="AMQ10" s="13"/>
+      <c r="AMR10" s="15"/>
+      <c r="AMS10" s="5"/>
+      <c r="AMX10" s="13"/>
+      <c r="AMY10" s="13"/>
+      <c r="AMZ10" s="15"/>
+      <c r="ANA10" s="5"/>
+      <c r="ANF10" s="13"/>
+      <c r="ANG10" s="13"/>
+      <c r="ANH10" s="15"/>
+      <c r="ANI10" s="5"/>
+      <c r="ANN10" s="13"/>
+      <c r="ANO10" s="13"/>
+      <c r="ANP10" s="15"/>
+      <c r="ANQ10" s="5"/>
+      <c r="ANV10" s="13"/>
+      <c r="ANW10" s="13"/>
+      <c r="ANX10" s="15"/>
+      <c r="ANY10" s="5"/>
+      <c r="AOD10" s="13"/>
+      <c r="AOE10" s="13"/>
+      <c r="AOF10" s="15"/>
+      <c r="AOG10" s="5"/>
+      <c r="AOL10" s="13"/>
+      <c r="AOM10" s="13"/>
+      <c r="AON10" s="15"/>
+      <c r="AOO10" s="5"/>
+      <c r="AOT10" s="13"/>
+      <c r="AOU10" s="13"/>
+      <c r="AOV10" s="15"/>
+      <c r="AOW10" s="5"/>
+      <c r="APB10" s="13"/>
+      <c r="APC10" s="13"/>
+      <c r="APD10" s="15"/>
+      <c r="APE10" s="5"/>
+      <c r="APJ10" s="13"/>
+      <c r="APK10" s="13"/>
+      <c r="APL10" s="15"/>
+      <c r="APM10" s="5"/>
+      <c r="APR10" s="13"/>
+      <c r="APS10" s="13"/>
+      <c r="APT10" s="15"/>
+      <c r="APU10" s="5"/>
+      <c r="APZ10" s="13"/>
+      <c r="AQA10" s="13"/>
+      <c r="AQB10" s="15"/>
+      <c r="AQC10" s="5"/>
+      <c r="AQH10" s="13"/>
+      <c r="AQI10" s="13"/>
+      <c r="AQJ10" s="15"/>
+      <c r="AQK10" s="5"/>
+      <c r="AQP10" s="13"/>
+      <c r="AQQ10" s="13"/>
+      <c r="AQR10" s="15"/>
+      <c r="AQS10" s="5"/>
+      <c r="AQX10" s="13"/>
+      <c r="AQY10" s="13"/>
+      <c r="AQZ10" s="15"/>
+      <c r="ARA10" s="5"/>
+      <c r="ARF10" s="13"/>
+      <c r="ARG10" s="13"/>
+      <c r="ARH10" s="15"/>
+      <c r="ARI10" s="5"/>
+      <c r="ARN10" s="13"/>
+      <c r="ARO10" s="13"/>
+      <c r="ARP10" s="15"/>
+      <c r="ARQ10" s="5"/>
+      <c r="ARV10" s="13"/>
+      <c r="ARW10" s="13"/>
+      <c r="ARX10" s="15"/>
+      <c r="ARY10" s="5"/>
+      <c r="ASD10" s="13"/>
+      <c r="ASE10" s="13"/>
+      <c r="ASF10" s="15"/>
+      <c r="ASG10" s="5"/>
+      <c r="ASL10" s="13"/>
+      <c r="ASM10" s="13"/>
+      <c r="ASN10" s="15"/>
+      <c r="ASO10" s="5"/>
+      <c r="AST10" s="13"/>
+      <c r="ASU10" s="13"/>
+      <c r="ASV10" s="15"/>
+      <c r="ASW10" s="5"/>
+      <c r="ATB10" s="13"/>
+      <c r="ATC10" s="13"/>
+      <c r="ATD10" s="15"/>
+      <c r="ATE10" s="5"/>
+      <c r="ATJ10" s="13"/>
+      <c r="ATK10" s="13"/>
+      <c r="ATL10" s="15"/>
+      <c r="ATM10" s="5"/>
+      <c r="ATR10" s="13"/>
+      <c r="ATS10" s="13"/>
+      <c r="ATT10" s="15"/>
+      <c r="ATU10" s="5"/>
+      <c r="ATZ10" s="13"/>
+      <c r="AUA10" s="13"/>
+      <c r="AUB10" s="15"/>
+      <c r="AUC10" s="5"/>
+      <c r="AUH10" s="13"/>
+      <c r="AUI10" s="13"/>
+      <c r="AUJ10" s="15"/>
+      <c r="AUK10" s="5"/>
+      <c r="AUP10" s="13"/>
+      <c r="AUQ10" s="13"/>
+      <c r="AUR10" s="15"/>
+      <c r="AUS10" s="5"/>
+      <c r="AUX10" s="13"/>
+      <c r="AUY10" s="13"/>
+      <c r="AUZ10" s="15"/>
+      <c r="AVA10" s="5"/>
+      <c r="AVF10" s="13"/>
+      <c r="AVG10" s="13"/>
+      <c r="AVH10" s="15"/>
+      <c r="AVI10" s="5"/>
+      <c r="AVN10" s="13"/>
+      <c r="AVO10" s="13"/>
+      <c r="AVP10" s="15"/>
+      <c r="AVQ10" s="5"/>
+      <c r="AVV10" s="13"/>
+      <c r="AVW10" s="13"/>
+      <c r="AVX10" s="15"/>
+      <c r="AVY10" s="5"/>
+      <c r="AWD10" s="13"/>
+      <c r="AWE10" s="13"/>
+      <c r="AWF10" s="15"/>
+      <c r="AWG10" s="5"/>
+      <c r="AWL10" s="13"/>
+      <c r="AWM10" s="13"/>
+      <c r="AWN10" s="15"/>
+      <c r="AWO10" s="5"/>
+      <c r="AWT10" s="13"/>
+      <c r="AWU10" s="13"/>
+      <c r="AWV10" s="15"/>
+      <c r="AWW10" s="5"/>
+      <c r="AXB10" s="13"/>
+      <c r="AXC10" s="13"/>
+      <c r="AXD10" s="15"/>
+      <c r="AXE10" s="5"/>
+      <c r="AXJ10" s="13"/>
+      <c r="AXK10" s="13"/>
+      <c r="AXL10" s="15"/>
+      <c r="AXM10" s="5"/>
+      <c r="AXR10" s="13"/>
+      <c r="AXS10" s="13"/>
+      <c r="AXT10" s="15"/>
+      <c r="AXU10" s="5"/>
+      <c r="AXZ10" s="13"/>
+      <c r="AYA10" s="13"/>
+      <c r="AYB10" s="15"/>
+      <c r="AYC10" s="5"/>
+      <c r="AYH10" s="13"/>
+      <c r="AYI10" s="13"/>
+      <c r="AYJ10" s="15"/>
+      <c r="AYK10" s="5"/>
+      <c r="AYP10" s="13"/>
+      <c r="AYQ10" s="13"/>
+      <c r="AYR10" s="15"/>
+      <c r="AYS10" s="5"/>
+      <c r="AYX10" s="13"/>
+      <c r="AYY10" s="13"/>
+      <c r="AYZ10" s="15"/>
+      <c r="AZA10" s="5"/>
+      <c r="AZF10" s="13"/>
+      <c r="AZG10" s="13"/>
+      <c r="AZH10" s="15"/>
+      <c r="AZI10" s="5"/>
+      <c r="AZN10" s="13"/>
+      <c r="AZO10" s="13"/>
+      <c r="AZP10" s="15"/>
+      <c r="AZQ10" s="5"/>
+      <c r="AZV10" s="13"/>
+      <c r="AZW10" s="13"/>
+      <c r="AZX10" s="15"/>
+      <c r="AZY10" s="5"/>
+      <c r="BAD10" s="13"/>
+      <c r="BAE10" s="13"/>
+      <c r="BAF10" s="15"/>
+      <c r="BAG10" s="5"/>
+      <c r="BAL10" s="13"/>
+      <c r="BAM10" s="13"/>
+      <c r="BAN10" s="15"/>
+      <c r="BAO10" s="5"/>
+      <c r="BAT10" s="13"/>
+      <c r="BAU10" s="13"/>
+      <c r="BAV10" s="15"/>
+      <c r="BAW10" s="5"/>
+      <c r="BBB10" s="13"/>
+      <c r="BBC10" s="13"/>
+      <c r="BBD10" s="15"/>
+      <c r="BBE10" s="5"/>
+      <c r="BBJ10" s="13"/>
+      <c r="BBK10" s="13"/>
+      <c r="BBL10" s="15"/>
+      <c r="BBM10" s="5"/>
+      <c r="BBR10" s="13"/>
+      <c r="BBS10" s="13"/>
+      <c r="BBT10" s="15"/>
+      <c r="BBU10" s="5"/>
+      <c r="BBZ10" s="13"/>
+      <c r="BCA10" s="13"/>
+      <c r="BCB10" s="15"/>
+      <c r="BCC10" s="5"/>
+      <c r="BCH10" s="13"/>
+      <c r="BCI10" s="13"/>
+      <c r="BCJ10" s="15"/>
+      <c r="BCK10" s="5"/>
+      <c r="BCP10" s="13"/>
+      <c r="BCQ10" s="13"/>
+      <c r="BCR10" s="15"/>
+      <c r="BCS10" s="5"/>
+      <c r="BCX10" s="13"/>
+      <c r="BCY10" s="13"/>
+      <c r="BCZ10" s="15"/>
+      <c r="BDA10" s="5"/>
+      <c r="BDF10" s="13"/>
+      <c r="BDG10" s="13"/>
+      <c r="BDH10" s="15"/>
+      <c r="BDI10" s="5"/>
+      <c r="BDN10" s="13"/>
+      <c r="BDO10" s="13"/>
+      <c r="BDP10" s="15"/>
+      <c r="BDQ10" s="5"/>
+      <c r="BDV10" s="13"/>
+      <c r="BDW10" s="13"/>
+      <c r="BDX10" s="15"/>
+      <c r="BDY10" s="5"/>
+      <c r="BED10" s="13"/>
+      <c r="BEE10" s="13"/>
+      <c r="BEF10" s="15"/>
+      <c r="BEG10" s="5"/>
+      <c r="BEL10" s="13"/>
+      <c r="BEM10" s="13"/>
+      <c r="BEN10" s="15"/>
+      <c r="BEO10" s="5"/>
+      <c r="BET10" s="13"/>
+      <c r="BEU10" s="13"/>
+      <c r="BEV10" s="15"/>
+      <c r="BEW10" s="5"/>
+      <c r="BFB10" s="13"/>
+      <c r="BFC10" s="13"/>
+      <c r="BFD10" s="15"/>
+      <c r="BFE10" s="5"/>
+      <c r="BFJ10" s="13"/>
+      <c r="BFK10" s="13"/>
+      <c r="BFL10" s="15"/>
+      <c r="BFM10" s="5"/>
+      <c r="BFR10" s="13"/>
+      <c r="BFS10" s="13"/>
+      <c r="BFT10" s="15"/>
+      <c r="BFU10" s="5"/>
+      <c r="BFZ10" s="13"/>
+      <c r="BGA10" s="13"/>
+      <c r="BGB10" s="15"/>
+      <c r="BGC10" s="5"/>
+      <c r="BGH10" s="13"/>
+      <c r="BGI10" s="13"/>
+      <c r="BGJ10" s="15"/>
+      <c r="BGK10" s="5"/>
+      <c r="BGP10" s="13"/>
+      <c r="BGQ10" s="13"/>
+      <c r="BGR10" s="15"/>
+      <c r="BGS10" s="5"/>
+      <c r="BGX10" s="13"/>
+      <c r="BGY10" s="13"/>
+      <c r="BGZ10" s="15"/>
+      <c r="BHA10" s="5"/>
+      <c r="BHF10" s="13"/>
+      <c r="BHG10" s="13"/>
+      <c r="BHH10" s="15"/>
+      <c r="BHI10" s="5"/>
+      <c r="BHN10" s="13"/>
+      <c r="BHO10" s="13"/>
+      <c r="BHP10" s="15"/>
+      <c r="BHQ10" s="5"/>
+      <c r="BHV10" s="13"/>
+      <c r="BHW10" s="13"/>
+      <c r="BHX10" s="15"/>
+      <c r="BHY10" s="5"/>
+      <c r="BID10" s="13"/>
+      <c r="BIE10" s="13"/>
+      <c r="BIF10" s="15"/>
+      <c r="BIG10" s="5"/>
+      <c r="BIL10" s="13"/>
+      <c r="BIM10" s="13"/>
+      <c r="BIN10" s="15"/>
+      <c r="BIO10" s="5"/>
+      <c r="BIT10" s="13"/>
+      <c r="BIU10" s="13"/>
+      <c r="BIV10" s="15"/>
+      <c r="BIW10" s="5"/>
+      <c r="BJB10" s="13"/>
+      <c r="BJC10" s="13"/>
+      <c r="BJD10" s="15"/>
+      <c r="BJE10" s="5"/>
+      <c r="BJJ10" s="13"/>
+      <c r="BJK10" s="13"/>
+      <c r="BJL10" s="15"/>
+      <c r="BJM10" s="5"/>
+      <c r="BJR10" s="13"/>
+      <c r="BJS10" s="13"/>
+      <c r="BJT10" s="15"/>
+      <c r="BJU10" s="5"/>
+      <c r="BJZ10" s="13"/>
+      <c r="BKA10" s="13"/>
+      <c r="BKB10" s="15"/>
+      <c r="BKC10" s="5"/>
+      <c r="BKH10" s="13"/>
+      <c r="BKI10" s="13"/>
+      <c r="BKJ10" s="15"/>
+      <c r="BKK10" s="5"/>
+      <c r="BKP10" s="13"/>
+      <c r="BKQ10" s="13"/>
+      <c r="BKR10" s="15"/>
+      <c r="BKS10" s="5"/>
+      <c r="BKX10" s="13"/>
+      <c r="BKY10" s="13"/>
+      <c r="BKZ10" s="15"/>
+      <c r="BLA10" s="5"/>
+      <c r="BLF10" s="13"/>
+      <c r="BLG10" s="13"/>
+      <c r="BLH10" s="15"/>
+      <c r="BLI10" s="5"/>
+      <c r="BLN10" s="13"/>
+      <c r="BLO10" s="13"/>
+      <c r="BLP10" s="15"/>
+      <c r="BLQ10" s="5"/>
+      <c r="BLV10" s="13"/>
+      <c r="BLW10" s="13"/>
+      <c r="BLX10" s="15"/>
+      <c r="BLY10" s="5"/>
+      <c r="BMD10" s="13"/>
+      <c r="BME10" s="13"/>
+      <c r="BMF10" s="15"/>
+      <c r="BMG10" s="5"/>
+      <c r="BML10" s="13"/>
+      <c r="BMM10" s="13"/>
+      <c r="BMN10" s="15"/>
+      <c r="BMO10" s="5"/>
+      <c r="BMT10" s="13"/>
+      <c r="BMU10" s="13"/>
+      <c r="BMV10" s="15"/>
+      <c r="BMW10" s="5"/>
+      <c r="BNB10" s="13"/>
+      <c r="BNC10" s="13"/>
+      <c r="BND10" s="15"/>
+      <c r="BNE10" s="5"/>
+      <c r="BNJ10" s="13"/>
+      <c r="BNK10" s="13"/>
+      <c r="BNL10" s="15"/>
+      <c r="BNM10" s="5"/>
+      <c r="BNR10" s="13"/>
+      <c r="BNS10" s="13"/>
+      <c r="BNT10" s="15"/>
+      <c r="BNU10" s="5"/>
+      <c r="BNZ10" s="13"/>
+      <c r="BOA10" s="13"/>
+      <c r="BOB10" s="15"/>
+      <c r="BOC10" s="5"/>
+      <c r="BOH10" s="13"/>
+      <c r="BOI10" s="13"/>
+      <c r="BOJ10" s="15"/>
+      <c r="BOK10" s="5"/>
+      <c r="BOP10" s="13"/>
+      <c r="BOQ10" s="13"/>
+      <c r="BOR10" s="15"/>
+      <c r="BOS10" s="5"/>
+      <c r="BOX10" s="13"/>
+      <c r="BOY10" s="13"/>
+      <c r="BOZ10" s="15"/>
+      <c r="BPA10" s="5"/>
+      <c r="BPF10" s="13"/>
+      <c r="BPG10" s="13"/>
+      <c r="BPH10" s="15"/>
+      <c r="BPI10" s="5"/>
+      <c r="BPN10" s="13"/>
+      <c r="BPO10" s="13"/>
+      <c r="BPP10" s="15"/>
+      <c r="BPQ10" s="5"/>
+      <c r="BPV10" s="13"/>
+      <c r="BPW10" s="13"/>
+      <c r="BPX10" s="15"/>
+      <c r="BPY10" s="5"/>
+      <c r="BQD10" s="13"/>
+      <c r="BQE10" s="13"/>
+      <c r="BQF10" s="15"/>
+      <c r="BQG10" s="5"/>
+      <c r="BQL10" s="13"/>
+      <c r="BQM10" s="13"/>
+      <c r="BQN10" s="15"/>
+      <c r="BQO10" s="5"/>
+      <c r="BQT10" s="13"/>
+      <c r="BQU10" s="13"/>
+      <c r="BQV10" s="15"/>
+      <c r="BQW10" s="5"/>
+      <c r="BRB10" s="13"/>
+      <c r="BRC10" s="13"/>
+      <c r="BRD10" s="15"/>
+      <c r="BRE10" s="5"/>
+      <c r="BRJ10" s="13"/>
+      <c r="BRK10" s="13"/>
+      <c r="BRL10" s="15"/>
+      <c r="BRM10" s="5"/>
+      <c r="BRR10" s="13"/>
+      <c r="BRS10" s="13"/>
+      <c r="BRT10" s="15"/>
+      <c r="BRU10" s="5"/>
+      <c r="BRZ10" s="13"/>
+      <c r="BSA10" s="13"/>
+      <c r="BSB10" s="15"/>
+      <c r="BSC10" s="5"/>
+      <c r="BSH10" s="13"/>
+      <c r="BSI10" s="13"/>
+      <c r="BSJ10" s="15"/>
+      <c r="BSK10" s="5"/>
+      <c r="BSP10" s="13"/>
+      <c r="BSQ10" s="13"/>
+      <c r="BSR10" s="15"/>
+      <c r="BSS10" s="5"/>
+      <c r="BSX10" s="13"/>
+      <c r="BSY10" s="13"/>
+      <c r="BSZ10" s="15"/>
+      <c r="BTA10" s="5"/>
+      <c r="BTF10" s="13"/>
+      <c r="BTG10" s="13"/>
+      <c r="BTH10" s="15"/>
+      <c r="BTI10" s="5"/>
+      <c r="BTN10" s="13"/>
+      <c r="BTO10" s="13"/>
+      <c r="BTP10" s="15"/>
+      <c r="BTQ10" s="5"/>
+      <c r="BTV10" s="13"/>
+      <c r="BTW10" s="13"/>
+      <c r="BTX10" s="15"/>
+      <c r="BTY10" s="5"/>
+      <c r="BUD10" s="13"/>
+      <c r="BUE10" s="13"/>
+      <c r="BUF10" s="15"/>
+      <c r="BUG10" s="5"/>
+      <c r="BUL10" s="13"/>
+      <c r="BUM10" s="13"/>
+      <c r="BUN10" s="15"/>
+      <c r="BUO10" s="5"/>
+      <c r="BUT10" s="13"/>
+      <c r="BUU10" s="13"/>
+      <c r="BUV10" s="15"/>
+      <c r="BUW10" s="5"/>
+      <c r="BVB10" s="13"/>
+      <c r="BVC10" s="13"/>
+      <c r="BVD10" s="15"/>
+      <c r="BVE10" s="5"/>
+      <c r="BVJ10" s="13"/>
+      <c r="BVK10" s="13"/>
+      <c r="BVL10" s="15"/>
+      <c r="BVM10" s="5"/>
+      <c r="BVR10" s="13"/>
+      <c r="BVS10" s="13"/>
+      <c r="BVT10" s="15"/>
+      <c r="BVU10" s="5"/>
+      <c r="BVZ10" s="13"/>
+      <c r="BWA10" s="13"/>
+      <c r="BWB10" s="15"/>
+      <c r="BWC10" s="5"/>
+      <c r="BWH10" s="13"/>
+      <c r="BWI10" s="13"/>
+      <c r="BWJ10" s="15"/>
+      <c r="BWK10" s="5"/>
+      <c r="BWP10" s="13"/>
+      <c r="BWQ10" s="13"/>
+      <c r="BWR10" s="15"/>
+      <c r="BWS10" s="5"/>
+      <c r="BWX10" s="13"/>
+      <c r="BWY10" s="13"/>
+      <c r="BWZ10" s="15"/>
+      <c r="BXA10" s="5"/>
+      <c r="BXF10" s="13"/>
+      <c r="BXG10" s="13"/>
+      <c r="BXH10" s="15"/>
+      <c r="BXI10" s="5"/>
+      <c r="BXN10" s="13"/>
+      <c r="BXO10" s="13"/>
+      <c r="BXP10" s="15"/>
+      <c r="BXQ10" s="5"/>
+      <c r="BXV10" s="13"/>
+      <c r="BXW10" s="13"/>
+      <c r="BXX10" s="15"/>
+      <c r="BXY10" s="5"/>
+      <c r="BYD10" s="13"/>
+      <c r="BYE10" s="13"/>
+      <c r="BYF10" s="15"/>
+      <c r="BYG10" s="5"/>
+      <c r="BYL10" s="13"/>
+      <c r="BYM10" s="13"/>
+      <c r="BYN10" s="15"/>
+      <c r="BYO10" s="5"/>
+      <c r="BYT10" s="13"/>
+      <c r="BYU10" s="13"/>
+      <c r="BYV10" s="15"/>
+      <c r="BYW10" s="5"/>
+      <c r="BZB10" s="13"/>
+      <c r="BZC10" s="13"/>
+      <c r="BZD10" s="15"/>
+      <c r="BZE10" s="5"/>
+      <c r="BZJ10" s="13"/>
+      <c r="BZK10" s="13"/>
+      <c r="BZL10" s="15"/>
+      <c r="BZM10" s="5"/>
+      <c r="BZR10" s="13"/>
+      <c r="BZS10" s="13"/>
+      <c r="BZT10" s="15"/>
+      <c r="BZU10" s="5"/>
+      <c r="BZZ10" s="13"/>
+      <c r="CAA10" s="13"/>
+      <c r="CAB10" s="15"/>
+      <c r="CAC10" s="5"/>
+      <c r="CAH10" s="13"/>
+      <c r="CAI10" s="13"/>
+      <c r="CAJ10" s="15"/>
+      <c r="CAK10" s="5"/>
+      <c r="CAP10" s="13"/>
+      <c r="CAQ10" s="13"/>
+      <c r="CAR10" s="15"/>
+      <c r="CAS10" s="5"/>
+      <c r="CAX10" s="13"/>
+      <c r="CAY10" s="13"/>
+      <c r="CAZ10" s="15"/>
+      <c r="CBA10" s="5"/>
+      <c r="CBF10" s="13"/>
+      <c r="CBG10" s="13"/>
+      <c r="CBH10" s="15"/>
+      <c r="CBI10" s="5"/>
+      <c r="CBN10" s="13"/>
+      <c r="CBO10" s="13"/>
+      <c r="CBP10" s="15"/>
+      <c r="CBQ10" s="5"/>
+      <c r="CBV10" s="13"/>
+      <c r="CBW10" s="13"/>
+      <c r="CBX10" s="15"/>
+      <c r="CBY10" s="5"/>
+      <c r="CCD10" s="13"/>
+      <c r="CCE10" s="13"/>
+      <c r="CCF10" s="15"/>
+      <c r="CCG10" s="5"/>
+      <c r="CCL10" s="13"/>
+      <c r="CCM10" s="13"/>
+      <c r="CCN10" s="15"/>
+      <c r="CCO10" s="5"/>
+      <c r="CCT10" s="13"/>
+      <c r="CCU10" s="13"/>
+      <c r="CCV10" s="15"/>
+      <c r="CCW10" s="5"/>
+      <c r="CDB10" s="13"/>
+      <c r="CDC10" s="13"/>
+      <c r="CDD10" s="15"/>
+      <c r="CDE10" s="5"/>
+      <c r="CDJ10" s="13"/>
+      <c r="CDK10" s="13"/>
+      <c r="CDL10" s="15"/>
+      <c r="CDM10" s="5"/>
+      <c r="CDR10" s="13"/>
+      <c r="CDS10" s="13"/>
+      <c r="CDT10" s="15"/>
+      <c r="CDU10" s="5"/>
+      <c r="CDZ10" s="13"/>
+      <c r="CEA10" s="13"/>
+      <c r="CEB10" s="15"/>
+      <c r="CEC10" s="5"/>
+      <c r="CEH10" s="13"/>
+      <c r="CEI10" s="13"/>
+      <c r="CEJ10" s="15"/>
+      <c r="CEK10" s="5"/>
+      <c r="CEP10" s="13"/>
+      <c r="CEQ10" s="13"/>
+      <c r="CER10" s="15"/>
+      <c r="CES10" s="5"/>
+      <c r="CEX10" s="13"/>
+      <c r="CEY10" s="13"/>
+      <c r="CEZ10" s="15"/>
+      <c r="CFA10" s="5"/>
+      <c r="CFF10" s="13"/>
+      <c r="CFG10" s="13"/>
+      <c r="CFH10" s="15"/>
+      <c r="CFI10" s="5"/>
+      <c r="CFN10" s="13"/>
+      <c r="CFO10" s="13"/>
+      <c r="CFP10" s="15"/>
+      <c r="CFQ10" s="5"/>
+      <c r="CFV10" s="13"/>
+      <c r="CFW10" s="13"/>
+      <c r="CFX10" s="15"/>
+      <c r="CFY10" s="5"/>
+      <c r="CGD10" s="13"/>
+      <c r="CGE10" s="13"/>
+      <c r="CGF10" s="15"/>
+      <c r="CGG10" s="5"/>
+      <c r="CGL10" s="13"/>
+      <c r="CGM10" s="13"/>
+      <c r="CGN10" s="15"/>
+      <c r="CGO10" s="5"/>
+      <c r="CGT10" s="13"/>
+      <c r="CGU10" s="13"/>
+      <c r="CGV10" s="15"/>
+      <c r="CGW10" s="5"/>
+      <c r="CHB10" s="13"/>
+      <c r="CHC10" s="13"/>
+      <c r="CHD10" s="15"/>
+      <c r="CHE10" s="5"/>
+      <c r="CHJ10" s="13"/>
+      <c r="CHK10" s="13"/>
+      <c r="CHL10" s="15"/>
+      <c r="CHM10" s="5"/>
+      <c r="CHR10" s="13"/>
+      <c r="CHS10" s="13"/>
+      <c r="CHT10" s="15"/>
+      <c r="CHU10" s="5"/>
+      <c r="CHZ10" s="13"/>
+      <c r="CIA10" s="13"/>
+      <c r="CIB10" s="15"/>
+      <c r="CIC10" s="5"/>
+      <c r="CIH10" s="13"/>
+      <c r="CII10" s="13"/>
+      <c r="CIJ10" s="15"/>
+      <c r="CIK10" s="5"/>
+      <c r="CIP10" s="13"/>
+      <c r="CIQ10" s="13"/>
+      <c r="CIR10" s="15"/>
+      <c r="CIS10" s="5"/>
+      <c r="CIX10" s="13"/>
+      <c r="CIY10" s="13"/>
+      <c r="CIZ10" s="15"/>
+      <c r="CJA10" s="5"/>
+      <c r="CJF10" s="13"/>
+      <c r="CJG10" s="13"/>
+      <c r="CJH10" s="15"/>
+      <c r="CJI10" s="5"/>
+      <c r="CJN10" s="13"/>
+      <c r="CJO10" s="13"/>
+      <c r="CJP10" s="15"/>
+      <c r="CJQ10" s="5"/>
+      <c r="CJV10" s="13"/>
+      <c r="CJW10" s="13"/>
+      <c r="CJX10" s="15"/>
+      <c r="CJY10" s="5"/>
+      <c r="CKD10" s="13"/>
+      <c r="CKE10" s="13"/>
+      <c r="CKF10" s="15"/>
+      <c r="CKG10" s="5"/>
+      <c r="CKL10" s="13"/>
+      <c r="CKM10" s="13"/>
+      <c r="CKN10" s="15"/>
+      <c r="CKO10" s="5"/>
+      <c r="CKT10" s="13"/>
+      <c r="CKU10" s="13"/>
+      <c r="CKV10" s="15"/>
+      <c r="CKW10" s="5"/>
+      <c r="CLB10" s="13"/>
+      <c r="CLC10" s="13"/>
+      <c r="CLD10" s="15"/>
+      <c r="CLE10" s="5"/>
+      <c r="CLJ10" s="13"/>
+      <c r="CLK10" s="13"/>
+      <c r="CLL10" s="15"/>
+      <c r="CLM10" s="5"/>
+      <c r="CLR10" s="13"/>
+      <c r="CLS10" s="13"/>
+      <c r="CLT10" s="15"/>
+      <c r="CLU10" s="5"/>
+      <c r="CLZ10" s="13"/>
+      <c r="CMA10" s="13"/>
+      <c r="CMB10" s="15"/>
+      <c r="CMC10" s="5"/>
+      <c r="CMH10" s="13"/>
+      <c r="CMI10" s="13"/>
+      <c r="CMJ10" s="15"/>
+      <c r="CMK10" s="5"/>
+      <c r="CMP10" s="13"/>
+      <c r="CMQ10" s="13"/>
+      <c r="CMR10" s="15"/>
+      <c r="CMS10" s="5"/>
+      <c r="CMX10" s="13"/>
+      <c r="CMY10" s="13"/>
+      <c r="CMZ10" s="15"/>
+      <c r="CNA10" s="5"/>
+      <c r="CNF10" s="13"/>
+      <c r="CNG10" s="13"/>
+      <c r="CNH10" s="15"/>
+      <c r="CNI10" s="5"/>
+      <c r="CNN10" s="13"/>
+      <c r="CNO10" s="13"/>
+      <c r="CNP10" s="15"/>
+      <c r="CNQ10" s="5"/>
+      <c r="CNV10" s="13"/>
+      <c r="CNW10" s="13"/>
+      <c r="CNX10" s="15"/>
+      <c r="CNY10" s="5"/>
+      <c r="COD10" s="13"/>
+      <c r="COE10" s="13"/>
+      <c r="COF10" s="15"/>
+      <c r="COG10" s="5"/>
+      <c r="COL10" s="13"/>
+      <c r="COM10" s="13"/>
+      <c r="CON10" s="15"/>
+      <c r="COO10" s="5"/>
+      <c r="COT10" s="13"/>
+      <c r="COU10" s="13"/>
+      <c r="COV10" s="15"/>
+      <c r="COW10" s="5"/>
+      <c r="CPB10" s="13"/>
+      <c r="CPC10" s="13"/>
+      <c r="CPD10" s="15"/>
+      <c r="CPE10" s="5"/>
+      <c r="CPJ10" s="13"/>
+      <c r="CPK10" s="13"/>
+      <c r="CPL10" s="15"/>
+      <c r="CPM10" s="5"/>
+      <c r="CPR10" s="13"/>
+      <c r="CPS10" s="13"/>
+      <c r="CPT10" s="15"/>
+      <c r="CPU10" s="5"/>
+      <c r="CPZ10" s="13"/>
+      <c r="CQA10" s="13"/>
+      <c r="CQB10" s="15"/>
+      <c r="CQC10" s="5"/>
+      <c r="CQH10" s="13"/>
+      <c r="CQI10" s="13"/>
+      <c r="CQJ10" s="15"/>
+      <c r="CQK10" s="5"/>
+      <c r="CQP10" s="13"/>
+      <c r="CQQ10" s="13"/>
+      <c r="CQR10" s="15"/>
+      <c r="CQS10" s="5"/>
+      <c r="CQX10" s="13"/>
+      <c r="CQY10" s="13"/>
+      <c r="CQZ10" s="15"/>
+      <c r="CRA10" s="5"/>
+      <c r="CRF10" s="13"/>
+      <c r="CRG10" s="13"/>
+      <c r="CRH10" s="15"/>
+      <c r="CRI10" s="5"/>
+      <c r="CRN10" s="13"/>
+      <c r="CRO10" s="13"/>
+      <c r="CRP10" s="15"/>
+      <c r="CRQ10" s="5"/>
+      <c r="CRV10" s="13"/>
+      <c r="CRW10" s="13"/>
+      <c r="CRX10" s="15"/>
+      <c r="CRY10" s="5"/>
+      <c r="CSD10" s="13"/>
+      <c r="CSE10" s="13"/>
+      <c r="CSF10" s="15"/>
+      <c r="CSG10" s="5"/>
+      <c r="CSL10" s="13"/>
+      <c r="CSM10" s="13"/>
+      <c r="CSN10" s="15"/>
+      <c r="CSO10" s="5"/>
+      <c r="CST10" s="13"/>
+      <c r="CSU10" s="13"/>
+      <c r="CSV10" s="15"/>
+      <c r="CSW10" s="5"/>
+      <c r="CTB10" s="13"/>
+      <c r="CTC10" s="13"/>
+      <c r="CTD10" s="15"/>
+      <c r="CTE10" s="5"/>
+      <c r="CTJ10" s="13"/>
+      <c r="CTK10" s="13"/>
+      <c r="CTL10" s="15"/>
+      <c r="CTM10" s="5"/>
+      <c r="CTR10" s="13"/>
+      <c r="CTS10" s="13"/>
+      <c r="CTT10" s="15"/>
+      <c r="CTU10" s="5"/>
+      <c r="CTZ10" s="13"/>
+      <c r="CUA10" s="13"/>
+      <c r="CUB10" s="15"/>
+      <c r="CUC10" s="5"/>
+      <c r="CUH10" s="13"/>
+      <c r="CUI10" s="13"/>
+      <c r="CUJ10" s="15"/>
+      <c r="CUK10" s="5"/>
+      <c r="CUP10" s="13"/>
+      <c r="CUQ10" s="13"/>
+      <c r="CUR10" s="15"/>
+      <c r="CUS10" s="5"/>
+      <c r="CUX10" s="13"/>
+      <c r="CUY10" s="13"/>
+      <c r="CUZ10" s="15"/>
+      <c r="CVA10" s="5"/>
+      <c r="CVF10" s="13"/>
+      <c r="CVG10" s="13"/>
+      <c r="CVH10" s="15"/>
+      <c r="CVI10" s="5"/>
+      <c r="CVN10" s="13"/>
+      <c r="CVO10" s="13"/>
+      <c r="CVP10" s="15"/>
+      <c r="CVQ10" s="5"/>
+      <c r="CVV10" s="13"/>
+      <c r="CVW10" s="13"/>
+      <c r="CVX10" s="15"/>
+      <c r="CVY10" s="5"/>
+      <c r="CWD10" s="13"/>
+      <c r="CWE10" s="13"/>
+      <c r="CWF10" s="15"/>
+      <c r="CWG10" s="5"/>
+      <c r="CWL10" s="13"/>
+      <c r="CWM10" s="13"/>
+      <c r="CWN10" s="15"/>
+      <c r="CWO10" s="5"/>
+      <c r="CWT10" s="13"/>
+      <c r="CWU10" s="13"/>
+      <c r="CWV10" s="15"/>
+      <c r="CWW10" s="5"/>
+      <c r="CXB10" s="13"/>
+      <c r="CXC10" s="13"/>
+      <c r="CXD10" s="15"/>
+      <c r="CXE10" s="5"/>
+      <c r="CXJ10" s="13"/>
+      <c r="CXK10" s="13"/>
+      <c r="CXL10" s="15"/>
+      <c r="CXM10" s="5"/>
+      <c r="CXR10" s="13"/>
+      <c r="CXS10" s="13"/>
+      <c r="CXT10" s="15"/>
+      <c r="CXU10" s="5"/>
+      <c r="CXZ10" s="13"/>
+      <c r="CYA10" s="13"/>
+      <c r="CYB10" s="15"/>
+      <c r="CYC10" s="5"/>
+      <c r="CYH10" s="13"/>
+      <c r="CYI10" s="13"/>
+      <c r="CYJ10" s="15"/>
+      <c r="CYK10" s="5"/>
+      <c r="CYP10" s="13"/>
+      <c r="CYQ10" s="13"/>
+      <c r="CYR10" s="15"/>
+      <c r="CYS10" s="5"/>
+      <c r="CYX10" s="13"/>
+      <c r="CYY10" s="13"/>
+      <c r="CYZ10" s="15"/>
+      <c r="CZA10" s="5"/>
+      <c r="CZF10" s="13"/>
+      <c r="CZG10" s="13"/>
+      <c r="CZH10" s="15"/>
+      <c r="CZI10" s="5"/>
+      <c r="CZN10" s="13"/>
+      <c r="CZO10" s="13"/>
+      <c r="CZP10" s="15"/>
+      <c r="CZQ10" s="5"/>
+      <c r="CZV10" s="13"/>
+      <c r="CZW10" s="13"/>
+      <c r="CZX10" s="15"/>
+      <c r="CZY10" s="5"/>
+      <c r="DAD10" s="13"/>
+      <c r="DAE10" s="13"/>
+      <c r="DAF10" s="15"/>
+      <c r="DAG10" s="5"/>
+      <c r="DAL10" s="13"/>
+      <c r="DAM10" s="13"/>
+      <c r="DAN10" s="15"/>
+      <c r="DAO10" s="5"/>
+      <c r="DAT10" s="13"/>
+      <c r="DAU10" s="13"/>
+      <c r="DAV10" s="15"/>
+      <c r="DAW10" s="5"/>
+      <c r="DBB10" s="13"/>
+      <c r="DBC10" s="13"/>
+      <c r="DBD10" s="15"/>
+      <c r="DBE10" s="5"/>
+      <c r="DBJ10" s="13"/>
+      <c r="DBK10" s="13"/>
+      <c r="DBL10" s="15"/>
+      <c r="DBM10" s="5"/>
+      <c r="DBR10" s="13"/>
+      <c r="DBS10" s="13"/>
+      <c r="DBT10" s="15"/>
+      <c r="DBU10" s="5"/>
+      <c r="DBZ10" s="13"/>
+      <c r="DCA10" s="13"/>
+      <c r="DCB10" s="15"/>
+      <c r="DCC10" s="5"/>
+      <c r="DCH10" s="13"/>
+      <c r="DCI10" s="13"/>
+      <c r="DCJ10" s="15"/>
+      <c r="DCK10" s="5"/>
+      <c r="DCP10" s="13"/>
+      <c r="DCQ10" s="13"/>
+      <c r="DCR10" s="15"/>
+      <c r="DCS10" s="5"/>
+      <c r="DCX10" s="13"/>
+      <c r="DCY10" s="13"/>
+      <c r="DCZ10" s="15"/>
+      <c r="DDA10" s="5"/>
+      <c r="DDF10" s="13"/>
+      <c r="DDG10" s="13"/>
+      <c r="DDH10" s="15"/>
+      <c r="DDI10" s="5"/>
+      <c r="DDN10" s="13"/>
+      <c r="DDO10" s="13"/>
+      <c r="DDP10" s="15"/>
+      <c r="DDQ10" s="5"/>
+      <c r="DDV10" s="13"/>
+      <c r="DDW10" s="13"/>
+      <c r="DDX10" s="15"/>
+      <c r="DDY10" s="5"/>
+      <c r="DED10" s="13"/>
+      <c r="DEE10" s="13"/>
+      <c r="DEF10" s="15"/>
+      <c r="DEG10" s="5"/>
+      <c r="DEL10" s="13"/>
+      <c r="DEM10" s="13"/>
+      <c r="DEN10" s="15"/>
+      <c r="DEO10" s="5"/>
+      <c r="DET10" s="13"/>
+      <c r="DEU10" s="13"/>
+      <c r="DEV10" s="15"/>
+      <c r="DEW10" s="5"/>
+      <c r="DFB10" s="13"/>
+      <c r="DFC10" s="13"/>
+      <c r="DFD10" s="15"/>
+      <c r="DFE10" s="5"/>
+      <c r="DFJ10" s="13"/>
+      <c r="DFK10" s="13"/>
+      <c r="DFL10" s="15"/>
+      <c r="DFM10" s="5"/>
+      <c r="DFR10" s="13"/>
+      <c r="DFS10" s="13"/>
+      <c r="DFT10" s="15"/>
+      <c r="DFU10" s="5"/>
+      <c r="DFZ10" s="13"/>
+      <c r="DGA10" s="13"/>
+      <c r="DGB10" s="15"/>
+      <c r="DGC10" s="5"/>
+      <c r="DGH10" s="13"/>
+      <c r="DGI10" s="13"/>
+      <c r="DGJ10" s="15"/>
+      <c r="DGK10" s="5"/>
+      <c r="DGP10" s="13"/>
+      <c r="DGQ10" s="13"/>
+      <c r="DGR10" s="15"/>
+      <c r="DGS10" s="5"/>
+      <c r="DGX10" s="13"/>
+      <c r="DGY10" s="13"/>
+      <c r="DGZ10" s="15"/>
+      <c r="DHA10" s="5"/>
+      <c r="DHF10" s="13"/>
+      <c r="DHG10" s="13"/>
+      <c r="DHH10" s="15"/>
+      <c r="DHI10" s="5"/>
+      <c r="DHN10" s="13"/>
+      <c r="DHO10" s="13"/>
+      <c r="DHP10" s="15"/>
+      <c r="DHQ10" s="5"/>
+      <c r="DHV10" s="13"/>
+      <c r="DHW10" s="13"/>
+      <c r="DHX10" s="15"/>
+      <c r="DHY10" s="5"/>
+      <c r="DID10" s="13"/>
+      <c r="DIE10" s="13"/>
+      <c r="DIF10" s="15"/>
+      <c r="DIG10" s="5"/>
+      <c r="DIL10" s="13"/>
+      <c r="DIM10" s="13"/>
+      <c r="DIN10" s="15"/>
+      <c r="DIO10" s="5"/>
+      <c r="DIT10" s="13"/>
+      <c r="DIU10" s="13"/>
+      <c r="DIV10" s="15"/>
+      <c r="DIW10" s="5"/>
+      <c r="DJB10" s="13"/>
+      <c r="DJC10" s="13"/>
+      <c r="DJD10" s="15"/>
+      <c r="DJE10" s="5"/>
+      <c r="DJJ10" s="13"/>
+      <c r="DJK10" s="13"/>
+      <c r="DJL10" s="15"/>
+      <c r="DJM10" s="5"/>
+      <c r="DJR10" s="13"/>
+      <c r="DJS10" s="13"/>
+      <c r="DJT10" s="15"/>
+      <c r="DJU10" s="5"/>
+      <c r="DJZ10" s="13"/>
+      <c r="DKA10" s="13"/>
+      <c r="DKB10" s="15"/>
+      <c r="DKC10" s="5"/>
+      <c r="DKH10" s="13"/>
+      <c r="DKI10" s="13"/>
+      <c r="DKJ10" s="15"/>
+      <c r="DKK10" s="5"/>
+      <c r="DKP10" s="13"/>
+      <c r="DKQ10" s="13"/>
+      <c r="DKR10" s="15"/>
+      <c r="DKS10" s="5"/>
+      <c r="DKX10" s="13"/>
+      <c r="DKY10" s="13"/>
+      <c r="DKZ10" s="15"/>
+      <c r="DLA10" s="5"/>
+      <c r="DLF10" s="13"/>
+      <c r="DLG10" s="13"/>
+      <c r="DLH10" s="15"/>
+      <c r="DLI10" s="5"/>
+      <c r="DLN10" s="13"/>
+      <c r="DLO10" s="13"/>
+      <c r="DLP10" s="15"/>
+      <c r="DLQ10" s="5"/>
+      <c r="DLV10" s="13"/>
+      <c r="DLW10" s="13"/>
+      <c r="DLX10" s="15"/>
+      <c r="DLY10" s="5"/>
+      <c r="DMD10" s="13"/>
+      <c r="DME10" s="13"/>
+      <c r="DMF10" s="15"/>
+      <c r="DMG10" s="5"/>
+      <c r="DML10" s="13"/>
+      <c r="DMM10" s="13"/>
+      <c r="DMN10" s="15"/>
+      <c r="DMO10" s="5"/>
+      <c r="DMT10" s="13"/>
+      <c r="DMU10" s="13"/>
+      <c r="DMV10" s="15"/>
+      <c r="DMW10" s="5"/>
+      <c r="DNB10" s="13"/>
+      <c r="DNC10" s="13"/>
+      <c r="DND10" s="15"/>
+      <c r="DNE10" s="5"/>
+      <c r="DNJ10" s="13"/>
+      <c r="DNK10" s="13"/>
+      <c r="DNL10" s="15"/>
+      <c r="DNM10" s="5"/>
+      <c r="DNR10" s="13"/>
+      <c r="DNS10" s="13"/>
+      <c r="DNT10" s="15"/>
+      <c r="DNU10" s="5"/>
+      <c r="DNZ10" s="13"/>
+      <c r="DOA10" s="13"/>
+      <c r="DOB10" s="15"/>
+      <c r="DOC10" s="5"/>
+      <c r="DOH10" s="13"/>
+      <c r="DOI10" s="13"/>
+      <c r="DOJ10" s="15"/>
+      <c r="DOK10" s="5"/>
+      <c r="DOP10" s="13"/>
+      <c r="DOQ10" s="13"/>
+      <c r="DOR10" s="15"/>
+      <c r="DOS10" s="5"/>
+      <c r="DOX10" s="13"/>
+      <c r="DOY10" s="13"/>
+      <c r="DOZ10" s="15"/>
+      <c r="DPA10" s="5"/>
+      <c r="DPF10" s="13"/>
+      <c r="DPG10" s="13"/>
+      <c r="DPH10" s="15"/>
+      <c r="DPI10" s="5"/>
+      <c r="DPN10" s="13"/>
+      <c r="DPO10" s="13"/>
+      <c r="DPP10" s="15"/>
+      <c r="DPQ10" s="5"/>
+      <c r="DPV10" s="13"/>
+      <c r="DPW10" s="13"/>
+      <c r="DPX10" s="15"/>
+      <c r="DPY10" s="5"/>
+      <c r="DQD10" s="13"/>
+      <c r="DQE10" s="13"/>
+      <c r="DQF10" s="15"/>
+      <c r="DQG10" s="5"/>
+      <c r="DQL10" s="13"/>
+      <c r="DQM10" s="13"/>
+      <c r="DQN10" s="15"/>
+      <c r="DQO10" s="5"/>
+      <c r="DQT10" s="13"/>
+      <c r="DQU10" s="13"/>
+      <c r="DQV10" s="15"/>
+      <c r="DQW10" s="5"/>
+      <c r="DRB10" s="13"/>
+      <c r="DRC10" s="13"/>
+      <c r="DRD10" s="15"/>
+      <c r="DRE10" s="5"/>
+      <c r="DRJ10" s="13"/>
+      <c r="DRK10" s="13"/>
+      <c r="DRL10" s="15"/>
+      <c r="DRM10" s="5"/>
+      <c r="DRR10" s="13"/>
+      <c r="DRS10" s="13"/>
+      <c r="DRT10" s="15"/>
+      <c r="DRU10" s="5"/>
+      <c r="DRZ10" s="13"/>
+      <c r="DSA10" s="13"/>
+      <c r="DSB10" s="15"/>
+      <c r="DSC10" s="5"/>
+      <c r="DSH10" s="13"/>
+      <c r="DSI10" s="13"/>
+      <c r="DSJ10" s="15"/>
+      <c r="DSK10" s="5"/>
+      <c r="DSP10" s="13"/>
+      <c r="DSQ10" s="13"/>
+      <c r="DSR10" s="15"/>
+      <c r="DSS10" s="5"/>
+      <c r="DSX10" s="13"/>
+      <c r="DSY10" s="13"/>
+      <c r="DSZ10" s="15"/>
+      <c r="DTA10" s="5"/>
+      <c r="DTF10" s="13"/>
+      <c r="DTG10" s="13"/>
+      <c r="DTH10" s="15"/>
+      <c r="DTI10" s="5"/>
+      <c r="DTN10" s="13"/>
+      <c r="DTO10" s="13"/>
+      <c r="DTP10" s="15"/>
+      <c r="DTQ10" s="5"/>
+      <c r="DTV10" s="13"/>
+      <c r="DTW10" s="13"/>
+      <c r="DTX10" s="15"/>
+      <c r="DTY10" s="5"/>
+      <c r="DUD10" s="13"/>
+      <c r="DUE10" s="13"/>
+      <c r="DUF10" s="15"/>
+      <c r="DUG10" s="5"/>
+      <c r="DUL10" s="13"/>
+      <c r="DUM10" s="13"/>
+      <c r="DUN10" s="15"/>
+      <c r="DUO10" s="5"/>
+      <c r="DUT10" s="13"/>
+      <c r="DUU10" s="13"/>
+      <c r="DUV10" s="15"/>
+      <c r="DUW10" s="5"/>
+      <c r="DVB10" s="13"/>
+      <c r="DVC10" s="13"/>
+      <c r="DVD10" s="15"/>
+      <c r="DVE10" s="5"/>
+      <c r="DVJ10" s="13"/>
+      <c r="DVK10" s="13"/>
+      <c r="DVL10" s="15"/>
+      <c r="DVM10" s="5"/>
+      <c r="DVR10" s="13"/>
+      <c r="DVS10" s="13"/>
+      <c r="DVT10" s="15"/>
+      <c r="DVU10" s="5"/>
+      <c r="DVZ10" s="13"/>
+      <c r="DWA10" s="13"/>
+      <c r="DWB10" s="15"/>
+      <c r="DWC10" s="5"/>
+      <c r="DWH10" s="13"/>
+      <c r="DWI10" s="13"/>
+      <c r="DWJ10" s="15"/>
+      <c r="DWK10" s="5"/>
+      <c r="DWP10" s="13"/>
+      <c r="DWQ10" s="13"/>
+      <c r="DWR10" s="15"/>
+      <c r="DWS10" s="5"/>
+      <c r="DWX10" s="13"/>
+      <c r="DWY10" s="13"/>
+      <c r="DWZ10" s="15"/>
+      <c r="DXA10" s="5"/>
+      <c r="DXF10" s="13"/>
+      <c r="DXG10" s="13"/>
+      <c r="DXH10" s="15"/>
+      <c r="DXI10" s="5"/>
+      <c r="DXN10" s="13"/>
+      <c r="DXO10" s="13"/>
+      <c r="DXP10" s="15"/>
+      <c r="DXQ10" s="5"/>
+      <c r="DXV10" s="13"/>
+      <c r="DXW10" s="13"/>
+      <c r="DXX10" s="15"/>
+      <c r="DXY10" s="5"/>
+      <c r="DYD10" s="13"/>
+      <c r="DYE10" s="13"/>
+      <c r="DYF10" s="15"/>
+      <c r="DYG10" s="5"/>
+      <c r="DYL10" s="13"/>
+      <c r="DYM10" s="13"/>
+      <c r="DYN10" s="15"/>
+      <c r="DYO10" s="5"/>
+      <c r="DYT10" s="13"/>
+      <c r="DYU10" s="13"/>
+      <c r="DYV10" s="15"/>
+      <c r="DYW10" s="5"/>
+      <c r="DZB10" s="13"/>
+      <c r="DZC10" s="13"/>
+      <c r="DZD10" s="15"/>
+      <c r="DZE10" s="5"/>
+      <c r="DZJ10" s="13"/>
+      <c r="DZK10" s="13"/>
+      <c r="DZL10" s="15"/>
+      <c r="DZM10" s="5"/>
+      <c r="DZR10" s="13"/>
+      <c r="DZS10" s="13"/>
+      <c r="DZT10" s="15"/>
+      <c r="DZU10" s="5"/>
+      <c r="DZZ10" s="13"/>
+      <c r="EAA10" s="13"/>
+      <c r="EAB10" s="15"/>
+      <c r="EAC10" s="5"/>
+      <c r="EAH10" s="13"/>
+      <c r="EAI10" s="13"/>
+      <c r="EAJ10" s="15"/>
+      <c r="EAK10" s="5"/>
+      <c r="EAP10" s="13"/>
+      <c r="EAQ10" s="13"/>
+      <c r="EAR10" s="15"/>
+      <c r="EAS10" s="5"/>
+      <c r="EAX10" s="13"/>
+      <c r="EAY10" s="13"/>
+      <c r="EAZ10" s="15"/>
+      <c r="EBA10" s="5"/>
+      <c r="EBF10" s="13"/>
+      <c r="EBG10" s="13"/>
+      <c r="EBH10" s="15"/>
+      <c r="EBI10" s="5"/>
+      <c r="EBN10" s="13"/>
+      <c r="EBO10" s="13"/>
+      <c r="EBP10" s="15"/>
+      <c r="EBQ10" s="5"/>
+      <c r="EBV10" s="13"/>
+      <c r="EBW10" s="13"/>
+      <c r="EBX10" s="15"/>
+      <c r="EBY10" s="5"/>
+      <c r="ECD10" s="13"/>
+      <c r="ECE10" s="13"/>
+      <c r="ECF10" s="15"/>
+      <c r="ECG10" s="5"/>
+      <c r="ECL10" s="13"/>
+      <c r="ECM10" s="13"/>
+      <c r="ECN10" s="15"/>
+      <c r="ECO10" s="5"/>
+      <c r="ECT10" s="13"/>
+      <c r="ECU10" s="13"/>
+      <c r="ECV10" s="15"/>
+      <c r="ECW10" s="5"/>
+      <c r="EDB10" s="13"/>
+      <c r="EDC10" s="13"/>
+      <c r="EDD10" s="15"/>
+      <c r="EDE10" s="5"/>
+      <c r="EDJ10" s="13"/>
+      <c r="EDK10" s="13"/>
+      <c r="EDL10" s="15"/>
+      <c r="EDM10" s="5"/>
+      <c r="EDR10" s="13"/>
+      <c r="EDS10" s="13"/>
+      <c r="EDT10" s="15"/>
+      <c r="EDU10" s="5"/>
+      <c r="EDZ10" s="13"/>
+      <c r="EEA10" s="13"/>
+      <c r="EEB10" s="15"/>
+      <c r="EEC10" s="5"/>
+      <c r="EEH10" s="13"/>
+      <c r="EEI10" s="13"/>
+      <c r="EEJ10" s="15"/>
+      <c r="EEK10" s="5"/>
+      <c r="EEP10" s="13"/>
+      <c r="EEQ10" s="13"/>
+      <c r="EER10" s="15"/>
+      <c r="EES10" s="5"/>
+      <c r="EEX10" s="13"/>
+      <c r="EEY10" s="13"/>
+      <c r="EEZ10" s="15"/>
+      <c r="EFA10" s="5"/>
+      <c r="EFF10" s="13"/>
+      <c r="EFG10" s="13"/>
+      <c r="EFH10" s="15"/>
+      <c r="EFI10" s="5"/>
+      <c r="EFN10" s="13"/>
+      <c r="EFO10" s="13"/>
+      <c r="EFP10" s="15"/>
+      <c r="EFQ10" s="5"/>
+      <c r="EFV10" s="13"/>
+      <c r="EFW10" s="13"/>
+      <c r="EFX10" s="15"/>
+      <c r="EFY10" s="5"/>
+      <c r="EGD10" s="13"/>
+      <c r="EGE10" s="13"/>
+      <c r="EGF10" s="15"/>
+      <c r="EGG10" s="5"/>
+      <c r="EGL10" s="13"/>
+      <c r="EGM10" s="13"/>
+      <c r="EGN10" s="15"/>
+      <c r="EGO10" s="5"/>
+      <c r="EGT10" s="13"/>
+      <c r="EGU10" s="13"/>
+      <c r="EGV10" s="15"/>
+      <c r="EGW10" s="5"/>
+      <c r="EHB10" s="13"/>
+      <c r="EHC10" s="13"/>
+      <c r="EHD10" s="15"/>
+      <c r="EHE10" s="5"/>
+      <c r="EHJ10" s="13"/>
+      <c r="EHK10" s="13"/>
+      <c r="EHL10" s="15"/>
+      <c r="EHM10" s="5"/>
+      <c r="EHR10" s="13"/>
+      <c r="EHS10" s="13"/>
+      <c r="EHT10" s="15"/>
+      <c r="EHU10" s="5"/>
+      <c r="EHZ10" s="13"/>
+      <c r="EIA10" s="13"/>
+      <c r="EIB10" s="15"/>
+      <c r="EIC10" s="5"/>
+      <c r="EIH10" s="13"/>
+      <c r="EII10" s="13"/>
+      <c r="EIJ10" s="15"/>
+      <c r="EIK10" s="5"/>
+      <c r="EIP10" s="13"/>
+      <c r="EIQ10" s="13"/>
+      <c r="EIR10" s="15"/>
+      <c r="EIS10" s="5"/>
+      <c r="EIX10" s="13"/>
+      <c r="EIY10" s="13"/>
+      <c r="EIZ10" s="15"/>
+      <c r="EJA10" s="5"/>
+      <c r="EJF10" s="13"/>
+      <c r="EJG10" s="13"/>
+      <c r="EJH10" s="15"/>
+      <c r="EJI10" s="5"/>
+      <c r="EJN10" s="13"/>
+      <c r="EJO10" s="13"/>
+      <c r="EJP10" s="15"/>
+      <c r="EJQ10" s="5"/>
+      <c r="EJV10" s="13"/>
+      <c r="EJW10" s="13"/>
+      <c r="EJX10" s="15"/>
+      <c r="EJY10" s="5"/>
+      <c r="EKD10" s="13"/>
+      <c r="EKE10" s="13"/>
+      <c r="EKF10" s="15"/>
+      <c r="EKG10" s="5"/>
+      <c r="EKL10" s="13"/>
+      <c r="EKM10" s="13"/>
+      <c r="EKN10" s="15"/>
+      <c r="EKO10" s="5"/>
+      <c r="EKT10" s="13"/>
+      <c r="EKU10" s="13"/>
+      <c r="EKV10" s="15"/>
+      <c r="EKW10" s="5"/>
+      <c r="ELB10" s="13"/>
+      <c r="ELC10" s="13"/>
+      <c r="ELD10" s="15"/>
+      <c r="ELE10" s="5"/>
+      <c r="ELJ10" s="13"/>
+      <c r="ELK10" s="13"/>
+      <c r="ELL10" s="15"/>
+      <c r="ELM10" s="5"/>
+      <c r="ELR10" s="13"/>
+      <c r="ELS10" s="13"/>
+      <c r="ELT10" s="15"/>
+      <c r="ELU10" s="5"/>
+      <c r="ELZ10" s="13"/>
+      <c r="EMA10" s="13"/>
+      <c r="EMB10" s="15"/>
+      <c r="EMC10" s="5"/>
+      <c r="EMH10" s="13"/>
+      <c r="EMI10" s="13"/>
+      <c r="EMJ10" s="15"/>
+      <c r="EMK10" s="5"/>
+      <c r="EMP10" s="13"/>
+      <c r="EMQ10" s="13"/>
+      <c r="EMR10" s="15"/>
+      <c r="EMS10" s="5"/>
+      <c r="EMX10" s="13"/>
+      <c r="EMY10" s="13"/>
+      <c r="EMZ10" s="15"/>
+      <c r="ENA10" s="5"/>
+      <c r="ENF10" s="13"/>
+      <c r="ENG10" s="13"/>
+      <c r="ENH10" s="15"/>
+      <c r="ENI10" s="5"/>
+      <c r="ENN10" s="13"/>
+      <c r="ENO10" s="13"/>
+      <c r="ENP10" s="15"/>
+      <c r="ENQ10" s="5"/>
+      <c r="ENV10" s="13"/>
+      <c r="ENW10" s="13"/>
+      <c r="ENX10" s="15"/>
+      <c r="ENY10" s="5"/>
+      <c r="EOD10" s="13"/>
+      <c r="EOE10" s="13"/>
+      <c r="EOF10" s="15"/>
+      <c r="EOG10" s="5"/>
+      <c r="EOL10" s="13"/>
+      <c r="EOM10" s="13"/>
+      <c r="EON10" s="15"/>
+      <c r="EOO10" s="5"/>
+      <c r="EOT10" s="13"/>
+      <c r="EOU10" s="13"/>
+      <c r="EOV10" s="15"/>
+      <c r="EOW10" s="5"/>
+      <c r="EPB10" s="13"/>
+      <c r="EPC10" s="13"/>
+      <c r="EPD10" s="15"/>
+      <c r="EPE10" s="5"/>
+      <c r="EPJ10" s="13"/>
+      <c r="EPK10" s="13"/>
+      <c r="EPL10" s="15"/>
+      <c r="EPM10" s="5"/>
+      <c r="EPR10" s="13"/>
+      <c r="EPS10" s="13"/>
+      <c r="EPT10" s="15"/>
+      <c r="EPU10" s="5"/>
+      <c r="EPZ10" s="13"/>
+      <c r="EQA10" s="13"/>
+      <c r="EQB10" s="15"/>
+      <c r="EQC10" s="5"/>
+      <c r="EQH10" s="13"/>
+      <c r="EQI10" s="13"/>
+      <c r="EQJ10" s="15"/>
+      <c r="EQK10" s="5"/>
+      <c r="EQP10" s="13"/>
+      <c r="EQQ10" s="13"/>
+      <c r="EQR10" s="15"/>
+      <c r="EQS10" s="5"/>
+      <c r="EQX10" s="13"/>
+      <c r="EQY10" s="13"/>
+      <c r="EQZ10" s="15"/>
+      <c r="ERA10" s="5"/>
+      <c r="ERF10" s="13"/>
+      <c r="ERG10" s="13"/>
+      <c r="ERH10" s="15"/>
+      <c r="ERI10" s="5"/>
+      <c r="ERN10" s="13"/>
+      <c r="ERO10" s="13"/>
+      <c r="ERP10" s="15"/>
+      <c r="ERQ10" s="5"/>
+      <c r="ERV10" s="13"/>
+      <c r="ERW10" s="13"/>
+      <c r="ERX10" s="15"/>
+      <c r="ERY10" s="5"/>
+      <c r="ESD10" s="13"/>
+      <c r="ESE10" s="13"/>
+      <c r="ESF10" s="15"/>
+      <c r="ESG10" s="5"/>
+      <c r="ESL10" s="13"/>
+      <c r="ESM10" s="13"/>
+      <c r="ESN10" s="15"/>
+      <c r="ESO10" s="5"/>
+      <c r="EST10" s="13"/>
+      <c r="ESU10" s="13"/>
+      <c r="ESV10" s="15"/>
+      <c r="ESW10" s="5"/>
+      <c r="ETB10" s="13"/>
+      <c r="ETC10" s="13"/>
+      <c r="ETD10" s="15"/>
+      <c r="ETE10" s="5"/>
+      <c r="ETJ10" s="13"/>
+      <c r="ETK10" s="13"/>
+      <c r="ETL10" s="15"/>
+      <c r="ETM10" s="5"/>
+      <c r="ETR10" s="13"/>
+      <c r="ETS10" s="13"/>
+      <c r="ETT10" s="15"/>
+      <c r="ETU10" s="5"/>
+      <c r="ETZ10" s="13"/>
+      <c r="EUA10" s="13"/>
+      <c r="EUB10" s="15"/>
+      <c r="EUC10" s="5"/>
+      <c r="EUH10" s="13"/>
+      <c r="EUI10" s="13"/>
+      <c r="EUJ10" s="15"/>
+      <c r="EUK10" s="5"/>
+      <c r="EUP10" s="13"/>
+      <c r="EUQ10" s="13"/>
+      <c r="EUR10" s="15"/>
+      <c r="EUS10" s="5"/>
+      <c r="EUX10" s="13"/>
+      <c r="EUY10" s="13"/>
+      <c r="EUZ10" s="15"/>
+      <c r="EVA10" s="5"/>
+      <c r="EVF10" s="13"/>
+      <c r="EVG10" s="13"/>
+      <c r="EVH10" s="15"/>
+      <c r="EVI10" s="5"/>
+      <c r="EVN10" s="13"/>
+      <c r="EVO10" s="13"/>
+      <c r="EVP10" s="15"/>
+      <c r="EVQ10" s="5"/>
+      <c r="EVV10" s="13"/>
+      <c r="EVW10" s="13"/>
+      <c r="EVX10" s="15"/>
+      <c r="EVY10" s="5"/>
+      <c r="EWD10" s="13"/>
+      <c r="EWE10" s="13"/>
+      <c r="EWF10" s="15"/>
+      <c r="EWG10" s="5"/>
+      <c r="EWL10" s="13"/>
+      <c r="EWM10" s="13"/>
+      <c r="EWN10" s="15"/>
+      <c r="EWO10" s="5"/>
+      <c r="EWT10" s="13"/>
+      <c r="EWU10" s="13"/>
+      <c r="EWV10" s="15"/>
+      <c r="EWW10" s="5"/>
+      <c r="EXB10" s="13"/>
+      <c r="EXC10" s="13"/>
+      <c r="EXD10" s="15"/>
+      <c r="EXE10" s="5"/>
+      <c r="EXJ10" s="13"/>
+      <c r="EXK10" s="13"/>
+      <c r="EXL10" s="15"/>
+      <c r="EXM10" s="5"/>
+      <c r="EXR10" s="13"/>
+      <c r="EXS10" s="13"/>
+      <c r="EXT10" s="15"/>
+      <c r="EXU10" s="5"/>
+      <c r="EXZ10" s="13"/>
+      <c r="EYA10" s="13"/>
+      <c r="EYB10" s="15"/>
+      <c r="EYC10" s="5"/>
+      <c r="EYH10" s="13"/>
+      <c r="EYI10" s="13"/>
+      <c r="EYJ10" s="15"/>
+      <c r="EYK10" s="5"/>
+      <c r="EYP10" s="13"/>
+      <c r="EYQ10" s="13"/>
+      <c r="EYR10" s="15"/>
+      <c r="EYS10" s="5"/>
+      <c r="EYX10" s="13"/>
+      <c r="EYY10" s="13"/>
+      <c r="EYZ10" s="15"/>
+      <c r="EZA10" s="5"/>
+      <c r="EZF10" s="13"/>
+      <c r="EZG10" s="13"/>
+      <c r="EZH10" s="15"/>
+      <c r="EZI10" s="5"/>
+      <c r="EZN10" s="13"/>
+      <c r="EZO10" s="13"/>
+      <c r="EZP10" s="15"/>
+      <c r="EZQ10" s="5"/>
+      <c r="EZV10" s="13"/>
+      <c r="EZW10" s="13"/>
+      <c r="EZX10" s="15"/>
+      <c r="EZY10" s="5"/>
+      <c r="FAD10" s="13"/>
+      <c r="FAE10" s="13"/>
+      <c r="FAF10" s="15"/>
+      <c r="FAG10" s="5"/>
+      <c r="FAL10" s="13"/>
+      <c r="FAM10" s="13"/>
+      <c r="FAN10" s="15"/>
+      <c r="FAO10" s="5"/>
+      <c r="FAT10" s="13"/>
+      <c r="FAU10" s="13"/>
+      <c r="FAV10" s="15"/>
+      <c r="FAW10" s="5"/>
+      <c r="FBB10" s="13"/>
+      <c r="FBC10" s="13"/>
+      <c r="FBD10" s="15"/>
+      <c r="FBE10" s="5"/>
+      <c r="FBJ10" s="13"/>
+      <c r="FBK10" s="13"/>
+      <c r="FBL10" s="15"/>
+      <c r="FBM10" s="5"/>
+      <c r="FBR10" s="13"/>
+      <c r="FBS10" s="13"/>
+      <c r="FBT10" s="15"/>
+      <c r="FBU10" s="5"/>
+      <c r="FBZ10" s="13"/>
+      <c r="FCA10" s="13"/>
+      <c r="FCB10" s="15"/>
+      <c r="FCC10" s="5"/>
+      <c r="FCH10" s="13"/>
+      <c r="FCI10" s="13"/>
+      <c r="FCJ10" s="15"/>
+      <c r="FCK10" s="5"/>
+      <c r="FCP10" s="13"/>
+      <c r="FCQ10" s="13"/>
+      <c r="FCR10" s="15"/>
+      <c r="FCS10" s="5"/>
+      <c r="FCX10" s="13"/>
+      <c r="FCY10" s="13"/>
+      <c r="FCZ10" s="15"/>
+      <c r="FDA10" s="5"/>
+      <c r="FDF10" s="13"/>
+      <c r="FDG10" s="13"/>
+      <c r="FDH10" s="15"/>
+      <c r="FDI10" s="5"/>
+      <c r="FDN10" s="13"/>
+      <c r="FDO10" s="13"/>
+      <c r="FDP10" s="15"/>
+      <c r="FDQ10" s="5"/>
+      <c r="FDV10" s="13"/>
+      <c r="FDW10" s="13"/>
+      <c r="FDX10" s="15"/>
+      <c r="FDY10" s="5"/>
+      <c r="FED10" s="13"/>
+      <c r="FEE10" s="13"/>
+      <c r="FEF10" s="15"/>
+      <c r="FEG10" s="5"/>
+      <c r="FEL10" s="13"/>
+      <c r="FEM10" s="13"/>
+      <c r="FEN10" s="15"/>
+      <c r="FEO10" s="5"/>
+      <c r="FET10" s="13"/>
+      <c r="FEU10" s="13"/>
+      <c r="FEV10" s="15"/>
+      <c r="FEW10" s="5"/>
+      <c r="FFB10" s="13"/>
+      <c r="FFC10" s="13"/>
+      <c r="FFD10" s="15"/>
+      <c r="FFE10" s="5"/>
+      <c r="FFJ10" s="13"/>
+      <c r="FFK10" s="13"/>
+      <c r="FFL10" s="15"/>
+      <c r="FFM10" s="5"/>
+      <c r="FFR10" s="13"/>
+      <c r="FFS10" s="13"/>
+      <c r="FFT10" s="15"/>
+      <c r="FFU10" s="5"/>
+      <c r="FFZ10" s="13"/>
+      <c r="FGA10" s="13"/>
+      <c r="FGB10" s="15"/>
+      <c r="FGC10" s="5"/>
+      <c r="FGH10" s="13"/>
+      <c r="FGI10" s="13"/>
+      <c r="FGJ10" s="15"/>
+      <c r="FGK10" s="5"/>
+      <c r="FGP10" s="13"/>
+      <c r="FGQ10" s="13"/>
+      <c r="FGR10" s="15"/>
+      <c r="FGS10" s="5"/>
+      <c r="FGX10" s="13"/>
+      <c r="FGY10" s="13"/>
+      <c r="FGZ10" s="15"/>
+      <c r="FHA10" s="5"/>
+      <c r="FHF10" s="13"/>
+      <c r="FHG10" s="13"/>
+      <c r="FHH10" s="15"/>
+      <c r="FHI10" s="5"/>
+      <c r="FHN10" s="13"/>
+      <c r="FHO10" s="13"/>
+      <c r="FHP10" s="15"/>
+      <c r="FHQ10" s="5"/>
+      <c r="FHV10" s="13"/>
+      <c r="FHW10" s="13"/>
+      <c r="FHX10" s="15"/>
+      <c r="FHY10" s="5"/>
+      <c r="FID10" s="13"/>
+      <c r="FIE10" s="13"/>
+      <c r="FIF10" s="15"/>
+      <c r="FIG10" s="5"/>
+      <c r="FIL10" s="13"/>
+      <c r="FIM10" s="13"/>
+      <c r="FIN10" s="15"/>
+      <c r="FIO10" s="5"/>
+      <c r="FIT10" s="13"/>
+      <c r="FIU10" s="13"/>
+      <c r="FIV10" s="15"/>
+      <c r="FIW10" s="5"/>
+      <c r="FJB10" s="13"/>
+      <c r="FJC10" s="13"/>
+      <c r="FJD10" s="15"/>
+      <c r="FJE10" s="5"/>
+      <c r="FJJ10" s="13"/>
+      <c r="FJK10" s="13"/>
+      <c r="FJL10" s="15"/>
+      <c r="FJM10" s="5"/>
+      <c r="FJR10" s="13"/>
+      <c r="FJS10" s="13"/>
+      <c r="FJT10" s="15"/>
+      <c r="FJU10" s="5"/>
+      <c r="FJZ10" s="13"/>
+      <c r="FKA10" s="13"/>
+      <c r="FKB10" s="15"/>
+      <c r="FKC10" s="5"/>
+      <c r="FKH10" s="13"/>
+      <c r="FKI10" s="13"/>
+      <c r="FKJ10" s="15"/>
+      <c r="FKK10" s="5"/>
+      <c r="FKP10" s="13"/>
+      <c r="FKQ10" s="13"/>
+      <c r="FKR10" s="15"/>
+      <c r="FKS10" s="5"/>
+      <c r="FKX10" s="13"/>
+      <c r="FKY10" s="13"/>
+      <c r="FKZ10" s="15"/>
+      <c r="FLA10" s="5"/>
+      <c r="FLF10" s="13"/>
+      <c r="FLG10" s="13"/>
+      <c r="FLH10" s="15"/>
+      <c r="FLI10" s="5"/>
+      <c r="FLN10" s="13"/>
+      <c r="FLO10" s="13"/>
+      <c r="FLP10" s="15"/>
+      <c r="FLQ10" s="5"/>
+      <c r="FLV10" s="13"/>
+      <c r="FLW10" s="13"/>
+      <c r="FLX10" s="15"/>
+      <c r="FLY10" s="5"/>
+      <c r="FMD10" s="13"/>
+      <c r="FME10" s="13"/>
+      <c r="FMF10" s="15"/>
+      <c r="FMG10" s="5"/>
+      <c r="FML10" s="13"/>
+      <c r="FMM10" s="13"/>
+      <c r="FMN10" s="15"/>
+      <c r="FMO10" s="5"/>
+      <c r="FMT10" s="13"/>
+      <c r="FMU10" s="13"/>
+      <c r="FMV10" s="15"/>
+      <c r="FMW10" s="5"/>
+      <c r="FNB10" s="13"/>
+      <c r="FNC10" s="13"/>
+      <c r="FND10" s="15"/>
+      <c r="FNE10" s="5"/>
+      <c r="FNJ10" s="13"/>
+      <c r="FNK10" s="13"/>
+      <c r="FNL10" s="15"/>
+      <c r="FNM10" s="5"/>
+      <c r="FNR10" s="13"/>
+      <c r="FNS10" s="13"/>
+      <c r="FNT10" s="15"/>
+      <c r="FNU10" s="5"/>
+      <c r="FNZ10" s="13"/>
+      <c r="FOA10" s="13"/>
+      <c r="FOB10" s="15"/>
+      <c r="FOC10" s="5"/>
+      <c r="FOH10" s="13"/>
+      <c r="FOI10" s="13"/>
+      <c r="FOJ10" s="15"/>
+      <c r="FOK10" s="5"/>
+      <c r="FOP10" s="13"/>
+      <c r="FOQ10" s="13"/>
+      <c r="FOR10" s="15"/>
+      <c r="FOS10" s="5"/>
+      <c r="FOX10" s="13"/>
+      <c r="FOY10" s="13"/>
+      <c r="FOZ10" s="15"/>
+      <c r="FPA10" s="5"/>
+      <c r="FPF10" s="13"/>
+      <c r="FPG10" s="13"/>
+      <c r="FPH10" s="15"/>
+      <c r="FPI10" s="5"/>
+      <c r="FPN10" s="13"/>
+      <c r="FPO10" s="13"/>
+      <c r="FPP10" s="15"/>
+      <c r="FPQ10" s="5"/>
+      <c r="FPV10" s="13"/>
+      <c r="FPW10" s="13"/>
+      <c r="FPX10" s="15"/>
+      <c r="FPY10" s="5"/>
+      <c r="FQD10" s="13"/>
+      <c r="FQE10" s="13"/>
+      <c r="FQF10" s="15"/>
+      <c r="FQG10" s="5"/>
+      <c r="FQL10" s="13"/>
+      <c r="FQM10" s="13"/>
+      <c r="FQN10" s="15"/>
+      <c r="FQO10" s="5"/>
+      <c r="FQT10" s="13"/>
+      <c r="FQU10" s="13"/>
+      <c r="FQV10" s="15"/>
+      <c r="FQW10" s="5"/>
+      <c r="FRB10" s="13"/>
+      <c r="FRC10" s="13"/>
+      <c r="FRD10" s="15"/>
+      <c r="FRE10" s="5"/>
+      <c r="FRJ10" s="13"/>
+      <c r="FRK10" s="13"/>
+      <c r="FRL10" s="15"/>
+      <c r="FRM10" s="5"/>
+      <c r="FRR10" s="13"/>
+      <c r="FRS10" s="13"/>
+      <c r="FRT10" s="15"/>
+      <c r="FRU10" s="5"/>
+      <c r="FRZ10" s="13"/>
+      <c r="FSA10" s="13"/>
+      <c r="FSB10" s="15"/>
+      <c r="FSC10" s="5"/>
+      <c r="FSH10" s="13"/>
+      <c r="FSI10" s="13"/>
+      <c r="FSJ10" s="15"/>
+      <c r="FSK10" s="5"/>
+      <c r="FSP10" s="13"/>
+      <c r="FSQ10" s="13"/>
+      <c r="FSR10" s="15"/>
+      <c r="FSS10" s="5"/>
+      <c r="FSX10" s="13"/>
+      <c r="FSY10" s="13"/>
+      <c r="FSZ10" s="15"/>
+      <c r="FTA10" s="5"/>
+      <c r="FTF10" s="13"/>
+      <c r="FTG10" s="13"/>
+      <c r="FTH10" s="15"/>
+      <c r="FTI10" s="5"/>
+      <c r="FTN10" s="13"/>
+      <c r="FTO10" s="13"/>
+      <c r="FTP10" s="15"/>
+      <c r="FTQ10" s="5"/>
+      <c r="FTV10" s="13"/>
+      <c r="FTW10" s="13"/>
+      <c r="FTX10" s="15"/>
+      <c r="FTY10" s="5"/>
+      <c r="FUD10" s="13"/>
+      <c r="FUE10" s="13"/>
+      <c r="FUF10" s="15"/>
+      <c r="FUG10" s="5"/>
+      <c r="FUL10" s="13"/>
+      <c r="FUM10" s="13"/>
+      <c r="FUN10" s="15"/>
+      <c r="FUO10" s="5"/>
+      <c r="FUT10" s="13"/>
+      <c r="FUU10" s="13"/>
+      <c r="FUV10" s="15"/>
+      <c r="FUW10" s="5"/>
+      <c r="FVB10" s="13"/>
+      <c r="FVC10" s="13"/>
+      <c r="FVD10" s="15"/>
+      <c r="FVE10" s="5"/>
+      <c r="FVJ10" s="13"/>
+      <c r="FVK10" s="13"/>
+      <c r="FVL10" s="15"/>
+      <c r="FVM10" s="5"/>
+      <c r="FVR10" s="13"/>
+      <c r="FVS10" s="13"/>
+      <c r="FVT10" s="15"/>
+      <c r="FVU10" s="5"/>
+      <c r="FVZ10" s="13"/>
+      <c r="FWA10" s="13"/>
+      <c r="FWB10" s="15"/>
+      <c r="FWC10" s="5"/>
+      <c r="FWH10" s="13"/>
+      <c r="FWI10" s="13"/>
+      <c r="FWJ10" s="15"/>
+      <c r="FWK10" s="5"/>
+      <c r="FWP10" s="13"/>
+      <c r="FWQ10" s="13"/>
+      <c r="FWR10" s="15"/>
+      <c r="FWS10" s="5"/>
+      <c r="FWX10" s="13"/>
+      <c r="FWY10" s="13"/>
+      <c r="FWZ10" s="15"/>
+      <c r="FXA10" s="5"/>
+      <c r="FXF10" s="13"/>
+      <c r="FXG10" s="13"/>
+      <c r="FXH10" s="15"/>
+      <c r="FXI10" s="5"/>
+      <c r="FXN10" s="13"/>
+      <c r="FXO10" s="13"/>
+      <c r="FXP10" s="15"/>
+      <c r="FXQ10" s="5"/>
+      <c r="FXV10" s="13"/>
+      <c r="FXW10" s="13"/>
+      <c r="FXX10" s="15"/>
+      <c r="FXY10" s="5"/>
+      <c r="FYD10" s="13"/>
+      <c r="FYE10" s="13"/>
+      <c r="FYF10" s="15"/>
+      <c r="FYG10" s="5"/>
+      <c r="FYL10" s="13"/>
+      <c r="FYM10" s="13"/>
+      <c r="FYN10" s="15"/>
+      <c r="FYO10" s="5"/>
+      <c r="FYT10" s="13"/>
+      <c r="FYU10" s="13"/>
+      <c r="FYV10" s="15"/>
+      <c r="FYW10" s="5"/>
+      <c r="FZB10" s="13"/>
+      <c r="FZC10" s="13"/>
+      <c r="FZD10" s="15"/>
+      <c r="FZE10" s="5"/>
+      <c r="FZJ10" s="13"/>
+      <c r="FZK10" s="13"/>
+      <c r="FZL10" s="15"/>
+      <c r="FZM10" s="5"/>
+      <c r="FZR10" s="13"/>
+      <c r="FZS10" s="13"/>
+      <c r="FZT10" s="15"/>
+      <c r="FZU10" s="5"/>
+      <c r="FZZ10" s="13"/>
+      <c r="GAA10" s="13"/>
+      <c r="GAB10" s="15"/>
+      <c r="GAC10" s="5"/>
+      <c r="GAH10" s="13"/>
+      <c r="GAI10" s="13"/>
+      <c r="GAJ10" s="15"/>
+      <c r="GAK10" s="5"/>
+      <c r="GAP10" s="13"/>
+      <c r="GAQ10" s="13"/>
+      <c r="GAR10" s="15"/>
+      <c r="GAS10" s="5"/>
+      <c r="GAX10" s="13"/>
+      <c r="GAY10" s="13"/>
+      <c r="GAZ10" s="15"/>
+      <c r="GBA10" s="5"/>
+      <c r="GBF10" s="13"/>
+      <c r="GBG10" s="13"/>
+      <c r="GBH10" s="15"/>
+      <c r="GBI10" s="5"/>
+      <c r="GBN10" s="13"/>
+      <c r="GBO10" s="13"/>
+      <c r="GBP10" s="15"/>
+      <c r="GBQ10" s="5"/>
+      <c r="GBV10" s="13"/>
+      <c r="GBW10" s="13"/>
+      <c r="GBX10" s="15"/>
+      <c r="GBY10" s="5"/>
+      <c r="GCD10" s="13"/>
+      <c r="GCE10" s="13"/>
+      <c r="GCF10" s="15"/>
+      <c r="GCG10" s="5"/>
+      <c r="GCL10" s="13"/>
+      <c r="GCM10" s="13"/>
+      <c r="GCN10" s="15"/>
+      <c r="GCO10" s="5"/>
+      <c r="GCT10" s="13"/>
+      <c r="GCU10" s="13"/>
+      <c r="GCV10" s="15"/>
+      <c r="GCW10" s="5"/>
+      <c r="GDB10" s="13"/>
+      <c r="GDC10" s="13"/>
+      <c r="GDD10" s="15"/>
+      <c r="GDE10" s="5"/>
+      <c r="GDJ10" s="13"/>
+      <c r="GDK10" s="13"/>
+      <c r="GDL10" s="15"/>
+      <c r="GDM10" s="5"/>
+      <c r="GDR10" s="13"/>
+      <c r="GDS10" s="13"/>
+      <c r="GDT10" s="15"/>
+      <c r="GDU10" s="5"/>
+      <c r="GDZ10" s="13"/>
+      <c r="GEA10" s="13"/>
+      <c r="GEB10" s="15"/>
+      <c r="GEC10" s="5"/>
+      <c r="GEH10" s="13"/>
+      <c r="GEI10" s="13"/>
+      <c r="GEJ10" s="15"/>
+      <c r="GEK10" s="5"/>
+      <c r="GEP10" s="13"/>
+      <c r="GEQ10" s="13"/>
+      <c r="GER10" s="15"/>
+      <c r="GES10" s="5"/>
+      <c r="GEX10" s="13"/>
+      <c r="GEY10" s="13"/>
+      <c r="GEZ10" s="15"/>
+      <c r="GFA10" s="5"/>
+      <c r="GFF10" s="13"/>
+      <c r="GFG10" s="13"/>
+      <c r="GFH10" s="15"/>
+      <c r="GFI10" s="5"/>
+      <c r="GFN10" s="13"/>
+      <c r="GFO10" s="13"/>
+      <c r="GFP10" s="15"/>
+      <c r="GFQ10" s="5"/>
+      <c r="GFV10" s="13"/>
+      <c r="GFW10" s="13"/>
+      <c r="GFX10" s="15"/>
+      <c r="GFY10" s="5"/>
+      <c r="GGD10" s="13"/>
+      <c r="GGE10" s="13"/>
+      <c r="GGF10" s="15"/>
+      <c r="GGG10" s="5"/>
+      <c r="GGL10" s="13"/>
+      <c r="GGM10" s="13"/>
+      <c r="GGN10" s="15"/>
+      <c r="GGO10" s="5"/>
+      <c r="GGT10" s="13"/>
+      <c r="GGU10" s="13"/>
+      <c r="GGV10" s="15"/>
+      <c r="GGW10" s="5"/>
+      <c r="GHB10" s="13"/>
+      <c r="GHC10" s="13"/>
+      <c r="GHD10" s="15"/>
+      <c r="GHE10" s="5"/>
+      <c r="GHJ10" s="13"/>
+      <c r="GHK10" s="13"/>
+      <c r="GHL10" s="15"/>
+      <c r="GHM10" s="5"/>
+      <c r="GHR10" s="13"/>
+      <c r="GHS10" s="13"/>
+      <c r="GHT10" s="15"/>
+      <c r="GHU10" s="5"/>
+      <c r="GHZ10" s="13"/>
+      <c r="GIA10" s="13"/>
+      <c r="GIB10" s="15"/>
+      <c r="GIC10" s="5"/>
+      <c r="GIH10" s="13"/>
+      <c r="GII10" s="13"/>
+      <c r="GIJ10" s="15"/>
+      <c r="GIK10" s="5"/>
+      <c r="GIP10" s="13"/>
+      <c r="GIQ10" s="13"/>
+      <c r="GIR10" s="15"/>
+      <c r="GIS10" s="5"/>
+      <c r="GIX10" s="13"/>
+      <c r="GIY10" s="13"/>
+      <c r="GIZ10" s="15"/>
+      <c r="GJA10" s="5"/>
+      <c r="GJF10" s="13"/>
+      <c r="GJG10" s="13"/>
+      <c r="GJH10" s="15"/>
+      <c r="GJI10" s="5"/>
+      <c r="GJN10" s="13"/>
+      <c r="GJO10" s="13"/>
+      <c r="GJP10" s="15"/>
+      <c r="GJQ10" s="5"/>
+      <c r="GJV10" s="13"/>
+      <c r="GJW10" s="13"/>
+      <c r="GJX10" s="15"/>
+      <c r="GJY10" s="5"/>
+      <c r="GKD10" s="13"/>
+      <c r="GKE10" s="13"/>
+      <c r="GKF10" s="15"/>
+      <c r="GKG10" s="5"/>
+      <c r="GKL10" s="13"/>
+      <c r="GKM10" s="13"/>
+      <c r="GKN10" s="15"/>
+      <c r="GKO10" s="5"/>
+      <c r="GKT10" s="13"/>
+      <c r="GKU10" s="13"/>
+      <c r="GKV10" s="15"/>
+      <c r="GKW10" s="5"/>
+      <c r="GLB10" s="13"/>
+      <c r="GLC10" s="13"/>
+      <c r="GLD10" s="15"/>
+      <c r="GLE10" s="5"/>
+      <c r="GLJ10" s="13"/>
+      <c r="GLK10" s="13"/>
+      <c r="GLL10" s="15"/>
+      <c r="GLM10" s="5"/>
+      <c r="GLR10" s="13"/>
+      <c r="GLS10" s="13"/>
+      <c r="GLT10" s="15"/>
+      <c r="GLU10" s="5"/>
+      <c r="GLZ10" s="13"/>
+      <c r="GMA10" s="13"/>
+      <c r="GMB10" s="15"/>
+      <c r="GMC10" s="5"/>
+      <c r="GMH10" s="13"/>
+      <c r="GMI10" s="13"/>
+      <c r="GMJ10" s="15"/>
+      <c r="GMK10" s="5"/>
+      <c r="GMP10" s="13"/>
+      <c r="GMQ10" s="13"/>
+      <c r="GMR10" s="15"/>
+      <c r="GMS10" s="5"/>
+      <c r="GMX10" s="13"/>
+      <c r="GMY10" s="13"/>
+      <c r="GMZ10" s="15"/>
+      <c r="GNA10" s="5"/>
+      <c r="GNF10" s="13"/>
+      <c r="GNG10" s="13"/>
+      <c r="GNH10" s="15"/>
+      <c r="GNI10" s="5"/>
+      <c r="GNN10" s="13"/>
+      <c r="GNO10" s="13"/>
+      <c r="GNP10" s="15"/>
+      <c r="GNQ10" s="5"/>
+      <c r="GNV10" s="13"/>
+      <c r="GNW10" s="13"/>
+      <c r="GNX10" s="15"/>
+      <c r="GNY10" s="5"/>
+      <c r="GOD10" s="13"/>
+      <c r="GOE10" s="13"/>
+      <c r="GOF10" s="15"/>
+      <c r="GOG10" s="5"/>
+      <c r="GOL10" s="13"/>
+      <c r="GOM10" s="13"/>
+      <c r="GON10" s="15"/>
+      <c r="GOO10" s="5"/>
+      <c r="GOT10" s="13"/>
+      <c r="GOU10" s="13"/>
+      <c r="GOV10" s="15"/>
+      <c r="GOW10" s="5"/>
+      <c r="GPB10" s="13"/>
+      <c r="GPC10" s="13"/>
+      <c r="GPD10" s="15"/>
+      <c r="GPE10" s="5"/>
+      <c r="GPJ10" s="13"/>
+      <c r="GPK10" s="13"/>
+      <c r="GPL10" s="15"/>
+      <c r="GPM10" s="5"/>
+      <c r="GPR10" s="13"/>
+      <c r="GPS10" s="13"/>
+      <c r="GPT10" s="15"/>
+      <c r="GPU10" s="5"/>
+      <c r="GPZ10" s="13"/>
+      <c r="GQA10" s="13"/>
+      <c r="GQB10" s="15"/>
+      <c r="GQC10" s="5"/>
+      <c r="GQH10" s="13"/>
+      <c r="GQI10" s="13"/>
+      <c r="GQJ10" s="15"/>
+      <c r="GQK10" s="5"/>
+      <c r="GQP10" s="13"/>
+      <c r="GQQ10" s="13"/>
+      <c r="GQR10" s="15"/>
+      <c r="GQS10" s="5"/>
+      <c r="GQX10" s="13"/>
+      <c r="GQY10" s="13"/>
+      <c r="GQZ10" s="15"/>
+      <c r="GRA10" s="5"/>
+      <c r="GRF10" s="13"/>
+      <c r="GRG10" s="13"/>
+      <c r="GRH10" s="15"/>
+      <c r="GRI10" s="5"/>
+      <c r="GRN10" s="13"/>
+      <c r="GRO10" s="13"/>
+      <c r="GRP10" s="15"/>
+      <c r="GRQ10" s="5"/>
+      <c r="GRV10" s="13"/>
+      <c r="GRW10" s="13"/>
+      <c r="GRX10" s="15"/>
+      <c r="GRY10" s="5"/>
+      <c r="GSD10" s="13"/>
+      <c r="GSE10" s="13"/>
+      <c r="GSF10" s="15"/>
+      <c r="GSG10" s="5"/>
+      <c r="GSL10" s="13"/>
+      <c r="GSM10" s="13"/>
+      <c r="GSN10" s="15"/>
+      <c r="GSO10" s="5"/>
+      <c r="GST10" s="13"/>
+      <c r="GSU10" s="13"/>
+      <c r="GSV10" s="15"/>
+      <c r="GSW10" s="5"/>
+      <c r="GTB10" s="13"/>
+      <c r="GTC10" s="13"/>
+      <c r="GTD10" s="15"/>
+      <c r="GTE10" s="5"/>
+      <c r="GTJ10" s="13"/>
+      <c r="GTK10" s="13"/>
+      <c r="GTL10" s="15"/>
+      <c r="GTM10" s="5"/>
+      <c r="GTR10" s="13"/>
+      <c r="GTS10" s="13"/>
+      <c r="GTT10" s="15"/>
+      <c r="GTU10" s="5"/>
+      <c r="GTZ10" s="13"/>
+      <c r="GUA10" s="13"/>
+      <c r="GUB10" s="15"/>
+      <c r="GUC10" s="5"/>
+      <c r="GUH10" s="13"/>
+      <c r="GUI10" s="13"/>
+      <c r="GUJ10" s="15"/>
+      <c r="GUK10" s="5"/>
+      <c r="GUP10" s="13"/>
+      <c r="GUQ10" s="13"/>
+      <c r="GUR10" s="15"/>
+      <c r="GUS10" s="5"/>
+      <c r="GUX10" s="13"/>
+      <c r="GUY10" s="13"/>
+      <c r="GUZ10" s="15"/>
+      <c r="GVA10" s="5"/>
+      <c r="GVF10" s="13"/>
+      <c r="GVG10" s="13"/>
+      <c r="GVH10" s="15"/>
+      <c r="GVI10" s="5"/>
+      <c r="GVN10" s="13"/>
+      <c r="GVO10" s="13"/>
+      <c r="GVP10" s="15"/>
+      <c r="GVQ10" s="5"/>
+      <c r="GVV10" s="13"/>
+      <c r="GVW10" s="13"/>
+      <c r="GVX10" s="15"/>
+      <c r="GVY10" s="5"/>
+      <c r="GWD10" s="13"/>
+      <c r="GWE10" s="13"/>
+      <c r="GWF10" s="15"/>
+      <c r="GWG10" s="5"/>
+      <c r="GWL10" s="13"/>
+      <c r="GWM10" s="13"/>
+      <c r="GWN10" s="15"/>
+      <c r="GWO10" s="5"/>
+      <c r="GWT10" s="13"/>
+      <c r="GWU10" s="13"/>
+      <c r="GWV10" s="15"/>
+      <c r="GWW10" s="5"/>
+      <c r="GXB10" s="13"/>
+      <c r="GXC10" s="13"/>
+      <c r="GXD10" s="15"/>
+      <c r="GXE10" s="5"/>
+      <c r="GXJ10" s="13"/>
+      <c r="GXK10" s="13"/>
+      <c r="GXL10" s="15"/>
+      <c r="GXM10" s="5"/>
+      <c r="GXR10" s="13"/>
+      <c r="GXS10" s="13"/>
+      <c r="GXT10" s="15"/>
+      <c r="GXU10" s="5"/>
+      <c r="GXZ10" s="13"/>
+      <c r="GYA10" s="13"/>
+      <c r="GYB10" s="15"/>
+      <c r="GYC10" s="5"/>
+      <c r="GYH10" s="13"/>
+      <c r="GYI10" s="13"/>
+      <c r="GYJ10" s="15"/>
+      <c r="GYK10" s="5"/>
+      <c r="GYP10" s="13"/>
+      <c r="GYQ10" s="13"/>
+      <c r="GYR10" s="15"/>
+      <c r="GYS10" s="5"/>
+      <c r="GYX10" s="13"/>
+      <c r="GYY10" s="13"/>
+      <c r="GYZ10" s="15"/>
+      <c r="GZA10" s="5"/>
+      <c r="GZF10" s="13"/>
+      <c r="GZG10" s="13"/>
+      <c r="GZH10" s="15"/>
+      <c r="GZI10" s="5"/>
+      <c r="GZN10" s="13"/>
+      <c r="GZO10" s="13"/>
+      <c r="GZP10" s="15"/>
+      <c r="GZQ10" s="5"/>
+      <c r="GZV10" s="13"/>
+      <c r="GZW10" s="13"/>
+      <c r="GZX10" s="15"/>
+      <c r="GZY10" s="5"/>
+      <c r="HAD10" s="13"/>
+      <c r="HAE10" s="13"/>
+      <c r="HAF10" s="15"/>
+      <c r="HAG10" s="5"/>
+      <c r="HAL10" s="13"/>
+      <c r="HAM10" s="13"/>
+      <c r="HAN10" s="15"/>
+      <c r="HAO10" s="5"/>
+      <c r="HAT10" s="13"/>
+      <c r="HAU10" s="13"/>
+      <c r="HAV10" s="15"/>
+      <c r="HAW10" s="5"/>
+      <c r="HBB10" s="13"/>
+      <c r="HBC10" s="13"/>
+      <c r="HBD10" s="15"/>
+      <c r="HBE10" s="5"/>
+      <c r="HBJ10" s="13"/>
+      <c r="HBK10" s="13"/>
+      <c r="HBL10" s="15"/>
+      <c r="HBM10" s="5"/>
+      <c r="HBR10" s="13"/>
+      <c r="HBS10" s="13"/>
+      <c r="HBT10" s="15"/>
+      <c r="HBU10" s="5"/>
+      <c r="HBZ10" s="13"/>
+      <c r="HCA10" s="13"/>
+      <c r="HCB10" s="15"/>
+      <c r="HCC10" s="5"/>
+      <c r="HCH10" s="13"/>
+      <c r="HCI10" s="13"/>
+      <c r="HCJ10" s="15"/>
+      <c r="HCK10" s="5"/>
+      <c r="HCP10" s="13"/>
+      <c r="HCQ10" s="13"/>
+      <c r="HCR10" s="15"/>
+      <c r="HCS10" s="5"/>
+      <c r="HCX10" s="13"/>
+      <c r="HCY10" s="13"/>
+      <c r="HCZ10" s="15"/>
+      <c r="HDA10" s="5"/>
+      <c r="HDF10" s="13"/>
+      <c r="HDG10" s="13"/>
+      <c r="HDH10" s="15"/>
+      <c r="HDI10" s="5"/>
+      <c r="HDN10" s="13"/>
+      <c r="HDO10" s="13"/>
+      <c r="HDP10" s="15"/>
+      <c r="HDQ10" s="5"/>
+      <c r="HDV10" s="13"/>
+      <c r="HDW10" s="13"/>
+      <c r="HDX10" s="15"/>
+      <c r="HDY10" s="5"/>
+      <c r="HED10" s="13"/>
+      <c r="HEE10" s="13"/>
+      <c r="HEF10" s="15"/>
+      <c r="HEG10" s="5"/>
+      <c r="HEL10" s="13"/>
+      <c r="HEM10" s="13"/>
+      <c r="HEN10" s="15"/>
+      <c r="HEO10" s="5"/>
+      <c r="HET10" s="13"/>
+      <c r="HEU10" s="13"/>
+      <c r="HEV10" s="15"/>
+      <c r="HEW10" s="5"/>
+      <c r="HFB10" s="13"/>
+      <c r="HFC10" s="13"/>
+      <c r="HFD10" s="15"/>
+      <c r="HFE10" s="5"/>
+      <c r="HFJ10" s="13"/>
+      <c r="HFK10" s="13"/>
+      <c r="HFL10" s="15"/>
+      <c r="HFM10" s="5"/>
+      <c r="HFR10" s="13"/>
+      <c r="HFS10" s="13"/>
+      <c r="HFT10" s="15"/>
+      <c r="HFU10" s="5"/>
+      <c r="HFZ10" s="13"/>
+      <c r="HGA10" s="13"/>
+      <c r="HGB10" s="15"/>
+      <c r="HGC10" s="5"/>
+      <c r="HGH10" s="13"/>
+      <c r="HGI10" s="13"/>
+      <c r="HGJ10" s="15"/>
+      <c r="HGK10" s="5"/>
+      <c r="HGP10" s="13"/>
+      <c r="HGQ10" s="13"/>
+      <c r="HGR10" s="15"/>
+      <c r="HGS10" s="5"/>
+      <c r="HGX10" s="13"/>
+      <c r="HGY10" s="13"/>
+      <c r="HGZ10" s="15"/>
+      <c r="HHA10" s="5"/>
+      <c r="HHF10" s="13"/>
+      <c r="HHG10" s="13"/>
+      <c r="HHH10" s="15"/>
+      <c r="HHI10" s="5"/>
+      <c r="HHN10" s="13"/>
+      <c r="HHO10" s="13"/>
+      <c r="HHP10" s="15"/>
+      <c r="HHQ10" s="5"/>
+      <c r="HHV10" s="13"/>
+      <c r="HHW10" s="13"/>
+      <c r="HHX10" s="15"/>
+      <c r="HHY10" s="5"/>
+      <c r="HID10" s="13"/>
+      <c r="HIE10" s="13"/>
+      <c r="HIF10" s="15"/>
+      <c r="HIG10" s="5"/>
+      <c r="HIL10" s="13"/>
+      <c r="HIM10" s="13"/>
+      <c r="HIN10" s="15"/>
+      <c r="HIO10" s="5"/>
+      <c r="HIT10" s="13"/>
+      <c r="HIU10" s="13"/>
+      <c r="HIV10" s="15"/>
+      <c r="HIW10" s="5"/>
+      <c r="HJB10" s="13"/>
+      <c r="HJC10" s="13"/>
+      <c r="HJD10" s="15"/>
+      <c r="HJE10" s="5"/>
+      <c r="HJJ10" s="13"/>
+      <c r="HJK10" s="13"/>
+      <c r="HJL10" s="15"/>
+      <c r="HJM10" s="5"/>
+      <c r="HJR10" s="13"/>
+      <c r="HJS10" s="13"/>
+      <c r="HJT10" s="15"/>
+      <c r="HJU10" s="5"/>
+      <c r="HJZ10" s="13"/>
+      <c r="HKA10" s="13"/>
+      <c r="HKB10" s="15"/>
+      <c r="HKC10" s="5"/>
+      <c r="HKH10" s="13"/>
+      <c r="HKI10" s="13"/>
+      <c r="HKJ10" s="15"/>
+      <c r="HKK10" s="5"/>
+      <c r="HKP10" s="13"/>
+      <c r="HKQ10" s="13"/>
+      <c r="HKR10" s="15"/>
+      <c r="HKS10" s="5"/>
+      <c r="HKX10" s="13"/>
+      <c r="HKY10" s="13"/>
+      <c r="HKZ10" s="15"/>
+      <c r="HLA10" s="5"/>
+      <c r="HLF10" s="13"/>
+      <c r="HLG10" s="13"/>
+      <c r="HLH10" s="15"/>
+      <c r="HLI10" s="5"/>
+      <c r="HLN10" s="13"/>
+      <c r="HLO10" s="13"/>
+      <c r="HLP10" s="15"/>
+      <c r="HLQ10" s="5"/>
+      <c r="HLV10" s="13"/>
+      <c r="HLW10" s="13"/>
+      <c r="HLX10" s="15"/>
+      <c r="HLY10" s="5"/>
+      <c r="HMD10" s="13"/>
+      <c r="HME10" s="13"/>
+      <c r="HMF10" s="15"/>
+      <c r="HMG10" s="5"/>
+      <c r="HML10" s="13"/>
+      <c r="HMM10" s="13"/>
+      <c r="HMN10" s="15"/>
+      <c r="HMO10" s="5"/>
+      <c r="HMT10" s="13"/>
+      <c r="HMU10" s="13"/>
+      <c r="HMV10" s="15"/>
+      <c r="HMW10" s="5"/>
+      <c r="HNB10" s="13"/>
+      <c r="HNC10" s="13"/>
+      <c r="HND10" s="15"/>
+      <c r="HNE10" s="5"/>
+      <c r="HNJ10" s="13"/>
+      <c r="HNK10" s="13"/>
+      <c r="HNL10" s="15"/>
+      <c r="HNM10" s="5"/>
+      <c r="HNR10" s="13"/>
+      <c r="HNS10" s="13"/>
+      <c r="HNT10" s="15"/>
+      <c r="HNU10" s="5"/>
+      <c r="HNZ10" s="13"/>
+      <c r="HOA10" s="13"/>
+      <c r="HOB10" s="15"/>
+      <c r="HOC10" s="5"/>
+      <c r="HOH10" s="13"/>
+      <c r="HOI10" s="13"/>
+      <c r="HOJ10" s="15"/>
+      <c r="HOK10" s="5"/>
+      <c r="HOP10" s="13"/>
+      <c r="HOQ10" s="13"/>
+      <c r="HOR10" s="15"/>
+      <c r="HOS10" s="5"/>
+      <c r="HOX10" s="13"/>
+      <c r="HOY10" s="13"/>
+      <c r="HOZ10" s="15"/>
+      <c r="HPA10" s="5"/>
+      <c r="HPF10" s="13"/>
+      <c r="HPG10" s="13"/>
+      <c r="HPH10" s="15"/>
+      <c r="HPI10" s="5"/>
+      <c r="HPN10" s="13"/>
+      <c r="HPO10" s="13"/>
+      <c r="HPP10" s="15"/>
+      <c r="HPQ10" s="5"/>
+      <c r="HPV10" s="13"/>
+      <c r="HPW10" s="13"/>
+      <c r="HPX10" s="15"/>
+      <c r="HPY10" s="5"/>
+      <c r="HQD10" s="13"/>
+      <c r="HQE10" s="13"/>
+      <c r="HQF10" s="15"/>
+      <c r="HQG10" s="5"/>
+      <c r="HQL10" s="13"/>
+      <c r="HQM10" s="13"/>
+      <c r="HQN10" s="15"/>
+      <c r="HQO10" s="5"/>
+      <c r="HQT10" s="13"/>
+      <c r="HQU10" s="13"/>
+      <c r="HQV10" s="15"/>
+      <c r="HQW10" s="5"/>
+      <c r="HRB10" s="13"/>
+      <c r="HRC10" s="13"/>
+      <c r="HRD10" s="15"/>
+      <c r="HRE10" s="5"/>
+      <c r="HRJ10" s="13"/>
+      <c r="HRK10" s="13"/>
+      <c r="HRL10" s="15"/>
+      <c r="HRM10" s="5"/>
+      <c r="HRR10" s="13"/>
+      <c r="HRS10" s="13"/>
+      <c r="HRT10" s="15"/>
+      <c r="HRU10" s="5"/>
+      <c r="HRZ10" s="13"/>
+      <c r="HSA10" s="13"/>
+      <c r="HSB10" s="15"/>
+      <c r="HSC10" s="5"/>
+      <c r="HSH10" s="13"/>
+      <c r="HSI10" s="13"/>
+      <c r="HSJ10" s="15"/>
+      <c r="HSK10" s="5"/>
+      <c r="HSP10" s="13"/>
+      <c r="HSQ10" s="13"/>
+      <c r="HSR10" s="15"/>
+      <c r="HSS10" s="5"/>
+      <c r="HSX10" s="13"/>
+      <c r="HSY10" s="13"/>
+      <c r="HSZ10" s="15"/>
+      <c r="HTA10" s="5"/>
+      <c r="HTF10" s="13"/>
+      <c r="HTG10" s="13"/>
+      <c r="HTH10" s="15"/>
+      <c r="HTI10" s="5"/>
+      <c r="HTN10" s="13"/>
+      <c r="HTO10" s="13"/>
+      <c r="HTP10" s="15"/>
+      <c r="HTQ10" s="5"/>
+      <c r="HTV10" s="13"/>
+      <c r="HTW10" s="13"/>
+      <c r="HTX10" s="15"/>
+      <c r="HTY10" s="5"/>
+      <c r="HUD10" s="13"/>
+      <c r="HUE10" s="13"/>
+      <c r="HUF10" s="15"/>
+      <c r="HUG10" s="5"/>
+      <c r="HUL10" s="13"/>
+      <c r="HUM10" s="13"/>
+      <c r="HUN10" s="15"/>
+      <c r="HUO10" s="5"/>
+      <c r="HUT10" s="13"/>
+      <c r="HUU10" s="13"/>
+      <c r="HUV10" s="15"/>
+      <c r="HUW10" s="5"/>
+      <c r="HVB10" s="13"/>
+      <c r="HVC10" s="13"/>
+      <c r="HVD10" s="15"/>
+      <c r="HVE10" s="5"/>
+      <c r="HVJ10" s="13"/>
+      <c r="HVK10" s="13"/>
+      <c r="HVL10" s="15"/>
+      <c r="HVM10" s="5"/>
+      <c r="HVR10" s="13"/>
+      <c r="HVS10" s="13"/>
+      <c r="HVT10" s="15"/>
+      <c r="HVU10" s="5"/>
+      <c r="HVZ10" s="13"/>
+      <c r="HWA10" s="13"/>
+      <c r="HWB10" s="15"/>
+      <c r="HWC10" s="5"/>
+      <c r="HWH10" s="13"/>
+      <c r="HWI10" s="13"/>
+      <c r="HWJ10" s="15"/>
+      <c r="HWK10" s="5"/>
+      <c r="HWP10" s="13"/>
+      <c r="HWQ10" s="13"/>
+      <c r="HWR10" s="15"/>
+      <c r="HWS10" s="5"/>
+      <c r="HWX10" s="13"/>
+      <c r="HWY10" s="13"/>
+      <c r="HWZ10" s="15"/>
+      <c r="HXA10" s="5"/>
+      <c r="HXF10" s="13"/>
+      <c r="HXG10" s="13"/>
+      <c r="HXH10" s="15"/>
+      <c r="HXI10" s="5"/>
+      <c r="HXN10" s="13"/>
+      <c r="HXO10" s="13"/>
+      <c r="HXP10" s="15"/>
+      <c r="HXQ10" s="5"/>
+      <c r="HXV10" s="13"/>
+      <c r="HXW10" s="13"/>
+      <c r="HXX10" s="15"/>
+      <c r="HXY10" s="5"/>
+      <c r="HYD10" s="13"/>
+      <c r="HYE10" s="13"/>
+      <c r="HYF10" s="15"/>
+      <c r="HYG10" s="5"/>
+      <c r="HYL10" s="13"/>
+      <c r="HYM10" s="13"/>
+      <c r="HYN10" s="15"/>
+      <c r="HYO10" s="5"/>
+      <c r="HYT10" s="13"/>
+      <c r="HYU10" s="13"/>
+      <c r="HYV10" s="15"/>
+      <c r="HYW10" s="5"/>
+      <c r="HZB10" s="13"/>
+      <c r="HZC10" s="13"/>
+      <c r="HZD10" s="15"/>
+      <c r="HZE10" s="5"/>
+      <c r="HZJ10" s="13"/>
+      <c r="HZK10" s="13"/>
+      <c r="HZL10" s="15"/>
+      <c r="HZM10" s="5"/>
+      <c r="HZR10" s="13"/>
+      <c r="HZS10" s="13"/>
+      <c r="HZT10" s="15"/>
+      <c r="HZU10" s="5"/>
+      <c r="HZZ10" s="13"/>
+      <c r="IAA10" s="13"/>
+      <c r="IAB10" s="15"/>
+      <c r="IAC10" s="5"/>
+      <c r="IAH10" s="13"/>
+      <c r="IAI10" s="13"/>
+      <c r="IAJ10" s="15"/>
+      <c r="IAK10" s="5"/>
+      <c r="IAP10" s="13"/>
+      <c r="IAQ10" s="13"/>
+      <c r="IAR10" s="15"/>
+      <c r="IAS10" s="5"/>
+      <c r="IAX10" s="13"/>
+      <c r="IAY10" s="13"/>
+      <c r="IAZ10" s="15"/>
+      <c r="IBA10" s="5"/>
+      <c r="IBF10" s="13"/>
+      <c r="IBG10" s="13"/>
+      <c r="IBH10" s="15"/>
+      <c r="IBI10" s="5"/>
+      <c r="IBN10" s="13"/>
+      <c r="IBO10" s="13"/>
+      <c r="IBP10" s="15"/>
+      <c r="IBQ10" s="5"/>
+      <c r="IBV10" s="13"/>
+      <c r="IBW10" s="13"/>
+      <c r="IBX10" s="15"/>
+      <c r="IBY10" s="5"/>
+      <c r="ICD10" s="13"/>
+      <c r="ICE10" s="13"/>
+      <c r="ICF10" s="15"/>
+      <c r="ICG10" s="5"/>
+      <c r="ICL10" s="13"/>
+      <c r="ICM10" s="13"/>
+      <c r="ICN10" s="15"/>
+      <c r="ICO10" s="5"/>
+      <c r="ICT10" s="13"/>
+      <c r="ICU10" s="13"/>
+      <c r="ICV10" s="15"/>
+      <c r="ICW10" s="5"/>
+      <c r="IDB10" s="13"/>
+      <c r="IDC10" s="13"/>
+      <c r="IDD10" s="15"/>
+      <c r="IDE10" s="5"/>
+      <c r="IDJ10" s="13"/>
+      <c r="IDK10" s="13"/>
+      <c r="IDL10" s="15"/>
+      <c r="IDM10" s="5"/>
+      <c r="IDR10" s="13"/>
+      <c r="IDS10" s="13"/>
+      <c r="IDT10" s="15"/>
+      <c r="IDU10" s="5"/>
+      <c r="IDZ10" s="13"/>
+      <c r="IEA10" s="13"/>
+      <c r="IEB10" s="15"/>
+      <c r="IEC10" s="5"/>
+      <c r="IEH10" s="13"/>
+      <c r="IEI10" s="13"/>
+      <c r="IEJ10" s="15"/>
+      <c r="IEK10" s="5"/>
+      <c r="IEP10" s="13"/>
+      <c r="IEQ10" s="13"/>
+      <c r="IER10" s="15"/>
+      <c r="IES10" s="5"/>
+      <c r="IEX10" s="13"/>
+      <c r="IEY10" s="13"/>
+      <c r="IEZ10" s="15"/>
+      <c r="IFA10" s="5"/>
+      <c r="IFF10" s="13"/>
+      <c r="IFG10" s="13"/>
+      <c r="IFH10" s="15"/>
+      <c r="IFI10" s="5"/>
+      <c r="IFN10" s="13"/>
+      <c r="IFO10" s="13"/>
+      <c r="IFP10" s="15"/>
+      <c r="IFQ10" s="5"/>
+      <c r="IFV10" s="13"/>
+      <c r="IFW10" s="13"/>
+      <c r="IFX10" s="15"/>
+      <c r="IFY10" s="5"/>
+      <c r="IGD10" s="13"/>
+      <c r="IGE10" s="13"/>
+      <c r="IGF10" s="15"/>
+      <c r="IGG10" s="5"/>
+      <c r="IGL10" s="13"/>
+      <c r="IGM10" s="13"/>
+      <c r="IGN10" s="15"/>
+      <c r="IGO10" s="5"/>
+      <c r="IGT10" s="13"/>
+      <c r="IGU10" s="13"/>
+      <c r="IGV10" s="15"/>
+      <c r="IGW10" s="5"/>
+      <c r="IHB10" s="13"/>
+      <c r="IHC10" s="13"/>
+      <c r="IHD10" s="15"/>
+      <c r="IHE10" s="5"/>
+      <c r="IHJ10" s="13"/>
+      <c r="IHK10" s="13"/>
+      <c r="IHL10" s="15"/>
+      <c r="IHM10" s="5"/>
+      <c r="IHR10" s="13"/>
+      <c r="IHS10" s="13"/>
+      <c r="IHT10" s="15"/>
+      <c r="IHU10" s="5"/>
+      <c r="IHZ10" s="13"/>
+      <c r="IIA10" s="13"/>
+      <c r="IIB10" s="15"/>
+      <c r="IIC10" s="5"/>
+      <c r="IIH10" s="13"/>
+      <c r="III10" s="13"/>
+      <c r="IIJ10" s="15"/>
+      <c r="IIK10" s="5"/>
+      <c r="IIP10" s="13"/>
+      <c r="IIQ10" s="13"/>
+      <c r="IIR10" s="15"/>
+      <c r="IIS10" s="5"/>
+      <c r="IIX10" s="13"/>
+      <c r="IIY10" s="13"/>
+      <c r="IIZ10" s="15"/>
+      <c r="IJA10" s="5"/>
+      <c r="IJF10" s="13"/>
+      <c r="IJG10" s="13"/>
+      <c r="IJH10" s="15"/>
+      <c r="IJI10" s="5"/>
+      <c r="IJN10" s="13"/>
+      <c r="IJO10" s="13"/>
+      <c r="IJP10" s="15"/>
+      <c r="IJQ10" s="5"/>
+      <c r="IJV10" s="13"/>
+      <c r="IJW10" s="13"/>
+      <c r="IJX10" s="15"/>
+      <c r="IJY10" s="5"/>
+      <c r="IKD10" s="13"/>
+      <c r="IKE10" s="13"/>
+      <c r="IKF10" s="15"/>
+      <c r="IKG10" s="5"/>
+      <c r="IKL10" s="13"/>
+      <c r="IKM10" s="13"/>
+      <c r="IKN10" s="15"/>
+      <c r="IKO10" s="5"/>
+      <c r="IKT10" s="13"/>
+      <c r="IKU10" s="13"/>
+      <c r="IKV10" s="15"/>
+      <c r="IKW10" s="5"/>
+      <c r="ILB10" s="13"/>
+      <c r="ILC10" s="13"/>
+      <c r="ILD10" s="15"/>
+      <c r="ILE10" s="5"/>
+      <c r="ILJ10" s="13"/>
+      <c r="ILK10" s="13"/>
+      <c r="ILL10" s="15"/>
+      <c r="ILM10" s="5"/>
+      <c r="ILR10" s="13"/>
+      <c r="ILS10" s="13"/>
+      <c r="ILT10" s="15"/>
+      <c r="ILU10" s="5"/>
+      <c r="ILZ10" s="13"/>
+      <c r="IMA10" s="13"/>
+      <c r="IMB10" s="15"/>
+      <c r="IMC10" s="5"/>
+      <c r="IMH10" s="13"/>
+      <c r="IMI10" s="13"/>
+      <c r="IMJ10" s="15"/>
+      <c r="IMK10" s="5"/>
+      <c r="IMP10" s="13"/>
+      <c r="IMQ10" s="13"/>
+      <c r="IMR10" s="15"/>
+      <c r="IMS10" s="5"/>
+      <c r="IMX10" s="13"/>
+      <c r="IMY10" s="13"/>
+      <c r="IMZ10" s="15"/>
+      <c r="INA10" s="5"/>
+      <c r="INF10" s="13"/>
+      <c r="ING10" s="13"/>
+      <c r="INH10" s="15"/>
+      <c r="INI10" s="5"/>
+      <c r="INN10" s="13"/>
+      <c r="INO10" s="13"/>
+      <c r="INP10" s="15"/>
+      <c r="INQ10" s="5"/>
+      <c r="INV10" s="13"/>
+      <c r="INW10" s="13"/>
+      <c r="INX10" s="15"/>
+      <c r="INY10" s="5"/>
+      <c r="IOD10" s="13"/>
+      <c r="IOE10" s="13"/>
+      <c r="IOF10" s="15"/>
+      <c r="IOG10" s="5"/>
+      <c r="IOL10" s="13"/>
+      <c r="IOM10" s="13"/>
+      <c r="ION10" s="15"/>
+      <c r="IOO10" s="5"/>
+      <c r="IOT10" s="13"/>
+      <c r="IOU10" s="13"/>
+      <c r="IOV10" s="15"/>
+      <c r="IOW10" s="5"/>
+      <c r="IPB10" s="13"/>
+      <c r="IPC10" s="13"/>
+      <c r="IPD10" s="15"/>
+      <c r="IPE10" s="5"/>
+      <c r="IPJ10" s="13"/>
+      <c r="IPK10" s="13"/>
+      <c r="IPL10" s="15"/>
+      <c r="IPM10" s="5"/>
+      <c r="IPR10" s="13"/>
+      <c r="IPS10" s="13"/>
+      <c r="IPT10" s="15"/>
+      <c r="IPU10" s="5"/>
+      <c r="IPZ10" s="13"/>
+      <c r="IQA10" s="13"/>
+      <c r="IQB10" s="15"/>
+      <c r="IQC10" s="5"/>
+      <c r="IQH10" s="13"/>
+      <c r="IQI10" s="13"/>
+      <c r="IQJ10" s="15"/>
+      <c r="IQK10" s="5"/>
+      <c r="IQP10" s="13"/>
+      <c r="IQQ10" s="13"/>
+      <c r="IQR10" s="15"/>
+      <c r="IQS10" s="5"/>
+      <c r="IQX10" s="13"/>
+      <c r="IQY10" s="13"/>
+      <c r="IQZ10" s="15"/>
+      <c r="IRA10" s="5"/>
+      <c r="IRF10" s="13"/>
+      <c r="IRG10" s="13"/>
+      <c r="IRH10" s="15"/>
+      <c r="IRI10" s="5"/>
+      <c r="IRN10" s="13"/>
+      <c r="IRO10" s="13"/>
+      <c r="IRP10" s="15"/>
+      <c r="IRQ10" s="5"/>
+      <c r="IRV10" s="13"/>
+      <c r="IRW10" s="13"/>
+      <c r="IRX10" s="15"/>
+      <c r="IRY10" s="5"/>
+      <c r="ISD10" s="13"/>
+      <c r="ISE10" s="13"/>
+      <c r="ISF10" s="15"/>
+      <c r="ISG10" s="5"/>
+      <c r="ISL10" s="13"/>
+      <c r="ISM10" s="13"/>
+      <c r="ISN10" s="15"/>
+      <c r="ISO10" s="5"/>
+      <c r="IST10" s="13"/>
+      <c r="ISU10" s="13"/>
+      <c r="ISV10" s="15"/>
+      <c r="ISW10" s="5"/>
+      <c r="ITB10" s="13"/>
+      <c r="ITC10" s="13"/>
+      <c r="ITD10" s="15"/>
+      <c r="ITE10" s="5"/>
+      <c r="ITJ10" s="13"/>
+      <c r="ITK10" s="13"/>
+      <c r="ITL10" s="15"/>
+      <c r="ITM10" s="5"/>
+      <c r="ITR10" s="13"/>
+      <c r="ITS10" s="13"/>
+      <c r="ITT10" s="15"/>
+      <c r="ITU10" s="5"/>
+      <c r="ITZ10" s="13"/>
+      <c r="IUA10" s="13"/>
+      <c r="IUB10" s="15"/>
+      <c r="IUC10" s="5"/>
+      <c r="IUH10" s="13"/>
+      <c r="IUI10" s="13"/>
+      <c r="IUJ10" s="15"/>
+      <c r="IUK10" s="5"/>
+      <c r="IUP10" s="13"/>
+      <c r="IUQ10" s="13"/>
+      <c r="IUR10" s="15"/>
+      <c r="IUS10" s="5"/>
+      <c r="IUX10" s="13"/>
+      <c r="IUY10" s="13"/>
+      <c r="IUZ10" s="15"/>
+      <c r="IVA10" s="5"/>
+      <c r="IVF10" s="13"/>
+      <c r="IVG10" s="13"/>
+      <c r="IVH10" s="15"/>
+      <c r="IVI10" s="5"/>
+      <c r="IVN10" s="13"/>
+      <c r="IVO10" s="13"/>
+      <c r="IVP10" s="15"/>
+      <c r="IVQ10" s="5"/>
+      <c r="IVV10" s="13"/>
+      <c r="IVW10" s="13"/>
+      <c r="IVX10" s="15"/>
+      <c r="IVY10" s="5"/>
+      <c r="IWD10" s="13"/>
+      <c r="IWE10" s="13"/>
+      <c r="IWF10" s="15"/>
+      <c r="IWG10" s="5"/>
+      <c r="IWL10" s="13"/>
+      <c r="IWM10" s="13"/>
+      <c r="IWN10" s="15"/>
+      <c r="IWO10" s="5"/>
+      <c r="IWT10" s="13"/>
+      <c r="IWU10" s="13"/>
+      <c r="IWV10" s="15"/>
+      <c r="IWW10" s="5"/>
+      <c r="IXB10" s="13"/>
+      <c r="IXC10" s="13"/>
+      <c r="IXD10" s="15"/>
+      <c r="IXE10" s="5"/>
+      <c r="IXJ10" s="13"/>
+      <c r="IXK10" s="13"/>
+      <c r="IXL10" s="15"/>
+      <c r="IXM10" s="5"/>
+      <c r="IXR10" s="13"/>
+      <c r="IXS10" s="13"/>
+      <c r="IXT10" s="15"/>
+      <c r="IXU10" s="5"/>
+      <c r="IXZ10" s="13"/>
+      <c r="IYA10" s="13"/>
+      <c r="IYB10" s="15"/>
+      <c r="IYC10" s="5"/>
+      <c r="IYH10" s="13"/>
+      <c r="IYI10" s="13"/>
+      <c r="IYJ10" s="15"/>
+      <c r="IYK10" s="5"/>
+      <c r="IYP10" s="13"/>
+      <c r="IYQ10" s="13"/>
+      <c r="IYR10" s="15"/>
+      <c r="IYS10" s="5"/>
+      <c r="IYX10" s="13"/>
+      <c r="IYY10" s="13"/>
+      <c r="IYZ10" s="15"/>
+      <c r="IZA10" s="5"/>
+      <c r="IZF10" s="13"/>
+      <c r="IZG10" s="13"/>
+      <c r="IZH10" s="15"/>
+      <c r="IZI10" s="5"/>
+      <c r="IZN10" s="13"/>
+      <c r="IZO10" s="13"/>
+      <c r="IZP10" s="15"/>
+      <c r="IZQ10" s="5"/>
+      <c r="IZV10" s="13"/>
+      <c r="IZW10" s="13"/>
+      <c r="IZX10" s="15"/>
+      <c r="IZY10" s="5"/>
+      <c r="JAD10" s="13"/>
+      <c r="JAE10" s="13"/>
+      <c r="JAF10" s="15"/>
+      <c r="JAG10" s="5"/>
+      <c r="JAL10" s="13"/>
+      <c r="JAM10" s="13"/>
+      <c r="JAN10" s="15"/>
+      <c r="JAO10" s="5"/>
+      <c r="JAT10" s="13"/>
+      <c r="JAU10" s="13"/>
+      <c r="JAV10" s="15"/>
+      <c r="JAW10" s="5"/>
+      <c r="JBB10" s="13"/>
+      <c r="JBC10" s="13"/>
+      <c r="JBD10" s="15"/>
+      <c r="JBE10" s="5"/>
+      <c r="JBJ10" s="13"/>
+      <c r="JBK10" s="13"/>
+      <c r="JBL10" s="15"/>
+      <c r="JBM10" s="5"/>
+      <c r="JBR10" s="13"/>
+      <c r="JBS10" s="13"/>
+      <c r="JBT10" s="15"/>
+      <c r="JBU10" s="5"/>
+      <c r="JBZ10" s="13"/>
+      <c r="JCA10" s="13"/>
+      <c r="JCB10" s="15"/>
+      <c r="JCC10" s="5"/>
+      <c r="JCH10" s="13"/>
+      <c r="JCI10" s="13"/>
+      <c r="JCJ10" s="15"/>
+      <c r="JCK10" s="5"/>
+      <c r="JCP10" s="13"/>
+      <c r="JCQ10" s="13"/>
+      <c r="JCR10" s="15"/>
+      <c r="JCS10" s="5"/>
+      <c r="JCX10" s="13"/>
+      <c r="JCY10" s="13"/>
+      <c r="JCZ10" s="15"/>
+      <c r="JDA10" s="5"/>
+      <c r="JDF10" s="13"/>
+      <c r="JDG10" s="13"/>
+      <c r="JDH10" s="15"/>
+      <c r="JDI10" s="5"/>
+      <c r="JDN10" s="13"/>
+      <c r="JDO10" s="13"/>
+      <c r="JDP10" s="15"/>
+      <c r="JDQ10" s="5"/>
+      <c r="JDV10" s="13"/>
+      <c r="JDW10" s="13"/>
+      <c r="JDX10" s="15"/>
+      <c r="JDY10" s="5"/>
+      <c r="JED10" s="13"/>
+      <c r="JEE10" s="13"/>
+      <c r="JEF10" s="15"/>
+      <c r="JEG10" s="5"/>
+      <c r="JEL10" s="13"/>
+      <c r="JEM10" s="13"/>
+      <c r="JEN10" s="15"/>
+      <c r="JEO10" s="5"/>
+      <c r="JET10" s="13"/>
+      <c r="JEU10" s="13"/>
+      <c r="JEV10" s="15"/>
+      <c r="JEW10" s="5"/>
+      <c r="JFB10" s="13"/>
+      <c r="JFC10" s="13"/>
+      <c r="JFD10" s="15"/>
+      <c r="JFE10" s="5"/>
+      <c r="JFJ10" s="13"/>
+      <c r="JFK10" s="13"/>
+      <c r="JFL10" s="15"/>
+      <c r="JFM10" s="5"/>
+      <c r="JFR10" s="13"/>
+      <c r="JFS10" s="13"/>
+      <c r="JFT10" s="15"/>
+      <c r="JFU10" s="5"/>
+      <c r="JFZ10" s="13"/>
+      <c r="JGA10" s="13"/>
+      <c r="JGB10" s="15"/>
+      <c r="JGC10" s="5"/>
+      <c r="JGH10" s="13"/>
+      <c r="JGI10" s="13"/>
+      <c r="JGJ10" s="15"/>
+      <c r="JGK10" s="5"/>
+      <c r="JGP10" s="13"/>
+      <c r="JGQ10" s="13"/>
+      <c r="JGR10" s="15"/>
+      <c r="JGS10" s="5"/>
+      <c r="JGX10" s="13"/>
+      <c r="JGY10" s="13"/>
+      <c r="JGZ10" s="15"/>
+      <c r="JHA10" s="5"/>
+      <c r="JHF10" s="13"/>
+      <c r="JHG10" s="13"/>
+      <c r="JHH10" s="15"/>
+      <c r="JHI10" s="5"/>
+      <c r="JHN10" s="13"/>
+      <c r="JHO10" s="13"/>
+      <c r="JHP10" s="15"/>
+      <c r="JHQ10" s="5"/>
+      <c r="JHV10" s="13"/>
+      <c r="JHW10" s="13"/>
+      <c r="JHX10" s="15"/>
+      <c r="JHY10" s="5"/>
+      <c r="JID10" s="13"/>
+      <c r="JIE10" s="13"/>
+      <c r="JIF10" s="15"/>
+      <c r="JIG10" s="5"/>
+      <c r="JIL10" s="13"/>
+      <c r="JIM10" s="13"/>
+      <c r="JIN10" s="15"/>
+      <c r="JIO10" s="5"/>
+      <c r="JIT10" s="13"/>
+      <c r="JIU10" s="13"/>
+      <c r="JIV10" s="15"/>
+      <c r="JIW10" s="5"/>
+      <c r="JJB10" s="13"/>
+      <c r="JJC10" s="13"/>
+      <c r="JJD10" s="15"/>
+      <c r="JJE10" s="5"/>
+      <c r="JJJ10" s="13"/>
+      <c r="JJK10" s="13"/>
+      <c r="JJL10" s="15"/>
+      <c r="JJM10" s="5"/>
+      <c r="JJR10" s="13"/>
+      <c r="JJS10" s="13"/>
+      <c r="JJT10" s="15"/>
+      <c r="JJU10" s="5"/>
+      <c r="JJZ10" s="13"/>
+      <c r="JKA10" s="13"/>
+      <c r="JKB10" s="15"/>
+      <c r="JKC10" s="5"/>
+      <c r="JKH10" s="13"/>
+      <c r="JKI10" s="13"/>
+      <c r="JKJ10" s="15"/>
+      <c r="JKK10" s="5"/>
+      <c r="JKP10" s="13"/>
+      <c r="JKQ10" s="13"/>
+      <c r="JKR10" s="15"/>
+      <c r="JKS10" s="5"/>
+      <c r="JKX10" s="13"/>
+      <c r="JKY10" s="13"/>
+      <c r="JKZ10" s="15"/>
+      <c r="JLA10" s="5"/>
+      <c r="JLF10" s="13"/>
+      <c r="JLG10" s="13"/>
+      <c r="JLH10" s="15"/>
+      <c r="JLI10" s="5"/>
+      <c r="JLN10" s="13"/>
+      <c r="JLO10" s="13"/>
+      <c r="JLP10" s="15"/>
+      <c r="JLQ10" s="5"/>
+      <c r="JLV10" s="13"/>
+      <c r="JLW10" s="13"/>
+      <c r="JLX10" s="15"/>
+      <c r="JLY10" s="5"/>
+      <c r="JMD10" s="13"/>
+      <c r="JME10" s="13"/>
+      <c r="JMF10" s="15"/>
+      <c r="JMG10" s="5"/>
+      <c r="JML10" s="13"/>
+      <c r="JMM10" s="13"/>
+      <c r="JMN10" s="15"/>
+      <c r="JMO10" s="5"/>
+      <c r="JMT10" s="13"/>
+      <c r="JMU10" s="13"/>
+      <c r="JMV10" s="15"/>
+      <c r="JMW10" s="5"/>
+      <c r="JNB10" s="13"/>
+      <c r="JNC10" s="13"/>
+      <c r="JND10" s="15"/>
+      <c r="JNE10" s="5"/>
+      <c r="JNJ10" s="13"/>
+      <c r="JNK10" s="13"/>
+      <c r="JNL10" s="15"/>
+      <c r="JNM10" s="5"/>
+      <c r="JNR10" s="13"/>
+      <c r="JNS10" s="13"/>
+      <c r="JNT10" s="15"/>
+      <c r="JNU10" s="5"/>
+      <c r="JNZ10" s="13"/>
+      <c r="JOA10" s="13"/>
+      <c r="JOB10" s="15"/>
+      <c r="JOC10" s="5"/>
+      <c r="JOH10" s="13"/>
+      <c r="JOI10" s="13"/>
+      <c r="JOJ10" s="15"/>
+      <c r="JOK10" s="5"/>
+      <c r="JOP10" s="13"/>
+      <c r="JOQ10" s="13"/>
+      <c r="JOR10" s="15"/>
+      <c r="JOS10" s="5"/>
+      <c r="JOX10" s="13"/>
+      <c r="JOY10" s="13"/>
+      <c r="JOZ10" s="15"/>
+      <c r="JPA10" s="5"/>
+      <c r="JPF10" s="13"/>
+      <c r="JPG10" s="13"/>
+      <c r="JPH10" s="15"/>
+      <c r="JPI10" s="5"/>
+      <c r="JPN10" s="13"/>
+      <c r="JPO10" s="13"/>
+      <c r="JPP10" s="15"/>
+      <c r="JPQ10" s="5"/>
+      <c r="JPV10" s="13"/>
+      <c r="JPW10" s="13"/>
+      <c r="JPX10" s="15"/>
+      <c r="JPY10" s="5"/>
+      <c r="JQD10" s="13"/>
+      <c r="JQE10" s="13"/>
+      <c r="JQF10" s="15"/>
+      <c r="JQG10" s="5"/>
+      <c r="JQL10" s="13"/>
+      <c r="JQM10" s="13"/>
+      <c r="JQN10" s="15"/>
+      <c r="JQO10" s="5"/>
+      <c r="JQT10" s="13"/>
+      <c r="JQU10" s="13"/>
+      <c r="JQV10" s="15"/>
+      <c r="JQW10" s="5"/>
+      <c r="JRB10" s="13"/>
+      <c r="JRC10" s="13"/>
+      <c r="JRD10" s="15"/>
+      <c r="JRE10" s="5"/>
+      <c r="JRJ10" s="13"/>
+      <c r="JRK10" s="13"/>
+      <c r="JRL10" s="15"/>
+      <c r="JRM10" s="5"/>
+      <c r="JRR10" s="13"/>
+      <c r="JRS10" s="13"/>
+      <c r="JRT10" s="15"/>
+      <c r="JRU10" s="5"/>
+      <c r="JRZ10" s="13"/>
+      <c r="JSA10" s="13"/>
+      <c r="JSB10" s="15"/>
+      <c r="JSC10" s="5"/>
+      <c r="JSH10" s="13"/>
+      <c r="JSI10" s="13"/>
+      <c r="JSJ10" s="15"/>
+      <c r="JSK10" s="5"/>
+      <c r="JSP10" s="13"/>
+      <c r="JSQ10" s="13"/>
+      <c r="JSR10" s="15"/>
+      <c r="JSS10" s="5"/>
+      <c r="JSX10" s="13"/>
+      <c r="JSY10" s="13"/>
+      <c r="JSZ10" s="15"/>
+      <c r="JTA10" s="5"/>
+      <c r="JTF10" s="13"/>
+      <c r="JTG10" s="13"/>
+      <c r="JTH10" s="15"/>
+      <c r="JTI10" s="5"/>
+      <c r="JTN10" s="13"/>
+      <c r="JTO10" s="13"/>
+      <c r="JTP10" s="15"/>
+      <c r="JTQ10" s="5"/>
+      <c r="JTV10" s="13"/>
+      <c r="JTW10" s="13"/>
+      <c r="JTX10" s="15"/>
+      <c r="JTY10" s="5"/>
+      <c r="JUD10" s="13"/>
+      <c r="JUE10" s="13"/>
+      <c r="JUF10" s="15"/>
+      <c r="JUG10" s="5"/>
+      <c r="JUL10" s="13"/>
+      <c r="JUM10" s="13"/>
+      <c r="JUN10" s="15"/>
+      <c r="JUO10" s="5"/>
+      <c r="JUT10" s="13"/>
+      <c r="JUU10" s="13"/>
+      <c r="JUV10" s="15"/>
+      <c r="JUW10" s="5"/>
+      <c r="JVB10" s="13"/>
+      <c r="JVC10" s="13"/>
+      <c r="JVD10" s="15"/>
+      <c r="JVE10" s="5"/>
+      <c r="JVJ10" s="13"/>
+      <c r="JVK10" s="13"/>
+      <c r="JVL10" s="15"/>
+      <c r="JVM10" s="5"/>
+      <c r="JVR10" s="13"/>
+      <c r="JVS10" s="13"/>
+      <c r="JVT10" s="15"/>
+      <c r="JVU10" s="5"/>
+      <c r="JVZ10" s="13"/>
+      <c r="JWA10" s="13"/>
+      <c r="JWB10" s="15"/>
+      <c r="JWC10" s="5"/>
+      <c r="JWH10" s="13"/>
+      <c r="JWI10" s="13"/>
+      <c r="JWJ10" s="15"/>
+      <c r="JWK10" s="5"/>
+      <c r="JWP10" s="13"/>
+      <c r="JWQ10" s="13"/>
+      <c r="JWR10" s="15"/>
+      <c r="JWS10" s="5"/>
+      <c r="JWX10" s="13"/>
+      <c r="JWY10" s="13"/>
+      <c r="JWZ10" s="15"/>
+      <c r="JXA10" s="5"/>
+      <c r="JXF10" s="13"/>
+      <c r="JXG10" s="13"/>
+      <c r="JXH10" s="15"/>
+      <c r="JXI10" s="5"/>
+      <c r="JXN10" s="13"/>
+      <c r="JXO10" s="13"/>
+      <c r="JXP10" s="15"/>
+      <c r="JXQ10" s="5"/>
+      <c r="JXV10" s="13"/>
+      <c r="JXW10" s="13"/>
+      <c r="JXX10" s="15"/>
+      <c r="JXY10" s="5"/>
+      <c r="JYD10" s="13"/>
+      <c r="JYE10" s="13"/>
+      <c r="JYF10" s="15"/>
+      <c r="JYG10" s="5"/>
+      <c r="JYL10" s="13"/>
+      <c r="JYM10" s="13"/>
+      <c r="JYN10" s="15"/>
+      <c r="JYO10" s="5"/>
+      <c r="JYT10" s="13"/>
+      <c r="JYU10" s="13"/>
+      <c r="JYV10" s="15"/>
+      <c r="JYW10" s="5"/>
+      <c r="JZB10" s="13"/>
+      <c r="JZC10" s="13"/>
+      <c r="JZD10" s="15"/>
+      <c r="JZE10" s="5"/>
+      <c r="JZJ10" s="13"/>
+      <c r="JZK10" s="13"/>
+      <c r="JZL10" s="15"/>
+      <c r="JZM10" s="5"/>
+      <c r="JZR10" s="13"/>
+      <c r="JZS10" s="13"/>
+      <c r="JZT10" s="15"/>
+      <c r="JZU10" s="5"/>
+      <c r="JZZ10" s="13"/>
+      <c r="KAA10" s="13"/>
+      <c r="KAB10" s="15"/>
+      <c r="KAC10" s="5"/>
+      <c r="KAH10" s="13"/>
+      <c r="KAI10" s="13"/>
+      <c r="KAJ10" s="15"/>
+      <c r="KAK10" s="5"/>
+      <c r="KAP10" s="13"/>
+      <c r="KAQ10" s="13"/>
+      <c r="KAR10" s="15"/>
+      <c r="KAS10" s="5"/>
+      <c r="KAX10" s="13"/>
+      <c r="KAY10" s="13"/>
+      <c r="KAZ10" s="15"/>
+      <c r="KBA10" s="5"/>
+      <c r="KBF10" s="13"/>
+      <c r="KBG10" s="13"/>
+      <c r="KBH10" s="15"/>
+      <c r="KBI10" s="5"/>
+      <c r="KBN10" s="13"/>
+      <c r="KBO10" s="13"/>
+      <c r="KBP10" s="15"/>
+      <c r="KBQ10" s="5"/>
+      <c r="KBV10" s="13"/>
+      <c r="KBW10" s="13"/>
+      <c r="KBX10" s="15"/>
+      <c r="KBY10" s="5"/>
+      <c r="KCD10" s="13"/>
+      <c r="KCE10" s="13"/>
+      <c r="KCF10" s="15"/>
+      <c r="KCG10" s="5"/>
+      <c r="KCL10" s="13"/>
+      <c r="KCM10" s="13"/>
+      <c r="KCN10" s="15"/>
+      <c r="KCO10" s="5"/>
+      <c r="KCT10" s="13"/>
+      <c r="KCU10" s="13"/>
+      <c r="KCV10" s="15"/>
+      <c r="KCW10" s="5"/>
+      <c r="KDB10" s="13"/>
+      <c r="KDC10" s="13"/>
+      <c r="KDD10" s="15"/>
+      <c r="KDE10" s="5"/>
+      <c r="KDJ10" s="13"/>
+      <c r="KDK10" s="13"/>
+      <c r="KDL10" s="15"/>
+      <c r="KDM10" s="5"/>
+      <c r="KDR10" s="13"/>
+      <c r="KDS10" s="13"/>
+      <c r="KDT10" s="15"/>
+      <c r="KDU10" s="5"/>
+      <c r="KDZ10" s="13"/>
+      <c r="KEA10" s="13"/>
+      <c r="KEB10" s="15"/>
+      <c r="KEC10" s="5"/>
+      <c r="KEH10" s="13"/>
+      <c r="KEI10" s="13"/>
+      <c r="KEJ10" s="15"/>
+      <c r="KEK10" s="5"/>
+      <c r="KEP10" s="13"/>
+      <c r="KEQ10" s="13"/>
+      <c r="KER10" s="15"/>
+      <c r="KES10" s="5"/>
+      <c r="KEX10" s="13"/>
+      <c r="KEY10" s="13"/>
+      <c r="KEZ10" s="15"/>
+      <c r="KFA10" s="5"/>
+      <c r="KFF10" s="13"/>
+      <c r="KFG10" s="13"/>
+      <c r="KFH10" s="15"/>
+      <c r="KFI10" s="5"/>
+      <c r="KFN10" s="13"/>
+      <c r="KFO10" s="13"/>
+      <c r="KFP10" s="15"/>
+      <c r="KFQ10" s="5"/>
+      <c r="KFV10" s="13"/>
+      <c r="KFW10" s="13"/>
+      <c r="KFX10" s="15"/>
+      <c r="KFY10" s="5"/>
+      <c r="KGD10" s="13"/>
+      <c r="KGE10" s="13"/>
+      <c r="KGF10" s="15"/>
+      <c r="KGG10" s="5"/>
+      <c r="KGL10" s="13"/>
+      <c r="KGM10" s="13"/>
+      <c r="KGN10" s="15"/>
+      <c r="KGO10" s="5"/>
+      <c r="KGT10" s="13"/>
+      <c r="KGU10" s="13"/>
+      <c r="KGV10" s="15"/>
+      <c r="KGW10" s="5"/>
+      <c r="KHB10" s="13"/>
+      <c r="KHC10" s="13"/>
+      <c r="KHD10" s="15"/>
+      <c r="KHE10" s="5"/>
+      <c r="KHJ10" s="13"/>
+      <c r="KHK10" s="13"/>
+      <c r="KHL10" s="15"/>
+      <c r="KHM10" s="5"/>
+      <c r="KHR10" s="13"/>
+      <c r="KHS10" s="13"/>
+      <c r="KHT10" s="15"/>
+      <c r="KHU10" s="5"/>
+      <c r="KHZ10" s="13"/>
+      <c r="KIA10" s="13"/>
+      <c r="KIB10" s="15"/>
+      <c r="KIC10" s="5"/>
+      <c r="KIH10" s="13"/>
+      <c r="KII10" s="13"/>
+      <c r="KIJ10" s="15"/>
+      <c r="KIK10" s="5"/>
+      <c r="KIP10" s="13"/>
+      <c r="KIQ10" s="13"/>
+      <c r="KIR10" s="15"/>
+      <c r="KIS10" s="5"/>
+      <c r="KIX10" s="13"/>
+      <c r="KIY10" s="13"/>
+      <c r="KIZ10" s="15"/>
+      <c r="KJA10" s="5"/>
+      <c r="KJF10" s="13"/>
+      <c r="KJG10" s="13"/>
+      <c r="KJH10" s="15"/>
+      <c r="KJI10" s="5"/>
+      <c r="KJN10" s="13"/>
+      <c r="KJO10" s="13"/>
+      <c r="KJP10" s="15"/>
+      <c r="KJQ10" s="5"/>
+      <c r="KJV10" s="13"/>
+      <c r="KJW10" s="13"/>
+      <c r="KJX10" s="15"/>
+      <c r="KJY10" s="5"/>
+      <c r="KKD10" s="13"/>
+      <c r="KKE10" s="13"/>
+      <c r="KKF10" s="15"/>
+      <c r="KKG10" s="5"/>
+      <c r="KKL10" s="13"/>
+      <c r="KKM10" s="13"/>
+      <c r="KKN10" s="15"/>
+      <c r="KKO10" s="5"/>
+      <c r="KKT10" s="13"/>
+      <c r="KKU10" s="13"/>
+      <c r="KKV10" s="15"/>
+      <c r="KKW10" s="5"/>
+      <c r="KLB10" s="13"/>
+      <c r="KLC10" s="13"/>
+      <c r="KLD10" s="15"/>
+      <c r="KLE10" s="5"/>
+      <c r="KLJ10" s="13"/>
+      <c r="KLK10" s="13"/>
+      <c r="KLL10" s="15"/>
+      <c r="KLM10" s="5"/>
+      <c r="KLR10" s="13"/>
+      <c r="KLS10" s="13"/>
+      <c r="KLT10" s="15"/>
+      <c r="KLU10" s="5"/>
+      <c r="KLZ10" s="13"/>
+      <c r="KMA10" s="13"/>
+      <c r="KMB10" s="15"/>
+      <c r="KMC10" s="5"/>
+      <c r="KMH10" s="13"/>
+      <c r="KMI10" s="13"/>
+      <c r="KMJ10" s="15"/>
+      <c r="KMK10" s="5"/>
+      <c r="KMP10" s="13"/>
+      <c r="KMQ10" s="13"/>
+      <c r="KMR10" s="15"/>
+      <c r="KMS10" s="5"/>
+      <c r="KMX10" s="13"/>
+      <c r="KMY10" s="13"/>
+      <c r="KMZ10" s="15"/>
+      <c r="KNA10" s="5"/>
+      <c r="KNF10" s="13"/>
+      <c r="KNG10" s="13"/>
+      <c r="KNH10" s="15"/>
+      <c r="KNI10" s="5"/>
+      <c r="KNN10" s="13"/>
+      <c r="KNO10" s="13"/>
+      <c r="KNP10" s="15"/>
+      <c r="KNQ10" s="5"/>
+      <c r="KNV10" s="13"/>
+      <c r="KNW10" s="13"/>
+      <c r="KNX10" s="15"/>
+      <c r="KNY10" s="5"/>
+      <c r="KOD10" s="13"/>
+      <c r="KOE10" s="13"/>
+      <c r="KOF10" s="15"/>
+      <c r="KOG10" s="5"/>
+      <c r="KOL10" s="13"/>
+      <c r="KOM10" s="13"/>
+      <c r="KON10" s="15"/>
+      <c r="KOO10" s="5"/>
+      <c r="KOT10" s="13"/>
+      <c r="KOU10" s="13"/>
+      <c r="KOV10" s="15"/>
+      <c r="KOW10" s="5"/>
+      <c r="KPB10" s="13"/>
+      <c r="KPC10" s="13"/>
+      <c r="KPD10" s="15"/>
+      <c r="KPE10" s="5"/>
+      <c r="KPJ10" s="13"/>
+      <c r="KPK10" s="13"/>
+      <c r="KPL10" s="15"/>
+      <c r="KPM10" s="5"/>
+      <c r="KPR10" s="13"/>
+      <c r="KPS10" s="13"/>
+      <c r="KPT10" s="15"/>
+      <c r="KPU10" s="5"/>
+      <c r="KPZ10" s="13"/>
+      <c r="KQA10" s="13"/>
+      <c r="KQB10" s="15"/>
+      <c r="KQC10" s="5"/>
+      <c r="KQH10" s="13"/>
+      <c r="KQI10" s="13"/>
+      <c r="KQJ10" s="15"/>
+      <c r="KQK10" s="5"/>
+      <c r="KQP10" s="13"/>
+      <c r="KQQ10" s="13"/>
+      <c r="KQR10" s="15"/>
+      <c r="KQS10" s="5"/>
+      <c r="KQX10" s="13"/>
+      <c r="KQY10" s="13"/>
+      <c r="KQZ10" s="15"/>
+      <c r="KRA10" s="5"/>
+      <c r="KRF10" s="13"/>
+      <c r="KRG10" s="13"/>
+      <c r="KRH10" s="15"/>
+      <c r="KRI10" s="5"/>
+      <c r="KRN10" s="13"/>
+      <c r="KRO10" s="13"/>
+      <c r="KRP10" s="15"/>
+      <c r="KRQ10" s="5"/>
+      <c r="KRV10" s="13"/>
+      <c r="KRW10" s="13"/>
+      <c r="KRX10" s="15"/>
+      <c r="KRY10" s="5"/>
+      <c r="KSD10" s="13"/>
+      <c r="KSE10" s="13"/>
+      <c r="KSF10" s="15"/>
+      <c r="KSG10" s="5"/>
+      <c r="KSL10" s="13"/>
+      <c r="KSM10" s="13"/>
+      <c r="KSN10" s="15"/>
+      <c r="KSO10" s="5"/>
+      <c r="KST10" s="13"/>
+      <c r="KSU10" s="13"/>
+      <c r="KSV10" s="15"/>
+      <c r="KSW10" s="5"/>
+      <c r="KTB10" s="13"/>
+      <c r="KTC10" s="13"/>
+      <c r="KTD10" s="15"/>
+      <c r="KTE10" s="5"/>
+      <c r="KTJ10" s="13"/>
+      <c r="KTK10" s="13"/>
+      <c r="KTL10" s="15"/>
+      <c r="KTM10" s="5"/>
+      <c r="KTR10" s="13"/>
+      <c r="KTS10" s="13"/>
+      <c r="KTT10" s="15"/>
+      <c r="KTU10" s="5"/>
+      <c r="KTZ10" s="13"/>
+      <c r="KUA10" s="13"/>
+      <c r="KUB10" s="15"/>
+      <c r="KUC10" s="5"/>
+      <c r="KUH10" s="13"/>
+      <c r="KUI10" s="13"/>
+      <c r="KUJ10" s="15"/>
+      <c r="KUK10" s="5"/>
+      <c r="KUP10" s="13"/>
+      <c r="KUQ10" s="13"/>
+      <c r="KUR10" s="15"/>
+      <c r="KUS10" s="5"/>
+      <c r="KUX10" s="13"/>
+      <c r="KUY10" s="13"/>
+      <c r="KUZ10" s="15"/>
+      <c r="KVA10" s="5"/>
+      <c r="KVF10" s="13"/>
+      <c r="KVG10" s="13"/>
+      <c r="KVH10" s="15"/>
+      <c r="KVI10" s="5"/>
+      <c r="KVN10" s="13"/>
+      <c r="KVO10" s="13"/>
+      <c r="KVP10" s="15"/>
+      <c r="KVQ10" s="5"/>
+      <c r="KVV10" s="13"/>
+      <c r="KVW10" s="13"/>
+      <c r="KVX10" s="15"/>
+      <c r="KVY10" s="5"/>
+      <c r="KWD10" s="13"/>
+      <c r="KWE10" s="13"/>
+      <c r="KWF10" s="15"/>
+      <c r="KWG10" s="5"/>
+      <c r="KWL10" s="13"/>
+      <c r="KWM10" s="13"/>
+      <c r="KWN10" s="15"/>
+      <c r="KWO10" s="5"/>
+      <c r="KWT10" s="13"/>
+      <c r="KWU10" s="13"/>
+      <c r="KWV10" s="15"/>
+      <c r="KWW10" s="5"/>
+      <c r="KXB10" s="13"/>
+      <c r="KXC10" s="13"/>
+      <c r="KXD10" s="15"/>
+      <c r="KXE10" s="5"/>
+      <c r="KXJ10" s="13"/>
+      <c r="KXK10" s="13"/>
+      <c r="KXL10" s="15"/>
+      <c r="KXM10" s="5"/>
+      <c r="KXR10" s="13"/>
+      <c r="KXS10" s="13"/>
+      <c r="KXT10" s="15"/>
+      <c r="KXU10" s="5"/>
+      <c r="KXZ10" s="13"/>
+      <c r="KYA10" s="13"/>
+      <c r="KYB10" s="15"/>
+      <c r="KYC10" s="5"/>
+      <c r="KYH10" s="13"/>
+      <c r="KYI10" s="13"/>
+      <c r="KYJ10" s="15"/>
+      <c r="KYK10" s="5"/>
+      <c r="KYP10" s="13"/>
+      <c r="KYQ10" s="13"/>
+      <c r="KYR10" s="15"/>
+      <c r="KYS10" s="5"/>
+      <c r="KYX10" s="13"/>
+      <c r="KYY10" s="13"/>
+      <c r="KYZ10" s="15"/>
+      <c r="KZA10" s="5"/>
+      <c r="KZF10" s="13"/>
+      <c r="KZG10" s="13"/>
+      <c r="KZH10" s="15"/>
+      <c r="KZI10" s="5"/>
+      <c r="KZN10" s="13"/>
+      <c r="KZO10" s="13"/>
+      <c r="KZP10" s="15"/>
+      <c r="KZQ10" s="5"/>
+      <c r="KZV10" s="13"/>
+      <c r="KZW10" s="13"/>
+      <c r="KZX10" s="15"/>
+      <c r="KZY10" s="5"/>
+      <c r="LAD10" s="13"/>
+      <c r="LAE10" s="13"/>
+      <c r="LAF10" s="15"/>
+      <c r="LAG10" s="5"/>
+      <c r="LAL10" s="13"/>
+      <c r="LAM10" s="13"/>
+      <c r="LAN10" s="15"/>
+      <c r="LAO10" s="5"/>
+      <c r="LAT10" s="13"/>
+      <c r="LAU10" s="13"/>
+      <c r="LAV10" s="15"/>
+      <c r="LAW10" s="5"/>
+      <c r="LBB10" s="13"/>
+      <c r="LBC10" s="13"/>
+      <c r="LBD10" s="15"/>
+      <c r="LBE10" s="5"/>
+      <c r="LBJ10" s="13"/>
+      <c r="LBK10" s="13"/>
+      <c r="LBL10" s="15"/>
+      <c r="LBM10" s="5"/>
+      <c r="LBR10" s="13"/>
+      <c r="LBS10" s="13"/>
+      <c r="LBT10" s="15"/>
+      <c r="LBU10" s="5"/>
+      <c r="LBZ10" s="13"/>
+      <c r="LCA10" s="13"/>
+      <c r="LCB10" s="15"/>
+      <c r="LCC10" s="5"/>
+      <c r="LCH10" s="13"/>
+      <c r="LCI10" s="13"/>
+      <c r="LCJ10" s="15"/>
+      <c r="LCK10" s="5"/>
+      <c r="LCP10" s="13"/>
+      <c r="LCQ10" s="13"/>
+      <c r="LCR10" s="15"/>
+      <c r="LCS10" s="5"/>
+      <c r="LCX10" s="13"/>
+      <c r="LCY10" s="13"/>
+      <c r="LCZ10" s="15"/>
+      <c r="LDA10" s="5"/>
+      <c r="LDF10" s="13"/>
+      <c r="LDG10" s="13"/>
+      <c r="LDH10" s="15"/>
+      <c r="LDI10" s="5"/>
+      <c r="LDN10" s="13"/>
+      <c r="LDO10" s="13"/>
+      <c r="LDP10" s="15"/>
+      <c r="LDQ10" s="5"/>
+      <c r="LDV10" s="13"/>
+      <c r="LDW10" s="13"/>
+      <c r="LDX10" s="15"/>
+      <c r="LDY10" s="5"/>
+      <c r="LED10" s="13"/>
+      <c r="LEE10" s="13"/>
+      <c r="LEF10" s="15"/>
+      <c r="LEG10" s="5"/>
+      <c r="LEL10" s="13"/>
+      <c r="LEM10" s="13"/>
+      <c r="LEN10" s="15"/>
+      <c r="LEO10" s="5"/>
+      <c r="LET10" s="13"/>
+      <c r="LEU10" s="13"/>
+      <c r="LEV10" s="15"/>
+      <c r="LEW10" s="5"/>
+      <c r="LFB10" s="13"/>
+      <c r="LFC10" s="13"/>
+      <c r="LFD10" s="15"/>
+      <c r="LFE10" s="5"/>
+      <c r="LFJ10" s="13"/>
+      <c r="LFK10" s="13"/>
+      <c r="LFL10" s="15"/>
+      <c r="LFM10" s="5"/>
+      <c r="LFR10" s="13"/>
+      <c r="LFS10" s="13"/>
+      <c r="LFT10" s="15"/>
+      <c r="LFU10" s="5"/>
+      <c r="LFZ10" s="13"/>
+      <c r="LGA10" s="13"/>
+      <c r="LGB10" s="15"/>
+      <c r="LGC10" s="5"/>
+      <c r="LGH10" s="13"/>
+      <c r="LGI10" s="13"/>
+      <c r="LGJ10" s="15"/>
+      <c r="LGK10" s="5"/>
+      <c r="LGP10" s="13"/>
+      <c r="LGQ10" s="13"/>
+      <c r="LGR10" s="15"/>
+      <c r="LGS10" s="5"/>
+      <c r="LGX10" s="13"/>
+      <c r="LGY10" s="13"/>
+      <c r="LGZ10" s="15"/>
+      <c r="LHA10" s="5"/>
+      <c r="LHF10" s="13"/>
+      <c r="LHG10" s="13"/>
+      <c r="LHH10" s="15"/>
+      <c r="LHI10" s="5"/>
+      <c r="LHN10" s="13"/>
+      <c r="LHO10" s="13"/>
+      <c r="LHP10" s="15"/>
+      <c r="LHQ10" s="5"/>
+      <c r="LHV10" s="13"/>
+      <c r="LHW10" s="13"/>
+      <c r="LHX10" s="15"/>
+      <c r="LHY10" s="5"/>
+      <c r="LID10" s="13"/>
+      <c r="LIE10" s="13"/>
+      <c r="LIF10" s="15"/>
+      <c r="LIG10" s="5"/>
+      <c r="LIL10" s="13"/>
+      <c r="LIM10" s="13"/>
+      <c r="LIN10" s="15"/>
+      <c r="LIO10" s="5"/>
+      <c r="LIT10" s="13"/>
+      <c r="LIU10" s="13"/>
+      <c r="LIV10" s="15"/>
+      <c r="LIW10" s="5"/>
+      <c r="LJB10" s="13"/>
+      <c r="LJC10" s="13"/>
+      <c r="LJD10" s="15"/>
+      <c r="LJE10" s="5"/>
+      <c r="LJJ10" s="13"/>
+      <c r="LJK10" s="13"/>
+      <c r="LJL10" s="15"/>
+      <c r="LJM10" s="5"/>
+      <c r="LJR10" s="13"/>
+      <c r="LJS10" s="13"/>
+      <c r="LJT10" s="15"/>
+      <c r="LJU10" s="5"/>
+      <c r="LJZ10" s="13"/>
+      <c r="LKA10" s="13"/>
+      <c r="LKB10" s="15"/>
+      <c r="LKC10" s="5"/>
+      <c r="LKH10" s="13"/>
+      <c r="LKI10" s="13"/>
+      <c r="LKJ10" s="15"/>
+      <c r="LKK10" s="5"/>
+      <c r="LKP10" s="13"/>
+      <c r="LKQ10" s="13"/>
+      <c r="LKR10" s="15"/>
+      <c r="LKS10" s="5"/>
+      <c r="LKX10" s="13"/>
+      <c r="LKY10" s="13"/>
+      <c r="LKZ10" s="15"/>
+      <c r="LLA10" s="5"/>
+      <c r="LLF10" s="13"/>
+      <c r="LLG10" s="13"/>
+      <c r="LLH10" s="15"/>
+      <c r="LLI10" s="5"/>
+      <c r="LLN10" s="13"/>
+      <c r="LLO10" s="13"/>
+      <c r="LLP10" s="15"/>
+      <c r="LLQ10" s="5"/>
+      <c r="LLV10" s="13"/>
+      <c r="LLW10" s="13"/>
+      <c r="LLX10" s="15"/>
+      <c r="LLY10" s="5"/>
+      <c r="LMD10" s="13"/>
+      <c r="LME10" s="13"/>
+      <c r="LMF10" s="15"/>
+      <c r="LMG10" s="5"/>
+      <c r="LML10" s="13"/>
+      <c r="LMM10" s="13"/>
+      <c r="LMN10" s="15"/>
+      <c r="LMO10" s="5"/>
+      <c r="LMT10" s="13"/>
+      <c r="LMU10" s="13"/>
+      <c r="LMV10" s="15"/>
+      <c r="LMW10" s="5"/>
+      <c r="LNB10" s="13"/>
+      <c r="LNC10" s="13"/>
+      <c r="LND10" s="15"/>
+      <c r="LNE10" s="5"/>
+      <c r="LNJ10" s="13"/>
+      <c r="LNK10" s="13"/>
+      <c r="LNL10" s="15"/>
+      <c r="LNM10" s="5"/>
+      <c r="LNR10" s="13"/>
+      <c r="LNS10" s="13"/>
+      <c r="LNT10" s="15"/>
+      <c r="LNU10" s="5"/>
+      <c r="LNZ10" s="13"/>
+      <c r="LOA10" s="13"/>
+      <c r="LOB10" s="15"/>
+      <c r="LOC10" s="5"/>
+      <c r="LOH10" s="13"/>
+      <c r="LOI10" s="13"/>
+      <c r="LOJ10" s="15"/>
+      <c r="LOK10" s="5"/>
+      <c r="LOP10" s="13"/>
+      <c r="LOQ10" s="13"/>
+      <c r="LOR10" s="15"/>
+      <c r="LOS10" s="5"/>
+      <c r="LOX10" s="13"/>
+      <c r="LOY10" s="13"/>
+      <c r="LOZ10" s="15"/>
+      <c r="LPA10" s="5"/>
+      <c r="LPF10" s="13"/>
+      <c r="LPG10" s="13"/>
+      <c r="LPH10" s="15"/>
+      <c r="LPI10" s="5"/>
+      <c r="LPN10" s="13"/>
+      <c r="LPO10" s="13"/>
+      <c r="LPP10" s="15"/>
+      <c r="LPQ10" s="5"/>
+      <c r="LPV10" s="13"/>
+      <c r="LPW10" s="13"/>
+      <c r="LPX10" s="15"/>
+      <c r="LPY10" s="5"/>
+      <c r="LQD10" s="13"/>
+      <c r="LQE10" s="13"/>
+      <c r="LQF10" s="15"/>
+      <c r="LQG10" s="5"/>
+      <c r="LQL10" s="13"/>
+      <c r="LQM10" s="13"/>
+      <c r="LQN10" s="15"/>
+      <c r="LQO10" s="5"/>
+      <c r="LQT10" s="13"/>
+      <c r="LQU10" s="13"/>
+      <c r="LQV10" s="15"/>
+      <c r="LQW10" s="5"/>
+      <c r="LRB10" s="13"/>
+      <c r="LRC10" s="13"/>
+      <c r="LRD10" s="15"/>
+      <c r="LRE10" s="5"/>
+      <c r="LRJ10" s="13"/>
+      <c r="LRK10" s="13"/>
+      <c r="LRL10" s="15"/>
+      <c r="LRM10" s="5"/>
+      <c r="LRR10" s="13"/>
+      <c r="LRS10" s="13"/>
+      <c r="LRT10" s="15"/>
+      <c r="LRU10" s="5"/>
+      <c r="LRZ10" s="13"/>
+      <c r="LSA10" s="13"/>
+      <c r="LSB10" s="15"/>
+      <c r="LSC10" s="5"/>
+      <c r="LSH10" s="13"/>
+      <c r="LSI10" s="13"/>
+      <c r="LSJ10" s="15"/>
+      <c r="LSK10" s="5"/>
+      <c r="LSP10" s="13"/>
+      <c r="LSQ10" s="13"/>
+      <c r="LSR10" s="15"/>
+      <c r="LSS10" s="5"/>
+      <c r="LSX10" s="13"/>
+      <c r="LSY10" s="13"/>
+      <c r="LSZ10" s="15"/>
+      <c r="LTA10" s="5"/>
+      <c r="LTF10" s="13"/>
+      <c r="LTG10" s="13"/>
+      <c r="LTH10" s="15"/>
+      <c r="LTI10" s="5"/>
+      <c r="LTN10" s="13"/>
+      <c r="LTO10" s="13"/>
+      <c r="LTP10" s="15"/>
+      <c r="LTQ10" s="5"/>
+      <c r="LTV10" s="13"/>
+      <c r="LTW10" s="13"/>
+      <c r="LTX10" s="15"/>
+      <c r="LTY10" s="5"/>
+      <c r="LUD10" s="13"/>
+      <c r="LUE10" s="13"/>
+      <c r="LUF10" s="15"/>
+      <c r="LUG10" s="5"/>
+      <c r="LUL10" s="13"/>
+      <c r="LUM10" s="13"/>
+      <c r="LUN10" s="15"/>
+      <c r="LUO10" s="5"/>
+      <c r="LUT10" s="13"/>
+      <c r="LUU10" s="13"/>
+      <c r="LUV10" s="15"/>
+      <c r="LUW10" s="5"/>
+      <c r="LVB10" s="13"/>
+      <c r="LVC10" s="13"/>
+      <c r="LVD10" s="15"/>
+      <c r="LVE10" s="5"/>
+      <c r="LVJ10" s="13"/>
+      <c r="LVK10" s="13"/>
+      <c r="LVL10" s="15"/>
+      <c r="LVM10" s="5"/>
+      <c r="LVR10" s="13"/>
+      <c r="LVS10" s="13"/>
+      <c r="LVT10" s="15"/>
+      <c r="LVU10" s="5"/>
+      <c r="LVZ10" s="13"/>
+      <c r="LWA10" s="13"/>
+      <c r="LWB10" s="15"/>
+      <c r="LWC10" s="5"/>
+      <c r="LWH10" s="13"/>
+      <c r="LWI10" s="13"/>
+      <c r="LWJ10" s="15"/>
+      <c r="LWK10" s="5"/>
+      <c r="LWP10" s="13"/>
+      <c r="LWQ10" s="13"/>
+      <c r="LWR10" s="15"/>
+      <c r="LWS10" s="5"/>
+      <c r="LWX10" s="13"/>
+      <c r="LWY10" s="13"/>
+      <c r="LWZ10" s="15"/>
+      <c r="LXA10" s="5"/>
+      <c r="LXF10" s="13"/>
+      <c r="LXG10" s="13"/>
+      <c r="LXH10" s="15"/>
+      <c r="LXI10" s="5"/>
+      <c r="LXN10" s="13"/>
+      <c r="LXO10" s="13"/>
+      <c r="LXP10" s="15"/>
+      <c r="LXQ10" s="5"/>
+      <c r="LXV10" s="13"/>
+      <c r="LXW10" s="13"/>
+      <c r="LXX10" s="15"/>
+      <c r="LXY10" s="5"/>
+      <c r="LYD10" s="13"/>
+      <c r="LYE10" s="13"/>
+      <c r="LYF10" s="15"/>
+      <c r="LYG10" s="5"/>
+      <c r="LYL10" s="13"/>
+      <c r="LYM10" s="13"/>
+      <c r="LYN10" s="15"/>
+      <c r="LYO10" s="5"/>
+      <c r="LYT10" s="13"/>
+      <c r="LYU10" s="13"/>
+      <c r="LYV10" s="15"/>
+      <c r="LYW10" s="5"/>
+      <c r="LZB10" s="13"/>
+      <c r="LZC10" s="13"/>
+      <c r="LZD10" s="15"/>
+      <c r="LZE10" s="5"/>
+      <c r="LZJ10" s="13"/>
+      <c r="LZK10" s="13"/>
+      <c r="LZL10" s="15"/>
+      <c r="LZM10" s="5"/>
+      <c r="LZR10" s="13"/>
+      <c r="LZS10" s="13"/>
+      <c r="LZT10" s="15"/>
+      <c r="LZU10" s="5"/>
+      <c r="LZZ10" s="13"/>
+      <c r="MAA10" s="13"/>
+      <c r="MAB10" s="15"/>
+      <c r="MAC10" s="5"/>
+      <c r="MAH10" s="13"/>
+      <c r="MAI10" s="13"/>
+      <c r="MAJ10" s="15"/>
+      <c r="MAK10" s="5"/>
+      <c r="MAP10" s="13"/>
+      <c r="MAQ10" s="13"/>
+      <c r="MAR10" s="15"/>
+      <c r="MAS10" s="5"/>
+      <c r="MAX10" s="13"/>
+      <c r="MAY10" s="13"/>
+      <c r="MAZ10" s="15"/>
+      <c r="MBA10" s="5"/>
+      <c r="MBF10" s="13"/>
+      <c r="MBG10" s="13"/>
+      <c r="MBH10" s="15"/>
+      <c r="MBI10" s="5"/>
+      <c r="MBN10" s="13"/>
+      <c r="MBO10" s="13"/>
+      <c r="MBP10" s="15"/>
+      <c r="MBQ10" s="5"/>
+      <c r="MBV10" s="13"/>
+      <c r="MBW10" s="13"/>
+      <c r="MBX10" s="15"/>
+      <c r="MBY10" s="5"/>
+      <c r="MCD10" s="13"/>
+      <c r="MCE10" s="13"/>
+      <c r="MCF10" s="15"/>
+      <c r="MCG10" s="5"/>
+      <c r="MCL10" s="13"/>
+      <c r="MCM10" s="13"/>
+      <c r="MCN10" s="15"/>
+      <c r="MCO10" s="5"/>
+      <c r="MCT10" s="13"/>
+      <c r="MCU10" s="13"/>
+      <c r="MCV10" s="15"/>
+      <c r="MCW10" s="5"/>
+      <c r="MDB10" s="13"/>
+      <c r="MDC10" s="13"/>
+      <c r="MDD10" s="15"/>
+      <c r="MDE10" s="5"/>
+      <c r="MDJ10" s="13"/>
+      <c r="MDK10" s="13"/>
+      <c r="MDL10" s="15"/>
+      <c r="MDM10" s="5"/>
+      <c r="MDR10" s="13"/>
+      <c r="MDS10" s="13"/>
+      <c r="MDT10" s="15"/>
+      <c r="MDU10" s="5"/>
+      <c r="MDZ10" s="13"/>
+      <c r="MEA10" s="13"/>
+      <c r="MEB10" s="15"/>
+      <c r="MEC10" s="5"/>
+      <c r="MEH10" s="13"/>
+      <c r="MEI10" s="13"/>
+      <c r="MEJ10" s="15"/>
+      <c r="MEK10" s="5"/>
+      <c r="MEP10" s="13"/>
+      <c r="MEQ10" s="13"/>
+      <c r="MER10" s="15"/>
+      <c r="MES10" s="5"/>
+      <c r="MEX10" s="13"/>
+      <c r="MEY10" s="13"/>
+      <c r="MEZ10" s="15"/>
+      <c r="MFA10" s="5"/>
+      <c r="MFF10" s="13"/>
+      <c r="MFG10" s="13"/>
+      <c r="MFH10" s="15"/>
+      <c r="MFI10" s="5"/>
+      <c r="MFN10" s="13"/>
+      <c r="MFO10" s="13"/>
+      <c r="MFP10" s="15"/>
+      <c r="MFQ10" s="5"/>
+      <c r="MFV10" s="13"/>
+      <c r="MFW10" s="13"/>
+      <c r="MFX10" s="15"/>
+      <c r="MFY10" s="5"/>
+      <c r="MGD10" s="13"/>
+      <c r="MGE10" s="13"/>
+      <c r="MGF10" s="15"/>
+      <c r="MGG10" s="5"/>
+      <c r="MGL10" s="13"/>
+      <c r="MGM10" s="13"/>
+      <c r="MGN10" s="15"/>
+      <c r="MGO10" s="5"/>
+      <c r="MGT10" s="13"/>
+      <c r="MGU10" s="13"/>
+      <c r="MGV10" s="15"/>
+      <c r="MGW10" s="5"/>
+      <c r="MHB10" s="13"/>
+      <c r="MHC10" s="13"/>
+      <c r="MHD10" s="15"/>
+      <c r="MHE10" s="5"/>
+      <c r="MHJ10" s="13"/>
+      <c r="MHK10" s="13"/>
+      <c r="MHL10" s="15"/>
+      <c r="MHM10" s="5"/>
+      <c r="MHR10" s="13"/>
+      <c r="MHS10" s="13"/>
+      <c r="MHT10" s="15"/>
+      <c r="MHU10" s="5"/>
+      <c r="MHZ10" s="13"/>
+      <c r="MIA10" s="13"/>
+      <c r="MIB10" s="15"/>
+      <c r="MIC10" s="5"/>
+      <c r="MIH10" s="13"/>
+      <c r="MII10" s="13"/>
+      <c r="MIJ10" s="15"/>
+      <c r="MIK10" s="5"/>
+      <c r="MIP10" s="13"/>
+      <c r="MIQ10" s="13"/>
+      <c r="MIR10" s="15"/>
+      <c r="MIS10" s="5"/>
+      <c r="MIX10" s="13"/>
+      <c r="MIY10" s="13"/>
+      <c r="MIZ10" s="15"/>
+      <c r="MJA10" s="5"/>
+      <c r="MJF10" s="13"/>
+      <c r="MJG10" s="13"/>
+      <c r="MJH10" s="15"/>
+      <c r="MJI10" s="5"/>
+      <c r="MJN10" s="13"/>
+      <c r="MJO10" s="13"/>
+      <c r="MJP10" s="15"/>
+      <c r="MJQ10" s="5"/>
+      <c r="MJV10" s="13"/>
+      <c r="MJW10" s="13"/>
+      <c r="MJX10" s="15"/>
+      <c r="MJY10" s="5"/>
+      <c r="MKD10" s="13"/>
+      <c r="MKE10" s="13"/>
+      <c r="MKF10" s="15"/>
+      <c r="MKG10" s="5"/>
+      <c r="MKL10" s="13"/>
+      <c r="MKM10" s="13"/>
+      <c r="MKN10" s="15"/>
+      <c r="MKO10" s="5"/>
+      <c r="MKT10" s="13"/>
+      <c r="MKU10" s="13"/>
+      <c r="MKV10" s="15"/>
+      <c r="MKW10" s="5"/>
+      <c r="MLB10" s="13"/>
+      <c r="MLC10" s="13"/>
+      <c r="MLD10" s="15"/>
+      <c r="MLE10" s="5"/>
+      <c r="MLJ10" s="13"/>
+      <c r="MLK10" s="13"/>
+      <c r="MLL10" s="15"/>
+      <c r="MLM10" s="5"/>
+      <c r="MLR10" s="13"/>
+      <c r="MLS10" s="13"/>
+      <c r="MLT10" s="15"/>
+      <c r="MLU10" s="5"/>
+      <c r="MLZ10" s="13"/>
+      <c r="MMA10" s="13"/>
+      <c r="MMB10" s="15"/>
+      <c r="MMC10" s="5"/>
+      <c r="MMH10" s="13"/>
+      <c r="MMI10" s="13"/>
+      <c r="MMJ10" s="15"/>
+      <c r="MMK10" s="5"/>
+      <c r="MMP10" s="13"/>
+      <c r="MMQ10" s="13"/>
+      <c r="MMR10" s="15"/>
+      <c r="MMS10" s="5"/>
+      <c r="MMX10" s="13"/>
+      <c r="MMY10" s="13"/>
+      <c r="MMZ10" s="15"/>
+      <c r="MNA10" s="5"/>
+      <c r="MNF10" s="13"/>
+      <c r="MNG10" s="13"/>
+      <c r="MNH10" s="15"/>
+      <c r="MNI10" s="5"/>
+      <c r="MNN10" s="13"/>
+      <c r="MNO10" s="13"/>
+      <c r="MNP10" s="15"/>
+      <c r="MNQ10" s="5"/>
+      <c r="MNV10" s="13"/>
+      <c r="MNW10" s="13"/>
+      <c r="MNX10" s="15"/>
+      <c r="MNY10" s="5"/>
+      <c r="MOD10" s="13"/>
+      <c r="MOE10" s="13"/>
+      <c r="MOF10" s="15"/>
+      <c r="MOG10" s="5"/>
+      <c r="MOL10" s="13"/>
+      <c r="MOM10" s="13"/>
+      <c r="MON10" s="15"/>
+      <c r="MOO10" s="5"/>
+      <c r="MOT10" s="13"/>
+      <c r="MOU10" s="13"/>
+      <c r="MOV10" s="15"/>
+      <c r="MOW10" s="5"/>
+      <c r="MPB10" s="13"/>
+      <c r="MPC10" s="13"/>
+      <c r="MPD10" s="15"/>
+      <c r="MPE10" s="5"/>
+      <c r="MPJ10" s="13"/>
+      <c r="MPK10" s="13"/>
+      <c r="MPL10" s="15"/>
+      <c r="MPM10" s="5"/>
+      <c r="MPR10" s="13"/>
+      <c r="MPS10" s="13"/>
+      <c r="MPT10" s="15"/>
+      <c r="MPU10" s="5"/>
+      <c r="MPZ10" s="13"/>
+      <c r="MQA10" s="13"/>
+      <c r="MQB10" s="15"/>
+      <c r="MQC10" s="5"/>
+      <c r="MQH10" s="13"/>
+      <c r="MQI10" s="13"/>
+      <c r="MQJ10" s="15"/>
+      <c r="MQK10" s="5"/>
+      <c r="MQP10" s="13"/>
+      <c r="MQQ10" s="13"/>
+      <c r="MQR10" s="15"/>
+      <c r="MQS10" s="5"/>
+      <c r="MQX10" s="13"/>
+      <c r="MQY10" s="13"/>
+      <c r="MQZ10" s="15"/>
+      <c r="MRA10" s="5"/>
+      <c r="MRF10" s="13"/>
+      <c r="MRG10" s="13"/>
+      <c r="MRH10" s="15"/>
+      <c r="MRI10" s="5"/>
+      <c r="MRN10" s="13"/>
+      <c r="MRO10" s="13"/>
+      <c r="MRP10" s="15"/>
+      <c r="MRQ10" s="5"/>
+      <c r="MRV10" s="13"/>
+      <c r="MRW10" s="13"/>
+      <c r="MRX10" s="15"/>
+      <c r="MRY10" s="5"/>
+      <c r="MSD10" s="13"/>
+      <c r="MSE10" s="13"/>
+      <c r="MSF10" s="15"/>
+      <c r="MSG10" s="5"/>
+      <c r="MSL10" s="13"/>
+      <c r="MSM10" s="13"/>
+      <c r="MSN10" s="15"/>
+      <c r="MSO10" s="5"/>
+      <c r="MST10" s="13"/>
+      <c r="MSU10" s="13"/>
+      <c r="MSV10" s="15"/>
+      <c r="MSW10" s="5"/>
+      <c r="MTB10" s="13"/>
+      <c r="MTC10" s="13"/>
+      <c r="MTD10" s="15"/>
+      <c r="MTE10" s="5"/>
+      <c r="MTJ10" s="13"/>
+      <c r="MTK10" s="13"/>
+      <c r="MTL10" s="15"/>
+      <c r="MTM10" s="5"/>
+      <c r="MTR10" s="13"/>
+      <c r="MTS10" s="13"/>
+      <c r="MTT10" s="15"/>
+      <c r="MTU10" s="5"/>
+      <c r="MTZ10" s="13"/>
+      <c r="MUA10" s="13"/>
+      <c r="MUB10" s="15"/>
+      <c r="MUC10" s="5"/>
+      <c r="MUH10" s="13"/>
+      <c r="MUI10" s="13"/>
+      <c r="MUJ10" s="15"/>
+      <c r="MUK10" s="5"/>
+      <c r="MUP10" s="13"/>
+      <c r="MUQ10" s="13"/>
+      <c r="MUR10" s="15"/>
+      <c r="MUS10" s="5"/>
+      <c r="MUX10" s="13"/>
+      <c r="MUY10" s="13"/>
+      <c r="MUZ10" s="15"/>
+      <c r="MVA10" s="5"/>
+      <c r="MVF10" s="13"/>
+      <c r="MVG10" s="13"/>
+      <c r="MVH10" s="15"/>
+      <c r="MVI10" s="5"/>
+      <c r="MVN10" s="13"/>
+      <c r="MVO10" s="13"/>
+      <c r="MVP10" s="15"/>
+      <c r="MVQ10" s="5"/>
+      <c r="MVV10" s="13"/>
+      <c r="MVW10" s="13"/>
+      <c r="MVX10" s="15"/>
+      <c r="MVY10" s="5"/>
+      <c r="MWD10" s="13"/>
+      <c r="MWE10" s="13"/>
+      <c r="MWF10" s="15"/>
+      <c r="MWG10" s="5"/>
+      <c r="MWL10" s="13"/>
+      <c r="MWM10" s="13"/>
+      <c r="MWN10" s="15"/>
+      <c r="MWO10" s="5"/>
+      <c r="MWT10" s="13"/>
+      <c r="MWU10" s="13"/>
+      <c r="MWV10" s="15"/>
+      <c r="MWW10" s="5"/>
+      <c r="MXB10" s="13"/>
+      <c r="MXC10" s="13"/>
+      <c r="MXD10" s="15"/>
+      <c r="MXE10" s="5"/>
+      <c r="MXJ10" s="13"/>
+      <c r="MXK10" s="13"/>
+      <c r="MXL10" s="15"/>
+      <c r="MXM10" s="5"/>
+      <c r="MXR10" s="13"/>
+      <c r="MXS10" s="13"/>
+      <c r="MXT10" s="15"/>
+      <c r="MXU10" s="5"/>
+      <c r="MXZ10" s="13"/>
+      <c r="MYA10" s="13"/>
+      <c r="MYB10" s="15"/>
+      <c r="MYC10" s="5"/>
+      <c r="MYH10" s="13"/>
+      <c r="MYI10" s="13"/>
+      <c r="MYJ10" s="15"/>
+      <c r="MYK10" s="5"/>
+      <c r="MYP10" s="13"/>
+      <c r="MYQ10" s="13"/>
+      <c r="MYR10" s="15"/>
+      <c r="MYS10" s="5"/>
+      <c r="MYX10" s="13"/>
+      <c r="MYY10" s="13"/>
+      <c r="MYZ10" s="15"/>
+      <c r="MZA10" s="5"/>
+      <c r="MZF10" s="13"/>
+      <c r="MZG10" s="13"/>
+      <c r="MZH10" s="15"/>
+      <c r="MZI10" s="5"/>
+      <c r="MZN10" s="13"/>
+      <c r="MZO10" s="13"/>
+      <c r="MZP10" s="15"/>
+      <c r="MZQ10" s="5"/>
+      <c r="MZV10" s="13"/>
+      <c r="MZW10" s="13"/>
+      <c r="MZX10" s="15"/>
+      <c r="MZY10" s="5"/>
+      <c r="NAD10" s="13"/>
+      <c r="NAE10" s="13"/>
+      <c r="NAF10" s="15"/>
+      <c r="NAG10" s="5"/>
+      <c r="NAL10" s="13"/>
+      <c r="NAM10" s="13"/>
+      <c r="NAN10" s="15"/>
+      <c r="NAO10" s="5"/>
+      <c r="NAT10" s="13"/>
+      <c r="NAU10" s="13"/>
+      <c r="NAV10" s="15"/>
+      <c r="NAW10" s="5"/>
+      <c r="NBB10" s="13"/>
+      <c r="NBC10" s="13"/>
+      <c r="NBD10" s="15"/>
+      <c r="NBE10" s="5"/>
+      <c r="NBJ10" s="13"/>
+      <c r="NBK10" s="13"/>
+      <c r="NBL10" s="15"/>
+      <c r="NBM10" s="5"/>
+      <c r="NBR10" s="13"/>
+      <c r="NBS10" s="13"/>
+      <c r="NBT10" s="15"/>
+      <c r="NBU10" s="5"/>
+      <c r="NBZ10" s="13"/>
+      <c r="NCA10" s="13"/>
+      <c r="NCB10" s="15"/>
+      <c r="NCC10" s="5"/>
+      <c r="NCH10" s="13"/>
+      <c r="NCI10" s="13"/>
+      <c r="NCJ10" s="15"/>
+      <c r="NCK10" s="5"/>
+      <c r="NCP10" s="13"/>
+      <c r="NCQ10" s="13"/>
+      <c r="NCR10" s="15"/>
+      <c r="NCS10" s="5"/>
+      <c r="NCX10" s="13"/>
+      <c r="NCY10" s="13"/>
+      <c r="NCZ10" s="15"/>
+      <c r="NDA10" s="5"/>
+      <c r="NDF10" s="13"/>
+      <c r="NDG10" s="13"/>
+      <c r="NDH10" s="15"/>
+      <c r="NDI10" s="5"/>
+      <c r="NDN10" s="13"/>
+      <c r="NDO10" s="13"/>
+      <c r="NDP10" s="15"/>
+      <c r="NDQ10" s="5"/>
+      <c r="NDV10" s="13"/>
+      <c r="NDW10" s="13"/>
+      <c r="NDX10" s="15"/>
+      <c r="NDY10" s="5"/>
+      <c r="NED10" s="13"/>
+      <c r="NEE10" s="13"/>
+      <c r="NEF10" s="15"/>
+      <c r="NEG10" s="5"/>
+      <c r="NEL10" s="13"/>
+      <c r="NEM10" s="13"/>
+      <c r="NEN10" s="15"/>
+      <c r="NEO10" s="5"/>
+      <c r="NET10" s="13"/>
+      <c r="NEU10" s="13"/>
+      <c r="NEV10" s="15"/>
+      <c r="NEW10" s="5"/>
+      <c r="NFB10" s="13"/>
+      <c r="NFC10" s="13"/>
+      <c r="NFD10" s="15"/>
+      <c r="NFE10" s="5"/>
+      <c r="NFJ10" s="13"/>
+      <c r="NFK10" s="13"/>
+      <c r="NFL10" s="15"/>
+      <c r="NFM10" s="5"/>
+      <c r="NFR10" s="13"/>
+      <c r="NFS10" s="13"/>
+      <c r="NFT10" s="15"/>
+      <c r="NFU10" s="5"/>
+      <c r="NFZ10" s="13"/>
+      <c r="NGA10" s="13"/>
+      <c r="NGB10" s="15"/>
+      <c r="NGC10" s="5"/>
+      <c r="NGH10" s="13"/>
+      <c r="NGI10" s="13"/>
+      <c r="NGJ10" s="15"/>
+      <c r="NGK10" s="5"/>
+      <c r="NGP10" s="13"/>
+      <c r="NGQ10" s="13"/>
+      <c r="NGR10" s="15"/>
+      <c r="NGS10" s="5"/>
+      <c r="NGX10" s="13"/>
+      <c r="NGY10" s="13"/>
+      <c r="NGZ10" s="15"/>
+      <c r="NHA10" s="5"/>
+      <c r="NHF10" s="13"/>
+      <c r="NHG10" s="13"/>
+      <c r="NHH10" s="15"/>
+      <c r="NHI10" s="5"/>
+      <c r="NHN10" s="13"/>
+      <c r="NHO10" s="13"/>
+      <c r="NHP10" s="15"/>
+      <c r="NHQ10" s="5"/>
+      <c r="NHV10" s="13"/>
+      <c r="NHW10" s="13"/>
+      <c r="NHX10" s="15"/>
+      <c r="NHY10" s="5"/>
+      <c r="NID10" s="13"/>
+      <c r="NIE10" s="13"/>
+      <c r="NIF10" s="15"/>
+      <c r="NIG10" s="5"/>
+      <c r="NIL10" s="13"/>
+      <c r="NIM10" s="13"/>
+      <c r="NIN10" s="15"/>
+      <c r="NIO10" s="5"/>
+      <c r="NIT10" s="13"/>
+      <c r="NIU10" s="13"/>
+      <c r="NIV10" s="15"/>
+      <c r="NIW10" s="5"/>
+      <c r="NJB10" s="13"/>
+      <c r="NJC10" s="13"/>
+      <c r="NJD10" s="15"/>
+      <c r="NJE10" s="5"/>
+      <c r="NJJ10" s="13"/>
+      <c r="NJK10" s="13"/>
+      <c r="NJL10" s="15"/>
+      <c r="NJM10" s="5"/>
+      <c r="NJR10" s="13"/>
+      <c r="NJS10" s="13"/>
+      <c r="NJT10" s="15"/>
+      <c r="NJU10" s="5"/>
+      <c r="NJZ10" s="13"/>
+      <c r="NKA10" s="13"/>
+      <c r="NKB10" s="15"/>
+      <c r="NKC10" s="5"/>
+      <c r="NKH10" s="13"/>
+      <c r="NKI10" s="13"/>
+      <c r="NKJ10" s="15"/>
+      <c r="NKK10" s="5"/>
+      <c r="NKP10" s="13"/>
+      <c r="NKQ10" s="13"/>
+      <c r="NKR10" s="15"/>
+      <c r="NKS10" s="5"/>
+      <c r="NKX10" s="13"/>
+      <c r="NKY10" s="13"/>
+      <c r="NKZ10" s="15"/>
+      <c r="NLA10" s="5"/>
+      <c r="NLF10" s="13"/>
+      <c r="NLG10" s="13"/>
+      <c r="NLH10" s="15"/>
+      <c r="NLI10" s="5"/>
+      <c r="NLN10" s="13"/>
+      <c r="NLO10" s="13"/>
+      <c r="NLP10" s="15"/>
+      <c r="NLQ10" s="5"/>
+      <c r="NLV10" s="13"/>
+      <c r="NLW10" s="13"/>
+      <c r="NLX10" s="15"/>
+      <c r="NLY10" s="5"/>
+      <c r="NMD10" s="13"/>
+      <c r="NME10" s="13"/>
+      <c r="NMF10" s="15"/>
+      <c r="NMG10" s="5"/>
+      <c r="NML10" s="13"/>
+      <c r="NMM10" s="13"/>
+      <c r="NMN10" s="15"/>
+      <c r="NMO10" s="5"/>
+      <c r="NMT10" s="13"/>
+      <c r="NMU10" s="13"/>
+      <c r="NMV10" s="15"/>
+      <c r="NMW10" s="5"/>
+      <c r="NNB10" s="13"/>
+      <c r="NNC10" s="13"/>
+      <c r="NND10" s="15"/>
+      <c r="NNE10" s="5"/>
+      <c r="NNJ10" s="13"/>
+      <c r="NNK10" s="13"/>
+      <c r="NNL10" s="15"/>
+      <c r="NNM10" s="5"/>
+      <c r="NNR10" s="13"/>
+      <c r="NNS10" s="13"/>
+      <c r="NNT10" s="15"/>
+      <c r="NNU10" s="5"/>
+      <c r="NNZ10" s="13"/>
+      <c r="NOA10" s="13"/>
+      <c r="NOB10" s="15"/>
+      <c r="NOC10" s="5"/>
+      <c r="NOH10" s="13"/>
+      <c r="NOI10" s="13"/>
+      <c r="NOJ10" s="15"/>
+      <c r="NOK10" s="5"/>
+      <c r="NOP10" s="13"/>
+      <c r="NOQ10" s="13"/>
+      <c r="NOR10" s="15"/>
+      <c r="NOS10" s="5"/>
+      <c r="NOX10" s="13"/>
+      <c r="NOY10" s="13"/>
+      <c r="NOZ10" s="15"/>
+      <c r="NPA10" s="5"/>
+      <c r="NPF10" s="13"/>
+      <c r="NPG10" s="13"/>
+      <c r="NPH10" s="15"/>
+      <c r="NPI10" s="5"/>
+      <c r="NPN10" s="13"/>
+      <c r="NPO10" s="13"/>
+      <c r="NPP10" s="15"/>
+      <c r="NPQ10" s="5"/>
+      <c r="NPV10" s="13"/>
+      <c r="NPW10" s="13"/>
+      <c r="NPX10" s="15"/>
+      <c r="NPY10" s="5"/>
+      <c r="NQD10" s="13"/>
+      <c r="NQE10" s="13"/>
+      <c r="NQF10" s="15"/>
+      <c r="NQG10" s="5"/>
+      <c r="NQL10" s="13"/>
+      <c r="NQM10" s="13"/>
+      <c r="NQN10" s="15"/>
+      <c r="NQO10" s="5"/>
+      <c r="NQT10" s="13"/>
+      <c r="NQU10" s="13"/>
+      <c r="NQV10" s="15"/>
+      <c r="NQW10" s="5"/>
+      <c r="NRB10" s="13"/>
+      <c r="NRC10" s="13"/>
+      <c r="NRD10" s="15"/>
+      <c r="NRE10" s="5"/>
+      <c r="NRJ10" s="13"/>
+      <c r="NRK10" s="13"/>
+      <c r="NRL10" s="15"/>
+      <c r="NRM10" s="5"/>
+      <c r="NRR10" s="13"/>
+      <c r="NRS10" s="13"/>
+      <c r="NRT10" s="15"/>
+      <c r="NRU10" s="5"/>
+      <c r="NRZ10" s="13"/>
+      <c r="NSA10" s="13"/>
+      <c r="NSB10" s="15"/>
+      <c r="NSC10" s="5"/>
+      <c r="NSH10" s="13"/>
+      <c r="NSI10" s="13"/>
+      <c r="NSJ10" s="15"/>
+      <c r="NSK10" s="5"/>
+      <c r="NSP10" s="13"/>
+      <c r="NSQ10" s="13"/>
+      <c r="NSR10" s="15"/>
+      <c r="NSS10" s="5"/>
+      <c r="NSX10" s="13"/>
+      <c r="NSY10" s="13"/>
+      <c r="NSZ10" s="15"/>
+      <c r="NTA10" s="5"/>
+      <c r="NTF10" s="13"/>
+      <c r="NTG10" s="13"/>
+      <c r="NTH10" s="15"/>
+      <c r="NTI10" s="5"/>
+      <c r="NTN10" s="13"/>
+      <c r="NTO10" s="13"/>
+      <c r="NTP10" s="15"/>
+      <c r="NTQ10" s="5"/>
+      <c r="NTV10" s="13"/>
+      <c r="NTW10" s="13"/>
+      <c r="NTX10" s="15"/>
+      <c r="NTY10" s="5"/>
+      <c r="NUD10" s="13"/>
+      <c r="NUE10" s="13"/>
+      <c r="NUF10" s="15"/>
+      <c r="NUG10" s="5"/>
+      <c r="NUL10" s="13"/>
+      <c r="NUM10" s="13"/>
+      <c r="NUN10" s="15"/>
+      <c r="NUO10" s="5"/>
+      <c r="NUT10" s="13"/>
+      <c r="NUU10" s="13"/>
+      <c r="NUV10" s="15"/>
+      <c r="NUW10" s="5"/>
+      <c r="NVB10" s="13"/>
+      <c r="NVC10" s="13"/>
+      <c r="NVD10" s="15"/>
+      <c r="NVE10" s="5"/>
+      <c r="NVJ10" s="13"/>
+      <c r="NVK10" s="13"/>
+      <c r="NVL10" s="15"/>
+      <c r="NVM10" s="5"/>
+      <c r="NVR10" s="13"/>
+      <c r="NVS10" s="13"/>
+      <c r="NVT10" s="15"/>
+      <c r="NVU10" s="5"/>
+      <c r="NVZ10" s="13"/>
+      <c r="NWA10" s="13"/>
+      <c r="NWB10" s="15"/>
+      <c r="NWC10" s="5"/>
+      <c r="NWH10" s="13"/>
+      <c r="NWI10" s="13"/>
+      <c r="NWJ10" s="15"/>
+      <c r="NWK10" s="5"/>
+      <c r="NWP10" s="13"/>
+      <c r="NWQ10" s="13"/>
+      <c r="NWR10" s="15"/>
+      <c r="NWS10" s="5"/>
+      <c r="NWX10" s="13"/>
+      <c r="NWY10" s="13"/>
+      <c r="NWZ10" s="15"/>
+      <c r="NXA10" s="5"/>
+      <c r="NXF10" s="13"/>
+      <c r="NXG10" s="13"/>
+      <c r="NXH10" s="15"/>
+      <c r="NXI10" s="5"/>
+      <c r="NXN10" s="13"/>
+      <c r="NXO10" s="13"/>
+      <c r="NXP10" s="15"/>
+      <c r="NXQ10" s="5"/>
+      <c r="NXV10" s="13"/>
+      <c r="NXW10" s="13"/>
+      <c r="NXX10" s="15"/>
+      <c r="NXY10" s="5"/>
+      <c r="NYD10" s="13"/>
+      <c r="NYE10" s="13"/>
+      <c r="NYF10" s="15"/>
+      <c r="NYG10" s="5"/>
+      <c r="NYL10" s="13"/>
+      <c r="NYM10" s="13"/>
+      <c r="NYN10" s="15"/>
+      <c r="NYO10" s="5"/>
+      <c r="NYT10" s="13"/>
+      <c r="NYU10" s="13"/>
+      <c r="NYV10" s="15"/>
+      <c r="NYW10" s="5"/>
+      <c r="NZB10" s="13"/>
+      <c r="NZC10" s="13"/>
+      <c r="NZD10" s="15"/>
+      <c r="NZE10" s="5"/>
+      <c r="NZJ10" s="13"/>
+      <c r="NZK10" s="13"/>
+      <c r="NZL10" s="15"/>
+      <c r="NZM10" s="5"/>
+      <c r="NZR10" s="13"/>
+      <c r="NZS10" s="13"/>
+      <c r="NZT10" s="15"/>
+      <c r="NZU10" s="5"/>
+      <c r="NZZ10" s="13"/>
+      <c r="OAA10" s="13"/>
+      <c r="OAB10" s="15"/>
+      <c r="OAC10" s="5"/>
+      <c r="OAH10" s="13"/>
+      <c r="OAI10" s="13"/>
+      <c r="OAJ10" s="15"/>
+      <c r="OAK10" s="5"/>
+      <c r="OAP10" s="13"/>
+      <c r="OAQ10" s="13"/>
+      <c r="OAR10" s="15"/>
+      <c r="OAS10" s="5"/>
+      <c r="OAX10" s="13"/>
+      <c r="OAY10" s="13"/>
+      <c r="OAZ10" s="15"/>
+      <c r="OBA10" s="5"/>
+      <c r="OBF10" s="13"/>
+      <c r="OBG10" s="13"/>
+      <c r="OBH10" s="15"/>
+      <c r="OBI10" s="5"/>
+      <c r="OBN10" s="13"/>
+      <c r="OBO10" s="13"/>
+      <c r="OBP10" s="15"/>
+      <c r="OBQ10" s="5"/>
+      <c r="OBV10" s="13"/>
+      <c r="OBW10" s="13"/>
+      <c r="OBX10" s="15"/>
+      <c r="OBY10" s="5"/>
+      <c r="OCD10" s="13"/>
+      <c r="OCE10" s="13"/>
+      <c r="OCF10" s="15"/>
+      <c r="OCG10" s="5"/>
+      <c r="OCL10" s="13"/>
+      <c r="OCM10" s="13"/>
+      <c r="OCN10" s="15"/>
+      <c r="OCO10" s="5"/>
+      <c r="OCT10" s="13"/>
+      <c r="OCU10" s="13"/>
+      <c r="OCV10" s="15"/>
+      <c r="OCW10" s="5"/>
+      <c r="ODB10" s="13"/>
+      <c r="ODC10" s="13"/>
+      <c r="ODD10" s="15"/>
+      <c r="ODE10" s="5"/>
+      <c r="ODJ10" s="13"/>
+      <c r="ODK10" s="13"/>
+      <c r="ODL10" s="15"/>
+      <c r="ODM10" s="5"/>
+      <c r="ODR10" s="13"/>
+      <c r="ODS10" s="13"/>
+      <c r="ODT10" s="15"/>
+      <c r="ODU10" s="5"/>
+      <c r="ODZ10" s="13"/>
+      <c r="OEA10" s="13"/>
+      <c r="OEB10" s="15"/>
+      <c r="OEC10" s="5"/>
+      <c r="OEH10" s="13"/>
+      <c r="OEI10" s="13"/>
+      <c r="OEJ10" s="15"/>
+      <c r="OEK10" s="5"/>
+      <c r="OEP10" s="13"/>
+      <c r="OEQ10" s="13"/>
+      <c r="OER10" s="15"/>
+      <c r="OES10" s="5"/>
+      <c r="OEX10" s="13"/>
+      <c r="OEY10" s="13"/>
+      <c r="OEZ10" s="15"/>
+      <c r="OFA10" s="5"/>
+      <c r="OFF10" s="13"/>
+      <c r="OFG10" s="13"/>
+      <c r="OFH10" s="15"/>
+      <c r="OFI10" s="5"/>
+      <c r="OFN10" s="13"/>
+      <c r="OFO10" s="13"/>
+      <c r="OFP10" s="15"/>
+      <c r="OFQ10" s="5"/>
+      <c r="OFV10" s="13"/>
+      <c r="OFW10" s="13"/>
+      <c r="OFX10" s="15"/>
+      <c r="OFY10" s="5"/>
+      <c r="OGD10" s="13"/>
+      <c r="OGE10" s="13"/>
+      <c r="OGF10" s="15"/>
+      <c r="OGG10" s="5"/>
+      <c r="OGL10" s="13"/>
+      <c r="OGM10" s="13"/>
+      <c r="OGN10" s="15"/>
+      <c r="OGO10" s="5"/>
+      <c r="OGT10" s="13"/>
+      <c r="OGU10" s="13"/>
+      <c r="OGV10" s="15"/>
+      <c r="OGW10" s="5"/>
+      <c r="OHB10" s="13"/>
+      <c r="OHC10" s="13"/>
+      <c r="OHD10" s="15"/>
+      <c r="OHE10" s="5"/>
+      <c r="OHJ10" s="13"/>
+      <c r="OHK10" s="13"/>
+      <c r="OHL10" s="15"/>
+      <c r="OHM10" s="5"/>
+      <c r="OHR10" s="13"/>
+      <c r="OHS10" s="13"/>
+      <c r="OHT10" s="15"/>
+      <c r="OHU10" s="5"/>
+      <c r="OHZ10" s="13"/>
+      <c r="OIA10" s="13"/>
+      <c r="OIB10" s="15"/>
+      <c r="OIC10" s="5"/>
+      <c r="OIH10" s="13"/>
+      <c r="OII10" s="13"/>
+      <c r="OIJ10" s="15"/>
+      <c r="OIK10" s="5"/>
+      <c r="OIP10" s="13"/>
+      <c r="OIQ10" s="13"/>
+      <c r="OIR10" s="15"/>
+      <c r="OIS10" s="5"/>
+      <c r="OIX10" s="13"/>
+      <c r="OIY10" s="13"/>
+      <c r="OIZ10" s="15"/>
+      <c r="OJA10" s="5"/>
+      <c r="OJF10" s="13"/>
+      <c r="OJG10" s="13"/>
+      <c r="OJH10" s="15"/>
+      <c r="OJI10" s="5"/>
+      <c r="OJN10" s="13"/>
+      <c r="OJO10" s="13"/>
+      <c r="OJP10" s="15"/>
+      <c r="OJQ10" s="5"/>
+      <c r="OJV10" s="13"/>
+      <c r="OJW10" s="13"/>
+      <c r="OJX10" s="15"/>
+      <c r="OJY10" s="5"/>
+      <c r="OKD10" s="13"/>
+      <c r="OKE10" s="13"/>
+      <c r="OKF10" s="15"/>
+      <c r="OKG10" s="5"/>
+      <c r="OKL10" s="13"/>
+      <c r="OKM10" s="13"/>
+      <c r="OKN10" s="15"/>
+      <c r="OKO10" s="5"/>
+      <c r="OKT10" s="13"/>
+      <c r="OKU10" s="13"/>
+      <c r="OKV10" s="15"/>
+      <c r="OKW10" s="5"/>
+      <c r="OLB10" s="13"/>
+      <c r="OLC10" s="13"/>
+      <c r="OLD10" s="15"/>
+      <c r="OLE10" s="5"/>
+      <c r="OLJ10" s="13"/>
+      <c r="OLK10" s="13"/>
+      <c r="OLL10" s="15"/>
+      <c r="OLM10" s="5"/>
+      <c r="OLR10" s="13"/>
+      <c r="OLS10" s="13"/>
+      <c r="OLT10" s="15"/>
+      <c r="OLU10" s="5"/>
+      <c r="OLZ10" s="13"/>
+      <c r="OMA10" s="13"/>
+      <c r="OMB10" s="15"/>
+      <c r="OMC10" s="5"/>
+      <c r="OMH10" s="13"/>
+      <c r="OMI10" s="13"/>
+      <c r="OMJ10" s="15"/>
+      <c r="OMK10" s="5"/>
+      <c r="OMP10" s="13"/>
+      <c r="OMQ10" s="13"/>
+      <c r="OMR10" s="15"/>
+      <c r="OMS10" s="5"/>
+      <c r="OMX10" s="13"/>
+      <c r="OMY10" s="13"/>
+      <c r="OMZ10" s="15"/>
+      <c r="ONA10" s="5"/>
+      <c r="ONF10" s="13"/>
+      <c r="ONG10" s="13"/>
+      <c r="ONH10" s="15"/>
+      <c r="ONI10" s="5"/>
+      <c r="ONN10" s="13"/>
+      <c r="ONO10" s="13"/>
+      <c r="ONP10" s="15"/>
+      <c r="ONQ10" s="5"/>
+      <c r="ONV10" s="13"/>
+      <c r="ONW10" s="13"/>
+      <c r="ONX10" s="15"/>
+      <c r="ONY10" s="5"/>
+      <c r="OOD10" s="13"/>
+      <c r="OOE10" s="13"/>
+      <c r="OOF10" s="15"/>
+      <c r="OOG10" s="5"/>
+      <c r="OOL10" s="13"/>
+      <c r="OOM10" s="13"/>
+      <c r="OON10" s="15"/>
+      <c r="OOO10" s="5"/>
+      <c r="OOT10" s="13"/>
+      <c r="OOU10" s="13"/>
+      <c r="OOV10" s="15"/>
+      <c r="OOW10" s="5"/>
+      <c r="OPB10" s="13"/>
+      <c r="OPC10" s="13"/>
+      <c r="OPD10" s="15"/>
+      <c r="OPE10" s="5"/>
+      <c r="OPJ10" s="13"/>
+      <c r="OPK10" s="13"/>
+      <c r="OPL10" s="15"/>
+      <c r="OPM10" s="5"/>
+      <c r="OPR10" s="13"/>
+      <c r="OPS10" s="13"/>
+      <c r="OPT10" s="15"/>
+      <c r="OPU10" s="5"/>
+      <c r="OPZ10" s="13"/>
+      <c r="OQA10" s="13"/>
+      <c r="OQB10" s="15"/>
+      <c r="OQC10" s="5"/>
+      <c r="OQH10" s="13"/>
+      <c r="OQI10" s="13"/>
+      <c r="OQJ10" s="15"/>
+      <c r="OQK10" s="5"/>
+      <c r="OQP10" s="13"/>
+      <c r="OQQ10" s="13"/>
+      <c r="OQR10" s="15"/>
+      <c r="OQS10" s="5"/>
+      <c r="OQX10" s="13"/>
+      <c r="OQY10" s="13"/>
+      <c r="OQZ10" s="15"/>
+      <c r="ORA10" s="5"/>
+      <c r="ORF10" s="13"/>
+      <c r="ORG10" s="13"/>
+      <c r="ORH10" s="15"/>
+      <c r="ORI10" s="5"/>
+      <c r="ORN10" s="13"/>
+      <c r="ORO10" s="13"/>
+      <c r="ORP10" s="15"/>
+      <c r="ORQ10" s="5"/>
+      <c r="ORV10" s="13"/>
+      <c r="ORW10" s="13"/>
+      <c r="ORX10" s="15"/>
+      <c r="ORY10" s="5"/>
+      <c r="OSD10" s="13"/>
+      <c r="OSE10" s="13"/>
+      <c r="OSF10" s="15"/>
+      <c r="OSG10" s="5"/>
+      <c r="OSL10" s="13"/>
+      <c r="OSM10" s="13"/>
+      <c r="OSN10" s="15"/>
+      <c r="OSO10" s="5"/>
+      <c r="OST10" s="13"/>
+      <c r="OSU10" s="13"/>
+      <c r="OSV10" s="15"/>
+      <c r="OSW10" s="5"/>
+      <c r="OTB10" s="13"/>
+      <c r="OTC10" s="13"/>
+      <c r="OTD10" s="15"/>
+      <c r="OTE10" s="5"/>
+      <c r="OTJ10" s="13"/>
+      <c r="OTK10" s="13"/>
+      <c r="OTL10" s="15"/>
+      <c r="OTM10" s="5"/>
+      <c r="OTR10" s="13"/>
+      <c r="OTS10" s="13"/>
+      <c r="OTT10" s="15"/>
+      <c r="OTU10" s="5"/>
+      <c r="OTZ10" s="13"/>
+      <c r="OUA10" s="13"/>
+      <c r="OUB10" s="15"/>
+      <c r="OUC10" s="5"/>
+      <c r="OUH10" s="13"/>
+      <c r="OUI10" s="13"/>
+      <c r="OUJ10" s="15"/>
+      <c r="OUK10" s="5"/>
+      <c r="OUP10" s="13"/>
+      <c r="OUQ10" s="13"/>
+      <c r="OUR10" s="15"/>
+      <c r="OUS10" s="5"/>
+      <c r="OUX10" s="13"/>
+      <c r="OUY10" s="13"/>
+      <c r="OUZ10" s="15"/>
+      <c r="OVA10" s="5"/>
+      <c r="OVF10" s="13"/>
+      <c r="OVG10" s="13"/>
+      <c r="OVH10" s="15"/>
+      <c r="OVI10" s="5"/>
+      <c r="OVN10" s="13"/>
+      <c r="OVO10" s="13"/>
+      <c r="OVP10" s="15"/>
+      <c r="OVQ10" s="5"/>
+      <c r="OVV10" s="13"/>
+      <c r="OVW10" s="13"/>
+      <c r="OVX10" s="15"/>
+      <c r="OVY10" s="5"/>
+      <c r="OWD10" s="13"/>
+      <c r="OWE10" s="13"/>
+      <c r="OWF10" s="15"/>
+      <c r="OWG10" s="5"/>
+      <c r="OWL10" s="13"/>
+      <c r="OWM10" s="13"/>
+      <c r="OWN10" s="15"/>
+      <c r="OWO10" s="5"/>
+      <c r="OWT10" s="13"/>
+      <c r="OWU10" s="13"/>
+      <c r="OWV10" s="15"/>
+      <c r="OWW10" s="5"/>
+      <c r="OXB10" s="13"/>
+      <c r="OXC10" s="13"/>
+      <c r="OXD10" s="15"/>
+      <c r="OXE10" s="5"/>
+      <c r="OXJ10" s="13"/>
+      <c r="OXK10" s="13"/>
+      <c r="OXL10" s="15"/>
+      <c r="OXM10" s="5"/>
+      <c r="OXR10" s="13"/>
+      <c r="OXS10" s="13"/>
+      <c r="OXT10" s="15"/>
+      <c r="OXU10" s="5"/>
+      <c r="OXZ10" s="13"/>
+      <c r="OYA10" s="13"/>
+      <c r="OYB10" s="15"/>
+      <c r="OYC10" s="5"/>
+      <c r="OYH10" s="13"/>
+      <c r="OYI10" s="13"/>
+      <c r="OYJ10" s="15"/>
+      <c r="OYK10" s="5"/>
+      <c r="OYP10" s="13"/>
+      <c r="OYQ10" s="13"/>
+      <c r="OYR10" s="15"/>
+      <c r="OYS10" s="5"/>
+      <c r="OYX10" s="13"/>
+      <c r="OYY10" s="13"/>
+      <c r="OYZ10" s="15"/>
+      <c r="OZA10" s="5"/>
+      <c r="OZF10" s="13"/>
+      <c r="OZG10" s="13"/>
+      <c r="OZH10" s="15"/>
+      <c r="OZI10" s="5"/>
+      <c r="OZN10" s="13"/>
+      <c r="OZO10" s="13"/>
+      <c r="OZP10" s="15"/>
+      <c r="OZQ10" s="5"/>
+      <c r="OZV10" s="13"/>
+      <c r="OZW10" s="13"/>
+      <c r="OZX10" s="15"/>
+      <c r="OZY10" s="5"/>
+      <c r="PAD10" s="13"/>
+      <c r="PAE10" s="13"/>
+      <c r="PAF10" s="15"/>
+      <c r="PAG10" s="5"/>
+      <c r="PAL10" s="13"/>
+      <c r="PAM10" s="13"/>
+      <c r="PAN10" s="15"/>
+      <c r="PAO10" s="5"/>
+      <c r="PAT10" s="13"/>
+      <c r="PAU10" s="13"/>
+      <c r="PAV10" s="15"/>
+      <c r="PAW10" s="5"/>
+      <c r="PBB10" s="13"/>
+      <c r="PBC10" s="13"/>
+      <c r="PBD10" s="15"/>
+      <c r="PBE10" s="5"/>
+      <c r="PBJ10" s="13"/>
+      <c r="PBK10" s="13"/>
+      <c r="PBL10" s="15"/>
+      <c r="PBM10" s="5"/>
+      <c r="PBR10" s="13"/>
+      <c r="PBS10" s="13"/>
+      <c r="PBT10" s="15"/>
+      <c r="PBU10" s="5"/>
+      <c r="PBZ10" s="13"/>
+      <c r="PCA10" s="13"/>
+      <c r="PCB10" s="15"/>
+      <c r="PCC10" s="5"/>
+      <c r="PCH10" s="13"/>
+      <c r="PCI10" s="13"/>
+      <c r="PCJ10" s="15"/>
+      <c r="PCK10" s="5"/>
+      <c r="PCP10" s="13"/>
+      <c r="PCQ10" s="13"/>
+      <c r="PCR10" s="15"/>
+      <c r="PCS10" s="5"/>
+      <c r="PCX10" s="13"/>
+      <c r="PCY10" s="13"/>
+      <c r="PCZ10" s="15"/>
+      <c r="PDA10" s="5"/>
+      <c r="PDF10" s="13"/>
+      <c r="PDG10" s="13"/>
+      <c r="PDH10" s="15"/>
+      <c r="PDI10" s="5"/>
+      <c r="PDN10" s="13"/>
+      <c r="PDO10" s="13"/>
+      <c r="PDP10" s="15"/>
+      <c r="PDQ10" s="5"/>
+      <c r="PDV10" s="13"/>
+      <c r="PDW10" s="13"/>
+      <c r="PDX10" s="15"/>
+      <c r="PDY10" s="5"/>
+      <c r="PED10" s="13"/>
+      <c r="PEE10" s="13"/>
+      <c r="PEF10" s="15"/>
+      <c r="PEG10" s="5"/>
+      <c r="PEL10" s="13"/>
+      <c r="PEM10" s="13"/>
+      <c r="PEN10" s="15"/>
+      <c r="PEO10" s="5"/>
+      <c r="PET10" s="13"/>
+      <c r="PEU10" s="13"/>
+      <c r="PEV10" s="15"/>
+      <c r="PEW10" s="5"/>
+      <c r="PFB10" s="13"/>
+      <c r="PFC10" s="13"/>
+      <c r="PFD10" s="15"/>
+      <c r="PFE10" s="5"/>
+      <c r="PFJ10" s="13"/>
+      <c r="PFK10" s="13"/>
+      <c r="PFL10" s="15"/>
+      <c r="PFM10" s="5"/>
+      <c r="PFR10" s="13"/>
+      <c r="PFS10" s="13"/>
+      <c r="PFT10" s="15"/>
+      <c r="PFU10" s="5"/>
+      <c r="PFZ10" s="13"/>
+      <c r="PGA10" s="13"/>
+      <c r="PGB10" s="15"/>
+      <c r="PGC10" s="5"/>
+      <c r="PGH10" s="13"/>
+      <c r="PGI10" s="13"/>
+      <c r="PGJ10" s="15"/>
+      <c r="PGK10" s="5"/>
+      <c r="PGP10" s="13"/>
+      <c r="PGQ10" s="13"/>
+      <c r="PGR10" s="15"/>
+      <c r="PGS10" s="5"/>
+      <c r="PGX10" s="13"/>
+      <c r="PGY10" s="13"/>
+      <c r="PGZ10" s="15"/>
+      <c r="PHA10" s="5"/>
+      <c r="PHF10" s="13"/>
+      <c r="PHG10" s="13"/>
+      <c r="PHH10" s="15"/>
+      <c r="PHI10" s="5"/>
+      <c r="PHN10" s="13"/>
+      <c r="PHO10" s="13"/>
+      <c r="PHP10" s="15"/>
+      <c r="PHQ10" s="5"/>
+      <c r="PHV10" s="13"/>
+      <c r="PHW10" s="13"/>
+      <c r="PHX10" s="15"/>
+      <c r="PHY10" s="5"/>
+      <c r="PID10" s="13"/>
+      <c r="PIE10" s="13"/>
+      <c r="PIF10" s="15"/>
+      <c r="PIG10" s="5"/>
+      <c r="PIL10" s="13"/>
+      <c r="PIM10" s="13"/>
+      <c r="PIN10" s="15"/>
+      <c r="PIO10" s="5"/>
+      <c r="PIT10" s="13"/>
+      <c r="PIU10" s="13"/>
+      <c r="PIV10" s="15"/>
+      <c r="PIW10" s="5"/>
+      <c r="PJB10" s="13"/>
+      <c r="PJC10" s="13"/>
+      <c r="PJD10" s="15"/>
+      <c r="PJE10" s="5"/>
+      <c r="PJJ10" s="13"/>
+      <c r="PJK10" s="13"/>
+      <c r="PJL10" s="15"/>
+      <c r="PJM10" s="5"/>
+      <c r="PJR10" s="13"/>
+      <c r="PJS10" s="13"/>
+      <c r="PJT10" s="15"/>
+      <c r="PJU10" s="5"/>
+      <c r="PJZ10" s="13"/>
+      <c r="PKA10" s="13"/>
+      <c r="PKB10" s="15"/>
+      <c r="PKC10" s="5"/>
+      <c r="PKH10" s="13"/>
+      <c r="PKI10" s="13"/>
+      <c r="PKJ10" s="15"/>
+      <c r="PKK10" s="5"/>
+      <c r="PKP10" s="13"/>
+      <c r="PKQ10" s="13"/>
+      <c r="PKR10" s="15"/>
+      <c r="PKS10" s="5"/>
+      <c r="PKX10" s="13"/>
+      <c r="PKY10" s="13"/>
+      <c r="PKZ10" s="15"/>
+      <c r="PLA10" s="5"/>
+      <c r="PLF10" s="13"/>
+      <c r="PLG10" s="13"/>
+      <c r="PLH10" s="15"/>
+      <c r="PLI10" s="5"/>
+      <c r="PLN10" s="13"/>
+      <c r="PLO10" s="13"/>
+      <c r="PLP10" s="15"/>
+      <c r="PLQ10" s="5"/>
+      <c r="PLV10" s="13"/>
+      <c r="PLW10" s="13"/>
+      <c r="PLX10" s="15"/>
+      <c r="PLY10" s="5"/>
+      <c r="PMD10" s="13"/>
+      <c r="PME10" s="13"/>
+      <c r="PMF10" s="15"/>
+      <c r="PMG10" s="5"/>
+      <c r="PML10" s="13"/>
+      <c r="PMM10" s="13"/>
+      <c r="PMN10" s="15"/>
+      <c r="PMO10" s="5"/>
+      <c r="PMT10" s="13"/>
+      <c r="PMU10" s="13"/>
+      <c r="PMV10" s="15"/>
+      <c r="PMW10" s="5"/>
+      <c r="PNB10" s="13"/>
+      <c r="PNC10" s="13"/>
+      <c r="PND10" s="15"/>
+      <c r="PNE10" s="5"/>
+      <c r="PNJ10" s="13"/>
+      <c r="PNK10" s="13"/>
+      <c r="PNL10" s="15"/>
+      <c r="PNM10" s="5"/>
+      <c r="PNR10" s="13"/>
+      <c r="PNS10" s="13"/>
+      <c r="PNT10" s="15"/>
+      <c r="PNU10" s="5"/>
+      <c r="PNZ10" s="13"/>
+      <c r="POA10" s="13"/>
+      <c r="POB10" s="15"/>
+      <c r="POC10" s="5"/>
+      <c r="POH10" s="13"/>
+      <c r="POI10" s="13"/>
+      <c r="POJ10" s="15"/>
+      <c r="POK10" s="5"/>
+      <c r="POP10" s="13"/>
+      <c r="POQ10" s="13"/>
+      <c r="POR10" s="15"/>
+      <c r="POS10" s="5"/>
+      <c r="POX10" s="13"/>
+      <c r="POY10" s="13"/>
+      <c r="POZ10" s="15"/>
+      <c r="PPA10" s="5"/>
+      <c r="PPF10" s="13"/>
+      <c r="PPG10" s="13"/>
+      <c r="PPH10" s="15"/>
+      <c r="PPI10" s="5"/>
+      <c r="PPN10" s="13"/>
+      <c r="PPO10" s="13"/>
+      <c r="PPP10" s="15"/>
+      <c r="PPQ10" s="5"/>
+      <c r="PPV10" s="13"/>
+      <c r="PPW10" s="13"/>
+      <c r="PPX10" s="15"/>
+      <c r="PPY10" s="5"/>
+      <c r="PQD10" s="13"/>
+      <c r="PQE10" s="13"/>
+      <c r="PQF10" s="15"/>
+      <c r="PQG10" s="5"/>
+      <c r="PQL10" s="13"/>
+      <c r="PQM10" s="13"/>
+      <c r="PQN10" s="15"/>
+      <c r="PQO10" s="5"/>
+      <c r="PQT10" s="13"/>
+      <c r="PQU10" s="13"/>
+      <c r="PQV10" s="15"/>
+      <c r="PQW10" s="5"/>
+      <c r="PRB10" s="13"/>
+      <c r="PRC10" s="13"/>
+      <c r="PRD10" s="15"/>
+      <c r="PRE10" s="5"/>
+      <c r="PRJ10" s="13"/>
+      <c r="PRK10" s="13"/>
+      <c r="PRL10" s="15"/>
+      <c r="PRM10" s="5"/>
+      <c r="PRR10" s="13"/>
+      <c r="PRS10" s="13"/>
+      <c r="PRT10" s="15"/>
+      <c r="PRU10" s="5"/>
+      <c r="PRZ10" s="13"/>
+      <c r="PSA10" s="13"/>
+      <c r="PSB10" s="15"/>
+      <c r="PSC10" s="5"/>
+      <c r="PSH10" s="13"/>
+      <c r="PSI10" s="13"/>
+      <c r="PSJ10" s="15"/>
+      <c r="PSK10" s="5"/>
+      <c r="PSP10" s="13"/>
+      <c r="PSQ10" s="13"/>
+      <c r="PSR10" s="15"/>
+      <c r="PSS10" s="5"/>
+      <c r="PSX10" s="13"/>
+      <c r="PSY10" s="13"/>
+      <c r="PSZ10" s="15"/>
+      <c r="PTA10" s="5"/>
+      <c r="PTF10" s="13"/>
+      <c r="PTG10" s="13"/>
+      <c r="PTH10" s="15"/>
+      <c r="PTI10" s="5"/>
+      <c r="PTN10" s="13"/>
+      <c r="PTO10" s="13"/>
+      <c r="PTP10" s="15"/>
+      <c r="PTQ10" s="5"/>
+      <c r="PTV10" s="13"/>
+      <c r="PTW10" s="13"/>
+      <c r="PTX10" s="15"/>
+      <c r="PTY10" s="5"/>
+      <c r="PUD10" s="13"/>
+      <c r="PUE10" s="13"/>
+      <c r="PUF10" s="15"/>
+      <c r="PUG10" s="5"/>
+      <c r="PUL10" s="13"/>
+      <c r="PUM10" s="13"/>
+      <c r="PUN10" s="15"/>
+      <c r="PUO10" s="5"/>
+      <c r="PUT10" s="13"/>
+      <c r="PUU10" s="13"/>
+      <c r="PUV10" s="15"/>
+      <c r="PUW10" s="5"/>
+      <c r="PVB10" s="13"/>
+      <c r="PVC10" s="13"/>
+      <c r="PVD10" s="15"/>
+      <c r="PVE10" s="5"/>
+      <c r="PVJ10" s="13"/>
+      <c r="PVK10" s="13"/>
+      <c r="PVL10" s="15"/>
+      <c r="PVM10" s="5"/>
+      <c r="PVR10" s="13"/>
+      <c r="PVS10" s="13"/>
+      <c r="PVT10" s="15"/>
+      <c r="PVU10" s="5"/>
+      <c r="PVZ10" s="13"/>
+      <c r="PWA10" s="13"/>
+      <c r="PWB10" s="15"/>
+      <c r="PWC10" s="5"/>
+      <c r="PWH10" s="13"/>
+      <c r="PWI10" s="13"/>
+      <c r="PWJ10" s="15"/>
+      <c r="PWK10" s="5"/>
+      <c r="PWP10" s="13"/>
+      <c r="PWQ10" s="13"/>
+      <c r="PWR10" s="15"/>
+      <c r="PWS10" s="5"/>
+      <c r="PWX10" s="13"/>
+      <c r="PWY10" s="13"/>
+      <c r="PWZ10" s="15"/>
+      <c r="PXA10" s="5"/>
+      <c r="PXF10" s="13"/>
+      <c r="PXG10" s="13"/>
+      <c r="PXH10" s="15"/>
+      <c r="PXI10" s="5"/>
+      <c r="PXN10" s="13"/>
+      <c r="PXO10" s="13"/>
+      <c r="PXP10" s="15"/>
+      <c r="PXQ10" s="5"/>
+      <c r="PXV10" s="13"/>
+      <c r="PXW10" s="13"/>
+      <c r="PXX10" s="15"/>
+      <c r="PXY10" s="5"/>
+      <c r="PYD10" s="13"/>
+      <c r="PYE10" s="13"/>
+      <c r="PYF10" s="15"/>
+      <c r="PYG10" s="5"/>
+      <c r="PYL10" s="13"/>
+      <c r="PYM10" s="13"/>
+      <c r="PYN10" s="15"/>
+      <c r="PYO10" s="5"/>
+      <c r="PYT10" s="13"/>
+      <c r="PYU10" s="13"/>
+      <c r="PYV10" s="15"/>
+      <c r="PYW10" s="5"/>
+      <c r="PZB10" s="13"/>
+      <c r="PZC10" s="13"/>
+      <c r="PZD10" s="15"/>
+      <c r="PZE10" s="5"/>
+      <c r="PZJ10" s="13"/>
+      <c r="PZK10" s="13"/>
+      <c r="PZL10" s="15"/>
+      <c r="PZM10" s="5"/>
+      <c r="PZR10" s="13"/>
+      <c r="PZS10" s="13"/>
+      <c r="PZT10" s="15"/>
+      <c r="PZU10" s="5"/>
+      <c r="PZZ10" s="13"/>
+      <c r="QAA10" s="13"/>
+      <c r="QAB10" s="15"/>
+      <c r="QAC10" s="5"/>
+      <c r="QAH10" s="13"/>
+      <c r="QAI10" s="13"/>
+      <c r="QAJ10" s="15"/>
+      <c r="QAK10" s="5"/>
+      <c r="QAP10" s="13"/>
+      <c r="QAQ10" s="13"/>
+      <c r="QAR10" s="15"/>
+      <c r="QAS10" s="5"/>
+      <c r="QAX10" s="13"/>
+      <c r="QAY10" s="13"/>
+      <c r="QAZ10" s="15"/>
+      <c r="QBA10" s="5"/>
+      <c r="QBF10" s="13"/>
+      <c r="QBG10" s="13"/>
+      <c r="QBH10" s="15"/>
+      <c r="QBI10" s="5"/>
+      <c r="QBN10" s="13"/>
+      <c r="QBO10" s="13"/>
+      <c r="QBP10" s="15"/>
+      <c r="QBQ10" s="5"/>
+      <c r="QBV10" s="13"/>
+      <c r="QBW10" s="13"/>
+      <c r="QBX10" s="15"/>
+      <c r="QBY10" s="5"/>
+      <c r="QCD10" s="13"/>
+      <c r="QCE10" s="13"/>
+      <c r="QCF10" s="15"/>
+      <c r="QCG10" s="5"/>
+      <c r="QCL10" s="13"/>
+      <c r="QCM10" s="13"/>
+      <c r="QCN10" s="15"/>
+      <c r="QCO10" s="5"/>
+      <c r="QCT10" s="13"/>
+      <c r="QCU10" s="13"/>
+      <c r="QCV10" s="15"/>
+      <c r="QCW10" s="5"/>
+      <c r="QDB10" s="13"/>
+      <c r="QDC10" s="13"/>
+      <c r="QDD10" s="15"/>
+      <c r="QDE10" s="5"/>
+      <c r="QDJ10" s="13"/>
+      <c r="QDK10" s="13"/>
+      <c r="QDL10" s="15"/>
+      <c r="QDM10" s="5"/>
+      <c r="QDR10" s="13"/>
+      <c r="QDS10" s="13"/>
+      <c r="QDT10" s="15"/>
+      <c r="QDU10" s="5"/>
+      <c r="QDZ10" s="13"/>
+      <c r="QEA10" s="13"/>
+      <c r="QEB10" s="15"/>
+      <c r="QEC10" s="5"/>
+      <c r="QEH10" s="13"/>
+      <c r="QEI10" s="13"/>
+      <c r="QEJ10" s="15"/>
+      <c r="QEK10" s="5"/>
+      <c r="QEP10" s="13"/>
+      <c r="QEQ10" s="13"/>
+      <c r="QER10" s="15"/>
+      <c r="QES10" s="5"/>
+      <c r="QEX10" s="13"/>
+      <c r="QEY10" s="13"/>
+      <c r="QEZ10" s="15"/>
+      <c r="QFA10" s="5"/>
+      <c r="QFF10" s="13"/>
+      <c r="QFG10" s="13"/>
+      <c r="QFH10" s="15"/>
+      <c r="QFI10" s="5"/>
+      <c r="QFN10" s="13"/>
+      <c r="QFO10" s="13"/>
+      <c r="QFP10" s="15"/>
+      <c r="QFQ10" s="5"/>
+      <c r="QFV10" s="13"/>
+      <c r="QFW10" s="13"/>
+      <c r="QFX10" s="15"/>
+      <c r="QFY10" s="5"/>
+      <c r="QGD10" s="13"/>
+      <c r="QGE10" s="13"/>
+      <c r="QGF10" s="15"/>
+      <c r="QGG10" s="5"/>
+      <c r="QGL10" s="13"/>
+      <c r="QGM10" s="13"/>
+      <c r="QGN10" s="15"/>
+      <c r="QGO10" s="5"/>
+      <c r="QGT10" s="13"/>
+      <c r="QGU10" s="13"/>
+      <c r="QGV10" s="15"/>
+      <c r="QGW10" s="5"/>
+      <c r="QHB10" s="13"/>
+      <c r="QHC10" s="13"/>
+      <c r="QHD10" s="15"/>
+      <c r="QHE10" s="5"/>
+      <c r="QHJ10" s="13"/>
+      <c r="QHK10" s="13"/>
+      <c r="QHL10" s="15"/>
+      <c r="QHM10" s="5"/>
+      <c r="QHR10" s="13"/>
+      <c r="QHS10" s="13"/>
+      <c r="QHT10" s="15"/>
+      <c r="QHU10" s="5"/>
+      <c r="QHZ10" s="13"/>
+      <c r="QIA10" s="13"/>
+      <c r="QIB10" s="15"/>
+      <c r="QIC10" s="5"/>
+      <c r="QIH10" s="13"/>
+      <c r="QII10" s="13"/>
+      <c r="QIJ10" s="15"/>
+      <c r="QIK10" s="5"/>
+      <c r="QIP10" s="13"/>
+      <c r="QIQ10" s="13"/>
+      <c r="QIR10" s="15"/>
+      <c r="QIS10" s="5"/>
+      <c r="QIX10" s="13"/>
+      <c r="QIY10" s="13"/>
+      <c r="QIZ10" s="15"/>
+      <c r="QJA10" s="5"/>
+      <c r="QJF10" s="13"/>
+      <c r="QJG10" s="13"/>
+      <c r="QJH10" s="15"/>
+      <c r="QJI10" s="5"/>
+      <c r="QJN10" s="13"/>
+      <c r="QJO10" s="13"/>
+      <c r="QJP10" s="15"/>
+      <c r="QJQ10" s="5"/>
+      <c r="QJV10" s="13"/>
+      <c r="QJW10" s="13"/>
+      <c r="QJX10" s="15"/>
+      <c r="QJY10" s="5"/>
+      <c r="QKD10" s="13"/>
+      <c r="QKE10" s="13"/>
+      <c r="QKF10" s="15"/>
+      <c r="QKG10" s="5"/>
+      <c r="QKL10" s="13"/>
+      <c r="QKM10" s="13"/>
+      <c r="QKN10" s="15"/>
+      <c r="QKO10" s="5"/>
+      <c r="QKT10" s="13"/>
+      <c r="QKU10" s="13"/>
+      <c r="QKV10" s="15"/>
+      <c r="QKW10" s="5"/>
+      <c r="QLB10" s="13"/>
+      <c r="QLC10" s="13"/>
+      <c r="QLD10" s="15"/>
+      <c r="QLE10" s="5"/>
+      <c r="QLJ10" s="13"/>
+      <c r="QLK10" s="13"/>
+      <c r="QLL10" s="15"/>
+      <c r="QLM10" s="5"/>
+      <c r="QLR10" s="13"/>
+      <c r="QLS10" s="13"/>
+      <c r="QLT10" s="15"/>
+      <c r="QLU10" s="5"/>
+      <c r="QLZ10" s="13"/>
+      <c r="QMA10" s="13"/>
+      <c r="QMB10" s="15"/>
+      <c r="QMC10" s="5"/>
+      <c r="QMH10" s="13"/>
+      <c r="QMI10" s="13"/>
+      <c r="QMJ10" s="15"/>
+      <c r="QMK10" s="5"/>
+      <c r="QMP10" s="13"/>
+      <c r="QMQ10" s="13"/>
+      <c r="QMR10" s="15"/>
+      <c r="QMS10" s="5"/>
+      <c r="QMX10" s="13"/>
+      <c r="QMY10" s="13"/>
+      <c r="QMZ10" s="15"/>
+      <c r="QNA10" s="5"/>
+      <c r="QNF10" s="13"/>
+      <c r="QNG10" s="13"/>
+      <c r="QNH10" s="15"/>
+      <c r="QNI10" s="5"/>
+      <c r="QNN10" s="13"/>
+      <c r="QNO10" s="13"/>
+      <c r="QNP10" s="15"/>
+      <c r="QNQ10" s="5"/>
+      <c r="QNV10" s="13"/>
+      <c r="QNW10" s="13"/>
+      <c r="QNX10" s="15"/>
+      <c r="QNY10" s="5"/>
+      <c r="QOD10" s="13"/>
+      <c r="QOE10" s="13"/>
+      <c r="QOF10" s="15"/>
+      <c r="QOG10" s="5"/>
+      <c r="QOL10" s="13"/>
+      <c r="QOM10" s="13"/>
+      <c r="QON10" s="15"/>
+      <c r="QOO10" s="5"/>
+      <c r="QOT10" s="13"/>
+      <c r="QOU10" s="13"/>
+      <c r="QOV10" s="15"/>
+      <c r="QOW10" s="5"/>
+      <c r="QPB10" s="13"/>
+      <c r="QPC10" s="13"/>
+      <c r="QPD10" s="15"/>
+      <c r="QPE10" s="5"/>
+      <c r="QPJ10" s="13"/>
+      <c r="QPK10" s="13"/>
+      <c r="QPL10" s="15"/>
+      <c r="QPM10" s="5"/>
+      <c r="QPR10" s="13"/>
+      <c r="QPS10" s="13"/>
+      <c r="QPT10" s="15"/>
+      <c r="QPU10" s="5"/>
+      <c r="QPZ10" s="13"/>
+      <c r="QQA10" s="13"/>
+      <c r="QQB10" s="15"/>
+      <c r="QQC10" s="5"/>
+      <c r="QQH10" s="13"/>
+      <c r="QQI10" s="13"/>
+      <c r="QQJ10" s="15"/>
+      <c r="QQK10" s="5"/>
+      <c r="QQP10" s="13"/>
+      <c r="QQQ10" s="13"/>
+      <c r="QQR10" s="15"/>
+      <c r="QQS10" s="5"/>
+      <c r="QQX10" s="13"/>
+      <c r="QQY10" s="13"/>
+      <c r="QQZ10" s="15"/>
+      <c r="QRA10" s="5"/>
+      <c r="QRF10" s="13"/>
+      <c r="QRG10" s="13"/>
+      <c r="QRH10" s="15"/>
+      <c r="QRI10" s="5"/>
+      <c r="QRN10" s="13"/>
+      <c r="QRO10" s="13"/>
+      <c r="QRP10" s="15"/>
+      <c r="QRQ10" s="5"/>
+      <c r="QRV10" s="13"/>
+      <c r="QRW10" s="13"/>
+      <c r="QRX10" s="15"/>
+      <c r="QRY10" s="5"/>
+      <c r="QSD10" s="13"/>
+      <c r="QSE10" s="13"/>
+      <c r="QSF10" s="15"/>
+      <c r="QSG10" s="5"/>
+      <c r="QSL10" s="13"/>
+      <c r="QSM10" s="13"/>
+      <c r="QSN10" s="15"/>
+      <c r="QSO10" s="5"/>
+      <c r="QST10" s="13"/>
+      <c r="QSU10" s="13"/>
+      <c r="QSV10" s="15"/>
+      <c r="QSW10" s="5"/>
+      <c r="QTB10" s="13"/>
+      <c r="QTC10" s="13"/>
+      <c r="QTD10" s="15"/>
+      <c r="QTE10" s="5"/>
+      <c r="QTJ10" s="13"/>
+      <c r="QTK10" s="13"/>
+      <c r="QTL10" s="15"/>
+      <c r="QTM10" s="5"/>
+      <c r="QTR10" s="13"/>
+      <c r="QTS10" s="13"/>
+      <c r="QTT10" s="15"/>
+      <c r="QTU10" s="5"/>
+      <c r="QTZ10" s="13"/>
+      <c r="QUA10" s="13"/>
+      <c r="QUB10" s="15"/>
+      <c r="QUC10" s="5"/>
+      <c r="QUH10" s="13"/>
+      <c r="QUI10" s="13"/>
+      <c r="QUJ10" s="15"/>
+      <c r="QUK10" s="5"/>
+      <c r="QUP10" s="13"/>
+      <c r="QUQ10" s="13"/>
+      <c r="QUR10" s="15"/>
+      <c r="QUS10" s="5"/>
+      <c r="QUX10" s="13"/>
+      <c r="QUY10" s="13"/>
+      <c r="QUZ10" s="15"/>
+      <c r="QVA10" s="5"/>
+      <c r="QVF10" s="13"/>
+      <c r="QVG10" s="13"/>
+      <c r="QVH10" s="15"/>
+      <c r="QVI10" s="5"/>
+      <c r="QVN10" s="13"/>
+      <c r="QVO10" s="13"/>
+      <c r="QVP10" s="15"/>
+      <c r="QVQ10" s="5"/>
+      <c r="QVV10" s="13"/>
+      <c r="QVW10" s="13"/>
+      <c r="QVX10" s="15"/>
+      <c r="QVY10" s="5"/>
+      <c r="QWD10" s="13"/>
+      <c r="QWE10" s="13"/>
+      <c r="QWF10" s="15"/>
+      <c r="QWG10" s="5"/>
+      <c r="QWL10" s="13"/>
+      <c r="QWM10" s="13"/>
+      <c r="QWN10" s="15"/>
+      <c r="QWO10" s="5"/>
+      <c r="QWT10" s="13"/>
+      <c r="QWU10" s="13"/>
+      <c r="QWV10" s="15"/>
+      <c r="QWW10" s="5"/>
+      <c r="QXB10" s="13"/>
+      <c r="QXC10" s="13"/>
+      <c r="QXD10" s="15"/>
+      <c r="QXE10" s="5"/>
+      <c r="QXJ10" s="13"/>
+      <c r="QXK10" s="13"/>
+      <c r="QXL10" s="15"/>
+      <c r="QXM10" s="5"/>
+      <c r="QXR10" s="13"/>
+      <c r="QXS10" s="13"/>
+      <c r="QXT10" s="15"/>
+      <c r="QXU10" s="5"/>
+      <c r="QXZ10" s="13"/>
+      <c r="QYA10" s="13"/>
+      <c r="QYB10" s="15"/>
+      <c r="QYC10" s="5"/>
+      <c r="QYH10" s="13"/>
+      <c r="QYI10" s="13"/>
+      <c r="QYJ10" s="15"/>
+      <c r="QYK10" s="5"/>
+      <c r="QYP10" s="13"/>
+      <c r="QYQ10" s="13"/>
+      <c r="QYR10" s="15"/>
+      <c r="QYS10" s="5"/>
+      <c r="QYX10" s="13"/>
+      <c r="QYY10" s="13"/>
+      <c r="QYZ10" s="15"/>
+      <c r="QZA10" s="5"/>
+      <c r="QZF10" s="13"/>
+      <c r="QZG10" s="13"/>
+      <c r="QZH10" s="15"/>
+      <c r="QZI10" s="5"/>
+      <c r="QZN10" s="13"/>
+      <c r="QZO10" s="13"/>
+      <c r="QZP10" s="15"/>
+      <c r="QZQ10" s="5"/>
+      <c r="QZV10" s="13"/>
+      <c r="QZW10" s="13"/>
+      <c r="QZX10" s="15"/>
+      <c r="QZY10" s="5"/>
+      <c r="RAD10" s="13"/>
+      <c r="RAE10" s="13"/>
+      <c r="RAF10" s="15"/>
+      <c r="RAG10" s="5"/>
+      <c r="RAL10" s="13"/>
+      <c r="RAM10" s="13"/>
+      <c r="RAN10" s="15"/>
+      <c r="RAO10" s="5"/>
+      <c r="RAT10" s="13"/>
+      <c r="RAU10" s="13"/>
+      <c r="RAV10" s="15"/>
+      <c r="RAW10" s="5"/>
+      <c r="RBB10" s="13"/>
+      <c r="RBC10" s="13"/>
+      <c r="RBD10" s="15"/>
+      <c r="RBE10" s="5"/>
+      <c r="RBJ10" s="13"/>
+      <c r="RBK10" s="13"/>
+      <c r="RBL10" s="15"/>
+      <c r="RBM10" s="5"/>
+      <c r="RBR10" s="13"/>
+      <c r="RBS10" s="13"/>
+      <c r="RBT10" s="15"/>
+      <c r="RBU10" s="5"/>
+      <c r="RBZ10" s="13"/>
+      <c r="RCA10" s="13"/>
+      <c r="RCB10" s="15"/>
+      <c r="RCC10" s="5"/>
+      <c r="RCH10" s="13"/>
+      <c r="RCI10" s="13"/>
+      <c r="RCJ10" s="15"/>
+      <c r="RCK10" s="5"/>
+      <c r="RCP10" s="13"/>
+      <c r="RCQ10" s="13"/>
+      <c r="RCR10" s="15"/>
+      <c r="RCS10" s="5"/>
+      <c r="RCX10" s="13"/>
+      <c r="RCY10" s="13"/>
+      <c r="RCZ10" s="15"/>
+      <c r="RDA10" s="5"/>
+      <c r="RDF10" s="13"/>
+      <c r="RDG10" s="13"/>
+      <c r="RDH10" s="15"/>
+      <c r="RDI10" s="5"/>
+      <c r="RDN10" s="13"/>
+      <c r="RDO10" s="13"/>
+      <c r="RDP10" s="15"/>
+      <c r="RDQ10" s="5"/>
+      <c r="RDV10" s="13"/>
+      <c r="RDW10" s="13"/>
+      <c r="RDX10" s="15"/>
+      <c r="RDY10" s="5"/>
+      <c r="RED10" s="13"/>
+      <c r="REE10" s="13"/>
+      <c r="REF10" s="15"/>
+      <c r="REG10" s="5"/>
+      <c r="REL10" s="13"/>
+      <c r="REM10" s="13"/>
+      <c r="REN10" s="15"/>
+      <c r="REO10" s="5"/>
+      <c r="RET10" s="13"/>
+      <c r="REU10" s="13"/>
+      <c r="REV10" s="15"/>
+      <c r="REW10" s="5"/>
+      <c r="RFB10" s="13"/>
+      <c r="RFC10" s="13"/>
+      <c r="RFD10" s="15"/>
+      <c r="RFE10" s="5"/>
+      <c r="RFJ10" s="13"/>
+      <c r="RFK10" s="13"/>
+      <c r="RFL10" s="15"/>
+      <c r="RFM10" s="5"/>
+      <c r="RFR10" s="13"/>
+      <c r="RFS10" s="13"/>
+      <c r="RFT10" s="15"/>
+      <c r="RFU10" s="5"/>
+      <c r="RFZ10" s="13"/>
+      <c r="RGA10" s="13"/>
+      <c r="RGB10" s="15"/>
+      <c r="RGC10" s="5"/>
+      <c r="RGH10" s="13"/>
+      <c r="RGI10" s="13"/>
+      <c r="RGJ10" s="15"/>
+      <c r="RGK10" s="5"/>
+      <c r="RGP10" s="13"/>
+      <c r="RGQ10" s="13"/>
+      <c r="RGR10" s="15"/>
+      <c r="RGS10" s="5"/>
+      <c r="RGX10" s="13"/>
+      <c r="RGY10" s="13"/>
+      <c r="RGZ10" s="15"/>
+      <c r="RHA10" s="5"/>
+      <c r="RHF10" s="13"/>
+      <c r="RHG10" s="13"/>
+      <c r="RHH10" s="15"/>
+      <c r="RHI10" s="5"/>
+      <c r="RHN10" s="13"/>
+      <c r="RHO10" s="13"/>
+      <c r="RHP10" s="15"/>
+      <c r="RHQ10" s="5"/>
+      <c r="RHV10" s="13"/>
+      <c r="RHW10" s="13"/>
+      <c r="RHX10" s="15"/>
+      <c r="RHY10" s="5"/>
+      <c r="RID10" s="13"/>
+      <c r="RIE10" s="13"/>
+      <c r="RIF10" s="15"/>
+      <c r="RIG10" s="5"/>
+      <c r="RIL10" s="13"/>
+      <c r="RIM10" s="13"/>
+      <c r="RIN10" s="15"/>
+      <c r="RIO10" s="5"/>
+      <c r="RIT10" s="13"/>
+      <c r="RIU10" s="13"/>
+      <c r="RIV10" s="15"/>
+      <c r="RIW10" s="5"/>
+      <c r="RJB10" s="13"/>
+      <c r="RJC10" s="13"/>
+      <c r="RJD10" s="15"/>
+      <c r="RJE10" s="5"/>
+      <c r="RJJ10" s="13"/>
+      <c r="RJK10" s="13"/>
+      <c r="RJL10" s="15"/>
+      <c r="RJM10" s="5"/>
+      <c r="RJR10" s="13"/>
+      <c r="RJS10" s="13"/>
+      <c r="RJT10" s="15"/>
+      <c r="RJU10" s="5"/>
+      <c r="RJZ10" s="13"/>
+      <c r="RKA10" s="13"/>
+      <c r="RKB10" s="15"/>
+      <c r="RKC10" s="5"/>
+      <c r="RKH10" s="13"/>
+      <c r="RKI10" s="13"/>
+      <c r="RKJ10" s="15"/>
+      <c r="RKK10" s="5"/>
+      <c r="RKP10" s="13"/>
+      <c r="RKQ10" s="13"/>
+      <c r="RKR10" s="15"/>
+      <c r="RKS10" s="5"/>
+      <c r="RKX10" s="13"/>
+      <c r="RKY10" s="13"/>
+      <c r="RKZ10" s="15"/>
+      <c r="RLA10" s="5"/>
+      <c r="RLF10" s="13"/>
+      <c r="RLG10" s="13"/>
+      <c r="RLH10" s="15"/>
+      <c r="RLI10" s="5"/>
+      <c r="RLN10" s="13"/>
+      <c r="RLO10" s="13"/>
+      <c r="RLP10" s="15"/>
+      <c r="RLQ10" s="5"/>
+      <c r="RLV10" s="13"/>
+      <c r="RLW10" s="13"/>
+      <c r="RLX10" s="15"/>
+      <c r="RLY10" s="5"/>
+      <c r="RMD10" s="13"/>
+      <c r="RME10" s="13"/>
+      <c r="RMF10" s="15"/>
+      <c r="RMG10" s="5"/>
+      <c r="RML10" s="13"/>
+      <c r="RMM10" s="13"/>
+      <c r="RMN10" s="15"/>
+      <c r="RMO10" s="5"/>
+      <c r="RMT10" s="13"/>
+      <c r="RMU10" s="13"/>
+      <c r="RMV10" s="15"/>
+      <c r="RMW10" s="5"/>
+      <c r="RNB10" s="13"/>
+      <c r="RNC10" s="13"/>
+      <c r="RND10" s="15"/>
+      <c r="RNE10" s="5"/>
+      <c r="RNJ10" s="13"/>
+      <c r="RNK10" s="13"/>
+      <c r="RNL10" s="15"/>
+      <c r="RNM10" s="5"/>
+      <c r="RNR10" s="13"/>
+      <c r="RNS10" s="13"/>
+      <c r="RNT10" s="15"/>
+      <c r="RNU10" s="5"/>
+      <c r="RNZ10" s="13"/>
+      <c r="ROA10" s="13"/>
+      <c r="ROB10" s="15"/>
+      <c r="ROC10" s="5"/>
+      <c r="ROH10" s="13"/>
+      <c r="ROI10" s="13"/>
+      <c r="ROJ10" s="15"/>
+      <c r="ROK10" s="5"/>
+      <c r="ROP10" s="13"/>
+      <c r="ROQ10" s="13"/>
+      <c r="ROR10" s="15"/>
+      <c r="ROS10" s="5"/>
+      <c r="ROX10" s="13"/>
+      <c r="ROY10" s="13"/>
+      <c r="ROZ10" s="15"/>
+      <c r="RPA10" s="5"/>
+      <c r="RPF10" s="13"/>
+      <c r="RPG10" s="13"/>
+      <c r="RPH10" s="15"/>
+      <c r="RPI10" s="5"/>
+      <c r="RPN10" s="13"/>
+      <c r="RPO10" s="13"/>
+      <c r="RPP10" s="15"/>
+      <c r="RPQ10" s="5"/>
+      <c r="RPV10" s="13"/>
+      <c r="RPW10" s="13"/>
+      <c r="RPX10" s="15"/>
+      <c r="RPY10" s="5"/>
+      <c r="RQD10" s="13"/>
+      <c r="RQE10" s="13"/>
+      <c r="RQF10" s="15"/>
+      <c r="RQG10" s="5"/>
+      <c r="RQL10" s="13"/>
+      <c r="RQM10" s="13"/>
+      <c r="RQN10" s="15"/>
+      <c r="RQO10" s="5"/>
+      <c r="RQT10" s="13"/>
+      <c r="RQU10" s="13"/>
+      <c r="RQV10" s="15"/>
+      <c r="RQW10" s="5"/>
+      <c r="RRB10" s="13"/>
+      <c r="RRC10" s="13"/>
+      <c r="RRD10" s="15"/>
+      <c r="RRE10" s="5"/>
+      <c r="RRJ10" s="13"/>
+      <c r="RRK10" s="13"/>
+      <c r="RRL10" s="15"/>
+      <c r="RRM10" s="5"/>
+      <c r="RRR10" s="13"/>
+      <c r="RRS10" s="13"/>
+      <c r="RRT10" s="15"/>
+      <c r="RRU10" s="5"/>
+      <c r="RRZ10" s="13"/>
+      <c r="RSA10" s="13"/>
+      <c r="RSB10" s="15"/>
+      <c r="RSC10" s="5"/>
+      <c r="RSH10" s="13"/>
+      <c r="RSI10" s="13"/>
+      <c r="RSJ10" s="15"/>
+      <c r="RSK10" s="5"/>
+      <c r="RSP10" s="13"/>
+      <c r="RSQ10" s="13"/>
+      <c r="RSR10" s="15"/>
+      <c r="RSS10" s="5"/>
+      <c r="RSX10" s="13"/>
+      <c r="RSY10" s="13"/>
+      <c r="RSZ10" s="15"/>
+      <c r="RTA10" s="5"/>
+      <c r="RTF10" s="13"/>
+      <c r="RTG10" s="13"/>
+      <c r="RTH10" s="15"/>
+      <c r="RTI10" s="5"/>
+      <c r="RTN10" s="13"/>
+      <c r="RTO10" s="13"/>
+      <c r="RTP10" s="15"/>
+      <c r="RTQ10" s="5"/>
+      <c r="RTV10" s="13"/>
+      <c r="RTW10" s="13"/>
+      <c r="RTX10" s="15"/>
+      <c r="RTY10" s="5"/>
+      <c r="RUD10" s="13"/>
+      <c r="RUE10" s="13"/>
+      <c r="RUF10" s="15"/>
+      <c r="RUG10" s="5"/>
+      <c r="RUL10" s="13"/>
+      <c r="RUM10" s="13"/>
+      <c r="RUN10" s="15"/>
+      <c r="RUO10" s="5"/>
+      <c r="RUT10" s="13"/>
+      <c r="RUU10" s="13"/>
+      <c r="RUV10" s="15"/>
+      <c r="RUW10" s="5"/>
+      <c r="RVB10" s="13"/>
+      <c r="RVC10" s="13"/>
+      <c r="RVD10" s="15"/>
+      <c r="RVE10" s="5"/>
+      <c r="RVJ10" s="13"/>
+      <c r="RVK10" s="13"/>
+      <c r="RVL10" s="15"/>
+      <c r="RVM10" s="5"/>
+      <c r="RVR10" s="13"/>
+      <c r="RVS10" s="13"/>
+      <c r="RVT10" s="15"/>
+      <c r="RVU10" s="5"/>
+      <c r="RVZ10" s="13"/>
+      <c r="RWA10" s="13"/>
+      <c r="RWB10" s="15"/>
+      <c r="RWC10" s="5"/>
+      <c r="RWH10" s="13"/>
+      <c r="RWI10" s="13"/>
+      <c r="RWJ10" s="15"/>
+      <c r="RWK10" s="5"/>
+      <c r="RWP10" s="13"/>
+      <c r="RWQ10" s="13"/>
+      <c r="RWR10" s="15"/>
+      <c r="RWS10" s="5"/>
+      <c r="RWX10" s="13"/>
+      <c r="RWY10" s="13"/>
+      <c r="RWZ10" s="15"/>
+      <c r="RXA10" s="5"/>
+      <c r="RXF10" s="13"/>
+      <c r="RXG10" s="13"/>
+      <c r="RXH10" s="15"/>
+      <c r="RXI10" s="5"/>
+      <c r="RXN10" s="13"/>
+      <c r="RXO10" s="13"/>
+      <c r="RXP10" s="15"/>
+      <c r="RXQ10" s="5"/>
+      <c r="RXV10" s="13"/>
+      <c r="RXW10" s="13"/>
+      <c r="RXX10" s="15"/>
+      <c r="RXY10" s="5"/>
+      <c r="RYD10" s="13"/>
+      <c r="RYE10" s="13"/>
+      <c r="RYF10" s="15"/>
+      <c r="RYG10" s="5"/>
+      <c r="RYL10" s="13"/>
+      <c r="RYM10" s="13"/>
+      <c r="RYN10" s="15"/>
+      <c r="RYO10" s="5"/>
+      <c r="RYT10" s="13"/>
+      <c r="RYU10" s="13"/>
+      <c r="RYV10" s="15"/>
+      <c r="RYW10" s="5"/>
+      <c r="RZB10" s="13"/>
+      <c r="RZC10" s="13"/>
+      <c r="RZD10" s="15"/>
+      <c r="RZE10" s="5"/>
+      <c r="RZJ10" s="13"/>
+      <c r="RZK10" s="13"/>
+      <c r="RZL10" s="15"/>
+      <c r="RZM10" s="5"/>
+      <c r="RZR10" s="13"/>
+      <c r="RZS10" s="13"/>
+      <c r="RZT10" s="15"/>
+      <c r="RZU10" s="5"/>
+      <c r="RZZ10" s="13"/>
+      <c r="SAA10" s="13"/>
+      <c r="SAB10" s="15"/>
+      <c r="SAC10" s="5"/>
+      <c r="SAH10" s="13"/>
+      <c r="SAI10" s="13"/>
+      <c r="SAJ10" s="15"/>
+      <c r="SAK10" s="5"/>
+      <c r="SAP10" s="13"/>
+      <c r="SAQ10" s="13"/>
+      <c r="SAR10" s="15"/>
+      <c r="SAS10" s="5"/>
+      <c r="SAX10" s="13"/>
+      <c r="SAY10" s="13"/>
+      <c r="SAZ10" s="15"/>
+      <c r="SBA10" s="5"/>
+      <c r="SBF10" s="13"/>
+      <c r="SBG10" s="13"/>
+      <c r="SBH10" s="15"/>
+      <c r="SBI10" s="5"/>
+      <c r="SBN10" s="13"/>
+      <c r="SBO10" s="13"/>
+      <c r="SBP10" s="15"/>
+      <c r="SBQ10" s="5"/>
+      <c r="SBV10" s="13"/>
+      <c r="SBW10" s="13"/>
+      <c r="SBX10" s="15"/>
+      <c r="SBY10" s="5"/>
+      <c r="SCD10" s="13"/>
+      <c r="SCE10" s="13"/>
+      <c r="SCF10" s="15"/>
+      <c r="SCG10" s="5"/>
+      <c r="SCL10" s="13"/>
+      <c r="SCM10" s="13"/>
+      <c r="SCN10" s="15"/>
+      <c r="SCO10" s="5"/>
+      <c r="SCT10" s="13"/>
+      <c r="SCU10" s="13"/>
+      <c r="SCV10" s="15"/>
+      <c r="SCW10" s="5"/>
+      <c r="SDB10" s="13"/>
+      <c r="SDC10" s="13"/>
+      <c r="SDD10" s="15"/>
+      <c r="SDE10" s="5"/>
+      <c r="SDJ10" s="13"/>
+      <c r="SDK10" s="13"/>
+      <c r="SDL10" s="15"/>
+      <c r="SDM10" s="5"/>
+      <c r="SDR10" s="13"/>
+      <c r="SDS10" s="13"/>
+      <c r="SDT10" s="15"/>
+      <c r="SDU10" s="5"/>
+      <c r="SDZ10" s="13"/>
+      <c r="SEA10" s="13"/>
+      <c r="SEB10" s="15"/>
+      <c r="SEC10" s="5"/>
+      <c r="SEH10" s="13"/>
+      <c r="SEI10" s="13"/>
+      <c r="SEJ10" s="15"/>
+      <c r="SEK10" s="5"/>
+      <c r="SEP10" s="13"/>
+      <c r="SEQ10" s="13"/>
+      <c r="SER10" s="15"/>
+      <c r="SES10" s="5"/>
+      <c r="SEX10" s="13"/>
+      <c r="SEY10" s="13"/>
+      <c r="SEZ10" s="15"/>
+      <c r="SFA10" s="5"/>
+      <c r="SFF10" s="13"/>
+      <c r="SFG10" s="13"/>
+      <c r="SFH10" s="15"/>
+      <c r="SFI10" s="5"/>
+      <c r="SFN10" s="13"/>
+      <c r="SFO10" s="13"/>
+      <c r="SFP10" s="15"/>
+      <c r="SFQ10" s="5"/>
+      <c r="SFV10" s="13"/>
+      <c r="SFW10" s="13"/>
+      <c r="SFX10" s="15"/>
+      <c r="SFY10" s="5"/>
+      <c r="SGD10" s="13"/>
+      <c r="SGE10" s="13"/>
+      <c r="SGF10" s="15"/>
+      <c r="SGG10" s="5"/>
+      <c r="SGL10" s="13"/>
+      <c r="SGM10" s="13"/>
+      <c r="SGN10" s="15"/>
+      <c r="SGO10" s="5"/>
+      <c r="SGT10" s="13"/>
+      <c r="SGU10" s="13"/>
+      <c r="SGV10" s="15"/>
+      <c r="SGW10" s="5"/>
+      <c r="SHB10" s="13"/>
+      <c r="SHC10" s="13"/>
+      <c r="SHD10" s="15"/>
+      <c r="SHE10" s="5"/>
+      <c r="SHJ10" s="13"/>
+      <c r="SHK10" s="13"/>
+      <c r="SHL10" s="15"/>
+      <c r="SHM10" s="5"/>
+      <c r="SHR10" s="13"/>
+      <c r="SHS10" s="13"/>
+      <c r="SHT10" s="15"/>
+      <c r="SHU10" s="5"/>
+      <c r="SHZ10" s="13"/>
+      <c r="SIA10" s="13"/>
+      <c r="SIB10" s="15"/>
+      <c r="SIC10" s="5"/>
+      <c r="SIH10" s="13"/>
+      <c r="SII10" s="13"/>
+      <c r="SIJ10" s="15"/>
+      <c r="SIK10" s="5"/>
+      <c r="SIP10" s="13"/>
+      <c r="SIQ10" s="13"/>
+      <c r="SIR10" s="15"/>
+      <c r="SIS10" s="5"/>
+      <c r="SIX10" s="13"/>
+      <c r="SIY10" s="13"/>
+      <c r="SIZ10" s="15"/>
+      <c r="SJA10" s="5"/>
+      <c r="SJF10" s="13"/>
+      <c r="SJG10" s="13"/>
+      <c r="SJH10" s="15"/>
+      <c r="SJI10" s="5"/>
+      <c r="SJN10" s="13"/>
+      <c r="SJO10" s="13"/>
+      <c r="SJP10" s="15"/>
+      <c r="SJQ10" s="5"/>
+      <c r="SJV10" s="13"/>
+      <c r="SJW10" s="13"/>
+      <c r="SJX10" s="15"/>
+      <c r="SJY10" s="5"/>
+      <c r="SKD10" s="13"/>
+      <c r="SKE10" s="13"/>
+      <c r="SKF10" s="15"/>
+      <c r="SKG10" s="5"/>
+      <c r="SKL10" s="13"/>
+      <c r="SKM10" s="13"/>
+      <c r="SKN10" s="15"/>
+      <c r="SKO10" s="5"/>
+      <c r="SKT10" s="13"/>
+      <c r="SKU10" s="13"/>
+      <c r="SKV10" s="15"/>
+      <c r="SKW10" s="5"/>
+      <c r="SLB10" s="13"/>
+      <c r="SLC10" s="13"/>
+      <c r="SLD10" s="15"/>
+      <c r="SLE10" s="5"/>
+      <c r="SLJ10" s="13"/>
+      <c r="SLK10" s="13"/>
+      <c r="SLL10" s="15"/>
+      <c r="SLM10" s="5"/>
+      <c r="SLR10" s="13"/>
+      <c r="SLS10" s="13"/>
+      <c r="SLT10" s="15"/>
+      <c r="SLU10" s="5"/>
+      <c r="SLZ10" s="13"/>
+      <c r="SMA10" s="13"/>
+      <c r="SMB10" s="15"/>
+      <c r="SMC10" s="5"/>
+      <c r="SMH10" s="13"/>
+      <c r="SMI10" s="13"/>
+      <c r="SMJ10" s="15"/>
+      <c r="SMK10" s="5"/>
+      <c r="SMP10" s="13"/>
+      <c r="SMQ10" s="13"/>
+      <c r="SMR10" s="15"/>
+      <c r="SMS10" s="5"/>
+      <c r="SMX10" s="13"/>
+      <c r="SMY10" s="13"/>
+      <c r="SMZ10" s="15"/>
+      <c r="SNA10" s="5"/>
+      <c r="SNF10" s="13"/>
+      <c r="SNG10" s="13"/>
+      <c r="SNH10" s="15"/>
+      <c r="SNI10" s="5"/>
+      <c r="SNN10" s="13"/>
+      <c r="SNO10" s="13"/>
+      <c r="SNP10" s="15"/>
+      <c r="SNQ10" s="5"/>
+      <c r="SNV10" s="13"/>
+      <c r="SNW10" s="13"/>
+      <c r="SNX10" s="15"/>
+      <c r="SNY10" s="5"/>
+      <c r="SOD10" s="13"/>
+      <c r="SOE10" s="13"/>
+      <c r="SOF10" s="15"/>
+      <c r="SOG10" s="5"/>
+      <c r="SOL10" s="13"/>
+      <c r="SOM10" s="13"/>
+      <c r="SON10" s="15"/>
+      <c r="SOO10" s="5"/>
+      <c r="SOT10" s="13"/>
+      <c r="SOU10" s="13"/>
+      <c r="SOV10" s="15"/>
+      <c r="SOW10" s="5"/>
+      <c r="SPB10" s="13"/>
+      <c r="SPC10" s="13"/>
+      <c r="SPD10" s="15"/>
+      <c r="SPE10" s="5"/>
+      <c r="SPJ10" s="13"/>
+      <c r="SPK10" s="13"/>
+      <c r="SPL10" s="15"/>
+      <c r="SPM10" s="5"/>
+      <c r="SPR10" s="13"/>
+      <c r="SPS10" s="13"/>
+      <c r="SPT10" s="15"/>
+      <c r="SPU10" s="5"/>
+      <c r="SPZ10" s="13"/>
+      <c r="SQA10" s="13"/>
+      <c r="SQB10" s="15"/>
+      <c r="SQC10" s="5"/>
+      <c r="SQH10" s="13"/>
+      <c r="SQI10" s="13"/>
+      <c r="SQJ10" s="15"/>
+      <c r="SQK10" s="5"/>
+      <c r="SQP10" s="13"/>
+      <c r="SQQ10" s="13"/>
+      <c r="SQR10" s="15"/>
+      <c r="SQS10" s="5"/>
+      <c r="SQX10" s="13"/>
+      <c r="SQY10" s="13"/>
+      <c r="SQZ10" s="15"/>
+      <c r="SRA10" s="5"/>
+      <c r="SRF10" s="13"/>
+      <c r="SRG10" s="13"/>
+      <c r="SRH10" s="15"/>
+      <c r="SRI10" s="5"/>
+      <c r="SRN10" s="13"/>
+      <c r="SRO10" s="13"/>
+      <c r="SRP10" s="15"/>
+      <c r="SRQ10" s="5"/>
+      <c r="SRV10" s="13"/>
+      <c r="SRW10" s="13"/>
+      <c r="SRX10" s="15"/>
+      <c r="SRY10" s="5"/>
+      <c r="SSD10" s="13"/>
+      <c r="SSE10" s="13"/>
+      <c r="SSF10" s="15"/>
+      <c r="SSG10" s="5"/>
+      <c r="SSL10" s="13"/>
+      <c r="SSM10" s="13"/>
+      <c r="SSN10" s="15"/>
+      <c r="SSO10" s="5"/>
+      <c r="SST10" s="13"/>
+      <c r="SSU10" s="13"/>
+      <c r="SSV10" s="15"/>
+      <c r="SSW10" s="5"/>
+      <c r="STB10" s="13"/>
+      <c r="STC10" s="13"/>
+      <c r="STD10" s="15"/>
+      <c r="STE10" s="5"/>
+      <c r="STJ10" s="13"/>
+      <c r="STK10" s="13"/>
+      <c r="STL10" s="15"/>
+      <c r="STM10" s="5"/>
+      <c r="STR10" s="13"/>
+      <c r="STS10" s="13"/>
+      <c r="STT10" s="15"/>
+      <c r="STU10" s="5"/>
+      <c r="STZ10" s="13"/>
+      <c r="SUA10" s="13"/>
+      <c r="SUB10" s="15"/>
+      <c r="SUC10" s="5"/>
+      <c r="SUH10" s="13"/>
+      <c r="SUI10" s="13"/>
+      <c r="SUJ10" s="15"/>
+      <c r="SUK10" s="5"/>
+      <c r="SUP10" s="13"/>
+      <c r="SUQ10" s="13"/>
+      <c r="SUR10" s="15"/>
+      <c r="SUS10" s="5"/>
+      <c r="SUX10" s="13"/>
+      <c r="SUY10" s="13"/>
+      <c r="SUZ10" s="15"/>
+      <c r="SVA10" s="5"/>
+      <c r="SVF10" s="13"/>
+      <c r="SVG10" s="13"/>
+      <c r="SVH10" s="15"/>
+      <c r="SVI10" s="5"/>
+      <c r="SVN10" s="13"/>
+      <c r="SVO10" s="13"/>
+      <c r="SVP10" s="15"/>
+      <c r="SVQ10" s="5"/>
+      <c r="SVV10" s="13"/>
+      <c r="SVW10" s="13"/>
+      <c r="SVX10" s="15"/>
+      <c r="SVY10" s="5"/>
+      <c r="SWD10" s="13"/>
+      <c r="SWE10" s="13"/>
+      <c r="SWF10" s="15"/>
+      <c r="SWG10" s="5"/>
+      <c r="SWL10" s="13"/>
+      <c r="SWM10" s="13"/>
+      <c r="SWN10" s="15"/>
+      <c r="SWO10" s="5"/>
+      <c r="SWT10" s="13"/>
+      <c r="SWU10" s="13"/>
+      <c r="SWV10" s="15"/>
+      <c r="SWW10" s="5"/>
+      <c r="SXB10" s="13"/>
+      <c r="SXC10" s="13"/>
+      <c r="SXD10" s="15"/>
+      <c r="SXE10" s="5"/>
+      <c r="SXJ10" s="13"/>
+      <c r="SXK10" s="13"/>
+      <c r="SXL10" s="15"/>
+      <c r="SXM10" s="5"/>
+      <c r="SXR10" s="13"/>
+      <c r="SXS10" s="13"/>
+      <c r="SXT10" s="15"/>
+      <c r="SXU10" s="5"/>
+      <c r="SXZ10" s="13"/>
+      <c r="SYA10" s="13"/>
+      <c r="SYB10" s="15"/>
+      <c r="SYC10" s="5"/>
+      <c r="SYH10" s="13"/>
+      <c r="SYI10" s="13"/>
+      <c r="SYJ10" s="15"/>
+      <c r="SYK10" s="5"/>
+      <c r="SYP10" s="13"/>
+      <c r="SYQ10" s="13"/>
+      <c r="SYR10" s="15"/>
+      <c r="SYS10" s="5"/>
+      <c r="SYX10" s="13"/>
+      <c r="SYY10" s="13"/>
+      <c r="SYZ10" s="15"/>
+      <c r="SZA10" s="5"/>
+      <c r="SZF10" s="13"/>
+      <c r="SZG10" s="13"/>
+      <c r="SZH10" s="15"/>
+      <c r="SZI10" s="5"/>
+      <c r="SZN10" s="13"/>
+      <c r="SZO10" s="13"/>
+      <c r="SZP10" s="15"/>
+      <c r="SZQ10" s="5"/>
+      <c r="SZV10" s="13"/>
+      <c r="SZW10" s="13"/>
+      <c r="SZX10" s="15"/>
+      <c r="SZY10" s="5"/>
+      <c r="TAD10" s="13"/>
+      <c r="TAE10" s="13"/>
+      <c r="TAF10" s="15"/>
+      <c r="TAG10" s="5"/>
+      <c r="TAL10" s="13"/>
+      <c r="TAM10" s="13"/>
+      <c r="TAN10" s="15"/>
+      <c r="TAO10" s="5"/>
+      <c r="TAT10" s="13"/>
+      <c r="TAU10" s="13"/>
+      <c r="TAV10" s="15"/>
+      <c r="TAW10" s="5"/>
+      <c r="TBB10" s="13"/>
+      <c r="TBC10" s="13"/>
+      <c r="TBD10" s="15"/>
+      <c r="TBE10" s="5"/>
+      <c r="TBJ10" s="13"/>
+      <c r="TBK10" s="13"/>
+      <c r="TBL10" s="15"/>
+      <c r="TBM10" s="5"/>
+      <c r="TBR10" s="13"/>
+      <c r="TBS10" s="13"/>
+      <c r="TBT10" s="15"/>
+      <c r="TBU10" s="5"/>
+      <c r="TBZ10" s="13"/>
+      <c r="TCA10" s="13"/>
+      <c r="TCB10" s="15"/>
+      <c r="TCC10" s="5"/>
+      <c r="TCH10" s="13"/>
+      <c r="TCI10" s="13"/>
+      <c r="TCJ10" s="15"/>
+      <c r="TCK10" s="5"/>
+      <c r="TCP10" s="13"/>
+      <c r="TCQ10" s="13"/>
+      <c r="TCR10" s="15"/>
+      <c r="TCS10" s="5"/>
+      <c r="TCX10" s="13"/>
+      <c r="TCY10" s="13"/>
+      <c r="TCZ10" s="15"/>
+      <c r="TDA10" s="5"/>
+      <c r="TDF10" s="13"/>
+      <c r="TDG10" s="13"/>
+      <c r="TDH10" s="15"/>
+      <c r="TDI10" s="5"/>
+      <c r="TDN10" s="13"/>
+      <c r="TDO10" s="13"/>
+      <c r="TDP10" s="15"/>
+      <c r="TDQ10" s="5"/>
+      <c r="TDV10" s="13"/>
+      <c r="TDW10" s="13"/>
+      <c r="TDX10" s="15"/>
+      <c r="TDY10" s="5"/>
+      <c r="TED10" s="13"/>
+      <c r="TEE10" s="13"/>
+      <c r="TEF10" s="15"/>
+      <c r="TEG10" s="5"/>
+      <c r="TEL10" s="13"/>
+      <c r="TEM10" s="13"/>
+      <c r="TEN10" s="15"/>
+      <c r="TEO10" s="5"/>
+      <c r="TET10" s="13"/>
+      <c r="TEU10" s="13"/>
+      <c r="TEV10" s="15"/>
+      <c r="TEW10" s="5"/>
+      <c r="TFB10" s="13"/>
+      <c r="TFC10" s="13"/>
+      <c r="TFD10" s="15"/>
+      <c r="TFE10" s="5"/>
+      <c r="TFJ10" s="13"/>
+      <c r="TFK10" s="13"/>
+      <c r="TFL10" s="15"/>
+      <c r="TFM10" s="5"/>
+      <c r="TFR10" s="13"/>
+      <c r="TFS10" s="13"/>
+      <c r="TFT10" s="15"/>
+      <c r="TFU10" s="5"/>
+      <c r="TFZ10" s="13"/>
+      <c r="TGA10" s="13"/>
+      <c r="TGB10" s="15"/>
+      <c r="TGC10" s="5"/>
+      <c r="TGH10" s="13"/>
+      <c r="TGI10" s="13"/>
+      <c r="TGJ10" s="15"/>
+      <c r="TGK10" s="5"/>
+      <c r="TGP10" s="13"/>
+      <c r="TGQ10" s="13"/>
+      <c r="TGR10" s="15"/>
+      <c r="TGS10" s="5"/>
+      <c r="TGX10" s="13"/>
+      <c r="TGY10" s="13"/>
+      <c r="TGZ10" s="15"/>
+      <c r="THA10" s="5"/>
+      <c r="THF10" s="13"/>
+      <c r="THG10" s="13"/>
+      <c r="THH10" s="15"/>
+      <c r="THI10" s="5"/>
+      <c r="THN10" s="13"/>
+      <c r="THO10" s="13"/>
+      <c r="THP10" s="15"/>
+      <c r="THQ10" s="5"/>
+      <c r="THV10" s="13"/>
+      <c r="THW10" s="13"/>
+      <c r="THX10" s="15"/>
+      <c r="THY10" s="5"/>
+      <c r="TID10" s="13"/>
+      <c r="TIE10" s="13"/>
+      <c r="TIF10" s="15"/>
+      <c r="TIG10" s="5"/>
+      <c r="TIL10" s="13"/>
+      <c r="TIM10" s="13"/>
+      <c r="TIN10" s="15"/>
+      <c r="TIO10" s="5"/>
+      <c r="TIT10" s="13"/>
+      <c r="TIU10" s="13"/>
+      <c r="TIV10" s="15"/>
+      <c r="TIW10" s="5"/>
+      <c r="TJB10" s="13"/>
+      <c r="TJC10" s="13"/>
+      <c r="TJD10" s="15"/>
+      <c r="TJE10" s="5"/>
+      <c r="TJJ10" s="13"/>
+      <c r="TJK10" s="13"/>
+      <c r="TJL10" s="15"/>
+      <c r="TJM10" s="5"/>
+      <c r="TJR10" s="13"/>
+      <c r="TJS10" s="13"/>
+      <c r="TJT10" s="15"/>
+      <c r="TJU10" s="5"/>
+      <c r="TJZ10" s="13"/>
+      <c r="TKA10" s="13"/>
+      <c r="TKB10" s="15"/>
+      <c r="TKC10" s="5"/>
+      <c r="TKH10" s="13"/>
+      <c r="TKI10" s="13"/>
+      <c r="TKJ10" s="15"/>
+      <c r="TKK10" s="5"/>
+      <c r="TKP10" s="13"/>
+      <c r="TKQ10" s="13"/>
+      <c r="TKR10" s="15"/>
+      <c r="TKS10" s="5"/>
+      <c r="TKX10" s="13"/>
+      <c r="TKY10" s="13"/>
+      <c r="TKZ10" s="15"/>
+      <c r="TLA10" s="5"/>
+      <c r="TLF10" s="13"/>
+      <c r="TLG10" s="13"/>
+      <c r="TLH10" s="15"/>
+      <c r="TLI10" s="5"/>
+      <c r="TLN10" s="13"/>
+      <c r="TLO10" s="13"/>
+      <c r="TLP10" s="15"/>
+      <c r="TLQ10" s="5"/>
+      <c r="TLV10" s="13"/>
+      <c r="TLW10" s="13"/>
+      <c r="TLX10" s="15"/>
+      <c r="TLY10" s="5"/>
+      <c r="TMD10" s="13"/>
+      <c r="TME10" s="13"/>
+      <c r="TMF10" s="15"/>
+      <c r="TMG10" s="5"/>
+      <c r="TML10" s="13"/>
+      <c r="TMM10" s="13"/>
+      <c r="TMN10" s="15"/>
+      <c r="TMO10" s="5"/>
+      <c r="TMT10" s="13"/>
+      <c r="TMU10" s="13"/>
+      <c r="TMV10" s="15"/>
+      <c r="TMW10" s="5"/>
+      <c r="TNB10" s="13"/>
+      <c r="TNC10" s="13"/>
+      <c r="TND10" s="15"/>
+      <c r="TNE10" s="5"/>
+      <c r="TNJ10" s="13"/>
+      <c r="TNK10" s="13"/>
+      <c r="TNL10" s="15"/>
+      <c r="TNM10" s="5"/>
+      <c r="TNR10" s="13"/>
+      <c r="TNS10" s="13"/>
+      <c r="TNT10" s="15"/>
+      <c r="TNU10" s="5"/>
+      <c r="TNZ10" s="13"/>
+      <c r="TOA10" s="13"/>
+      <c r="TOB10" s="15"/>
+      <c r="TOC10" s="5"/>
+      <c r="TOH10" s="13"/>
+      <c r="TOI10" s="13"/>
+      <c r="TOJ10" s="15"/>
+      <c r="TOK10" s="5"/>
+      <c r="TOP10" s="13"/>
+      <c r="TOQ10" s="13"/>
+      <c r="TOR10" s="15"/>
+      <c r="TOS10" s="5"/>
+      <c r="TOX10" s="13"/>
+      <c r="TOY10" s="13"/>
+      <c r="TOZ10" s="15"/>
+      <c r="TPA10" s="5"/>
+      <c r="TPF10" s="13"/>
+      <c r="TPG10" s="13"/>
+      <c r="TPH10" s="15"/>
+      <c r="TPI10" s="5"/>
+      <c r="TPN10" s="13"/>
+      <c r="TPO10" s="13"/>
+      <c r="TPP10" s="15"/>
+      <c r="TPQ10" s="5"/>
+      <c r="TPV10" s="13"/>
+      <c r="TPW10" s="13"/>
+      <c r="TPX10" s="15"/>
+      <c r="TPY10" s="5"/>
+      <c r="TQD10" s="13"/>
+      <c r="TQE10" s="13"/>
+      <c r="TQF10" s="15"/>
+      <c r="TQG10" s="5"/>
+      <c r="TQL10" s="13"/>
+      <c r="TQM10" s="13"/>
+      <c r="TQN10" s="15"/>
+      <c r="TQO10" s="5"/>
+      <c r="TQT10" s="13"/>
+      <c r="TQU10" s="13"/>
+      <c r="TQV10" s="15"/>
+      <c r="TQW10" s="5"/>
+      <c r="TRB10" s="13"/>
+      <c r="TRC10" s="13"/>
+      <c r="TRD10" s="15"/>
+      <c r="TRE10" s="5"/>
+      <c r="TRJ10" s="13"/>
+      <c r="TRK10" s="13"/>
+      <c r="TRL10" s="15"/>
+      <c r="TRM10" s="5"/>
+      <c r="TRR10" s="13"/>
+      <c r="TRS10" s="13"/>
+      <c r="TRT10" s="15"/>
+      <c r="TRU10" s="5"/>
+      <c r="TRZ10" s="13"/>
+      <c r="TSA10" s="13"/>
+      <c r="TSB10" s="15"/>
+      <c r="TSC10" s="5"/>
+      <c r="TSH10" s="13"/>
+      <c r="TSI10" s="13"/>
+      <c r="TSJ10" s="15"/>
+      <c r="TSK10" s="5"/>
+      <c r="TSP10" s="13"/>
+      <c r="TSQ10" s="13"/>
+      <c r="TSR10" s="15"/>
+      <c r="TSS10" s="5"/>
+      <c r="TSX10" s="13"/>
+      <c r="TSY10" s="13"/>
+      <c r="TSZ10" s="15"/>
+      <c r="TTA10" s="5"/>
+      <c r="TTF10" s="13"/>
+      <c r="TTG10" s="13"/>
+      <c r="TTH10" s="15"/>
+      <c r="TTI10" s="5"/>
+      <c r="TTN10" s="13"/>
+      <c r="TTO10" s="13"/>
+      <c r="TTP10" s="15"/>
+      <c r="TTQ10" s="5"/>
+      <c r="TTV10" s="13"/>
+      <c r="TTW10" s="13"/>
+      <c r="TTX10" s="15"/>
+      <c r="TTY10" s="5"/>
+      <c r="TUD10" s="13"/>
+      <c r="TUE10" s="13"/>
+      <c r="TUF10" s="15"/>
+      <c r="TUG10" s="5"/>
+      <c r="TUL10" s="13"/>
+      <c r="TUM10" s="13"/>
+      <c r="TUN10" s="15"/>
+      <c r="TUO10" s="5"/>
+      <c r="TUT10" s="13"/>
+      <c r="TUU10" s="13"/>
+      <c r="TUV10" s="15"/>
+      <c r="TUW10" s="5"/>
+      <c r="TVB10" s="13"/>
+      <c r="TVC10" s="13"/>
+      <c r="TVD10" s="15"/>
+      <c r="TVE10" s="5"/>
+      <c r="TVJ10" s="13"/>
+      <c r="TVK10" s="13"/>
+      <c r="TVL10" s="15"/>
+      <c r="TVM10" s="5"/>
+      <c r="TVR10" s="13"/>
+      <c r="TVS10" s="13"/>
+      <c r="TVT10" s="15"/>
+      <c r="TVU10" s="5"/>
+      <c r="TVZ10" s="13"/>
+      <c r="TWA10" s="13"/>
+      <c r="TWB10" s="15"/>
+      <c r="TWC10" s="5"/>
+      <c r="TWH10" s="13"/>
+      <c r="TWI10" s="13"/>
+      <c r="TWJ10" s="15"/>
+      <c r="TWK10" s="5"/>
+      <c r="TWP10" s="13"/>
+      <c r="TWQ10" s="13"/>
+      <c r="TWR10" s="15"/>
+      <c r="TWS10" s="5"/>
+      <c r="TWX10" s="13"/>
+      <c r="TWY10" s="13"/>
+      <c r="TWZ10" s="15"/>
+      <c r="TXA10" s="5"/>
+      <c r="TXF10" s="13"/>
+      <c r="TXG10" s="13"/>
+      <c r="TXH10" s="15"/>
+      <c r="TXI10" s="5"/>
+      <c r="TXN10" s="13"/>
+      <c r="TXO10" s="13"/>
+      <c r="TXP10" s="15"/>
+      <c r="TXQ10" s="5"/>
+      <c r="TXV10" s="13"/>
+      <c r="TXW10" s="13"/>
+      <c r="TXX10" s="15"/>
+      <c r="TXY10" s="5"/>
+      <c r="TYD10" s="13"/>
+      <c r="TYE10" s="13"/>
+      <c r="TYF10" s="15"/>
+      <c r="TYG10" s="5"/>
+      <c r="TYL10" s="13"/>
+      <c r="TYM10" s="13"/>
+      <c r="TYN10" s="15"/>
+      <c r="TYO10" s="5"/>
+      <c r="TYT10" s="13"/>
+      <c r="TYU10" s="13"/>
+      <c r="TYV10" s="15"/>
+      <c r="TYW10" s="5"/>
+      <c r="TZB10" s="13"/>
+      <c r="TZC10" s="13"/>
+      <c r="TZD10" s="15"/>
+      <c r="TZE10" s="5"/>
+      <c r="TZJ10" s="13"/>
+      <c r="TZK10" s="13"/>
+      <c r="TZL10" s="15"/>
+      <c r="TZM10" s="5"/>
+      <c r="TZR10" s="13"/>
+      <c r="TZS10" s="13"/>
+      <c r="TZT10" s="15"/>
+      <c r="TZU10" s="5"/>
+      <c r="TZZ10" s="13"/>
+      <c r="UAA10" s="13"/>
+      <c r="UAB10" s="15"/>
+      <c r="UAC10" s="5"/>
+      <c r="UAH10" s="13"/>
+      <c r="UAI10" s="13"/>
+      <c r="UAJ10" s="15"/>
+      <c r="UAK10" s="5"/>
+      <c r="UAP10" s="13"/>
+      <c r="UAQ10" s="13"/>
+      <c r="UAR10" s="15"/>
+      <c r="UAS10" s="5"/>
+      <c r="UAX10" s="13"/>
+      <c r="UAY10" s="13"/>
+      <c r="UAZ10" s="15"/>
+      <c r="UBA10" s="5"/>
+      <c r="UBF10" s="13"/>
+      <c r="UBG10" s="13"/>
+      <c r="UBH10" s="15"/>
+      <c r="UBI10" s="5"/>
+      <c r="UBN10" s="13"/>
+      <c r="UBO10" s="13"/>
+      <c r="UBP10" s="15"/>
+      <c r="UBQ10" s="5"/>
+      <c r="UBV10" s="13"/>
+      <c r="UBW10" s="13"/>
+      <c r="UBX10" s="15"/>
+      <c r="UBY10" s="5"/>
+      <c r="UCD10" s="13"/>
+      <c r="UCE10" s="13"/>
+      <c r="UCF10" s="15"/>
+      <c r="UCG10" s="5"/>
+      <c r="UCL10" s="13"/>
+      <c r="UCM10" s="13"/>
+      <c r="UCN10" s="15"/>
+      <c r="UCO10" s="5"/>
+      <c r="UCT10" s="13"/>
+      <c r="UCU10" s="13"/>
+      <c r="UCV10" s="15"/>
+      <c r="UCW10" s="5"/>
+      <c r="UDB10" s="13"/>
+      <c r="UDC10" s="13"/>
+      <c r="UDD10" s="15"/>
+      <c r="UDE10" s="5"/>
+      <c r="UDJ10" s="13"/>
+      <c r="UDK10" s="13"/>
+      <c r="UDL10" s="15"/>
+      <c r="UDM10" s="5"/>
+      <c r="UDR10" s="13"/>
+      <c r="UDS10" s="13"/>
+      <c r="UDT10" s="15"/>
+      <c r="UDU10" s="5"/>
+      <c r="UDZ10" s="13"/>
+      <c r="UEA10" s="13"/>
+      <c r="UEB10" s="15"/>
+      <c r="UEC10" s="5"/>
+      <c r="UEH10" s="13"/>
+      <c r="UEI10" s="13"/>
+      <c r="UEJ10" s="15"/>
+      <c r="UEK10" s="5"/>
+      <c r="UEP10" s="13"/>
+      <c r="UEQ10" s="13"/>
+      <c r="UER10" s="15"/>
+      <c r="UES10" s="5"/>
+      <c r="UEX10" s="13"/>
+      <c r="UEY10" s="13"/>
+      <c r="UEZ10" s="15"/>
+      <c r="UFA10" s="5"/>
+      <c r="UFF10" s="13"/>
+      <c r="UFG10" s="13"/>
+      <c r="UFH10" s="15"/>
+      <c r="UFI10" s="5"/>
+      <c r="UFN10" s="13"/>
+      <c r="UFO10" s="13"/>
+      <c r="UFP10" s="15"/>
+      <c r="UFQ10" s="5"/>
+      <c r="UFV10" s="13"/>
+      <c r="UFW10" s="13"/>
+      <c r="UFX10" s="15"/>
+      <c r="UFY10" s="5"/>
+      <c r="UGD10" s="13"/>
+      <c r="UGE10" s="13"/>
+      <c r="UGF10" s="15"/>
+      <c r="UGG10" s="5"/>
+      <c r="UGL10" s="13"/>
+      <c r="UGM10" s="13"/>
+      <c r="UGN10" s="15"/>
+      <c r="UGO10" s="5"/>
+      <c r="UGT10" s="13"/>
+      <c r="UGU10" s="13"/>
+      <c r="UGV10" s="15"/>
+      <c r="UGW10" s="5"/>
+      <c r="UHB10" s="13"/>
+      <c r="UHC10" s="13"/>
+      <c r="UHD10" s="15"/>
+      <c r="UHE10" s="5"/>
+      <c r="UHJ10" s="13"/>
+      <c r="UHK10" s="13"/>
+      <c r="UHL10" s="15"/>
+      <c r="UHM10" s="5"/>
+      <c r="UHR10" s="13"/>
+      <c r="UHS10" s="13"/>
+      <c r="UHT10" s="15"/>
+      <c r="UHU10" s="5"/>
+      <c r="UHZ10" s="13"/>
+      <c r="UIA10" s="13"/>
+      <c r="UIB10" s="15"/>
+      <c r="UIC10" s="5"/>
+      <c r="UIH10" s="13"/>
+      <c r="UII10" s="13"/>
+      <c r="UIJ10" s="15"/>
+      <c r="UIK10" s="5"/>
+      <c r="UIP10" s="13"/>
+      <c r="UIQ10" s="13"/>
+      <c r="UIR10" s="15"/>
+      <c r="UIS10" s="5"/>
+      <c r="UIX10" s="13"/>
+      <c r="UIY10" s="13"/>
+      <c r="UIZ10" s="15"/>
+      <c r="UJA10" s="5"/>
+      <c r="UJF10" s="13"/>
+      <c r="UJG10" s="13"/>
+      <c r="UJH10" s="15"/>
+      <c r="UJI10" s="5"/>
+      <c r="UJN10" s="13"/>
+      <c r="UJO10" s="13"/>
+      <c r="UJP10" s="15"/>
+      <c r="UJQ10" s="5"/>
+      <c r="UJV10" s="13"/>
+      <c r="UJW10" s="13"/>
+      <c r="UJX10" s="15"/>
+      <c r="UJY10" s="5"/>
+      <c r="UKD10" s="13"/>
+      <c r="UKE10" s="13"/>
+      <c r="UKF10" s="15"/>
+      <c r="UKG10" s="5"/>
+      <c r="UKL10" s="13"/>
+      <c r="UKM10" s="13"/>
+      <c r="UKN10" s="15"/>
+      <c r="UKO10" s="5"/>
+      <c r="UKT10" s="13"/>
+      <c r="UKU10" s="13"/>
+      <c r="UKV10" s="15"/>
+      <c r="UKW10" s="5"/>
+      <c r="ULB10" s="13"/>
+      <c r="ULC10" s="13"/>
+      <c r="ULD10" s="15"/>
+      <c r="ULE10" s="5"/>
+      <c r="ULJ10" s="13"/>
+      <c r="ULK10" s="13"/>
+      <c r="ULL10" s="15"/>
+      <c r="ULM10" s="5"/>
+      <c r="ULR10" s="13"/>
+      <c r="ULS10" s="13"/>
+      <c r="ULT10" s="15"/>
+      <c r="ULU10" s="5"/>
+      <c r="ULZ10" s="13"/>
+      <c r="UMA10" s="13"/>
+      <c r="UMB10" s="15"/>
+      <c r="UMC10" s="5"/>
+      <c r="UMH10" s="13"/>
+      <c r="UMI10" s="13"/>
+      <c r="UMJ10" s="15"/>
+      <c r="UMK10" s="5"/>
+      <c r="UMP10" s="13"/>
+      <c r="UMQ10" s="13"/>
+      <c r="UMR10" s="15"/>
+      <c r="UMS10" s="5"/>
+      <c r="UMX10" s="13"/>
+      <c r="UMY10" s="13"/>
+      <c r="UMZ10" s="15"/>
+      <c r="UNA10" s="5"/>
+      <c r="UNF10" s="13"/>
+      <c r="UNG10" s="13"/>
+      <c r="UNH10" s="15"/>
+      <c r="UNI10" s="5"/>
+      <c r="UNN10" s="13"/>
+      <c r="UNO10" s="13"/>
+      <c r="UNP10" s="15"/>
+      <c r="UNQ10" s="5"/>
+      <c r="UNV10" s="13"/>
+      <c r="UNW10" s="13"/>
+      <c r="UNX10" s="15"/>
+      <c r="UNY10" s="5"/>
+      <c r="UOD10" s="13"/>
+      <c r="UOE10" s="13"/>
+      <c r="UOF10" s="15"/>
+      <c r="UOG10" s="5"/>
+      <c r="UOL10" s="13"/>
+      <c r="UOM10" s="13"/>
+      <c r="UON10" s="15"/>
+      <c r="UOO10" s="5"/>
+      <c r="UOT10" s="13"/>
+      <c r="UOU10" s="13"/>
+      <c r="UOV10" s="15"/>
+      <c r="UOW10" s="5"/>
+      <c r="UPB10" s="13"/>
+      <c r="UPC10" s="13"/>
+      <c r="UPD10" s="15"/>
+      <c r="UPE10" s="5"/>
+      <c r="UPJ10" s="13"/>
+      <c r="UPK10" s="13"/>
+      <c r="UPL10" s="15"/>
+      <c r="UPM10" s="5"/>
+      <c r="UPR10" s="13"/>
+      <c r="UPS10" s="13"/>
+      <c r="UPT10" s="15"/>
+      <c r="UPU10" s="5"/>
+      <c r="UPZ10" s="13"/>
+      <c r="UQA10" s="13"/>
+      <c r="UQB10" s="15"/>
+      <c r="UQC10" s="5"/>
+      <c r="UQH10" s="13"/>
+      <c r="UQI10" s="13"/>
+      <c r="UQJ10" s="15"/>
+      <c r="UQK10" s="5"/>
+      <c r="UQP10" s="13"/>
+      <c r="UQQ10" s="13"/>
+      <c r="UQR10" s="15"/>
+      <c r="UQS10" s="5"/>
+      <c r="UQX10" s="13"/>
+      <c r="UQY10" s="13"/>
+      <c r="UQZ10" s="15"/>
+      <c r="URA10" s="5"/>
+      <c r="URF10" s="13"/>
+      <c r="URG10" s="13"/>
+      <c r="URH10" s="15"/>
+      <c r="URI10" s="5"/>
+      <c r="URN10" s="13"/>
+      <c r="URO10" s="13"/>
+      <c r="URP10" s="15"/>
+      <c r="URQ10" s="5"/>
+      <c r="URV10" s="13"/>
+      <c r="URW10" s="13"/>
+      <c r="URX10" s="15"/>
+      <c r="URY10" s="5"/>
+      <c r="USD10" s="13"/>
+      <c r="USE10" s="13"/>
+      <c r="USF10" s="15"/>
+      <c r="USG10" s="5"/>
+      <c r="USL10" s="13"/>
+      <c r="USM10" s="13"/>
+      <c r="USN10" s="15"/>
+      <c r="USO10" s="5"/>
+      <c r="UST10" s="13"/>
+      <c r="USU10" s="13"/>
+      <c r="USV10" s="15"/>
+      <c r="USW10" s="5"/>
+      <c r="UTB10" s="13"/>
+      <c r="UTC10" s="13"/>
+      <c r="UTD10" s="15"/>
+      <c r="UTE10" s="5"/>
+      <c r="UTJ10" s="13"/>
+      <c r="UTK10" s="13"/>
+      <c r="UTL10" s="15"/>
+      <c r="UTM10" s="5"/>
+      <c r="UTR10" s="13"/>
+      <c r="UTS10" s="13"/>
+      <c r="UTT10" s="15"/>
+      <c r="UTU10" s="5"/>
+      <c r="UTZ10" s="13"/>
+      <c r="UUA10" s="13"/>
+      <c r="UUB10" s="15"/>
+      <c r="UUC10" s="5"/>
+      <c r="UUH10" s="13"/>
+      <c r="UUI10" s="13"/>
+      <c r="UUJ10" s="15"/>
+      <c r="UUK10" s="5"/>
+      <c r="UUP10" s="13"/>
+      <c r="UUQ10" s="13"/>
+      <c r="UUR10" s="15"/>
+      <c r="UUS10" s="5"/>
+      <c r="UUX10" s="13"/>
+      <c r="UUY10" s="13"/>
+      <c r="UUZ10" s="15"/>
+      <c r="UVA10" s="5"/>
+      <c r="UVF10" s="13"/>
+      <c r="UVG10" s="13"/>
+      <c r="UVH10" s="15"/>
+      <c r="UVI10" s="5"/>
+      <c r="UVN10" s="13"/>
+      <c r="UVO10" s="13"/>
+      <c r="UVP10" s="15"/>
+      <c r="UVQ10" s="5"/>
+      <c r="UVV10" s="13"/>
+      <c r="UVW10" s="13"/>
+      <c r="UVX10" s="15"/>
+      <c r="UVY10" s="5"/>
+      <c r="UWD10" s="13"/>
+      <c r="UWE10" s="13"/>
+      <c r="UWF10" s="15"/>
+      <c r="UWG10" s="5"/>
+      <c r="UWL10" s="13"/>
+      <c r="UWM10" s="13"/>
+      <c r="UWN10" s="15"/>
+      <c r="UWO10" s="5"/>
+      <c r="UWT10" s="13"/>
+      <c r="UWU10" s="13"/>
+      <c r="UWV10" s="15"/>
+      <c r="UWW10" s="5"/>
+      <c r="UXB10" s="13"/>
+      <c r="UXC10" s="13"/>
+      <c r="UXD10" s="15"/>
+      <c r="UXE10" s="5"/>
+      <c r="UXJ10" s="13"/>
+      <c r="UXK10" s="13"/>
+      <c r="UXL10" s="15"/>
+      <c r="UXM10" s="5"/>
+      <c r="UXR10" s="13"/>
+      <c r="UXS10" s="13"/>
+      <c r="UXT10" s="15"/>
+      <c r="UXU10" s="5"/>
+      <c r="UXZ10" s="13"/>
+      <c r="UYA10" s="13"/>
+      <c r="UYB10" s="15"/>
+      <c r="UYC10" s="5"/>
+      <c r="UYH10" s="13"/>
+      <c r="UYI10" s="13"/>
+      <c r="UYJ10" s="15"/>
+      <c r="UYK10" s="5"/>
+      <c r="UYP10" s="13"/>
+      <c r="UYQ10" s="13"/>
+      <c r="UYR10" s="15"/>
+      <c r="UYS10" s="5"/>
+      <c r="UYX10" s="13"/>
+      <c r="UYY10" s="13"/>
+      <c r="UYZ10" s="15"/>
+      <c r="UZA10" s="5"/>
+      <c r="UZF10" s="13"/>
+      <c r="UZG10" s="13"/>
+      <c r="UZH10" s="15"/>
+      <c r="UZI10" s="5"/>
+      <c r="UZN10" s="13"/>
+      <c r="UZO10" s="13"/>
+      <c r="UZP10" s="15"/>
+      <c r="UZQ10" s="5"/>
+      <c r="UZV10" s="13"/>
+      <c r="UZW10" s="13"/>
+      <c r="UZX10" s="15"/>
+      <c r="UZY10" s="5"/>
+      <c r="VAD10" s="13"/>
+      <c r="VAE10" s="13"/>
+      <c r="VAF10" s="15"/>
+      <c r="VAG10" s="5"/>
+      <c r="VAL10" s="13"/>
+      <c r="VAM10" s="13"/>
+      <c r="VAN10" s="15"/>
+      <c r="VAO10" s="5"/>
+      <c r="VAT10" s="13"/>
+      <c r="VAU10" s="13"/>
+      <c r="VAV10" s="15"/>
+      <c r="VAW10" s="5"/>
+      <c r="VBB10" s="13"/>
+      <c r="VBC10" s="13"/>
+      <c r="VBD10" s="15"/>
+      <c r="VBE10" s="5"/>
+      <c r="VBJ10" s="13"/>
+      <c r="VBK10" s="13"/>
+      <c r="VBL10" s="15"/>
+      <c r="VBM10" s="5"/>
+      <c r="VBR10" s="13"/>
+      <c r="VBS10" s="13"/>
+      <c r="VBT10" s="15"/>
+      <c r="VBU10" s="5"/>
+      <c r="VBZ10" s="13"/>
+      <c r="VCA10" s="13"/>
+      <c r="VCB10" s="15"/>
+      <c r="VCC10" s="5"/>
+      <c r="VCH10" s="13"/>
+      <c r="VCI10" s="13"/>
+      <c r="VCJ10" s="15"/>
+      <c r="VCK10" s="5"/>
+      <c r="VCP10" s="13"/>
+      <c r="VCQ10" s="13"/>
+      <c r="VCR10" s="15"/>
+      <c r="VCS10" s="5"/>
+      <c r="VCX10" s="13"/>
+      <c r="VCY10" s="13"/>
+      <c r="VCZ10" s="15"/>
+      <c r="VDA10" s="5"/>
+      <c r="VDF10" s="13"/>
+      <c r="VDG10" s="13"/>
+      <c r="VDH10" s="15"/>
+      <c r="VDI10" s="5"/>
+      <c r="VDN10" s="13"/>
+      <c r="VDO10" s="13"/>
+      <c r="VDP10" s="15"/>
+      <c r="VDQ10" s="5"/>
+      <c r="VDV10" s="13"/>
+      <c r="VDW10" s="13"/>
+      <c r="VDX10" s="15"/>
+      <c r="VDY10" s="5"/>
+      <c r="VED10" s="13"/>
+      <c r="VEE10" s="13"/>
+      <c r="VEF10" s="15"/>
+      <c r="VEG10" s="5"/>
+      <c r="VEL10" s="13"/>
+      <c r="VEM10" s="13"/>
+      <c r="VEN10" s="15"/>
+      <c r="VEO10" s="5"/>
+      <c r="VET10" s="13"/>
+      <c r="VEU10" s="13"/>
+      <c r="VEV10" s="15"/>
+      <c r="VEW10" s="5"/>
+      <c r="VFB10" s="13"/>
+      <c r="VFC10" s="13"/>
+      <c r="VFD10" s="15"/>
+      <c r="VFE10" s="5"/>
+      <c r="VFJ10" s="13"/>
+      <c r="VFK10" s="13"/>
+      <c r="VFL10" s="15"/>
+      <c r="VFM10" s="5"/>
+      <c r="VFR10" s="13"/>
+      <c r="VFS10" s="13"/>
+      <c r="VFT10" s="15"/>
+      <c r="VFU10" s="5"/>
+      <c r="VFZ10" s="13"/>
+      <c r="VGA10" s="13"/>
+      <c r="VGB10" s="15"/>
+      <c r="VGC10" s="5"/>
+      <c r="VGH10" s="13"/>
+      <c r="VGI10" s="13"/>
+      <c r="VGJ10" s="15"/>
+      <c r="VGK10" s="5"/>
+      <c r="VGP10" s="13"/>
+      <c r="VGQ10" s="13"/>
+      <c r="VGR10" s="15"/>
+      <c r="VGS10" s="5"/>
+      <c r="VGX10" s="13"/>
+      <c r="VGY10" s="13"/>
+      <c r="VGZ10" s="15"/>
+      <c r="VHA10" s="5"/>
+      <c r="VHF10" s="13"/>
+      <c r="VHG10" s="13"/>
+      <c r="VHH10" s="15"/>
+      <c r="VHI10" s="5"/>
+      <c r="VHN10" s="13"/>
+      <c r="VHO10" s="13"/>
+      <c r="VHP10" s="15"/>
+      <c r="VHQ10" s="5"/>
+      <c r="VHV10" s="13"/>
+      <c r="VHW10" s="13"/>
+      <c r="VHX10" s="15"/>
+      <c r="VHY10" s="5"/>
+      <c r="VID10" s="13"/>
+      <c r="VIE10" s="13"/>
+      <c r="VIF10" s="15"/>
+      <c r="VIG10" s="5"/>
+      <c r="VIL10" s="13"/>
+      <c r="VIM10" s="13"/>
+      <c r="VIN10" s="15"/>
+      <c r="VIO10" s="5"/>
+      <c r="VIT10" s="13"/>
+      <c r="VIU10" s="13"/>
+      <c r="VIV10" s="15"/>
+      <c r="VIW10" s="5"/>
+      <c r="VJB10" s="13"/>
+      <c r="VJC10" s="13"/>
+      <c r="VJD10" s="15"/>
+      <c r="VJE10" s="5"/>
+      <c r="VJJ10" s="13"/>
+      <c r="VJK10" s="13"/>
+      <c r="VJL10" s="15"/>
+      <c r="VJM10" s="5"/>
+      <c r="VJR10" s="13"/>
+      <c r="VJS10" s="13"/>
+      <c r="VJT10" s="15"/>
+      <c r="VJU10" s="5"/>
+      <c r="VJZ10" s="13"/>
+      <c r="VKA10" s="13"/>
+      <c r="VKB10" s="15"/>
+      <c r="VKC10" s="5"/>
+      <c r="VKH10" s="13"/>
+      <c r="VKI10" s="13"/>
+      <c r="VKJ10" s="15"/>
+      <c r="VKK10" s="5"/>
+      <c r="VKP10" s="13"/>
+      <c r="VKQ10" s="13"/>
+      <c r="VKR10" s="15"/>
+      <c r="VKS10" s="5"/>
+      <c r="VKX10" s="13"/>
+      <c r="VKY10" s="13"/>
+      <c r="VKZ10" s="15"/>
+      <c r="VLA10" s="5"/>
+      <c r="VLF10" s="13"/>
+      <c r="VLG10" s="13"/>
+      <c r="VLH10" s="15"/>
+      <c r="VLI10" s="5"/>
+      <c r="VLN10" s="13"/>
+      <c r="VLO10" s="13"/>
+      <c r="VLP10" s="15"/>
+      <c r="VLQ10" s="5"/>
+      <c r="VLV10" s="13"/>
+      <c r="VLW10" s="13"/>
+      <c r="VLX10" s="15"/>
+      <c r="VLY10" s="5"/>
+      <c r="VMD10" s="13"/>
+      <c r="VME10" s="13"/>
+      <c r="VMF10" s="15"/>
+      <c r="VMG10" s="5"/>
+      <c r="VML10" s="13"/>
+      <c r="VMM10" s="13"/>
+      <c r="VMN10" s="15"/>
+      <c r="VMO10" s="5"/>
+      <c r="VMT10" s="13"/>
+      <c r="VMU10" s="13"/>
+      <c r="VMV10" s="15"/>
+      <c r="VMW10" s="5"/>
+      <c r="VNB10" s="13"/>
+      <c r="VNC10" s="13"/>
+      <c r="VND10" s="15"/>
+      <c r="VNE10" s="5"/>
+      <c r="VNJ10" s="13"/>
+      <c r="VNK10" s="13"/>
+      <c r="VNL10" s="15"/>
+      <c r="VNM10" s="5"/>
+      <c r="VNR10" s="13"/>
+      <c r="VNS10" s="13"/>
+      <c r="VNT10" s="15"/>
+      <c r="VNU10" s="5"/>
+      <c r="VNZ10" s="13"/>
+      <c r="VOA10" s="13"/>
+      <c r="VOB10" s="15"/>
+      <c r="VOC10" s="5"/>
+      <c r="VOH10" s="13"/>
+      <c r="VOI10" s="13"/>
+      <c r="VOJ10" s="15"/>
+      <c r="VOK10" s="5"/>
+      <c r="VOP10" s="13"/>
+      <c r="VOQ10" s="13"/>
+      <c r="VOR10" s="15"/>
+      <c r="VOS10" s="5"/>
+      <c r="VOX10" s="13"/>
+      <c r="VOY10" s="13"/>
+      <c r="VOZ10" s="15"/>
+      <c r="VPA10" s="5"/>
+      <c r="VPF10" s="13"/>
+      <c r="VPG10" s="13"/>
+      <c r="VPH10" s="15"/>
+      <c r="VPI10" s="5"/>
+      <c r="VPN10" s="13"/>
+      <c r="VPO10" s="13"/>
+      <c r="VPP10" s="15"/>
+      <c r="VPQ10" s="5"/>
+      <c r="VPV10" s="13"/>
+      <c r="VPW10" s="13"/>
+      <c r="VPX10" s="15"/>
+      <c r="VPY10" s="5"/>
+      <c r="VQD10" s="13"/>
+      <c r="VQE10" s="13"/>
+      <c r="VQF10" s="15"/>
+      <c r="VQG10" s="5"/>
+      <c r="VQL10" s="13"/>
+      <c r="VQM10" s="13"/>
+      <c r="VQN10" s="15"/>
+      <c r="VQO10" s="5"/>
+      <c r="VQT10" s="13"/>
+      <c r="VQU10" s="13"/>
+      <c r="VQV10" s="15"/>
+      <c r="VQW10" s="5"/>
+      <c r="VRB10" s="13"/>
+      <c r="VRC10" s="13"/>
+      <c r="VRD10" s="15"/>
+      <c r="VRE10" s="5"/>
+      <c r="VRJ10" s="13"/>
+      <c r="VRK10" s="13"/>
+      <c r="VRL10" s="15"/>
+      <c r="VRM10" s="5"/>
+      <c r="VRR10" s="13"/>
+      <c r="VRS10" s="13"/>
+      <c r="VRT10" s="15"/>
+      <c r="VRU10" s="5"/>
+      <c r="VRZ10" s="13"/>
+      <c r="VSA10" s="13"/>
+      <c r="VSB10" s="15"/>
+      <c r="VSC10" s="5"/>
+      <c r="VSH10" s="13"/>
+      <c r="VSI10" s="13"/>
+      <c r="VSJ10" s="15"/>
+      <c r="VSK10" s="5"/>
+      <c r="VSP10" s="13"/>
+      <c r="VSQ10" s="13"/>
+      <c r="VSR10" s="15"/>
+      <c r="VSS10" s="5"/>
+      <c r="VSX10" s="13"/>
+      <c r="VSY10" s="13"/>
+      <c r="VSZ10" s="15"/>
+      <c r="VTA10" s="5"/>
+      <c r="VTF10" s="13"/>
+      <c r="VTG10" s="13"/>
+      <c r="VTH10" s="15"/>
+      <c r="VTI10" s="5"/>
+      <c r="VTN10" s="13"/>
+      <c r="VTO10" s="13"/>
+      <c r="VTP10" s="15"/>
+      <c r="VTQ10" s="5"/>
+      <c r="VTV10" s="13"/>
+      <c r="VTW10" s="13"/>
+      <c r="VTX10" s="15"/>
+      <c r="VTY10" s="5"/>
+      <c r="VUD10" s="13"/>
+      <c r="VUE10" s="13"/>
+      <c r="VUF10" s="15"/>
+      <c r="VUG10" s="5"/>
+      <c r="VUL10" s="13"/>
+      <c r="VUM10" s="13"/>
+      <c r="VUN10" s="15"/>
+      <c r="VUO10" s="5"/>
+      <c r="VUT10" s="13"/>
+      <c r="VUU10" s="13"/>
+      <c r="VUV10" s="15"/>
+      <c r="VUW10" s="5"/>
+      <c r="VVB10" s="13"/>
+      <c r="VVC10" s="13"/>
+      <c r="VVD10" s="15"/>
+      <c r="VVE10" s="5"/>
+      <c r="VVJ10" s="13"/>
+      <c r="VVK10" s="13"/>
+      <c r="VVL10" s="15"/>
+      <c r="VVM10" s="5"/>
+      <c r="VVR10" s="13"/>
+      <c r="VVS10" s="13"/>
+      <c r="VVT10" s="15"/>
+      <c r="VVU10" s="5"/>
+      <c r="VVZ10" s="13"/>
+      <c r="VWA10" s="13"/>
+      <c r="VWB10" s="15"/>
+      <c r="VWC10" s="5"/>
+      <c r="VWH10" s="13"/>
+      <c r="VWI10" s="13"/>
+      <c r="VWJ10" s="15"/>
+      <c r="VWK10" s="5"/>
+      <c r="VWP10" s="13"/>
+      <c r="VWQ10" s="13"/>
+      <c r="VWR10" s="15"/>
+      <c r="VWS10" s="5"/>
+      <c r="VWX10" s="13"/>
+      <c r="VWY10" s="13"/>
+      <c r="VWZ10" s="15"/>
+      <c r="VXA10" s="5"/>
+      <c r="VXF10" s="13"/>
+      <c r="VXG10" s="13"/>
+      <c r="VXH10" s="15"/>
+      <c r="VXI10" s="5"/>
+      <c r="VXN10" s="13"/>
+      <c r="VXO10" s="13"/>
+      <c r="VXP10" s="15"/>
+      <c r="VXQ10" s="5"/>
+      <c r="VXV10" s="13"/>
+      <c r="VXW10" s="13"/>
+      <c r="VXX10" s="15"/>
+      <c r="VXY10" s="5"/>
+      <c r="VYD10" s="13"/>
+      <c r="VYE10" s="13"/>
+      <c r="VYF10" s="15"/>
+      <c r="VYG10" s="5"/>
+      <c r="VYL10" s="13"/>
+      <c r="VYM10" s="13"/>
+      <c r="VYN10" s="15"/>
+      <c r="VYO10" s="5"/>
+      <c r="VYT10" s="13"/>
+      <c r="VYU10" s="13"/>
+      <c r="VYV10" s="15"/>
+      <c r="VYW10" s="5"/>
+      <c r="VZB10" s="13"/>
+      <c r="VZC10" s="13"/>
+      <c r="VZD10" s="15"/>
+      <c r="VZE10" s="5"/>
+      <c r="VZJ10" s="13"/>
+      <c r="VZK10" s="13"/>
+      <c r="VZL10" s="15"/>
+      <c r="VZM10" s="5"/>
+      <c r="VZR10" s="13"/>
+      <c r="VZS10" s="13"/>
+      <c r="VZT10" s="15"/>
+      <c r="VZU10" s="5"/>
+      <c r="VZZ10" s="13"/>
+      <c r="WAA10" s="13"/>
+      <c r="WAB10" s="15"/>
+      <c r="WAC10" s="5"/>
+      <c r="WAH10" s="13"/>
+      <c r="WAI10" s="13"/>
+      <c r="WAJ10" s="15"/>
+      <c r="WAK10" s="5"/>
+      <c r="WAP10" s="13"/>
+      <c r="WAQ10" s="13"/>
+      <c r="WAR10" s="15"/>
+      <c r="WAS10" s="5"/>
+      <c r="WAX10" s="13"/>
+      <c r="WAY10" s="13"/>
+      <c r="WAZ10" s="15"/>
+      <c r="WBA10" s="5"/>
+      <c r="WBF10" s="13"/>
+      <c r="WBG10" s="13"/>
+      <c r="WBH10" s="15"/>
+      <c r="WBI10" s="5"/>
+      <c r="WBN10" s="13"/>
+      <c r="WBO10" s="13"/>
+      <c r="WBP10" s="15"/>
+      <c r="WBQ10" s="5"/>
+      <c r="WBV10" s="13"/>
+      <c r="WBW10" s="13"/>
+      <c r="WBX10" s="15"/>
+      <c r="WBY10" s="5"/>
+      <c r="WCD10" s="13"/>
+      <c r="WCE10" s="13"/>
+      <c r="WCF10" s="15"/>
+      <c r="WCG10" s="5"/>
+      <c r="WCL10" s="13"/>
+      <c r="WCM10" s="13"/>
+      <c r="WCN10" s="15"/>
+      <c r="WCO10" s="5"/>
+      <c r="WCT10" s="13"/>
+      <c r="WCU10" s="13"/>
+      <c r="WCV10" s="15"/>
+      <c r="WCW10" s="5"/>
+      <c r="WDB10" s="13"/>
+      <c r="WDC10" s="13"/>
+      <c r="WDD10" s="15"/>
+      <c r="WDE10" s="5"/>
+      <c r="WDJ10" s="13"/>
+      <c r="WDK10" s="13"/>
+      <c r="WDL10" s="15"/>
+      <c r="WDM10" s="5"/>
+      <c r="WDR10" s="13"/>
+      <c r="WDS10" s="13"/>
+      <c r="WDT10" s="15"/>
+      <c r="WDU10" s="5"/>
+      <c r="WDZ10" s="13"/>
+      <c r="WEA10" s="13"/>
+      <c r="WEB10" s="15"/>
+      <c r="WEC10" s="5"/>
+      <c r="WEH10" s="13"/>
+      <c r="WEI10" s="13"/>
+      <c r="WEJ10" s="15"/>
+      <c r="WEK10" s="5"/>
+      <c r="WEP10" s="13"/>
+      <c r="WEQ10" s="13"/>
+      <c r="WER10" s="15"/>
+      <c r="WES10" s="5"/>
+      <c r="WEX10" s="13"/>
+      <c r="WEY10" s="13"/>
+      <c r="WEZ10" s="15"/>
+      <c r="WFA10" s="5"/>
+      <c r="WFF10" s="13"/>
+      <c r="WFG10" s="13"/>
+      <c r="WFH10" s="15"/>
+      <c r="WFI10" s="5"/>
+      <c r="WFN10" s="13"/>
+      <c r="WFO10" s="13"/>
+      <c r="WFP10" s="15"/>
+      <c r="WFQ10" s="5"/>
+      <c r="WFV10" s="13"/>
+      <c r="WFW10" s="13"/>
+      <c r="WFX10" s="15"/>
+      <c r="WFY10" s="5"/>
+      <c r="WGD10" s="13"/>
+      <c r="WGE10" s="13"/>
+      <c r="WGF10" s="15"/>
+      <c r="WGG10" s="5"/>
+      <c r="WGL10" s="13"/>
+      <c r="WGM10" s="13"/>
+      <c r="WGN10" s="15"/>
+      <c r="WGO10" s="5"/>
+      <c r="WGT10" s="13"/>
+      <c r="WGU10" s="13"/>
+      <c r="WGV10" s="15"/>
+      <c r="WGW10" s="5"/>
+      <c r="WHB10" s="13"/>
+      <c r="WHC10" s="13"/>
+      <c r="WHD10" s="15"/>
+      <c r="WHE10" s="5"/>
+      <c r="WHJ10" s="13"/>
+      <c r="WHK10" s="13"/>
+      <c r="WHL10" s="15"/>
+      <c r="WHM10" s="5"/>
+      <c r="WHR10" s="13"/>
+      <c r="WHS10" s="13"/>
+      <c r="WHT10" s="15"/>
+      <c r="WHU10" s="5"/>
+      <c r="WHZ10" s="13"/>
+      <c r="WIA10" s="13"/>
+      <c r="WIB10" s="15"/>
+      <c r="WIC10" s="5"/>
+      <c r="WIH10" s="13"/>
+      <c r="WII10" s="13"/>
+      <c r="WIJ10" s="15"/>
+      <c r="WIK10" s="5"/>
+      <c r="WIP10" s="13"/>
+      <c r="WIQ10" s="13"/>
+      <c r="WIR10" s="15"/>
+      <c r="WIS10" s="5"/>
+      <c r="WIX10" s="13"/>
+      <c r="WIY10" s="13"/>
+      <c r="WIZ10" s="15"/>
+      <c r="WJA10" s="5"/>
+      <c r="WJF10" s="13"/>
+      <c r="WJG10" s="13"/>
+      <c r="WJH10" s="15"/>
+      <c r="WJI10" s="5"/>
+      <c r="WJN10" s="13"/>
+      <c r="WJO10" s="13"/>
+      <c r="WJP10" s="15"/>
+      <c r="WJQ10" s="5"/>
+      <c r="WJV10" s="13"/>
+      <c r="WJW10" s="13"/>
+      <c r="WJX10" s="15"/>
+      <c r="WJY10" s="5"/>
+      <c r="WKD10" s="13"/>
+      <c r="WKE10" s="13"/>
+      <c r="WKF10" s="15"/>
+      <c r="WKG10" s="5"/>
+      <c r="WKL10" s="13"/>
+      <c r="WKM10" s="13"/>
+      <c r="WKN10" s="15"/>
+      <c r="WKO10" s="5"/>
+      <c r="WKT10" s="13"/>
+      <c r="WKU10" s="13"/>
+      <c r="WKV10" s="15"/>
+      <c r="WKW10" s="5"/>
+      <c r="WLB10" s="13"/>
+      <c r="WLC10" s="13"/>
+      <c r="WLD10" s="15"/>
+      <c r="WLE10" s="5"/>
+      <c r="WLJ10" s="13"/>
+      <c r="WLK10" s="13"/>
+      <c r="WLL10" s="15"/>
+      <c r="WLM10" s="5"/>
+      <c r="WLR10" s="13"/>
+      <c r="WLS10" s="13"/>
+      <c r="WLT10" s="15"/>
+      <c r="WLU10" s="5"/>
+      <c r="WLZ10" s="13"/>
+      <c r="WMA10" s="13"/>
+      <c r="WMB10" s="15"/>
+      <c r="WMC10" s="5"/>
+      <c r="WMH10" s="13"/>
+      <c r="WMI10" s="13"/>
+      <c r="WMJ10" s="15"/>
+      <c r="WMK10" s="5"/>
+      <c r="WMP10" s="13"/>
+      <c r="WMQ10" s="13"/>
+      <c r="WMR10" s="15"/>
+      <c r="WMS10" s="5"/>
+      <c r="WMX10" s="13"/>
+      <c r="WMY10" s="13"/>
+      <c r="WMZ10" s="15"/>
+      <c r="WNA10" s="5"/>
+      <c r="WNF10" s="13"/>
+      <c r="WNG10" s="13"/>
+      <c r="WNH10" s="15"/>
+      <c r="WNI10" s="5"/>
+      <c r="WNN10" s="13"/>
+      <c r="WNO10" s="13"/>
+      <c r="WNP10" s="15"/>
+      <c r="WNQ10" s="5"/>
+      <c r="WNV10" s="13"/>
+      <c r="WNW10" s="13"/>
+      <c r="WNX10" s="15"/>
+      <c r="WNY10" s="5"/>
+      <c r="WOD10" s="13"/>
+      <c r="WOE10" s="13"/>
+      <c r="WOF10" s="15"/>
+      <c r="WOG10" s="5"/>
+      <c r="WOL10" s="13"/>
+      <c r="WOM10" s="13"/>
+      <c r="WON10" s="15"/>
+      <c r="WOO10" s="5"/>
+      <c r="WOT10" s="13"/>
+      <c r="WOU10" s="13"/>
+      <c r="WOV10" s="15"/>
+      <c r="WOW10" s="5"/>
+      <c r="WPB10" s="13"/>
+      <c r="WPC10" s="13"/>
+      <c r="WPD10" s="15"/>
+      <c r="WPE10" s="5"/>
+      <c r="WPJ10" s="13"/>
+      <c r="WPK10" s="13"/>
+      <c r="WPL10" s="15"/>
+      <c r="WPM10" s="5"/>
+      <c r="WPR10" s="13"/>
+      <c r="WPS10" s="13"/>
+      <c r="WPT10" s="15"/>
+      <c r="WPU10" s="5"/>
+      <c r="WPZ10" s="13"/>
+      <c r="WQA10" s="13"/>
+      <c r="WQB10" s="15"/>
+      <c r="WQC10" s="5"/>
+      <c r="WQH10" s="13"/>
+      <c r="WQI10" s="13"/>
+      <c r="WQJ10" s="15"/>
+      <c r="WQK10" s="5"/>
+      <c r="WQP10" s="13"/>
+      <c r="WQQ10" s="13"/>
+      <c r="WQR10" s="15"/>
+      <c r="WQS10" s="5"/>
+      <c r="WQX10" s="13"/>
+      <c r="WQY10" s="13"/>
+      <c r="WQZ10" s="15"/>
+      <c r="WRA10" s="5"/>
+      <c r="WRF10" s="13"/>
+      <c r="WRG10" s="13"/>
+      <c r="WRH10" s="15"/>
+      <c r="WRI10" s="5"/>
+      <c r="WRN10" s="13"/>
+      <c r="WRO10" s="13"/>
+      <c r="WRP10" s="15"/>
+      <c r="WRQ10" s="5"/>
+      <c r="WRV10" s="13"/>
+      <c r="WRW10" s="13"/>
+      <c r="WRX10" s="15"/>
+      <c r="WRY10" s="5"/>
+      <c r="WSD10" s="13"/>
+      <c r="WSE10" s="13"/>
+      <c r="WSF10" s="15"/>
+      <c r="WSG10" s="5"/>
+      <c r="WSL10" s="13"/>
+      <c r="WSM10" s="13"/>
+      <c r="WSN10" s="15"/>
+      <c r="WSO10" s="5"/>
+      <c r="WST10" s="13"/>
+      <c r="WSU10" s="13"/>
+      <c r="WSV10" s="15"/>
+      <c r="WSW10" s="5"/>
+      <c r="WTB10" s="13"/>
+      <c r="WTC10" s="13"/>
+      <c r="WTD10" s="15"/>
+      <c r="WTE10" s="5"/>
+      <c r="WTJ10" s="13"/>
+      <c r="WTK10" s="13"/>
+      <c r="WTL10" s="15"/>
+      <c r="WTM10" s="5"/>
+      <c r="WTR10" s="13"/>
+      <c r="WTS10" s="13"/>
+      <c r="WTT10" s="15"/>
+      <c r="WTU10" s="5"/>
+      <c r="WTZ10" s="13"/>
+      <c r="WUA10" s="13"/>
+      <c r="WUB10" s="15"/>
+      <c r="WUC10" s="5"/>
+      <c r="WUH10" s="13"/>
+      <c r="WUI10" s="13"/>
+      <c r="WUJ10" s="15"/>
+      <c r="WUK10" s="5"/>
+      <c r="WUP10" s="13"/>
+      <c r="WUQ10" s="13"/>
+      <c r="WUR10" s="15"/>
+      <c r="WUS10" s="5"/>
+      <c r="WUX10" s="13"/>
+      <c r="WUY10" s="13"/>
+      <c r="WUZ10" s="15"/>
+      <c r="WVA10" s="5"/>
+      <c r="WVF10" s="13"/>
+      <c r="WVG10" s="13"/>
+      <c r="WVH10" s="15"/>
+      <c r="WVI10" s="5"/>
+      <c r="WVN10" s="13"/>
+      <c r="WVO10" s="13"/>
+      <c r="WVP10" s="15"/>
+      <c r="WVQ10" s="5"/>
+      <c r="WVV10" s="13"/>
+      <c r="WVW10" s="13"/>
+      <c r="WVX10" s="15"/>
+      <c r="WVY10" s="5"/>
+      <c r="WWD10" s="13"/>
+      <c r="WWE10" s="13"/>
+      <c r="WWF10" s="15"/>
+      <c r="WWG10" s="5"/>
+      <c r="WWL10" s="13"/>
+      <c r="WWM10" s="13"/>
+      <c r="WWN10" s="15"/>
+      <c r="WWO10" s="5"/>
+      <c r="WWT10" s="13"/>
+      <c r="WWU10" s="13"/>
+      <c r="WWV10" s="15"/>
+      <c r="WWW10" s="5"/>
+      <c r="WXB10" s="13"/>
+      <c r="WXC10" s="13"/>
+      <c r="WXD10" s="15"/>
+      <c r="WXE10" s="5"/>
+      <c r="WXJ10" s="13"/>
+      <c r="WXK10" s="13"/>
+      <c r="WXL10" s="15"/>
+      <c r="WXM10" s="5"/>
+      <c r="WXR10" s="13"/>
+      <c r="WXS10" s="13"/>
+      <c r="WXT10" s="15"/>
+      <c r="WXU10" s="5"/>
+      <c r="WXZ10" s="13"/>
+      <c r="WYA10" s="13"/>
+      <c r="WYB10" s="15"/>
+      <c r="WYC10" s="5"/>
+      <c r="WYH10" s="13"/>
+      <c r="WYI10" s="13"/>
+      <c r="WYJ10" s="15"/>
+      <c r="WYK10" s="5"/>
+      <c r="WYP10" s="13"/>
+      <c r="WYQ10" s="13"/>
+      <c r="WYR10" s="15"/>
+      <c r="WYS10" s="5"/>
+      <c r="WYX10" s="13"/>
+      <c r="WYY10" s="13"/>
+      <c r="WYZ10" s="15"/>
+      <c r="WZA10" s="5"/>
+      <c r="WZF10" s="13"/>
+      <c r="WZG10" s="13"/>
+      <c r="WZH10" s="15"/>
+      <c r="WZI10" s="5"/>
+      <c r="WZN10" s="13"/>
+      <c r="WZO10" s="13"/>
+      <c r="WZP10" s="15"/>
+      <c r="WZQ10" s="5"/>
+      <c r="WZV10" s="13"/>
+      <c r="WZW10" s="13"/>
+      <c r="WZX10" s="15"/>
+      <c r="WZY10" s="5"/>
+      <c r="XAD10" s="13"/>
+      <c r="XAE10" s="13"/>
+      <c r="XAF10" s="15"/>
+      <c r="XAG10" s="5"/>
+      <c r="XAL10" s="13"/>
+      <c r="XAM10" s="13"/>
+      <c r="XAN10" s="15"/>
+      <c r="XAO10" s="5"/>
+      <c r="XAT10" s="13"/>
+      <c r="XAU10" s="13"/>
+      <c r="XAV10" s="15"/>
+      <c r="XAW10" s="5"/>
+      <c r="XBB10" s="13"/>
+      <c r="XBC10" s="13"/>
+      <c r="XBD10" s="15"/>
+      <c r="XBE10" s="5"/>
+      <c r="XBJ10" s="13"/>
+      <c r="XBK10" s="13"/>
+      <c r="XBL10" s="15"/>
+      <c r="XBM10" s="5"/>
+      <c r="XBR10" s="13"/>
+      <c r="XBS10" s="13"/>
+      <c r="XBT10" s="15"/>
+      <c r="XBU10" s="5"/>
+      <c r="XBZ10" s="13"/>
+      <c r="XCA10" s="13"/>
+      <c r="XCB10" s="15"/>
+      <c r="XCC10" s="5"/>
+      <c r="XCH10" s="13"/>
+      <c r="XCI10" s="13"/>
+      <c r="XCJ10" s="15"/>
+      <c r="XCK10" s="5"/>
+      <c r="XCP10" s="13"/>
+      <c r="XCQ10" s="13"/>
+      <c r="XCR10" s="15"/>
+      <c r="XCS10" s="5"/>
+      <c r="XCX10" s="13"/>
+      <c r="XCY10" s="13"/>
+      <c r="XCZ10" s="15"/>
+      <c r="XDA10" s="5"/>
+      <c r="XDF10" s="13"/>
+      <c r="XDG10" s="13"/>
+      <c r="XDH10" s="15"/>
+      <c r="XDI10" s="5"/>
+      <c r="XDN10" s="13"/>
+      <c r="XDO10" s="13"/>
+      <c r="XDP10" s="15"/>
+      <c r="XDQ10" s="5"/>
+      <c r="XDV10" s="13"/>
+      <c r="XDW10" s="13"/>
+      <c r="XDX10" s="15"/>
+      <c r="XDY10" s="5"/>
+      <c r="XED10" s="13"/>
+      <c r="XEE10" s="13"/>
+      <c r="XEF10" s="15"/>
+      <c r="XEG10" s="5"/>
+      <c r="XEL10" s="13"/>
+      <c r="XEM10" s="13"/>
+      <c r="XEN10" s="15"/>
+      <c r="XEO10" s="5"/>
+      <c r="XET10" s="13"/>
+      <c r="XEU10" s="13"/>
+      <c r="XEV10" s="15"/>
+      <c r="XEW10" s="5"/>
+      <c r="XFB10" s="13"/>
+      <c r="XFC10" s="13"/>
+      <c r="XFD10" s="15"/>
+    </row>
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="C11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="13">
         <v>0.05</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="17"/>
+      <c r="H11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" ref="G11:G31" si="1">B11*F11</f>
-        <v>3.75</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F12" s="13">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="G12" s="13">
-        <f>B12*F12</f>
-        <v>0.78</v>
+        <f t="shared" ref="G12:G37" si="2">B12*F12</f>
+        <v>3.4499999999999997</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F13" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.26</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="1"/>
-        <v>1.6800000000000002</v>
+        <f>B13*F13</f>
+        <v>1.3</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="13">
-        <v>1.1100000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="1"/>
-        <v>2.2200000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.6800000000000002</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F15" s="13">
-        <v>0.39</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="1"/>
-        <v>0.39</v>
+        <f t="shared" si="2"/>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="13">
-        <v>0.23</v>
+        <v>0.39</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3800000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.39</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,26 +9538,26 @@
         <v>24</v>
       </c>
       <c r="B17" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F17" s="13">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>1.3800000000000001</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,13 +9565,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -1341,11 +9580,11 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,26 +9592,26 @@
         <v>24</v>
       </c>
       <c r="B19" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="13">
         <v>0.1</v>
       </c>
       <c r="G19" s="13">
-        <f>B19*F19</f>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1383,10 +9622,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>44</v>
@@ -1399,7 +9638,7 @@
         <v>0.4</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1407,13 +9646,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>44</v>
@@ -1423,10 +9662,10 @@
       </c>
       <c r="G21" s="13">
         <f>B21*F21</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1434,13 +9673,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>44</v>
@@ -1450,10 +9689,10 @@
       </c>
       <c r="G22" s="13">
         <f>B22*F22</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1461,13 +9700,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>44</v>
@@ -1476,11 +9715,11 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f>B23*F23</f>
+        <v>0.2</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1488,13 +9727,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>44</v>
@@ -1503,11 +9742,11 @@
         <v>0.1</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f>B24*F24</f>
+        <v>0.2</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1515,26 +9754,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="1"/>
-        <v>0.22</v>
+        <f>B25*F25</f>
+        <v>0.4</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1542,13 +9781,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>44</v>
@@ -1557,11 +9796,11 @@
         <v>0.1</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1569,13 +9808,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>44</v>
@@ -1584,11 +9823,11 @@
         <v>0.1</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1599,23 +9838,23 @@
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="13">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.22</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1626,23 +9865,23 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F29" s="13">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
+        <f t="shared" ref="G29" si="3">B29*F29</f>
+        <v>0.2</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1653,23 +9892,23 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="13">
-        <v>3.59</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" si="1"/>
-        <v>3.59</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1677,33 +9916,198 @@
         <v>24</v>
       </c>
       <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="13">
+        <v>3.59</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="2"/>
+        <v>3.59</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="G31" s="13">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>80</v>
+      <c r="F34" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G39" s="13">
-        <f>SUM(G7:G31)</f>
-        <v>62.45</v>
-      </c>
+        <f>SUM(G7:G37)</f>
+        <v>65.750000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1715,30 +10119,39 @@
     <hyperlink ref="H9" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H13" r:id="rId4"/>
-    <hyperlink ref="H16" r:id="rId5"/>
-    <hyperlink ref="H21" r:id="rId6"/>
-    <hyperlink ref="H25" r:id="rId7"/>
-    <hyperlink ref="H12" r:id="rId8"/>
-    <hyperlink ref="H30" r:id="rId9"/>
-    <hyperlink ref="H14" r:id="rId10"/>
-    <hyperlink ref="H23" r:id="rId11"/>
-    <hyperlink ref="H24" r:id="rId12"/>
-    <hyperlink ref="H26" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H31" r:id="rId15"/>
-    <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="H22" r:id="rId17"/>
-    <hyperlink ref="H28" r:id="rId18"/>
+    <hyperlink ref="H14" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H22" r:id="rId6"/>
+    <hyperlink ref="H28" r:id="rId7"/>
+    <hyperlink ref="H13" r:id="rId8"/>
+    <hyperlink ref="H33" r:id="rId9"/>
+    <hyperlink ref="H15" r:id="rId10"/>
+    <hyperlink ref="H26" r:id="rId11"/>
+    <hyperlink ref="H27" r:id="rId12"/>
+    <hyperlink ref="H30" r:id="rId13"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H11" r:id="rId15"/>
+    <hyperlink ref="H31" r:id="rId16"/>
+    <hyperlink ref="H21" r:id="rId17"/>
+    <hyperlink ref="H12" r:id="rId18"/>
     <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H27" r:id="rId20"/>
-    <hyperlink ref="H11" r:id="rId21"/>
-    <hyperlink ref="H19" r:id="rId22"/>
-    <hyperlink ref="H18" r:id="rId23"/>
-    <hyperlink ref="H17" r:id="rId24"/>
-    <hyperlink ref="H29" r:id="rId25"/>
+    <hyperlink ref="H19" r:id="rId20"/>
+    <hyperlink ref="H18" r:id="rId21"/>
+    <hyperlink ref="H32" r:id="rId22"/>
+    <hyperlink ref="H10" r:id="rId23"/>
+    <hyperlink ref="H23" r:id="rId24"/>
+    <hyperlink ref="H25" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId26"/>
+    <hyperlink ref="H24" r:id="rId27"/>
+    <hyperlink ref="H34" r:id="rId28"/>
+    <hyperlink ref="H35:H37" r:id="rId29" display="http://www.mouser.com/ProductDetail/Molex/90120-0762"/>
+    <hyperlink ref="H35" r:id="rId30"/>
+    <hyperlink ref="H37" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -188,15 +188,6 @@
     <t>http://www.mouser.com/ProductDetail/Microchip/PIC18F46K22-I-PT</t>
   </si>
   <si>
-    <t>TPS62163DSGR</t>
-  </si>
-  <si>
-    <t>WSON-8</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TPS62163DSGR</t>
-  </si>
-  <si>
     <t>2.2 µH Inductor</t>
   </si>
   <si>
@@ -408,6 +399,15 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Molex/90120-0766</t>
+  </si>
+  <si>
+    <t>TPS62160DGKR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/TPS62160DGKR</t>
+  </si>
+  <si>
+    <t>VSSOP8</t>
   </si>
 </sst>
 </file>
@@ -947,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:XFD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42649</v>
+        <v>42654</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>28</v>
@@ -1080,13 +1080,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
@@ -1096,7 +1096,7 @@
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1151,7 +1151,7 @@
         <v>3.33</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -1163,13 +1163,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="13">
         <v>5</v>
@@ -1179,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I10" s="5"/>
       <c r="N10" s="13"/>
@@ -9378,13 +9378,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="13">
         <v>0.05</v>
@@ -9394,7 +9394,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I11" s="17"/>
     </row>
@@ -9406,13 +9406,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="13">
         <v>0.15</v>
@@ -9422,7 +9422,7 @@
         <v>3.4499999999999997</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9439,7 +9439,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" s="13">
         <v>0.26</v>
@@ -9460,13 +9460,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="13">
         <v>0.56000000000000005</v>
@@ -9476,7 +9476,7 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9487,13 +9487,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="13">
         <v>1.1100000000000001</v>
@@ -9503,7 +9503,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9514,10 +9514,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -9530,7 +9530,7 @@
         <v>0.39</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -9557,7 +9557,7 @@
         <v>1.3800000000000001</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -9568,10 +9568,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -9584,7 +9584,7 @@
         <v>0.2</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -9595,10 +9595,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -9611,7 +9611,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -9634,7 +9634,7 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="13">
-        <f>B20*F20</f>
+        <f t="shared" ref="G20:G25" si="3">B20*F20</f>
         <v>0.4</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -9649,10 +9649,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>44</v>
@@ -9661,11 +9661,11 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="13">
-        <f>B21*F21</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -9688,7 +9688,7 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="13">
-        <f>B22*F22</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -9703,10 +9703,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>44</v>
@@ -9715,11 +9715,11 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="13">
-        <f>B23*F23</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -9730,10 +9730,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>44</v>
@@ -9742,11 +9742,11 @@
         <v>0.1</v>
       </c>
       <c r="G24" s="13">
-        <f>B24*F24</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -9757,10 +9757,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>44</v>
@@ -9769,11 +9769,11 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="13">
-        <f>B25*F25</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -9784,10 +9784,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>44</v>
@@ -9800,7 +9800,7 @@
         <v>0.2</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -9811,10 +9811,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>44</v>
@@ -9827,7 +9827,7 @@
         <v>0.1</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -9865,10 +9865,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>44</v>
@@ -9877,11 +9877,11 @@
         <v>0.1</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" ref="G29" si="3">B29*F29</f>
+        <f t="shared" ref="G29" si="4">B29*F29</f>
         <v>0.2</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -9892,10 +9892,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>44</v>
@@ -9908,7 +9908,7 @@
         <v>0.1</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -9919,10 +9919,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>44</v>
@@ -9935,7 +9935,7 @@
         <v>0.4</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -9946,13 +9946,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F32" s="13">
         <v>0.24</v>
@@ -9962,7 +9962,7 @@
         <v>0.48</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -10000,13 +10000,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="13">
         <v>0.5</v>
@@ -10016,7 +10016,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -10027,13 +10027,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" s="13">
         <v>0.69</v>
@@ -10043,7 +10043,7 @@
         <v>0.69</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -10054,13 +10054,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" s="13">
         <v>0.81</v>
@@ -10070,7 +10070,7 @@
         <v>0.81</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -10081,13 +10081,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F37" s="13">
         <v>0.81</v>
@@ -10097,7 +10097,7 @@
         <v>0.81</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -368,39 +368,6 @@
     <t>CRCW120651K0FKEA</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/90120-0762</t>
-  </si>
-  <si>
-    <t>2pos Header</t>
-  </si>
-  <si>
-    <t>90120-0792</t>
-  </si>
-  <si>
-    <t>90120-0794</t>
-  </si>
-  <si>
-    <t>90120-0795</t>
-  </si>
-  <si>
-    <t>90120-0796</t>
-  </si>
-  <si>
-    <t>6pos Header</t>
-  </si>
-  <si>
-    <t>5pos Header</t>
-  </si>
-  <si>
-    <t>4pos Header</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/90120-0764</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/90120-0766</t>
-  </si>
-  <si>
     <t>TPS62160DGKR</t>
   </si>
   <si>
@@ -408,6 +375,60 @@
   </si>
   <si>
     <t>VSSOP8</t>
+  </si>
+  <si>
+    <t>2pos WTB</t>
+  </si>
+  <si>
+    <t>53254-0270</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/53254-0270</t>
+  </si>
+  <si>
+    <t>5pos WTB</t>
+  </si>
+  <si>
+    <t>53254-0570</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/53254-0570</t>
+  </si>
+  <si>
+    <t>51065-0500</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/51065-0200</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/51065-0500</t>
+  </si>
+  <si>
+    <t>51065-0200</t>
+  </si>
+  <si>
+    <t>50212-8100</t>
+  </si>
+  <si>
+    <t>Wire Crimp</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/50212-8100</t>
+  </si>
+  <si>
+    <t>90121-0766</t>
+  </si>
+  <si>
+    <t>6pos Breakaway</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/90121-0766</t>
   </si>
 </sst>
 </file>
@@ -945,10 +966,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:XFD42"/>
+  <dimension ref="A1:XFD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1024,7 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42654</v>
+        <v>42665</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>28</v>
@@ -1080,13 +1101,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
@@ -1096,7 +1117,7 @@
         <v>3.86</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9418,7 +9439,7 @@
         <v>0.15</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:G37" si="2">B12*F12</f>
+        <f t="shared" ref="G12:G39" si="2">B12*F12</f>
         <v>3.4499999999999997</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -10000,23 +10021,23 @@
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="13">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -10027,23 +10048,23 @@
         <v>1</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F35" s="13">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="2"/>
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -10054,23 +10075,22 @@
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F36" s="13">
-        <v>0.81</v>
+        <v>0.13</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="2"/>
-        <v>0.81</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -10081,33 +10101,87 @@
         <v>1</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F37" s="13">
-        <v>0.81</v>
+        <v>0.13</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="2"/>
-        <v>0.81</v>
+        <v>0.13</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="6">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1.22</v>
+      </c>
       <c r="G39" s="13">
-        <f>SUM(G7:G37)</f>
-        <v>65.750000000000014</v>
+        <f t="shared" si="2"/>
+        <v>1.22</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G42" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="13">
+        <f>SUM(G7:G39)</f>
+        <v>66.640000000000015</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10147,9 +10221,12 @@
     <hyperlink ref="H35:H37" r:id="rId29" display="http://www.mouser.com/ProductDetail/Molex/90120-0762"/>
     <hyperlink ref="H35" r:id="rId30"/>
     <hyperlink ref="H37" r:id="rId31"/>
+    <hyperlink ref="H36" r:id="rId32"/>
+    <hyperlink ref="H38" r:id="rId33"/>
+    <hyperlink ref="H39" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -167,15 +167,9 @@
     <t>1N4148 Diode</t>
   </si>
   <si>
-    <t>C1608X7R1V105K080AE</t>
-  </si>
-  <si>
     <t>1 µF NP Capacitor</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/C1608X7R1V105K080AE</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -191,18 +185,12 @@
     <t>2.2 µH Inductor</t>
   </si>
   <si>
-    <t>CGA5L1X7R0J226M160AE</t>
-  </si>
-  <si>
     <t>22 µF NP Capacitor</t>
   </si>
   <si>
     <t>C1206</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/CGA5L1X7R0J226M160AE</t>
-  </si>
-  <si>
     <t>CRCW1206100KFKEA</t>
   </si>
   <si>
@@ -212,15 +200,9 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206100KFKEA</t>
   </si>
   <si>
-    <t>C3216X7R1C106M160AE</t>
-  </si>
-  <si>
     <t>10 µF NP Capacitor</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/TDK/C3216X7R1C106M160AE</t>
-  </si>
-  <si>
     <t>CRCW1206680KFKEA</t>
   </si>
   <si>
@@ -311,63 +293,15 @@
     <t>http://www.mouser.com/ProductDetail/TDK/MLF1608A2R2J</t>
   </si>
   <si>
-    <t>L1608</t>
-  </si>
-  <si>
-    <t>C1608</t>
-  </si>
-  <si>
-    <t>C0603X104K5RACTU</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Kemet/C0603X104K5RACTU</t>
-  </si>
-  <si>
-    <t>06033A470K4T2A</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/AVX/06033A470K4T2A</t>
-  </si>
-  <si>
     <t>OPA4188AIDR</t>
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Texas-Instruments/OPA4188AIDR</t>
   </si>
   <si>
-    <t>3.3 MΩ Resistor</t>
-  </si>
-  <si>
     <t>SOIC14</t>
   </si>
   <si>
-    <t>CRCW120620K0FKEA</t>
-  </si>
-  <si>
-    <t>20 kΩ Resistor</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120620K0FKEA</t>
-  </si>
-  <si>
-    <t>51 kΩ Resistor</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651K0FKEA</t>
-  </si>
-  <si>
-    <t>CRCW1206510KFKEA</t>
-  </si>
-  <si>
-    <t>510 kΩ Resistor</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW1206510KFKEA</t>
-  </si>
-  <si>
-    <t>CRCW120651K0FKEA</t>
-  </si>
-  <si>
     <t>TPS62160DGKR</t>
   </si>
   <si>
@@ -380,36 +314,12 @@
     <t>2pos WTB</t>
   </si>
   <si>
-    <t>53254-0270</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/53254-0270</t>
-  </si>
-  <si>
     <t>5pos WTB</t>
   </si>
   <si>
-    <t>53254-0570</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/53254-0570</t>
-  </si>
-  <si>
-    <t>51065-0500</t>
-  </si>
-  <si>
     <t>Connector</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/51065-0200</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/51065-0500</t>
-  </si>
-  <si>
-    <t>51065-0200</t>
-  </si>
-  <si>
     <t>50212-8100</t>
   </si>
   <si>
@@ -422,13 +332,76 @@
     <t>http://www.mouser.com/ProductDetail/Molex/50212-8100</t>
   </si>
   <si>
-    <t>90121-0766</t>
-  </si>
-  <si>
     <t>6pos Breakaway</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Molex/90121-0766</t>
+    <t>L0603</t>
+  </si>
+  <si>
+    <t>08055C104JAT2A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/AVX/08055C104JAT2A</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>08051A470JAT2A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/AVX/08051A470JAT2A</t>
+  </si>
+  <si>
+    <t>VJ0805Y105JXQTW1BC</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Vitramon/VJ0805Y105JXQTW1BC/</t>
+  </si>
+  <si>
+    <t>12063D106KAT2A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/AVX/12063D106KAT2A</t>
+  </si>
+  <si>
+    <t>GRM31CR61A226KE19L</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Murata-Electronics/GRM31CR61A226KE19L</t>
+  </si>
+  <si>
+    <t>22-05-3051</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-05-3051</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-01-2025</t>
+  </si>
+  <si>
+    <t>22-01-2025</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-05-3021</t>
+  </si>
+  <si>
+    <t>22-05-3021</t>
+  </si>
+  <si>
+    <t>22-01-2055</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-01-2055</t>
+  </si>
+  <si>
+    <t>22-28-8060</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-28-8060</t>
+  </si>
+  <si>
+    <t>1 MΩ Resistor</t>
   </si>
 </sst>
 </file>
@@ -966,10 +939,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:XFD48"/>
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -981,7 +954,7 @@
     <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="63" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="10" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="6"/>
     <col min="11" max="11" width="32.5" style="6" customWidth="1"/>
@@ -1024,7 +997,7 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42665</v>
+        <v>42679</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>28</v>
@@ -1098,26 +1071,26 @@
         <v>24</v>
       </c>
       <c r="B7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" ref="G7:G11" si="0">B7*F7</f>
-        <v>3.86</v>
+        <v>7.72</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
@@ -1125,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
@@ -1141,7 +1114,7 @@
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>16.739999999999998</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>31</v>
@@ -1153,10 +1126,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1169,10 +1142,10 @@
       </c>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>13.32</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -1181,26 +1154,26 @@
         <v>24</v>
       </c>
       <c r="B10" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F10" s="13">
         <v>5</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" ref="G10" si="1">B10*F10</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I10" s="5"/>
       <c r="N10" s="13"/>
@@ -9396,26 +9369,26 @@
         <v>24</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F11" s="13">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I11" s="17"/>
     </row>
@@ -9424,26 +9397,26 @@
         <v>24</v>
       </c>
       <c r="B12" s="6">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F12" s="13">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:G39" si="2">B12*F12</f>
-        <v>3.4499999999999997</v>
+        <f t="shared" ref="G12:G36" si="2">B12*F12</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9451,26 +9424,26 @@
         <v>24</v>
       </c>
       <c r="B13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F13" s="13">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="13">
         <f>B13*F13</f>
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9478,26 +9451,26 @@
         <v>24</v>
       </c>
       <c r="B14" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="2"/>
-        <v>1.6800000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9505,26 +9478,26 @@
         <v>24</v>
       </c>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="13">
-        <v>1.1100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="2"/>
-        <v>2.2200000000000002</v>
+        <v>1.28</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
@@ -9532,13 +9505,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -9548,10 +9521,10 @@
       </c>
       <c r="G16" s="13">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -9559,7 +9532,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
@@ -9575,10 +9548,10 @@
       </c>
       <c r="G17" s="13">
         <f t="shared" si="2"/>
-        <v>1.3800000000000001</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -9586,13 +9559,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -9602,10 +9575,10 @@
       </c>
       <c r="G18" s="13">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -9613,13 +9586,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>44</v>
@@ -9629,10 +9602,10 @@
       </c>
       <c r="G19" s="13">
         <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -9640,7 +9613,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>41</v>
@@ -9655,8 +9628,8 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ref="G20:G25" si="3">B20*F20</f>
-        <v>0.4</v>
+        <f t="shared" ref="G20:G23" si="3">B20*F20</f>
+        <v>0.8</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>43</v>
@@ -9667,13 +9640,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>44</v>
@@ -9683,10 +9656,10 @@
       </c>
       <c r="G21" s="13">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -9694,7 +9667,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>35</v>
@@ -9710,7 +9683,7 @@
       </c>
       <c r="G22" s="13">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>37</v>
@@ -9721,13 +9694,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>44</v>
@@ -9737,10 +9710,10 @@
       </c>
       <c r="G23" s="13">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -9748,13 +9721,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>44</v>
@@ -9763,11 +9736,11 @@
         <v>0.1</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -9775,13 +9748,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>44</v>
@@ -9790,11 +9763,11 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -9802,26 +9775,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="13">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -9829,13 +9802,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>44</v>
@@ -9845,10 +9818,10 @@
       </c>
       <c r="G27" s="13">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -9856,26 +9829,26 @@
         <v>24</v>
       </c>
       <c r="B28" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="2"/>
-        <v>0.22</v>
+        <v>1.6</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -9883,26 +9856,26 @@
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F29" s="13">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" ref="G29" si="4">B29*F29</f>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.96</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -9910,26 +9883,26 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F30" s="13">
-        <v>0.1</v>
+        <v>3.59</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>7.18</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -9937,26 +9910,26 @@
         <v>24</v>
       </c>
       <c r="B31" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F31" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -9967,23 +9940,23 @@
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F32" s="13">
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>1.08</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -9991,26 +9964,26 @@
         <v>24</v>
       </c>
       <c r="B33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F33" s="13">
-        <v>3.59</v>
+        <v>0.25</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="2"/>
-        <v>3.59</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -10018,26 +9991,26 @@
         <v>24</v>
       </c>
       <c r="B34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F34" s="13">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="2"/>
-        <v>0.19</v>
+        <v>0.78</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -10045,26 +10018,26 @@
         <v>24</v>
       </c>
       <c r="B35" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F35" s="13">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="2"/>
-        <v>0.31</v>
+        <v>3.5</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -10072,115 +10045,35 @@
         <v>24</v>
       </c>
       <c r="B36" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="2"/>
-        <v>0.13</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="6">
-        <v>7</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="13">
-        <v>1.22</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="2"/>
-        <v>1.22</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="G39" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G42" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G48" s="13">
-        <f>SUM(G7:G39)</f>
-        <v>66.640000000000015</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="13">
+        <f>SUM(G7:G36)</f>
+        <v>131.11999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10196,37 +10089,33 @@
     <hyperlink ref="H14" r:id="rId4"/>
     <hyperlink ref="H17" r:id="rId5"/>
     <hyperlink ref="H22" r:id="rId6"/>
-    <hyperlink ref="H28" r:id="rId7"/>
+    <hyperlink ref="H26" r:id="rId7"/>
     <hyperlink ref="H13" r:id="rId8"/>
-    <hyperlink ref="H33" r:id="rId9"/>
+    <hyperlink ref="H30" r:id="rId9"/>
     <hyperlink ref="H15" r:id="rId10"/>
-    <hyperlink ref="H26" r:id="rId11"/>
-    <hyperlink ref="H27" r:id="rId12"/>
-    <hyperlink ref="H30" r:id="rId13"/>
+    <hyperlink ref="H24" r:id="rId11"/>
+    <hyperlink ref="H25" r:id="rId12"/>
+    <hyperlink ref="H27" r:id="rId13"/>
     <hyperlink ref="H16" r:id="rId14"/>
     <hyperlink ref="H11" r:id="rId15"/>
-    <hyperlink ref="H31" r:id="rId16"/>
+    <hyperlink ref="H28" r:id="rId16"/>
     <hyperlink ref="H21" r:id="rId17"/>
     <hyperlink ref="H12" r:id="rId18"/>
     <hyperlink ref="H20" r:id="rId19"/>
     <hyperlink ref="H19" r:id="rId20"/>
     <hyperlink ref="H18" r:id="rId21"/>
-    <hyperlink ref="H32" r:id="rId22"/>
-    <hyperlink ref="H10" r:id="rId23"/>
-    <hyperlink ref="H23" r:id="rId24"/>
-    <hyperlink ref="H25" r:id="rId25"/>
-    <hyperlink ref="H29" r:id="rId26"/>
-    <hyperlink ref="H24" r:id="rId27"/>
-    <hyperlink ref="H34" r:id="rId28"/>
-    <hyperlink ref="H35:H37" r:id="rId29" display="http://www.mouser.com/ProductDetail/Molex/90120-0762"/>
-    <hyperlink ref="H35" r:id="rId30"/>
-    <hyperlink ref="H37" r:id="rId31"/>
-    <hyperlink ref="H36" r:id="rId32"/>
-    <hyperlink ref="H38" r:id="rId33"/>
-    <hyperlink ref="H39" r:id="rId34"/>
+    <hyperlink ref="H10" r:id="rId22"/>
+    <hyperlink ref="H23" r:id="rId23"/>
+    <hyperlink ref="H32" r:id="rId24"/>
+    <hyperlink ref="H34" r:id="rId25"/>
+    <hyperlink ref="H35" r:id="rId26"/>
+    <hyperlink ref="H36" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="H31" r:id="rId29"/>
+    <hyperlink ref="H33" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Desktop/Duke/BME464/Forms/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -402,16 +397,75 @@
   </si>
   <si>
     <t>1 MΩ Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digikey </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+PPTC031LGBN-RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 position receptacle </t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=PPTC031LGBN-RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PPTC021LGBN-RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 position receptacle </t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=PPTC021LGBN-RC</t>
+  </si>
+  <si>
+    <t>Custom Sports Sleeves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compression Sleeve for holding EMG electrodes </t>
+  </si>
+  <si>
+    <t>http://www.customsportssleeves.com/customized-arm-sleeve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would like text added to this. Font is to be "Tough". The text should read "MYON DECO". The color to be black, and the font color is white. The sleeve should be a size Medium for smaller arms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9V snap battery connector </t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/keystone-electronics/235/36-235-ND/303806</t>
+  </si>
+  <si>
+    <t>J152-ND</t>
+  </si>
+  <si>
+    <t>2 mm jack pin connectors (black)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/cinch-connectivity-solutions-johnson/108-0902-001/J151-ND/5929</t>
+  </si>
+  <si>
+    <t>J153-ND</t>
+  </si>
+  <si>
+    <t>2mm jack pin connectors (green)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/cinch-connectivity-solutions-johnson/108-0904-001/J153-ND/5931</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,6 +509,21 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,12 +551,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -529,8 +599,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,32 +1014,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="13" customWidth="1"/>
     <col min="8" max="8" width="66" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="6"/>
-    <col min="11" max="11" width="32.5" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="6"/>
+    <col min="9" max="9" width="60.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="6"/>
+    <col min="11" max="11" width="32.42578125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1060,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -991,13 +1069,13 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42679</v>
+        <v>42681</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>28</v>
@@ -1007,13 +1085,13 @@
       <c r="F3" s="20"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1144,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:16384" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1121,7 +1199,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1227,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -9364,7 +9442,7 @@
       <c r="XFC10" s="13"/>
       <c r="XFD10" s="15"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -9392,7 +9470,7 @@
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -9419,7 +9497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -9446,7 +9524,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -9473,7 +9551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -9500,7 +9578,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -9527,7 +9605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -9554,7 +9632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -9581,7 +9659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -9608,7 +9686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -9635,7 +9713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -9662,7 +9740,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -9689,7 +9767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -9716,7 +9794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -9743,7 +9821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -9770,7 +9848,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -9797,7 +9875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -9824,7 +9902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -9851,7 +9929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -9878,7 +9956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -9905,7 +9983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -9932,7 +10010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -9959,7 +10037,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -9986,7 +10064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -10013,7 +10091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
@@ -10040,7 +10118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -10067,10 +10145,145 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G39" s="6"/>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G38" s="13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="13">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="G39" s="23">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2</v>
+      </c>
+      <c r="C40" s="22">
+        <v>235</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G45" s="13">
         <f>SUM(G7:G36)</f>
         <v>131.11999999999998</v>
@@ -10113,9 +10326,10 @@
     <hyperlink ref="H29" r:id="rId28"/>
     <hyperlink ref="H31" r:id="rId29"/>
     <hyperlink ref="H33" r:id="rId30"/>
+    <hyperlink ref="H39" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>

--- a/Forms/Build_Order.xlsx
+++ b/Forms/Build_Order.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Desktop/Duke/BME464/Forms/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -252,12 +257,6 @@
     <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW120651R0FKEA</t>
   </si>
   <si>
-    <t>CRCW12065M10FKEA</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12065M10FKEA</t>
-  </si>
-  <si>
     <t>75 kΩ Resistor</t>
   </si>
   <si>
@@ -455,17 +454,23 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/cinch-connectivity-solutions-johnson/108-0904-001/J153-ND/5931</t>
+  </si>
+  <si>
+    <t>CRCW12061M00FKEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Dale/CRCW12061M00FKEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -524,13 +529,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -551,13 +568,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -595,10 +613,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -606,8 +620,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1014,32 +1035,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="13" customWidth="1"/>
     <col min="8" max="8" width="66" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="6"/>
-    <col min="11" max="11" width="32.42578125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="60.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="6"/>
+    <col min="11" max="11" width="32.5" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1081,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,29 +1090,29 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42681</v>
-      </c>
-      <c r="C3" s="20" t="s">
+        <v>42690</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1165,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1152,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="13">
         <v>1.93</v>
@@ -1168,10 +1189,10 @@
         <v>7.72</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1197,9 +1218,9 @@
       <c r="H8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1223,11 +1244,11 @@
         <v>13.32</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1235,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="13">
         <v>5</v>
@@ -1251,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="5"/>
       <c r="N10" s="13"/>
@@ -9442,7 +9463,7 @@
       <c r="XFC10" s="13"/>
       <c r="XFD10" s="15"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -9450,13 +9471,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="13">
         <v>0.1</v>
@@ -9466,11 +9487,11 @@
         <v>0.4</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -9478,13 +9499,13 @@
         <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="13">
         <v>0.1</v>
@@ -9494,10 +9515,10 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -9505,13 +9526,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="13">
         <v>0.1</v>
@@ -9521,10 +9542,10 @@
         <v>0.4</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -9532,7 +9553,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>57</v>
@@ -9548,37 +9569,37 @@
         <v>0.78</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="24">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="25">
         <v>0.32</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="25">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>113</v>
+      <c r="H15" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -9605,7 +9626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -9632,7 +9653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -9659,7 +9680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -9686,7 +9707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -9713,7 +9734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -9721,10 +9742,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>44</v>
@@ -9737,10 +9758,10 @@
         <v>0.8</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -9767,7 +9788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -9775,10 +9796,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>44</v>
@@ -9791,10 +9812,10 @@
         <v>0.8</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -9821,7 +9842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -9848,7 +9869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -9875,7 +9896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -9902,7 +9923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -9910,10 +9931,10 @@
         <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>44</v>
@@ -9926,10 +9947,10 @@
         <v>1.6</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -9937,13 +9958,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="13">
         <v>0.24</v>
@@ -9953,10 +9974,10 @@
         <v>0.96</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -9983,7 +10004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -9991,10 +10012,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>68</v>
@@ -10007,10 +10028,10 @@
         <v>0.6</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -10018,10 +10039,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>68</v>
@@ -10034,10 +10055,10 @@
         <v>1.08</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -10045,13 +10066,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="F33" s="13">
         <v>0.25</v>
@@ -10061,10 +10082,10 @@
         <v>0.5</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -10072,13 +10093,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="13">
         <v>0.39</v>
@@ -10088,10 +10109,10 @@
         <v>0.78</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
@@ -10099,13 +10120,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="F35" s="13">
         <v>0.25</v>
@@ -10115,10 +10136,10 @@
         <v>3.5</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -10126,10 +10147,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>68</v>
@@ -10142,21 +10163,21 @@
         <v>0.92</v>
       </c>
       <c r="H36" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="B37" s="6">
         <v>2</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>126</v>
+      <c r="C37" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F37" s="13">
         <v>0.65</v>
@@ -10165,21 +10186,21 @@
         <v>1.3</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="6">
         <v>4</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>129</v>
+      <c r="C38" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" s="13">
         <v>0.56999999999999995</v>
@@ -10188,44 +10209,44 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" s="13">
         <v>18.989999999999998</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="21">
         <v>18.989999999999998</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="6">
         <v>2</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="20">
         <v>235</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="13">
         <v>0.65</v>
@@ -10234,21 +10255,21 @@
         <v>1.3</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" s="6">
         <v>2</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="13">
         <v>0.65</v>
@@ -10257,21 +10278,21 @@
         <v>1.3</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F42" s="13">
         <v>0.63</v>
@@ -10280,10 +10301,10 @@
         <v>0.63</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G45" s="13">
         <f>SUM(G7:G36)</f>
         <v>131.11999999999998</v>
